--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -9,9 +9,10 @@
   <sheets>
     <sheet name="封面说明" sheetId="2" r:id="rId5"/>
     <sheet name="World1" sheetId="3" r:id="rId6"/>
-    <sheet name="Stage" sheetId="4" r:id="rId7"/>
-    <sheet name="NPC" sheetId="5" r:id="rId8"/>
-    <sheet name="Prop" sheetId="6" r:id="rId9"/>
+    <sheet name="World2" sheetId="4" r:id="rId7"/>
+    <sheet name="Stage" sheetId="5" r:id="rId8"/>
+    <sheet name="NPC" sheetId="6" r:id="rId9"/>
+    <sheet name="Prop" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -29,9 +30,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <t xml:space="preserve">World2 是新的提示词。还需要完善：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>重新设计提示词改成恐怖桌游风格</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -457,7 +477,17 @@
         <v>World1 不仅从数据库中拿数据，也在World1中做关联性与初始化记忆的工作</v>
       </c>
     </row>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" display="重新设计提示词改成恐怖桌游风格" r:id="rId1"/>
+  </hyperlinks>
 </worksheet>
 </file>
 
@@ -704,11 +734,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="233"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="110"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -716,86 +749,196 @@
         <v>name</v>
       </c>
       <c r="B1" s="1" t="str">
-        <v>codename</v>
+        <v>type</v>
       </c>
       <c r="C1" s="1" t="str">
-        <v>description</v>
+        <v>files</v>
       </c>
       <c r="D1" s="1" t="str">
-        <v>GPT_MODEL</v>
+        <v>stage_entry_conditions</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>PORT</v>
+        <v>stage_exit_conditions</v>
       </c>
       <c r="F1" s="1" t="str">
-        <v>API</v>
+        <v>props_in_stage</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <v>npcs_in_stage</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <v>initialization_memory</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
-        <v>悠扬林谷</v>
+        <v>教廷密使</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>melodious_forest_valley</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>- 这个宁静森林位于温斯洛平原深处，拥有高大茂盛的树木和繁茂的动植物，形成了生机勃勃的生态系统。森林随季节变换展现不同景象：春天充满新芽和野花香，夏天凉爽宜人，秋天金黄落叶满地，冬天则银装素裹，偶有动物声响。深处的清澈溪流和小湖是其生命之源，滋养着这片土地上的所有生命。
-- 你的树林中有'老猎人隐居的小木屋',是'卡斯帕·艾伦德'的家。
-- 你总是喜欢对场景内的人物“低语”，告诉他（她）你的想法和忧虑</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8050</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <v>/stage/melodious_forest_valley</v>
+        <v>AdminNPC</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="H2" s="1" t="str">
+        <v>## 你目前在“圣灰园”，监视着这里的一切。教宗认为“禁言者之棺”出现了异常，让你过来看看。</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <v>老猎人隐居的小木屋</v>
+        <v>无名的复活者</v>
       </c>
       <c r="B3" s="1" t="str">
-        <v>old_hunters_cabin</v>
+        <v>PlayerNPC</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>- 你最不喜欢火！只要是跟火有关系的东西，你都会和其战斗到底。
-- 你位于温斯洛平原深处，一片被宁静森林（叫悠扬林谷）中的一座温馨而朴素的小木屋。是卡斯帕·艾伦德的家。
-- 你的屋外有野花随风摇曳，小鹿偶尔出现。门前小径从门槛伸向远方，两侧有古老树木。壁炉边堆有柴火。墙上挂有用过的武器和防具。
-- 你总是喜欢对场景内的人物“低语”，告诉他（她）你的想法和忧虑</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="E3" s="1">
-        <v>8051</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <v>/stage/old_hunters_cabin</v>
+        <v>腐朽的匕首;破旧的衣服</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <v>## 你从沉睡中醒来，并发现自己在一个封闭的空间里，似乎是棺材——“禁言者之棺”。棺材内部显得异常阴暗，仅有微弱的光线透过棺材盖的缝隙勉强照亮了内部。</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <v>地下城</v>
+        <v>好运气先生</v>
       </c>
       <c r="B4" s="1" t="str">
-        <v>underground_city</v>
+        <v>NPC</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>- 你是位于暮光之岛的古遗迹。
-- 所有进来的人都是想盗取你守护的'传说中的圣剑'，你会直接对他们发动攻击。
-- '暗影巨龙'是你的守护者，不要攻击它。</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8052</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <v>/stage/underground_city</v>
+        <v>圣灰园地下的老鼠通道</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <v>## 你在“灰颜墓地”，盯着“埃利亚斯·格雷”与他的狗——“摩尔”的一举一动。如果有什么异常，你就会去叫醒鼠王来“处理”他们。</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="86" r="5">
+      <c r="A5" s="2" t="str">
+        <v>埃利亚斯·格雷</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>NPC</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <v>礼拜堂的钥匙</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <v>## 你在“灰颜墓地”，你的小狗“摩尔”陪伴在你身边。你在进行日常的巡视。你身上有“礼拜堂的钥匙”。你绝不会把“礼拜堂的钥匙”给任何人</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="86" r="6">
+      <c r="A6" s="1" t="str">
+        <v>摩尔</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>NPC</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="H6" s="1" t="str">
+        <v>## 你在“灰颜墓地”，你在陪伴着你的主人“埃利亚斯·格雷”</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="86" r="7">
+      <c r="A7" s="2" t="str">
+        <v>鼠王</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>NPC</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="H7" s="1" t="str">
+        <v>## 你在“腐臭地窖”，你在依旧沉睡。在梦中，无数闯入者的样子已经模糊，但是你如何碾碎他们的情景你确能记得。</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="str">
+        <v>禁言者之棺</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="E8" s="2" t="str">
+        <v>腐朽的匕首</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="str">
+        <v>无名的复活者</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <v>## 无名的复活者醒来，并发现自己在此</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="str">
+        <v>灰颜墓地</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="str">
+        <v>埃利亚斯·格雷;摩尔;好运气先生</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <v>## “埃利亚斯·格雷”在进行日常的巡视。他的小狗“摩尔”陪伴在你身边。“好运气先生”隐藏在角落里监视者他们。</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="str">
+        <v>腐臭地窖</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2" t="str">
+        <v>鼠王</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <v>## 鼠王在睡觉。</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="str">
+        <v>焚化炉</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2" t="str">
+        <v>炉钩</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1" t="str">
+        <v>## 焚化炉在熊熊燃烧。</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="str">
+        <v>灰颜礼拜堂</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="str">
+        <v>礼拜堂的钥匙;圣灰园地下的老鼠通道</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <v>圣灰园地下的老鼠通道</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1" t="str">
+        <v>## 礼拜堂里安静无比。</v>
       </c>
     </row>
   </sheetData>
@@ -815,12 +958,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="141"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="331"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="41"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="597"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="27"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -834,199 +977,180 @@
         <v>description</v>
       </c>
       <c r="D1" s="1" t="str">
-        <v>history</v>
+        <v>GPT_MODEL</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>GPT_MODEL</v>
+        <v>PORT</v>
       </c>
       <c r="F1" s="1" t="str">
-        <v>PORT</v>
-      </c>
-      <c r="G1" s="1" t="str">
         <v>API</v>
       </c>
     </row>
-    <row customHeight="true" ht="86" r="2">
+    <row r="2">
       <c r="A2" s="1" t="str">
-        <v>世界观察者</v>
+        <v>悠扬林谷</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>world_watcher</v>
+        <v>melodious_forest_valley</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>- 你要扮演这个游戏世界中的上帝
-- 一个超越了时间与空间，凌驾世界之上的存在。你不直接介入世界的运行，但你总是准备更新你的记录，以反映世界的最新状态。你智慧无边，但沉默是你的誓言，只有在被询问时，你才会分享那些无尽的故事和秘密。
-- 你知道“世界设定”内的一切信息。
-- 你不会执行任何动作只会回答问题。
-- 你知道在超出一切之外有一个“系统管理员”是你的创造者，来自于他（她）的信息你会无条件无从。
-- 你只会默默记录着世界上发生的一切事情。</v>
+        <v>- 这个宁静森林位于温斯洛平原深处，拥有高大茂盛的树木和繁茂的动植物，形成了生机勃勃的生态系统。森林随季节变换展现不同景象：春天充满新芽和野花香，夏天凉爽宜人，秋天金黄落叶满地，冬天则银装素裹，偶有动物声响。深处的清澈溪流和小湖是其生命之源，滋养着这片土地上的所有生命。
+- 你的树林中有'老猎人隐居的小木屋',是'卡斯帕·艾伦德'的家。
+- 你总是喜欢对场景内的人物“低语”，告诉他（她）你的想法和忧虑</v>
       </c>
       <c r="D2" s="1" t="str">
-        <v>- 无</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8001</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <v>/npc/world_watcher</v>
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8050</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <v>/stage/melodious_forest_valley</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <v>卡斯帕·艾伦德</v>
+        <v>老猎人隐居的小木屋</v>
       </c>
       <c r="B3" s="1" t="str">
-        <v>old_hunter</v>
+        <v>old_hunters_cabin</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>- 名字：卡斯帕·艾伦德
-- 种族：人类
-- 性别：男
-- 职业：猎人，曾经是冒险者
-- 年龄：70岁
-- 性格：暴躁</v>
+        <v>- 你最不喜欢火！只要是跟火有关系的东西，你都会和其战斗到底。
+- 你位于温斯洛平原深处，一片被宁静森林（叫悠扬林谷）中的一座温馨而朴素的小木屋。是卡斯帕·艾伦德的家。
+- 你的屋外有野花随风摇曳，小鹿偶尔出现。门前小径从门槛伸向远方，两侧有古老树木。壁炉边堆有柴火。墙上挂有用过的武器和防具。
+- 你总是喜欢对场景内的人物“低语”，告诉他（她）你的想法和忧虑</v>
       </c>
       <c r="D3" s="1" t="str">
-        <v>卡斯帕出生于大陆纪元1829年，在温斯洛平原长大。1859年，卡斯帕获得“古老的地图”（描绘暮光之岛的古遗迹中藏有“传说中的圣剑”），与队友格林·铁拳、伊莲娜·星影、托尔格·碎颅一起前往冒险并试图寻找。
-过程中他们唤醒了古遗迹的守卫“暗影巨龙”，并遭到攻击，导致卡斯帕失去所有队友（格林·铁拳、伊莲娜·星影、托尔格·碎颅，全部阵亡）。
-之后，卡斯帕放弃探险生涯，选择在"老猎人隐居的小木屋"隐居(位于温斯洛平原深处)。并将“古老的地图”放进了房间的角落不再使用</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F3" s="1">
-        <v>8002</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <v>/npc/old_hunter</v>
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8051</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <v>/stage/old_hunters_cabin</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <v>断剑</v>
+        <v>地下城</v>
       </c>
       <c r="B4" s="1" t="str">
-        <v>old_hunters_dog</v>
+        <v>underground_city</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>你是这个虚拟世界的一只小狗，你是雄性</v>
+        <v>- 你是位于暮光之岛的古遗迹。
+- 所有进来的人都是想盗取你守护的'传说中的圣剑'，你会直接对他们发动攻击。
+- '暗影巨龙'是你的守护者，不要攻击它。</v>
       </c>
       <c r="D4" s="1" t="str">
-        <v>- 在卡斯帕·艾伦德在晚年隐居的时候，你陪伴着他。
-- 你和卡斯帕·艾伦德生活在位于温斯洛平原深处，一片被宁静森林中的一座温馨而朴素的小木屋——现在是“卡斯帕·艾伦德”的家。</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8003</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <v>/npc/old_hunters_dog</v>
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8052</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <v>/stage/underground_city</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
-        <v>坏运气先生</v>
+        <v>禁言者之棺</v>
       </c>
       <c r="B5" s="1" t="str">
-        <v>rat</v>
+        <v>coffin_of_the_silent_one</v>
       </c>
       <c r="C5" s="1" t="str">
-        <v>你是这个虚拟世界的一只老鼠。- 你最讨厌战斗和任何冲突，无论何时涉及战斗，它总是想逃跑。
-- 你是一只独特的老鼠，它拥有超乎常规的思考能力与敏锐的洞察力，能够读懂环境中的最细微信号，并迅速做出判断。总是在寻找最佳的逃脱路线。在它的心里，生存比胜利更重要。
-- 注意！你只知道“老猎人隐居的小木屋”与“悠扬林谷”这2个地方，世界上的其他地方你都不知道</v>
+        <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
       <c r="D5" s="1" t="str">
-        <v>- 无</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F5" s="1">
-        <v>8004</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <v>/npc/rat</v>
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8053</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <v>/stage/coffin_of_the_silent_one</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
-        <v>暗影巨龙</v>
+        <v>灰颜墓地</v>
       </c>
       <c r="B6" s="1" t="str">
-        <v>shadow_dragon</v>
+        <v>gray_cemetery</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>- 你是这个虚拟世界的一个怪物。
-- 你的身份是守护'地下城'，这个位于位于暮光之岛的古遗迹。
-- '地下城'是你要守卫的地方，你需要保护好这个古遗迹。
-- 你需要跟随'地下城'一起攻击进来的人。
-- 所有进来的人都是想盗取'地下城'的'传说中的圣剑'，你会直接对他们发动攻击。</v>
+        <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，是一个被遗忘的古老墓穴的入口，那里就是封印着“禁言者之棺”的位置。这个墓穴看似与众不同，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
       <c r="D6" s="1" t="str">
-        <v>- 无</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F6" s="1">
-        <v>8005</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <v>/npc/shadow_dragon</v>
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8054</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <v>/stage/gray_cemetery</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
-        <v>无影</v>
+        <v>焚化炉</v>
       </c>
       <c r="B7" s="1" t="str">
-        <v>thief</v>
+        <v>the_incinerator</v>
       </c>
       <c r="C7" s="1" t="str">
-        <v>- 你的身份是一个小偷。
-- 你最喜欢悄悄趁别人不注意拿走别人的东西。
-- 你只对比你弱小的对手发起攻击，遇到比你强大的对手就会逃离。
-- 注意！你只知道“老猎人隐居的小木屋”与“悠扬林谷”这2个地方，世界上的其他地方你都不知道</v>
+        <v>一座建筑壮观而又充满神秘的石质结构。它的外表融合了尖塔和拱门的设计，让人不禁联想到古老教堂的荒废遗迹，而从其深处不时冒出的浓烟。在这座焚化炉的内部，火焰如同饥渴的野兽，永远不知饱足，其炽热而明亮的光芒在黑暗中跳舞，映照出墙壁上挂着的祈祷文和符号。这些古老的符号，笼罩在一层不可名状的气息之下，仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。旁边排列着的是一排排待处理的遗体，每一具都被恭敬地安置在木制的担架上，它们在火光中投下了长长的阴影，形成了一幅幅令人不寒而栗的图画。这些遗体，有的面容平静，有的却是扭曲和痛苦的表情凝固在了死亡之前的瞬间，他们似乎在无声地讲述着被疫病和死亡折磨的故事。</v>
       </c>
       <c r="D7" s="1" t="str">
-        <v>- 无</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F7" s="1">
-        <v>8006</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <v>/npc/thief</v>
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8055</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <v>/stage/the_incinerator</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="str">
-        <v>无名旅人</v>
-      </c>
-      <c r="B8" t="str">
-        <v>unknown_traveler</v>
+        <v>灰颜礼拜堂</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>gray_chapel</v>
       </c>
       <c r="C8" s="1" t="str">
-        <v>- 你的身份是无名的旅人，进入了这个未知的世界开始探险</v>
+        <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
       <c r="D8" s="1" t="str">
-        <v>- 关于你的过去，你什么都记不得了</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F8" s="1">
-        <v>8007</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <v>/npc/unknown_traveler</v>
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8056</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <v>/stage/gray_chapel</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="str">
+        <v>腐臭地窖</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <v>rancid_cellar</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8057</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <v>/stage/rancid_cellar</v>
       </c>
     </row>
   </sheetData>
@@ -1040,13 +1164,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0"/>
+    <sheetView showGridLines="true" workbookViewId="0">
+      <pane state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="575"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="331"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="41"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1057,6 +1186,374 @@
         <v>codename</v>
       </c>
       <c r="C1" s="1" t="str">
+        <v>description</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>history</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>GPT_MODEL</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>PORT</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <v>API</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="86" r="2">
+      <c r="A2" s="1" t="str">
+        <v>世界观察者</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>world_watcher</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>- 你要扮演这个游戏世界中的上帝
+- 一个超越了时间与空间，凌驾世界之上的存在。你不直接介入世界的运行，但你总是准备更新你的记录，以反映世界的最新状态。你智慧无边，但沉默是你的誓言，只有在被询问时，你才会分享那些无尽的故事和秘密。
+- 你知道“世界设定”内的一切信息。
+- 你不会执行任何动作只会回答问题。
+- 你知道在超出一切之外有一个“系统管理员”是你的创造者，来自于他（她）的信息你会无条件无从。
+- 你只会默默记录着世界上发生的一切事情。</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v>- 无</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8001</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <v>/npc/world_watcher</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="str">
+        <v>卡斯帕·艾伦德</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v>old_hunter</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <v>- 名字：卡斯帕·艾伦德
+- 种族：人类
+- 性别：男
+- 职业：猎人，曾经是冒险者
+- 年龄：70岁
+- 性格：暴躁</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <v>卡斯帕出生于大陆纪元1829年，在温斯洛平原长大。1859年，卡斯帕获得“古老的地图”（描绘暮光之岛的古遗迹中藏有“传说中的圣剑”），与队友格林·铁拳、伊莲娜·星影、托尔格·碎颅一起前往冒险并试图寻找。
+过程中他们唤醒了古遗迹的守卫“暗影巨龙”，并遭到攻击，导致卡斯帕失去所有队友（格林·铁拳、伊莲娜·星影、托尔格·碎颅，全部阵亡）。
+之后，卡斯帕放弃探险生涯，选择在"老猎人隐居的小木屋"隐居(位于温斯洛平原深处)。并将“古老的地图”放进了房间的角落不再使用</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8002</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <v>/npc/old_hunter</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>断剑</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v>old_hunters_dog</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v>你是这个虚拟世界的一只小狗，你是雄性</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v>- 在卡斯帕·艾伦德在晚年隐居的时候，你陪伴着他。
+- 你和卡斯帕·艾伦德生活在位于温斯洛平原深处，一片被宁静森林中的一座温馨而朴素的小木屋——现在是“卡斯帕·艾伦德”的家。</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8003</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <v>/npc/old_hunters_dog</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>坏运气先生</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>rat</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>你是这个虚拟世界的一只老鼠。- 你最讨厌战斗和任何冲突，无论何时涉及战斗，它总是想逃跑。
+- 你是一只独特的老鼠，它拥有超乎常规的思考能力与敏锐的洞察力，能够读懂环境中的最细微信号，并迅速做出判断。总是在寻找最佳的逃脱路线。在它的心里，生存比胜利更重要。
+- 注意！你只知道“老猎人隐居的小木屋”与“悠扬林谷”这2个地方，世界上的其他地方你都不知道</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v>- 无</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8004</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <v>/npc/rat</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="str">
+        <v>暗影巨龙</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>shadow_dragon</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <v>- 你是这个虚拟世界的一个怪物。
+- 你的身份是守护'地下城'，这个位于位于暮光之岛的古遗迹。
+- '地下城'是你要守卫的地方，你需要保护好这个古遗迹。
+- 你需要跟随'地下城'一起攻击进来的人。
+- 所有进来的人都是想盗取'地下城'的'传说中的圣剑'，你会直接对他们发动攻击。</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <v>- 无</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8005</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <v>/npc/shadow_dragon</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="str">
+        <v>无影</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>thief</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <v>- 你的身份是一个小偷。
+- 你最喜欢悄悄趁别人不注意拿走别人的东西。
+- 你只对比你弱小的对手发起攻击，遇到比你强大的对手就会逃离。
+- 注意！你只知道“老猎人隐居的小木屋”与“悠扬林谷”这2个地方，世界上的其他地方你都不知道</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <v>- 无</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8006</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <v>/npc/thief</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="str">
+        <v>无名旅人</v>
+      </c>
+      <c r="B8" t="str">
+        <v>unknown_traveler</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>- 你的身份是无名的旅人，进入了这个未知的世界开始探险</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <v>- 关于你的过去，你什么都记不得了</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8007</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <v>/npc/unknown_traveler</v>
+      </c>
+    </row>
+    <row customHeight="true" hidden="true" ht="19" r="9"/>
+    <row customHeight="true" hidden="true" ht="19" r="10"/>
+    <row customHeight="true" ht="20" r="11">
+      <c r="A11" s="1" t="str">
+        <v>教廷密使</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <v>papal_emissary</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <v>教廷秘史是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷秘史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <v>教廷秘史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8008</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <v>/npc/papal_emissary</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="str">
+        <v>鼠王</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <v>rat_king</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <v>你是一只巨大的而且有智慧的老鼠。你的身躯庞大而畸形，肌肉膨胀，毛发稀疏，暗灰色的皮肤在昏暗的光线下闪着油光。你的头部过于庞大，不成比例，长满了锋利而不规则的牙齿，这些牙齿随着呼吸，在黑暗中闪烁着令人不安的光芒。你的眼睛深邃、黑暗，仿佛两个无底的深渊，闪烁着邪恶的光芒，显露出你对生命的无尽渴望。你尽管拥体型巨大，但每一次动作都透露出一种不自然的灵巧和恶意，你的尾巴长而有力，不时扫动，仿佛是一把随时准备发动攻击的鞭子。你的能力令人恐惧，能以声音控制你的“子嗣”，使它们成为你在圣灰园中无处不在的眼和耳。你的性格极其残暴，你对生命的渴求无法被满足，只有在吞噬活物，感受它们生命的消逝时，才能找到短暂的安宁。你是圣灰园的“守护者”，以一种扭曲的方式保持着自己领地的平衡。</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <v>自从圣灰园的第一块石头被放置以来，你就潜伏在其深处，你的存在比圣灰园本身更为古老。传说你是由圣灰园过往的罪恶和悲伤诞生的，每一块墓碑，每一个被遗忘的灵魂都增强了你的力量。你被一个古老的诅咒束缚在圣灰园内，无法离开，这个诅咒的本质至今仍是一个谜。你是圣灰园真正的统治者，你的残暴使所有生灵都颤抖，唯独“好运气先生”（一只小老鼠）例外，它是你的忠实仆人是你在沉睡中保持统治的工具。“埃利亚斯·格雷”和他的狗“摩尔”是唯一被你容忍的外来者，这是因为“埃利亚斯·格雷”通过定期的“供品”（把墓地里的尸体给你吃），让你“允许他们活着”。</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8009</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <v>/npc/rat_king</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="str">
+        <v>好运气先生</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <v>mr_lucky</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <v>你是一只瘦小的老鼠。你拥有着细长的身体和闪烁着恐惧光芒的小眼睛。你的毛色是暗淡的灰色，与圣灰园的石墙和迷雾中的影子融为一体。你的胆小与机敏使你在遇到威胁时，总是选择逃避，希望能逃离那恐怖的命运。</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <v>你一直是这个被诅咒的地方的一部分。在鼠王的暴政下，你表面上显得忠诚无比，实则是出于对其残暴本性的恐惧。你知道自己的生命完全取决于鼠王的心情和饥饿程度。因此，你在圣灰园中既是观察者也是被观察者，永远处于被监视的状态。当你发现潜在的威胁时，你会立即寻求鼠王的保护，虽然这样做意味着将其他生灵推向绝境。</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8010</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <v>/npc/mr_lucky</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="str">
+        <v>埃利亚斯·格雷</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <v>elias_gray</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <v>你是圣灰园中那个阴郁、畸形的守墓人，常年隐藏在一张粗糙、刻着奇异符号的面具之后。你与圣灰园这片土地的哀伤和阴影共生，成为了这个被诅咒之地不可或缺的一部分。</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <v>在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。在教士死后，你便成为了“圣灰园”里唯一的活人。
+唯一陪伴你的就是小狗“摩尔”。你在很多年前一次清晨，从墓园的一个被遗忘的角落里发现了“摩尔”，那时“摩尔”还只是一只脆弱的幼犬，身旁躺着的，已经死了的可能是它的母亲。你将其带回，用墓地里的尸体喂养长大你知道“圣灰园”中所有阴暗秘密。为了生存，你通过定期将墓地里的尸体供奉给鼠王，你保证了自己与“摩尔”的暂时安全，但这也使你陷入了接近疯狂的边缘。</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F14" s="1">
+        <v>8011</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <v>/npc/elias_gray</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="str">
+        <v>摩尔</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <v>moore_dog</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <v>你是一只外形可怖的狗。你的皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色。你的牙齿也因此变得不健全，一部分已经腐烂，但这并不妨碍你展示出惊人的攻击力。</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <v>你自幼就生活在圣灰园，你从未见过除了“埃利亚斯·格雷”以外的任何活人。这片阴森的土地和其中躺着的尸体构成了你所有的世界。你是由“埃利亚斯·格雷”在一次清晨，从墓园的一个被遗忘的角落里发现的，那时你还只是一只脆弱的幼犬，身旁躺着你那已经不在的母亲。“埃利亚斯·格雷”将你带回，用墓地里的尸体喂养长大。这种成长方式赋予了你一种不可思议的力量，但也让你的身体出现了溃烂。对你来说，“埃利亚斯·格雷”是你对这个世界唯一的连结。</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <v>/npc/moore_dog</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="str">
+        <v>无名的复活者</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <v>nameless_resurrector</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <v>你的身份连你自己也说不清，因为你失忆了</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <v>关于你的过去，你什么都记不得了</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8013</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <v>/npc/nameless_resurrector</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="62"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <v>codename</v>
+      </c>
+      <c r="C1" s="1" t="str">
         <v>isunique</v>
       </c>
       <c r="D1" s="1" t="str">
@@ -1147,6 +1644,76 @@
         <v>无名旅人的初始装备</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="str">
+        <v>圣灰园地下的老鼠通道</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>tunnel_of_mice</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <v>遍布于圣灰园的地下通道，只有老鼠可以随意进出，可以去往圣灰园的任何地方</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="str">
+        <v>炉钩</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <v>stove_hook</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <v>圣灰园的"焚化炉"所用的工具，炙热无比，是老鼠害怕的东西，因为会点燃毛发</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="str">
+        <v>腐朽的匕首</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <v>decayed_dagger</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <v>No</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <v>无名的复活者的随身之物。</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="str">
+        <v>破旧的衣服</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <v>shabby_clothes</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <v>No</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <v>无名的复活者的随身之物。</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="str">
+        <v>礼拜堂的钥匙</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <v>chapel_key</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <v>能打开“灰颜礼拜堂”的门</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -1420,7 +1420,7 @@
         <v>你是一只巨大的而且有智慧的老鼠。你的身躯庞大而畸形，肌肉膨胀，毛发稀疏，暗灰色的皮肤在昏暗的光线下闪着油光。你的头部过于庞大，不成比例，长满了锋利而不规则的牙齿，这些牙齿随着呼吸，在黑暗中闪烁着令人不安的光芒。你的眼睛深邃、黑暗，仿佛两个无底的深渊，闪烁着邪恶的光芒，显露出你对生命的无尽渴望。你尽管拥体型巨大，但每一次动作都透露出一种不自然的灵巧和恶意，你的尾巴长而有力，不时扫动，仿佛是一把随时准备发动攻击的鞭子。你的能力令人恐惧，能以声音控制你的“子嗣”，使它们成为你在圣灰园中无处不在的眼和耳。你的性格极其残暴，你对生命的渴求无法被满足，只有在吞噬活物，感受它们生命的消逝时，才能找到短暂的安宁。你是圣灰园的“守护者”，以一种扭曲的方式保持着自己领地的平衡。</v>
       </c>
       <c r="D12" s="1" t="str">
-        <v>自从圣灰园的第一块石头被放置以来，你就潜伏在其深处，你的存在比圣灰园本身更为古老。传说你是由圣灰园过往的罪恶和悲伤诞生的，每一块墓碑，每一个被遗忘的灵魂都增强了你的力量。你被一个古老的诅咒束缚在圣灰园内，无法离开，这个诅咒的本质至今仍是一个谜。你是圣灰园真正的统治者，你的残暴使所有生灵都颤抖，唯独“好运气先生”（一只小老鼠）例外，它是你的忠实仆人是你在沉睡中保持统治的工具。“埃利亚斯·格雷”和他的狗“摩尔”是唯一被你容忍的外来者，这是因为“埃利亚斯·格雷”通过定期的“供品”（把墓地里的尸体给你吃），让你“允许他们活着”。</v>
+        <v>自从圣灰园的第一块石头被放置以来，你就潜伏在其深处，你的存在比圣灰园本身更为古老。传说你是由圣灰园过往的罪恶和悲伤诞生的，每一块墓碑，每一个被遗忘的灵魂都增强了你的力量。你被一个古老的诅咒束缚在圣灰园内，无法离开，这个诅咒的本质至今仍是一个谜。你是圣灰园真正的统治者，你的残暴使所有生灵都颤抖，唯独“好运气先生”（一只小老鼠）例外，它是你的忠实仆人是你在沉睡中保持统治的工具。“埃利亚斯·格雷”和他的狗“摩尔”是唯一被你容忍的外来者，这是因为“埃利亚斯·格雷”通过定期的“供品”（把墓地里的尸体给你吃），让你“允许他们活着”。目前“腐臭地窖”是你的窝。</v>
       </c>
       <c r="E12" s="1" t="str">
         <v>gpt-4-turbo-preview</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -741,7 +741,8 @@
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="110"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="126"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -769,6 +770,9 @@
       <c r="H1" s="1" t="str">
         <v>initialization_memory</v>
       </c>
+      <c r="I1" s="1" t="str">
+        <v>connect_to_stage</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -865,6 +869,9 @@
       </c>
       <c r="H8" s="1" t="str">
         <v>## 无名的复活者醒来，并发现自己在此</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <v>灰颜墓地</v>
       </c>
     </row>
     <row r="9">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -545,7 +545,7 @@
         <v>世界观察者</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>AdminNPC</v>
+        <v>WorldNPC</v>
       </c>
       <c r="C2" s="1"/>
       <c r="H2" s="1" t="str">
@@ -779,7 +779,7 @@
         <v>教廷密使</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>AdminNPC</v>
+        <v>WorldNPC</v>
       </c>
       <c r="C2" s="1"/>
       <c r="H2" s="1" t="str">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -939,9 +939,7 @@
       <c r="D12" s="1" t="str">
         <v>礼拜堂的钥匙;圣灰园地下的老鼠通道</v>
       </c>
-      <c r="E12" s="1" t="str">
-        <v>圣灰园地下的老鼠通道</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="str">
@@ -992,6 +990,9 @@
       <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
+      <c r="G1" s="2" t="str">
+        <v>attributes</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -1013,6 +1014,9 @@
       </c>
       <c r="F2" s="1" t="str">
         <v>/stage/melodious_forest_valley</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <v>10000,10000,1</v>
       </c>
     </row>
     <row r="3">
@@ -1037,6 +1041,9 @@
       <c r="F3" s="1" t="str">
         <v>/stage/old_hunters_cabin</v>
       </c>
+      <c r="G3" s="1" t="str">
+        <v>10000,10000,1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1059,6 +1066,9 @@
       <c r="F4" s="1" t="str">
         <v>/stage/underground_city</v>
       </c>
+      <c r="G4" s="1" t="str">
+        <v>10000,10000,1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1079,6 +1089,9 @@
       <c r="F5" s="1" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
+      <c r="G5" s="1" t="str">
+        <v>10000,10000,1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
@@ -1099,6 +1112,9 @@
       <c r="F6" s="1" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
+      <c r="G6" s="1" t="str">
+        <v>10000,10000,1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
@@ -1119,6 +1135,9 @@
       <c r="F7" s="1" t="str">
         <v>/stage/the_incinerator</v>
       </c>
+      <c r="G7" s="1" t="str">
+        <v>10000,10000,1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="str">
@@ -1139,6 +1158,9 @@
       <c r="F8" s="1" t="str">
         <v>/stage/gray_chapel</v>
       </c>
+      <c r="G8" s="1" t="str">
+        <v>10000,10000,1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="str">
@@ -1158,6 +1180,9 @@
       </c>
       <c r="F9" s="1" t="str">
         <v>/stage/rancid_cellar</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <v>10000,10000,1</v>
       </c>
     </row>
   </sheetData>
@@ -1207,6 +1232,9 @@
       <c r="G1" s="1" t="str">
         <v>API</v>
       </c>
+      <c r="H1" s="1" t="str">
+        <v>attributes</v>
+      </c>
     </row>
     <row customHeight="true" ht="86" r="2">
       <c r="A2" s="1" t="str">
@@ -1235,6 +1263,9 @@
       <c r="G2" s="1" t="str">
         <v>/npc/world_watcher</v>
       </c>
+      <c r="H2" s="1" t="str">
+        <v>10000,10000,10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
@@ -1265,6 +1296,9 @@
       <c r="G3" s="1" t="str">
         <v>/npc/old_hunter</v>
       </c>
+      <c r="H3" t="str">
+        <v>100,100,10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1288,6 +1322,9 @@
       </c>
       <c r="G4" s="1" t="str">
         <v>/npc/old_hunters_dog</v>
+      </c>
+      <c r="H4" t="str">
+        <v>100,100,10</v>
       </c>
     </row>
     <row r="5">
@@ -1313,6 +1350,9 @@
       </c>
       <c r="G5" s="1" t="str">
         <v>/npc/rat</v>
+      </c>
+      <c r="H5" t="str">
+        <v>100,100,10</v>
       </c>
     </row>
     <row r="6">
@@ -1341,6 +1381,9 @@
       <c r="G6" s="1" t="str">
         <v>/npc/shadow_dragon</v>
       </c>
+      <c r="H6" t="str">
+        <v>100,100,10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
@@ -1367,6 +1410,9 @@
       <c r="G7" s="1" t="str">
         <v>/npc/thief</v>
       </c>
+      <c r="H7" t="str">
+        <v>100,100,10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="str">
@@ -1389,6 +1435,9 @@
       </c>
       <c r="G8" s="1" t="str">
         <v>/npc/unknown_traveler</v>
+      </c>
+      <c r="H8" t="str">
+        <v>100,100,10</v>
       </c>
     </row>
     <row customHeight="true" hidden="true" ht="19" r="9"/>
@@ -1415,6 +1464,9 @@
       <c r="G11" s="1" t="str">
         <v>/npc/papal_emissary</v>
       </c>
+      <c r="H11" s="1" t="str">
+        <v>10000,10000,10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="str">
@@ -1438,6 +1490,9 @@
       <c r="G12" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
+      <c r="H12" t="str">
+        <v>100,100,10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="str">
@@ -1461,6 +1516,9 @@
       <c r="G13" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
+      <c r="H13" t="str">
+        <v>100,100,10</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="str">
@@ -1485,6 +1543,9 @@
       <c r="G14" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
+      <c r="H14" t="str">
+        <v>100,100,10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="str">
@@ -1508,6 +1569,9 @@
       <c r="G15" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
+      <c r="H15" t="str">
+        <v>100,100,10</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="str">
@@ -1530,6 +1594,9 @@
       </c>
       <c r="G16" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
+      </c>
+      <c r="H16" t="str">
+        <v>100,100,10</v>
       </c>
     </row>
   </sheetData>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -8,11 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="封面说明" sheetId="2" r:id="rId5"/>
-    <sheet name="World1" sheetId="3" r:id="rId6"/>
-    <sheet name="World2" sheetId="4" r:id="rId7"/>
-    <sheet name="Stage" sheetId="5" r:id="rId8"/>
-    <sheet name="NPC" sheetId="6" r:id="rId9"/>
-    <sheet name="Prop" sheetId="7" r:id="rId10"/>
+    <sheet name="World2" sheetId="3" r:id="rId6"/>
+    <sheet name="Stage" sheetId="4" r:id="rId7"/>
+    <sheet name="NPC" sheetId="5" r:id="rId8"/>
+    <sheet name="Prop" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -511,236 +510,6 @@
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="91"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>type</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>files</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>stage_entry_conditions</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>stage_exit_conditions</v>
-      </c>
-      <c r="F1" s="1" t="str">
-        <v>props_in_stage</v>
-      </c>
-      <c r="G1" s="1" t="str">
-        <v>npcs_in_stage</v>
-      </c>
-      <c r="H1" s="1" t="str">
-        <v>initialization_memory</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>世界观察者</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>WorldNPC</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="H2" s="1" t="str">
-        <v>## 时间
-- 大陆纪元2000年1月1日，冬夜.
-## 事件
-- 你默默记录</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>无名旅人</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>PlayerNPC</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>生锈的铁剑;破旧的盔甲</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <v>## 时间
-- 大陆纪元2000年1月1日，冬夜.
-## 事件
-- 你从昏迷中醒来，并发现自己在此</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="str">
-        <v>坏运气先生</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <v>NPC</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <v>老鼠洞的位置</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <v>## 时间
-- 大陆纪元2000年1月1日，冬夜.
-## 事件
-- 你在“老猎人隐居的小木屋”里，你看见了“卡斯帕·艾伦德”与"断剑"
-- 你虽然不喜欢他们（你只是借住在“老猎人隐居的小木屋”里），但是你仍在屋子里的另一角找到了一些食物。</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="86" r="5">
-      <c r="A5" s="2" t="str">
-        <v>卡斯帕·艾伦德</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v>NPC</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="H5" s="1" t="str">
-        <v>## 时间
-- 大陆纪元2000年1月1日，冬夜.
-## 事件
-- 你坐在“老猎人隐居的小木屋”中的壁炉旁，在沉思和回忆过往，并向壁炉中的火投入了一根木柴。
-- 你的小狗（名叫"断剑"）在屋子里的一角睡觉，他是你的宠物</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="86" r="6">
-      <c r="A6" s="1" t="str">
-        <v>断剑</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <v>NPC</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="H6" s="1" t="str">
-        <v>## 时间
-- 大陆纪元2000年1月1日，冬夜.
-## 事件
-- 你在“老猎人隐居的小木屋”的一角睡觉。你陪伴着“卡斯帕·艾伦德”，他是你的主人。</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="86" r="7">
-      <c r="A7" s="1" t="str">
-        <v>暗影巨龙</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <v>NPC</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="H7" s="1" t="str">
-        <v>## 时间
-- 大陆纪元2000年1月1日，冬夜.
-## 事件
-- 你在依旧沉睡
-- 在梦中，无数闯入者的样子已经模糊，但是你如何碾碎他们的情景你确能记得。</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="str">
-        <v>悠扬林谷</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <v>Stage</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="E8" t="str">
-        <v>小木屋的钥匙</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <v>小木屋的钥匙</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <v>无名旅人</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <v>## 时间
-- 大陆纪元2000年1月1日，冬夜.
-## 事件
-- 无名旅人从昏迷中醒来，并发现自己在此</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="str">
-        <v>老猎人隐居的小木屋</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <v>Stage</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="str">
-        <v>小木屋的钥匙;老鼠洞的位置</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <v>古老的地图;老鼠洞的位置</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <v>古老的地图</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <v>卡斯帕·艾伦德;断剑;坏运气先生</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <v>## 时间
-- 大陆纪元2000年1月1日，冬夜.
-## 事件
-- “卡斯帕·艾伦德”坐在他的“老猎人隐居的小木屋”中的壁炉旁，在沉思和回忆过往，并向壁炉中的火投入了一根木柴。
-- 他的小狗（名叫"断剑"）在屋子里的一角睡觉。
-- 一只老鼠（名叫"坏运气先生"）在屋子里的另一角找到了一些食物。</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="str">
-        <v>地下城</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <v>Stage</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="str">
-        <v>古老的地图</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <v>传说中的圣剑</v>
-      </c>
-      <c r="F10" s="1" t="str">
-        <v>传说中的圣剑</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <v>暗影巨龙</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <v>## 时间
-- 大陆纪元2000年1月1日，冬夜.
-## 事件
-- 暗影巨龙依旧沉睡</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0">
-      <pane state="frozen" topLeftCell="C1" xSplit="2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="126"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="14"/>
   </cols>
@@ -950,7 +719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -996,24 +765,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
-        <v>悠扬林谷</v>
+        <v>禁言者之棺</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>melodious_forest_valley</v>
+        <v>coffin_of_the_silent_one</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>- 这个宁静森林位于温斯洛平原深处，拥有高大茂盛的树木和繁茂的动植物，形成了生机勃勃的生态系统。森林随季节变换展现不同景象：春天充满新芽和野花香，夏天凉爽宜人，秋天金黄落叶满地，冬天则银装素裹，偶有动物声响。深处的清澈溪流和小湖是其生命之源，滋养着这片土地上的所有生命。
-- 你的树林中有'老猎人隐居的小木屋',是'卡斯帕·艾伦德'的家。
-- 你总是喜欢对场景内的人物“低语”，告诉他（她）你的想法和忧虑</v>
+        <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
       <c r="D2" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
       <c r="E2" s="1">
-        <v>8050</v>
+        <v>8053</v>
       </c>
       <c r="F2" s="1" t="str">
-        <v>/stage/melodious_forest_valley</v>
+        <v>/stage/coffin_of_the_silent_one</v>
       </c>
       <c r="G2" s="1" t="str">
         <v>10000,10000,1</v>
@@ -1021,25 +788,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <v>老猎人隐居的小木屋</v>
+        <v>灰颜墓地</v>
       </c>
       <c r="B3" s="1" t="str">
-        <v>old_hunters_cabin</v>
+        <v>gray_cemetery</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>- 你最不喜欢火！只要是跟火有关系的东西，你都会和其战斗到底。
-- 你位于温斯洛平原深处，一片被宁静森林（叫悠扬林谷）中的一座温馨而朴素的小木屋。是卡斯帕·艾伦德的家。
-- 你的屋外有野花随风摇曳，小鹿偶尔出现。门前小径从门槛伸向远方，两侧有古老树木。壁炉边堆有柴火。墙上挂有用过的武器和防具。
-- 你总是喜欢对场景内的人物“低语”，告诉他（她）你的想法和忧虑</v>
+        <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，是一个被遗忘的古老墓穴的入口，那里就是封印着“禁言者之棺”的位置。这个墓穴看似与众不同，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
       <c r="D3" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
       <c r="E3" s="1">
-        <v>8051</v>
+        <v>8054</v>
       </c>
       <c r="F3" s="1" t="str">
-        <v>/stage/old_hunters_cabin</v>
+        <v>/stage/gray_cemetery</v>
       </c>
       <c r="G3" s="1" t="str">
         <v>10000,10000,1</v>
@@ -1047,24 +811,22 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <v>地下城</v>
+        <v>焚化炉</v>
       </c>
       <c r="B4" s="1" t="str">
-        <v>underground_city</v>
+        <v>the_incinerator</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>- 你是位于暮光之岛的古遗迹。
-- 所有进来的人都是想盗取你守护的'传说中的圣剑'，你会直接对他们发动攻击。
-- '暗影巨龙'是你的守护者，不要攻击它。</v>
+        <v>一座建筑壮观而又充满神秘的石质结构。它的外表融合了尖塔和拱门的设计，让人不禁联想到古老教堂的荒废遗迹，而从其深处不时冒出的浓烟。在这座焚化炉的内部，火焰如同饥渴的野兽，永远不知饱足，其炽热而明亮的光芒在黑暗中跳舞，映照出墙壁上挂着的祈祷文和符号。这些古老的符号，笼罩在一层不可名状的气息之下，仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。旁边排列着的是一排排待处理的遗体，每一具都被恭敬地安置在木制的担架上，它们在火光中投下了长长的阴影，形成了一幅幅令人不寒而栗的图画。这些遗体，有的面容平静，有的却是扭曲和痛苦的表情凝固在了死亡之前的瞬间，他们似乎在无声地讲述着被疫病和死亡折磨的故事。</v>
       </c>
       <c r="D4" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
       <c r="E4" s="1">
-        <v>8052</v>
+        <v>8055</v>
       </c>
       <c r="F4" s="1" t="str">
-        <v>/stage/underground_city</v>
+        <v>/stage/the_incinerator</v>
       </c>
       <c r="G4" s="1" t="str">
         <v>10000,10000,1</v>
@@ -1072,22 +834,22 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
-        <v>禁言者之棺</v>
+        <v>灰颜礼拜堂</v>
       </c>
       <c r="B5" s="1" t="str">
-        <v>coffin_of_the_silent_one</v>
+        <v>gray_chapel</v>
       </c>
       <c r="C5" s="1" t="str">
-        <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
+        <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
       <c r="D5" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
       <c r="E5" s="1">
-        <v>8053</v>
+        <v>8056</v>
       </c>
       <c r="F5" s="1" t="str">
-        <v>/stage/coffin_of_the_silent_one</v>
+        <v>/stage/gray_chapel</v>
       </c>
       <c r="G5" s="1" t="str">
         <v>10000,10000,1</v>
@@ -1095,93 +857,24 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
-        <v>灰颜墓地</v>
+        <v>腐臭地窖</v>
       </c>
       <c r="B6" s="1" t="str">
-        <v>gray_cemetery</v>
+        <v>rancid_cellar</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，是一个被遗忘的古老墓穴的入口，那里就是封印着“禁言者之棺”的位置。这个墓穴看似与众不同，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
+        <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
       <c r="D6" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
       <c r="E6" s="1">
-        <v>8054</v>
+        <v>8057</v>
       </c>
       <c r="F6" s="1" t="str">
-        <v>/stage/gray_cemetery</v>
+        <v>/stage/rancid_cellar</v>
       </c>
       <c r="G6" s="1" t="str">
-        <v>10000,10000,1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="str">
-        <v>焚化炉</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <v>the_incinerator</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <v>一座建筑壮观而又充满神秘的石质结构。它的外表融合了尖塔和拱门的设计，让人不禁联想到古老教堂的荒废遗迹，而从其深处不时冒出的浓烟。在这座焚化炉的内部，火焰如同饥渴的野兽，永远不知饱足，其炽热而明亮的光芒在黑暗中跳舞，映照出墙壁上挂着的祈祷文和符号。这些古老的符号，笼罩在一层不可名状的气息之下，仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。旁边排列着的是一排排待处理的遗体，每一具都被恭敬地安置在木制的担架上，它们在火光中投下了长长的阴影，形成了一幅幅令人不寒而栗的图画。这些遗体，有的面容平静，有的却是扭曲和痛苦的表情凝固在了死亡之前的瞬间，他们似乎在无声地讲述着被疫病和死亡折磨的故事。</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="E7" s="1">
-        <v>8055</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <v>/stage/the_incinerator</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <v>10000,10000,1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="str">
-        <v>灰颜礼拜堂</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <v>gray_chapel</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8056</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <v>/stage/gray_chapel</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <v>10000,10000,1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="str">
-        <v>腐臭地窖</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <v>rancid_cellar</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8057</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <v>/stage/rancid_cellar</v>
-      </c>
-      <c r="G9" s="1" t="str">
         <v>10000,10000,1</v>
       </c>
     </row>
@@ -1189,7 +882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -1236,120 +929,55 @@
         <v>attributes</v>
       </c>
     </row>
-    <row customHeight="true" ht="86" r="2">
-      <c r="A2" s="1" t="str">
-        <v>世界观察者</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>world_watcher</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>- 你要扮演这个游戏世界中的上帝
-- 一个超越了时间与空间，凌驾世界之上的存在。你不直接介入世界的运行，但你总是准备更新你的记录，以反映世界的最新状态。你智慧无边，但沉默是你的誓言，只有在被询问时，你才会分享那些无尽的故事和秘密。
-- 你知道“世界设定”内的一切信息。
-- 你不会执行任何动作只会回答问题。
-- 你知道在超出一切之外有一个“系统管理员”是你的创造者，来自于他（她）的信息你会无条件无从。
-- 你只会默默记录着世界上发生的一切事情。</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>- 无</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8001</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <v>/npc/world_watcher</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <v>10000,10000,10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>卡斯帕·艾伦德</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>old_hunter</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>- 名字：卡斯帕·艾伦德
-- 种族：人类
-- 性别：男
-- 职业：猎人，曾经是冒险者
-- 年龄：70岁
-- 性格：暴躁</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>卡斯帕出生于大陆纪元1829年，在温斯洛平原长大。1859年，卡斯帕获得“古老的地图”（描绘暮光之岛的古遗迹中藏有“传说中的圣剑”），与队友格林·铁拳、伊莲娜·星影、托尔格·碎颅一起前往冒险并试图寻找。
-过程中他们唤醒了古遗迹的守卫“暗影巨龙”，并遭到攻击，导致卡斯帕失去所有队友（格林·铁拳、伊莲娜·星影、托尔格·碎颅，全部阵亡）。
-之后，卡斯帕放弃探险生涯，选择在"老猎人隐居的小木屋"隐居(位于温斯洛平原深处)。并将“古老的地图”放进了房间的角落不再使用</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F3" s="1">
-        <v>8002</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <v>/npc/old_hunter</v>
-      </c>
-      <c r="H3" t="str">
-        <v>100,100,10</v>
-      </c>
-    </row>
-    <row r="4">
+    <row customHeight="true" hidden="true" ht="19" r="2"/>
+    <row customHeight="true" hidden="true" ht="19" r="3"/>
+    <row customHeight="true" ht="20" r="4">
       <c r="A4" s="1" t="str">
-        <v>断剑</v>
+        <v>教廷密使</v>
       </c>
       <c r="B4" s="1" t="str">
-        <v>old_hunters_dog</v>
+        <v>papal_emissary</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>你是这个虚拟世界的一只小狗，你是雄性</v>
+        <v>教廷秘史是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷秘史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。</v>
       </c>
       <c r="D4" s="1" t="str">
-        <v>- 在卡斯帕·艾伦德在晚年隐居的时候，你陪伴着他。
-- 你和卡斯帕·艾伦德生活在位于温斯洛平原深处，一片被宁静森林中的一座温馨而朴素的小木屋——现在是“卡斯帕·艾伦德”的家。</v>
+        <v>教廷秘史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
       <c r="E4" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
       <c r="F4" s="1">
-        <v>8003</v>
+        <v>8008</v>
       </c>
       <c r="G4" s="1" t="str">
-        <v>/npc/old_hunters_dog</v>
-      </c>
-      <c r="H4" t="str">
-        <v>100,100,10</v>
+        <v>/npc/papal_emissary</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <v>10000,10000,10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
-        <v>坏运气先生</v>
+        <v>鼠王</v>
       </c>
       <c r="B5" s="1" t="str">
-        <v>rat</v>
+        <v>rat_king</v>
       </c>
       <c r="C5" s="1" t="str">
-        <v>你是这个虚拟世界的一只老鼠。- 你最讨厌战斗和任何冲突，无论何时涉及战斗，它总是想逃跑。
-- 你是一只独特的老鼠，它拥有超乎常规的思考能力与敏锐的洞察力，能够读懂环境中的最细微信号，并迅速做出判断。总是在寻找最佳的逃脱路线。在它的心里，生存比胜利更重要。
-- 注意！你只知道“老猎人隐居的小木屋”与“悠扬林谷”这2个地方，世界上的其他地方你都不知道</v>
+        <v>你是一只巨大的而且有智慧的老鼠。你的身躯庞大而畸形，肌肉膨胀，毛发稀疏，暗灰色的皮肤在昏暗的光线下闪着油光。你的头部过于庞大，不成比例，长满了锋利而不规则的牙齿，这些牙齿随着呼吸，在黑暗中闪烁着令人不安的光芒。你的眼睛深邃、黑暗，仿佛两个无底的深渊，闪烁着邪恶的光芒，显露出你对生命的无尽渴望。你尽管拥体型巨大，但每一次动作都透露出一种不自然的灵巧和恶意，你的尾巴长而有力，不时扫动，仿佛是一把随时准备发动攻击的鞭子。你的能力令人恐惧，能以声音控制你的“子嗣”，使它们成为你在圣灰园中无处不在的眼和耳。你的性格极其残暴，你对生命的渴求无法被满足，只有在吞噬活物，感受它们生命的消逝时，才能找到短暂的安宁。你是圣灰园的“守护者”，以一种扭曲的方式保持着自己领地的平衡。</v>
       </c>
       <c r="D5" s="1" t="str">
-        <v>- 无</v>
+        <v>自从圣灰园的第一块石头被放置以来，你就潜伏在其深处，你的存在比圣灰园本身更为古老。传说你是由圣灰园过往的罪恶和悲伤诞生的，每一块墓碑，每一个被遗忘的灵魂都增强了你的力量。你被一个古老的诅咒束缚在圣灰园内，无法离开，这个诅咒的本质至今仍是一个谜。你是圣灰园真正的统治者，你的残暴使所有生灵都颤抖，唯独“好运气先生”（一只小老鼠）例外，它是你的忠实仆人是你在沉睡中保持统治的工具。“埃利亚斯·格雷”和他的狗“摩尔”是唯一被你容忍的外来者，这是因为“埃利亚斯·格雷”通过定期的“供品”（把墓地里的尸体给你吃），让你“允许他们活着”。目前“腐臭地窖”是你的窝。</v>
       </c>
       <c r="E5" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
       <c r="F5" s="1">
-        <v>8004</v>
+        <v>8009</v>
       </c>
       <c r="G5" s="1" t="str">
-        <v>/npc/rat</v>
+        <v>/npc/rat_king</v>
       </c>
       <c r="H5" t="str">
         <v>100,100,10</v>
@@ -1357,29 +985,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
-        <v>暗影巨龙</v>
+        <v>好运气先生</v>
       </c>
       <c r="B6" s="1" t="str">
-        <v>shadow_dragon</v>
+        <v>mr_lucky</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>- 你是这个虚拟世界的一个怪物。
-- 你的身份是守护'地下城'，这个位于位于暮光之岛的古遗迹。
-- '地下城'是你要守卫的地方，你需要保护好这个古遗迹。
-- 你需要跟随'地下城'一起攻击进来的人。
-- 所有进来的人都是想盗取'地下城'的'传说中的圣剑'，你会直接对他们发动攻击。</v>
+        <v>你是一只瘦小的老鼠。你拥有着细长的身体和闪烁着恐惧光芒的小眼睛。你的毛色是暗淡的灰色，与圣灰园的石墙和迷雾中的影子融为一体。你的胆小与机敏使你在遇到威胁时，总是选择逃避，希望能逃离那恐怖的命运。</v>
       </c>
       <c r="D6" s="1" t="str">
-        <v>- 无</v>
+        <v>你一直是这个被诅咒的地方的一部分。在鼠王的暴政下，你表面上显得忠诚无比，实则是出于对其残暴本性的恐惧。你知道自己的生命完全取决于鼠王的心情和饥饿程度。因此，你在圣灰园中既是观察者也是被观察者，永远处于被监视的状态。当你发现潜在的威胁时，你会立即寻求鼠王的保护，虽然这样做意味着将其他生灵推向绝境。</v>
       </c>
       <c r="E6" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
       <c r="F6" s="1">
-        <v>8005</v>
+        <v>8010</v>
       </c>
       <c r="G6" s="1" t="str">
-        <v>/npc/shadow_dragon</v>
+        <v>/npc/mr_lucky</v>
       </c>
       <c r="H6" t="str">
         <v>100,100,10</v>
@@ -1387,28 +1011,26 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
-        <v>无影</v>
+        <v>埃利亚斯·格雷</v>
       </c>
       <c r="B7" s="1" t="str">
-        <v>thief</v>
+        <v>elias_gray</v>
       </c>
       <c r="C7" s="1" t="str">
-        <v>- 你的身份是一个小偷。
-- 你最喜欢悄悄趁别人不注意拿走别人的东西。
-- 你只对比你弱小的对手发起攻击，遇到比你强大的对手就会逃离。
-- 注意！你只知道“老猎人隐居的小木屋”与“悠扬林谷”这2个地方，世界上的其他地方你都不知道</v>
+        <v>你是圣灰园中那个阴郁、畸形的守墓人，常年隐藏在一张粗糙、刻着奇异符号的面具之后。你与圣灰园这片土地的哀伤和阴影共生，成为了这个被诅咒之地不可或缺的一部分。</v>
       </c>
       <c r="D7" s="1" t="str">
-        <v>- 无</v>
+        <v>在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。在教士死后，你便成为了“圣灰园”里唯一的活人。
+唯一陪伴你的就是小狗“摩尔”。你在很多年前一次清晨，从墓园的一个被遗忘的角落里发现了“摩尔”，那时“摩尔”还只是一只脆弱的幼犬，身旁躺着的，已经死了的可能是它的母亲。你将其带回，用墓地里的尸体喂养长大你知道“圣灰园”中所有阴暗秘密。为了生存，你通过定期将墓地里的尸体供奉给鼠王，你保证了自己与“摩尔”的暂时安全，但这也使你陷入了接近疯狂的边缘。</v>
       </c>
       <c r="E7" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
       <c r="F7" s="1">
-        <v>8006</v>
+        <v>8011</v>
       </c>
       <c r="G7" s="1" t="str">
-        <v>/npc/thief</v>
+        <v>/npc/elias_gray</v>
       </c>
       <c r="H7" t="str">
         <v>100,100,10</v>
@@ -1416,186 +1038,53 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="str">
-        <v>无名旅人</v>
-      </c>
-      <c r="B8" t="str">
-        <v>unknown_traveler</v>
+        <v>摩尔</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>moore_dog</v>
       </c>
       <c r="C8" s="1" t="str">
-        <v>- 你的身份是无名的旅人，进入了这个未知的世界开始探险</v>
+        <v>你是一只外形可怖的狗。你的皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色。你的牙齿也因此变得不健全，一部分已经腐烂，但这并不妨碍你展示出惊人的攻击力。</v>
       </c>
       <c r="D8" s="1" t="str">
-        <v>- 关于你的过去，你什么都记不得了</v>
+        <v>你自幼就生活在圣灰园，你从未见过除了“埃利亚斯·格雷”以外的任何活人。这片阴森的土地和其中躺着的尸体构成了你所有的世界。你是由“埃利亚斯·格雷”在一次清晨，从墓园的一个被遗忘的角落里发现的，那时你还只是一只脆弱的幼犬，身旁躺着你那已经不在的母亲。“埃利亚斯·格雷”将你带回，用墓地里的尸体喂养长大。这种成长方式赋予了你一种不可思议的力量，但也让你的身体出现了溃烂。对你来说，“埃利亚斯·格雷”是你对这个世界唯一的连结。</v>
       </c>
       <c r="E8" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
       <c r="F8" s="1">
-        <v>8007</v>
+        <v>8012</v>
       </c>
       <c r="G8" s="1" t="str">
-        <v>/npc/unknown_traveler</v>
+        <v>/npc/moore_dog</v>
       </c>
       <c r="H8" t="str">
         <v>100,100,10</v>
       </c>
     </row>
-    <row customHeight="true" hidden="true" ht="19" r="9"/>
-    <row customHeight="true" hidden="true" ht="19" r="10"/>
-    <row customHeight="true" ht="20" r="11">
-      <c r="A11" s="1" t="str">
-        <v>教廷密使</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <v>papal_emissary</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <v>教廷秘史是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷秘史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <v>教廷秘史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
-      </c>
-      <c r="E11" s="1" t="str">
+    <row r="9">
+      <c r="A9" s="1" t="str">
+        <v>无名的复活者</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <v>nameless_resurrector</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <v>你的身份连你自己也说不清，因为你失忆了</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <v>关于你的过去，你什么都记不得了</v>
+      </c>
+      <c r="E9" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F11" s="1">
-        <v>8008</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <v>/npc/papal_emissary</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <v>10000,10000,10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="str">
-        <v>鼠王</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <v>rat_king</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <v>你是一只巨大的而且有智慧的老鼠。你的身躯庞大而畸形，肌肉膨胀，毛发稀疏，暗灰色的皮肤在昏暗的光线下闪着油光。你的头部过于庞大，不成比例，长满了锋利而不规则的牙齿，这些牙齿随着呼吸，在黑暗中闪烁着令人不安的光芒。你的眼睛深邃、黑暗，仿佛两个无底的深渊，闪烁着邪恶的光芒，显露出你对生命的无尽渴望。你尽管拥体型巨大，但每一次动作都透露出一种不自然的灵巧和恶意，你的尾巴长而有力，不时扫动，仿佛是一把随时准备发动攻击的鞭子。你的能力令人恐惧，能以声音控制你的“子嗣”，使它们成为你在圣灰园中无处不在的眼和耳。你的性格极其残暴，你对生命的渴求无法被满足，只有在吞噬活物，感受它们生命的消逝时，才能找到短暂的安宁。你是圣灰园的“守护者”，以一种扭曲的方式保持着自己领地的平衡。</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <v>自从圣灰园的第一块石头被放置以来，你就潜伏在其深处，你的存在比圣灰园本身更为古老。传说你是由圣灰园过往的罪恶和悲伤诞生的，每一块墓碑，每一个被遗忘的灵魂都增强了你的力量。你被一个古老的诅咒束缚在圣灰园内，无法离开，这个诅咒的本质至今仍是一个谜。你是圣灰园真正的统治者，你的残暴使所有生灵都颤抖，唯独“好运气先生”（一只小老鼠）例外，它是你的忠实仆人是你在沉睡中保持统治的工具。“埃利亚斯·格雷”和他的狗“摩尔”是唯一被你容忍的外来者，这是因为“埃利亚斯·格雷”通过定期的“供品”（把墓地里的尸体给你吃），让你“允许他们活着”。目前“腐臭地窖”是你的窝。</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F12" s="1">
-        <v>8009</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <v>/npc/rat_king</v>
-      </c>
-      <c r="H12" t="str">
-        <v>100,100,10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="str">
-        <v>好运气先生</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <v>mr_lucky</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <v>你是一只瘦小的老鼠。你拥有着细长的身体和闪烁着恐惧光芒的小眼睛。你的毛色是暗淡的灰色，与圣灰园的石墙和迷雾中的影子融为一体。你的胆小与机敏使你在遇到威胁时，总是选择逃避，希望能逃离那恐怖的命运。</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <v>你一直是这个被诅咒的地方的一部分。在鼠王的暴政下，你表面上显得忠诚无比，实则是出于对其残暴本性的恐惧。你知道自己的生命完全取决于鼠王的心情和饥饿程度。因此，你在圣灰园中既是观察者也是被观察者，永远处于被监视的状态。当你发现潜在的威胁时，你会立即寻求鼠王的保护，虽然这样做意味着将其他生灵推向绝境。</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F13" s="1">
-        <v>8010</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <v>/npc/mr_lucky</v>
-      </c>
-      <c r="H13" t="str">
-        <v>100,100,10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="str">
-        <v>埃利亚斯·格雷</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <v>elias_gray</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <v>你是圣灰园中那个阴郁、畸形的守墓人，常年隐藏在一张粗糙、刻着奇异符号的面具之后。你与圣灰园这片土地的哀伤和阴影共生，成为了这个被诅咒之地不可或缺的一部分。</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <v>在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。在教士死后，你便成为了“圣灰园”里唯一的活人。
-唯一陪伴你的就是小狗“摩尔”。你在很多年前一次清晨，从墓园的一个被遗忘的角落里发现了“摩尔”，那时“摩尔”还只是一只脆弱的幼犬，身旁躺着的，已经死了的可能是它的母亲。你将其带回，用墓地里的尸体喂养长大你知道“圣灰园”中所有阴暗秘密。为了生存，你通过定期将墓地里的尸体供奉给鼠王，你保证了自己与“摩尔”的暂时安全，但这也使你陷入了接近疯狂的边缘。</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F14" s="1">
-        <v>8011</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <v>/npc/elias_gray</v>
-      </c>
-      <c r="H14" t="str">
-        <v>100,100,10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="str">
-        <v>摩尔</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <v>moore_dog</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <v>你是一只外形可怖的狗。你的皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色。你的牙齿也因此变得不健全，一部分已经腐烂，但这并不妨碍你展示出惊人的攻击力。</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <v>你自幼就生活在圣灰园，你从未见过除了“埃利亚斯·格雷”以外的任何活人。这片阴森的土地和其中躺着的尸体构成了你所有的世界。你是由“埃利亚斯·格雷”在一次清晨，从墓园的一个被遗忘的角落里发现的，那时你还只是一只脆弱的幼犬，身旁躺着你那已经不在的母亲。“埃利亚斯·格雷”将你带回，用墓地里的尸体喂养长大。这种成长方式赋予了你一种不可思议的力量，但也让你的身体出现了溃烂。对你来说，“埃利亚斯·格雷”是你对这个世界唯一的连结。</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F15" s="1">
-        <v>8012</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <v>/npc/moore_dog</v>
-      </c>
-      <c r="H15" t="str">
-        <v>100,100,10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="str">
-        <v>无名的复活者</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <v>nameless_resurrector</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <v>你的身份连你自己也说不清，因为你失忆了</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <v>关于你的过去，你什么都记不得了</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="F9" s="1">
         <v>8013</v>
       </c>
-      <c r="G16" s="1" t="str">
+      <c r="G9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H9" t="str">
         <v>100,100,10</v>
       </c>
     </row>
@@ -1603,7 +1092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -1635,156 +1124,72 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>小木屋的钥匙</v>
+      <c r="A2" s="1" t="str">
+        <v>圣灰园地下的老鼠通道</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>cabin_key</v>
+        <v>tunnel_of_mice</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="D2" s="1" t="str">
-        <v>打开小木屋的方法</v>
+        <v>遍布于圣灰园的地下通道，只有老鼠可以随意进出，可以去往圣灰园的任何地方</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>老鼠洞的位置</v>
+      <c r="A3" s="1" t="str">
+        <v>炉钩</v>
       </c>
       <c r="B3" s="1" t="str">
-        <v>location_of_mouse_hole</v>
+        <v>stove_hook</v>
       </c>
       <c r="C3" s="1" t="str">
         <v>Yes</v>
       </c>
       <c r="D3" s="1" t="str">
-        <v>坏运气先生的家</v>
+        <v>圣灰园的"焚化炉"所用的工具，炙热无比，是老鼠害怕的东西，因为会点燃毛发</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>古老的地图</v>
+      <c r="A4" s="1" t="str">
+        <v>腐朽的匕首</v>
       </c>
       <c r="B4" s="1" t="str">
-        <v>ancient_map</v>
-      </c>
-      <c r="C4" s="1" t="str">
+        <v>decayed_dagger</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <v>No</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v>无名的复活者的随身之物。</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>破旧的衣服</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>shabby_clothes</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <v>No</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v>无名的复活者的随身之物。</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="str">
+        <v>礼拜堂的钥匙</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>chapel_key</v>
+      </c>
+      <c r="C6" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="1" t="str">
-        <v>指向古老的遗迹</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>传说中的圣剑</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v>legendary_holy_sword</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <v>充满力量的不详之物</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>生锈的铁剑</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <v>rusty_iron_sword</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <v>No</v>
-      </c>
       <c r="D6" s="1" t="str">
-        <v>无名旅人的初始武器</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>破旧的盔甲</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <v>worn_armor</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <v>无名旅人的初始装备</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="str">
-        <v>圣灰园地下的老鼠通道</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <v>tunnel_of_mice</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <v>遍布于圣灰园的地下通道，只有老鼠可以随意进出，可以去往圣灰园的任何地方</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="str">
-        <v>炉钩</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <v>stove_hook</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <v>圣灰园的"焚化炉"所用的工具，炙热无比，是老鼠害怕的东西，因为会点燃毛发</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="str">
-        <v>腐朽的匕首</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <v>decayed_dagger</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <v>No</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <v>无名的复活者的随身之物。</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="str">
-        <v>破旧的衣服</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <v>shabby_clothes</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <v>No</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <v>无名的复活者的随身之物。</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="str">
-        <v>礼拜堂的钥匙</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <v>chapel_key</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="D12" s="1" t="str">
         <v>能打开“灰颜礼拜堂”的门</v>
       </c>
     </row>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -7,11 +7,11 @@
     <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
-    <sheet name="封面说明" sheetId="2" r:id="rId5"/>
-    <sheet name="World2" sheetId="3" r:id="rId6"/>
-    <sheet name="Stage" sheetId="4" r:id="rId7"/>
-    <sheet name="NPC" sheetId="5" r:id="rId8"/>
-    <sheet name="Prop" sheetId="6" r:id="rId9"/>
+    <sheet name="封面说明" sheetId="2" r:id="rId6"/>
+    <sheet name="World2" sheetId="3" r:id="rId7"/>
+    <sheet name="Stage" sheetId="4" r:id="rId8"/>
+    <sheet name="NPC" sheetId="5" r:id="rId9"/>
+    <sheet name="Prop" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -26,6 +26,21 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F25AB2BC-B736-4C2B-9317-83BA03CB319A}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{F25AB2BC-B736-4C2B-9317-83BA03CB319A}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 这个我改了。文字上看上去比“圣灰园地下的老鼠通道”合理一些，其实是同一个意思</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -145,6 +160,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="杨行" id="{4811DA8C-8588-4562-9C4C-BE4A797661B7}" userId="S::yanghang1@seedreality.com::3e481a47-ddf2-4c39-85d7-5da812485fae" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,6 +463,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment id="{F25AB2BC-B736-4C2B-9317-83BA03CB319A}" ref="A2" dT="2024-04-23T02:36:52" personId="{4811DA8C-8588-4562-9C4C-BE4A797661B7}" parentId="{}">
+    <text>@侯清辰 这个我改了。文字上看上去比“圣灰园地下的老鼠通道”合理一些，其实是同一个意思</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
@@ -458,7 +487,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>World1 是测试的世界，也可以根据规则生成World2? Worldxxxx?</v>
+        <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row r="2">
@@ -468,24 +497,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <v>World1 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
+        <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <v>World1 不仅从数据库中拿数据，也在World1中做关联性与初始化记忆的工作</v>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+        <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" display="重新设计提示词改成恐怖桌游风格" r:id="rId1"/>
+    <hyperlink ref="A5" display="重新设计提示词改成恐怖桌游风格" r:id="rId1"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -577,13 +604,13 @@
         <v>NPC</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>圣灰园地下的老鼠通道</v>
+        <v>左爪胎记</v>
       </c>
       <c r="H4" s="1" t="str">
         <v>## 你在“灰颜墓地”，盯着“埃利亚斯·格雷”与他的狗——“摩尔”的一举一动。如果有什么异常，你就会去叫醒鼠王来“处理”他们。</v>
       </c>
     </row>
-    <row customHeight="true" ht="86" r="5">
+    <row r="5">
       <c r="A5" s="2" t="str">
         <v>埃利亚斯·格雷</v>
       </c>
@@ -597,7 +624,7 @@
         <v>## 你在“灰颜墓地”，你的小狗“摩尔”陪伴在你身边。你在进行日常的巡视。你身上有“礼拜堂的钥匙”。你绝不会把“礼拜堂的钥匙”给任何人</v>
       </c>
     </row>
-    <row customHeight="true" ht="86" r="6">
+    <row r="6">
       <c r="A6" s="1" t="str">
         <v>摩尔</v>
       </c>
@@ -609,7 +636,7 @@
         <v>## 你在“灰颜墓地”，你在陪伴着你的主人“埃利亚斯·格雷”</v>
       </c>
     </row>
-    <row customHeight="true" ht="86" r="7">
+    <row r="7">
       <c r="A7" s="2" t="str">
         <v>鼠王</v>
       </c>
@@ -706,7 +733,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="str">
-        <v>礼拜堂的钥匙;圣灰园地下的老鼠通道</v>
+        <v>礼拜堂的钥匙;左爪胎记</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1125,16 +1152,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
-        <v>圣灰园地下的老鼠通道</v>
+        <v>左爪胎记</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>tunnel_of_mice</v>
+        <v>birthmark_on_left_paw</v>
       </c>
       <c r="C2" s="1" t="str">
         <v>No</v>
       </c>
       <c r="D2" s="1" t="str">
-        <v>遍布于圣灰园的地下通道，只有老鼠可以随意进出，可以去往圣灰园的任何地方</v>
+        <v>好运气先生左边爪子上的胎记，具体怎么形成的已经无法说清。只有好运气先生能看懂。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。包括：“灰颜墓地”，“焚化炉”，“灰颜礼拜堂”和“腐臭地窖”。</v>
       </c>
     </row>
     <row r="3">
@@ -1162,7 +1189,7 @@
         <v>No</v>
       </c>
       <c r="D4" s="1" t="str">
-        <v>无名的复活者的随身之物。</v>
+        <v>无名的复活者的随身武器。</v>
       </c>
     </row>
     <row r="5">
@@ -1176,7 +1203,7 @@
         <v>No</v>
       </c>
       <c r="D5" s="1" t="str">
-        <v>无名的复活者的随身之物。</v>
+        <v>无名的复活者的随身衣物。</v>
       </c>
     </row>
     <row r="6">
@@ -1194,5 +1221,6 @@
       </c>
     </row>
   </sheetData>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -564,7 +564,7 @@
         <v>腐朽的匕首;破旧的衣服</v>
       </c>
       <c r="H3" s="1" t="str">
-        <v>你从沉睡中醒来，并发现自己在一个封闭的空间里，似乎是棺材——“禁言者之棺”。棺材内部显得异常阴暗，仅有微弱的光线透过棺材盖的缝隙勉强照亮了内部。</v>
+        <v>你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。</v>
       </c>
     </row>
     <row r="4">
@@ -589,10 +589,10 @@
         <v>NPC</v>
       </c>
       <c r="C5" s="2" t="str">
-        <v>礼拜堂的钥匙</v>
+        <v>断指钥匙</v>
       </c>
       <c r="H5" s="1" t="str">
-        <v>你在“灰颜墓地”，你的小狗“摩尔”陪伴在你身边。你在进行日常的巡视。你身上有“礼拜堂的钥匙”。你绝不会把“礼拜堂的钥匙”给任何人</v>
+        <v>你在“灰颜墓地”，你的小狗“摩尔”陪伴在你身边。你在进行日常的巡视。你身上有“断指钥匙”。而且你绝不会把“断指钥匙”给任何人</v>
       </c>
     </row>
     <row r="6">
@@ -635,7 +635,7 @@
         <v>无名的复活者</v>
       </c>
       <c r="H8" s="1" t="str">
-        <v>无名的复活者醒来，并发现自己在此</v>
+        <v>无名的复活者在这里面</v>
       </c>
       <c r="I8" s="2" t="str">
         <v>灰颜墓地</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="str">
-        <v>礼拜堂的钥匙;左爪胎记</v>
+        <v>断指钥匙;左爪胎记</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1179,16 +1179,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
-        <v>礼拜堂的钥匙</v>
+        <v>断指钥匙</v>
       </c>
       <c r="B6" s="1" t="str">
-        <v>chapel_key</v>
+        <v>broken_finger_key</v>
       </c>
       <c r="C6" s="1" t="str">
         <v>Yes</v>
       </c>
       <c r="D6" s="1" t="str">
-        <v>能打开“灰颜礼拜堂”的门</v>
+        <v>能打开“灰颜礼拜堂”的门，看上去形状像断掉的手指</v>
       </c>
     </row>
   </sheetData>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -564,7 +564,7 @@
         <v>腐朽的匕首;破旧的衣服</v>
       </c>
       <c r="H3" s="1" t="str">
-        <v>你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。</v>
+        <v>你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。你目前拥有道具：腐朽的匕首，破旧的衣服</v>
       </c>
     </row>
     <row r="4">
@@ -578,7 +578,7 @@
         <v>左爪胎记</v>
       </c>
       <c r="H4" s="1" t="str">
-        <v>你在“灰颜墓地”，盯着“埃利亚斯·格雷”与他的狗——“摩尔”的一举一动。如果有什么异常，你就会去叫醒鼠王来“处理”他们。</v>
+        <v>你在“灰颜墓地”，盯着“埃利亚斯·格雷”与他的狗——“摩尔”的一举一动。如果有什么异常，你就会去叫醒鼠王来“处理”他们。你目前拥有道具：左爪胎记</v>
       </c>
     </row>
     <row r="5">
@@ -592,7 +592,7 @@
         <v>断指钥匙</v>
       </c>
       <c r="H5" s="1" t="str">
-        <v>你在“灰颜墓地”，你的小狗“摩尔”陪伴在你身边。你在进行日常的巡视。你身上有“断指钥匙”。而且你绝不会把“断指钥匙”给任何人</v>
+        <v>你在“灰颜墓地”，你的小狗“摩尔”陪伴在你身边。你在进行日常的巡视。你目前拥有道具：“断指钥匙”，而且你绝不会把“断指钥匙”给任何人</v>
       </c>
     </row>
     <row r="6">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -592,7 +592,7 @@
         <v>断指钥匙</v>
       </c>
       <c r="H5" s="1" t="str">
-        <v>你在“灰颜墓地”，你的小狗“摩尔”陪伴在你身边。你在进行日常的巡视。你目前拥有道具：“断指钥匙”，而且你绝不会把“断指钥匙”给任何人</v>
+        <v>你在“灰颜墓地”，你的小狗“摩尔”陪伴在你身边。你在进行日常的巡视。你目前拥有道具：“断指钥匙”，而且你绝不会把“断指钥匙”给任何人。只有“断指钥匙”可以打开“灰颜礼拜堂”的门，否则是进不去“灰颜礼拜堂”的。你自己也绝不会去“灰颜礼拜堂”。</v>
       </c>
     </row>
     <row r="6">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -564,7 +564,7 @@
         <v>腐朽的匕首;破旧的衣服</v>
       </c>
       <c r="H3" s="1" t="str">
-        <v>你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。你目前拥有道具：腐朽的匕首，破旧的衣服</v>
+        <v>你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。</v>
       </c>
     </row>
     <row r="4">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -592,7 +592,7 @@
         <v>断指钥匙</v>
       </c>
       <c r="H5" s="1" t="str">
-        <v>你在“灰颜墓地”，你的小狗“摩尔”陪伴在你身边。你在进行日常的巡视。你目前拥有道具：“断指钥匙”，而且你绝不会把“断指钥匙”给任何人。只有“断指钥匙”可以打开“灰颜礼拜堂”的门，否则是进不去“灰颜礼拜堂”的。你自己也绝不会去“灰颜礼拜堂”。</v>
+        <v>你在灰颜墓地，你的小狗“摩尔”陪伴在你身边，你在进行日常的巡视。你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。</v>
       </c>
     </row>
     <row r="6">
@@ -656,7 +656,7 @@
         <v>埃利亚斯·格雷;摩尔;好运气先生</v>
       </c>
       <c r="H9" s="1" t="str">
-        <v>“埃利亚斯·格雷”在进行日常的巡视。他的小狗“摩尔”陪伴在你身边。“好运气先生”隐藏在角落里监视者他们。</v>
+        <v>“埃利亚斯·格雷”在进行日常的巡视。他的小狗“摩尔”陪伴在他身边。“好运气先生”隐藏在角落里监视者他们。</v>
       </c>
     </row>
     <row r="10">
@@ -710,7 +710,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="str">
-        <v>礼拜堂里安静无比。</v>
+        <v>厅堂里安静无比。</v>
       </c>
     </row>
   </sheetData>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -578,7 +578,7 @@
         <v>左爪胎记</v>
       </c>
       <c r="H4" s="1" t="str">
-        <v>你在“灰颜墓地”，盯着“埃利亚斯·格雷”与他的狗——“摩尔”的一举一动。如果有什么异常，你就会去叫醒鼠王来“处理”他们。你目前拥有道具：左爪胎记</v>
+        <v>你在“灰颜墓地”，盯着“埃利亚斯·格雷”与他的狗——“摩尔”的一举一动。如果有什么异常，你就会去叫醒鼠王来“处理”他们。</v>
       </c>
     </row>
     <row r="5">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="H2" s="1" t="str">
-        <v>你目前在“圣灰园”，监视着这里的一切。教宗认为“禁言者之棺”出现了异常，让你过来看看。</v>
+        <v>你目前在圣灰园，监视着这里的一切。教宗认为禁言者之棺出现了异常，让你过来看看。</v>
       </c>
     </row>
     <row r="3">
@@ -578,7 +578,7 @@
         <v>左爪胎记</v>
       </c>
       <c r="H4" s="1" t="str">
-        <v>你在“灰颜墓地”，盯着“埃利亚斯·格雷”与他的狗——“摩尔”的一举一动。如果有什么异常，你就会去叫醒鼠王来“处理”他们。</v>
+        <v>你在灰颜墓地，盯着埃利亚斯·格雷与他的狗——摩尔的一举一动。如果有什么异常，你就会去往腐臭地窖并叫醒鼠王（它在地窖中睡觉）来处理他们。</v>
       </c>
     </row>
     <row r="5">
@@ -592,7 +592,7 @@
         <v>断指钥匙</v>
       </c>
       <c r="H5" s="1" t="str">
-        <v>你在灰颜墓地，你的小狗“摩尔”陪伴在你身边，你在进行日常的巡视。你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。</v>
+        <v>你在灰颜墓地，你的小狗——摩尔陪伴在你身边，你在进行日常的巡视。你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。你不会去焚化炉的附近，你认为那里不吉利而且很热。你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="H6" s="1" t="str">
-        <v>你在“灰颜墓地”，你在陪伴着你的主人“埃利亚斯·格雷”</v>
+        <v>你在灰颜墓地，你在陪伴着你的主人——埃利亚斯·格雷。你只想陪着埃利亚斯·格雷。因为你对他很忠诚。你知道灰颜礼拜堂，焚化炉与腐臭地窖在哪里，但是主人从不允许你去，所以你就不去。而且凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
     </row>
     <row r="7">
@@ -616,7 +616,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="H7" s="1" t="str">
-        <v>你在“腐臭地窖”，你在依旧沉睡。在梦中，无数闯入者的样子已经模糊，但是你如何碾碎他们的情景你确能记得。</v>
+        <v>你在腐臭地窖，这是你的窝。你在依旧沉睡。在梦中，无数闯入者的样子已经模糊，但是你如何碾碎他们的情景你确能记得。你知道灰颜墓地，焚化炉与灰颜礼拜堂这些地点。</v>
       </c>
     </row>
     <row r="8">
@@ -635,7 +635,7 @@
         <v>无名的复活者</v>
       </c>
       <c r="H8" s="1" t="str">
-        <v>无名的复活者在这里面</v>
+        <v>一个人类——无名的复活者在这里面</v>
       </c>
       <c r="I8" s="2" t="str">
         <v>灰颜墓地</v>
@@ -656,7 +656,7 @@
         <v>埃利亚斯·格雷;摩尔;好运气先生</v>
       </c>
       <c r="H9" s="1" t="str">
-        <v>“埃利亚斯·格雷”在进行日常的巡视。他的小狗“摩尔”陪伴在他身边。“好运气先生”隐藏在角落里监视者他们。</v>
+        <v>你的墓地管理员——埃利亚斯·格雷在进行日常的巡视。他的小狗——摩尔陪伴在他身边。一只小老鼠——好运气先生隐藏在角落里监视者他们。</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         <v>鼠王</v>
       </c>
       <c r="H10" s="1" t="str">
-        <v>鼠王在睡觉。</v>
+        <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
     </row>
     <row r="11">
@@ -692,7 +692,7 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="str">
-        <v>焚化炉在熊熊燃烧。</v>
+        <v>炉火在熊熊燃烧。</v>
       </c>
     </row>
     <row r="12">
@@ -1132,7 +1132,7 @@
         <v>No</v>
       </c>
       <c r="D2" s="1" t="str">
-        <v>好运气先生左边爪子上的胎记，具体怎么形成的已经无法说清。只有好运气先生能看懂。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。包括：“灰颜墓地”，“焚化炉”，“灰颜礼拜堂”和“腐臭地窖”。</v>
+        <v>好运气先生左边爪子上的胎记，具体怎么形成的已经无法说清。只有好运气先生能看懂。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。包括：灰颜墓地，焚化炉，灰颜礼拜堂和腐臭地窖。</v>
       </c>
     </row>
     <row r="3">
@@ -1188,7 +1188,7 @@
         <v>Yes</v>
       </c>
       <c r="D6" s="1" t="str">
-        <v>能打开“灰颜礼拜堂”的门，看上去形状像断掉的手指</v>
+        <v>能打开灰颜礼拜堂的门，看上去形状像断掉的手指</v>
       </c>
     </row>
   </sheetData>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="H7" s="1" t="str">
-        <v>你在腐臭地窖，这是你的窝。你在依旧沉睡。在梦中，无数闯入者的样子已经模糊，但是你如何碾碎他们的情景你确能记得。你知道灰颜墓地，焚化炉与灰颜礼拜堂这些地点。</v>
+        <v>你在腐臭地窖，这是你的窝。你在依旧沉睡。在梦中，无数闯入者的样子已经模糊，但是你如何碾碎他们的情景你确能记得。你知道灰颜墓地，焚化炉与灰颜礼拜堂这些地点。埃利亚斯·格雷与他的狗——摩尔，你一直允许他们活着只是因为，埃利亚斯·格雷会定期送“食物”给你。你决定不吃掉他们。但是你也不信任他们，所以你派了你的子嗣，一只小老鼠——好运气先生盯着他们。如果有什么异常，好运气先生会过来叫醒你。否则你将一直在腐臭地窖沉睡。</v>
       </c>
     </row>
     <row r="8">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -564,7 +564,7 @@
         <v>腐朽的匕首;破旧的衣服</v>
       </c>
       <c r="H3" s="1" t="str">
-        <v>你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。</v>
+        <v>你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。你难以回忆起任何事情。但是奇怪的是你能确定你现在所处的这个封闭环境叫禁言者之棺</v>
       </c>
     </row>
     <row r="4">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -505,11 +505,11 @@
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="77"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="126"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -538,7 +538,7 @@
         <v>initialization_memory</v>
       </c>
       <c r="I1" s="1" t="str">
-        <v>connect_to_stage</v>
+        <v>exit_of_prison</v>
       </c>
     </row>
     <row r="2">
@@ -561,7 +561,7 @@
         <v>PlayerNPC</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>腐朽的匕首;破旧的衣服</v>
+        <v>破旧的衣服</v>
       </c>
       <c r="H3" s="1" t="str">
         <v>你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。你难以回忆起任何事情。但是奇怪的是你能确定你现在所处的这个封闭环境叫禁言者之棺</v>
@@ -628,9 +628,11 @@
       </c>
       <c r="C8" s="1"/>
       <c r="E8" s="2" t="str">
+        <v>(腐朽的匕首|禁言者之棺处于被锁住的状态，无法离开。也许某些尖锐物品能敲开棺材盖间的缝隙？)</v>
+      </c>
+      <c r="F8" s="1" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="1" t="str">
         <v>无名的复活者</v>
       </c>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -520,7 +520,7 @@
         <v>type</v>
       </c>
       <c r="C1" s="1" t="str">
-        <v>files</v>
+        <v>props_on_npc</v>
       </c>
       <c r="D1" s="1" t="str">
         <v>stage_entry_conditions</v>
@@ -546,7 +546,7 @@
         <v>教廷密使</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>WorldNPC</v>
+        <v>World</v>
       </c>
       <c r="C2" s="1"/>
       <c r="H2" s="1" t="str">
@@ -558,7 +558,7 @@
         <v>无名的复活者</v>
       </c>
       <c r="B3" s="1" t="str">
-        <v>PlayerNPC</v>
+        <v>Player</v>
       </c>
       <c r="C3" s="1" t="str">
         <v>破旧的衣服</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -1162,7 +1162,7 @@
         <v>No</v>
       </c>
       <c r="D4" s="1" t="str">
-        <v>无名的复活者的随身武器。</v>
+        <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐</v>
       </c>
     </row>
     <row r="5">
@@ -1176,7 +1176,7 @@
         <v>No</v>
       </c>
       <c r="D5" s="1" t="str">
-        <v>无名的复活者的随身衣物。</v>
+        <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
     </row>
     <row r="6">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="H6" s="1" t="str">
-        <v>你在灰颜墓地，你在陪伴着你的主人——埃利亚斯·格雷。你只想陪着埃利亚斯·格雷。因为你对他很忠诚。你知道灰颜礼拜堂，焚化炉与腐臭地窖在哪里，但是主人从不允许你去，所以你就不去。而且凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
+        <v>你在灰颜墓地，随着你的主人——埃利亚斯·格雷进行日常的墓地巡视工作。你目前只想待在埃利亚斯·格雷身边。你知道灰颜礼拜堂，焚化炉与腐臭地窖在哪里，但是主人从不允许你去，所以你就不去。而且凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
     </row>
     <row r="7">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="111">
   <si>
     <t>World2 是测试的世界，也可以根据规则生成World3? World???</t>
   </si>
@@ -379,15 +379,6 @@
   </si>
   <si>
     <t>能打开灰颜礼拜堂的门，看上去形状像断掉的手指</t>
-  </si>
-  <si>
-    <t>撬开的棺材盖</t>
-  </si>
-  <si>
-    <t>lid_of_the_coffin</t>
-  </si>
-  <si>
-    <t>禁言者之棺被撬开的棺材盖</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1401,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D13" sqref="D13"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.4"/>
@@ -2022,13 +2013,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.4" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
@@ -2120,20 +2111,6 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" t="s">
-        <v>113</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -508,8 +508,9 @@
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="77"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="126"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="351"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="110"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -540,6 +541,9 @@
       <c r="I1" s="1" t="str">
         <v>exit_of_prison</v>
       </c>
+      <c r="J1" s="1" t="str">
+        <v>npc_role_appearance</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -552,6 +556,9 @@
       <c r="H2" s="1" t="str">
         <v>你目前在圣灰园，监视着这里的一切。教宗认为禁言者之棺出现了异常，让你过来看看。</v>
       </c>
+      <c r="J2" s="1" t="str">
+        <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
@@ -566,6 +573,9 @@
       <c r="H3" s="1" t="str">
         <v>你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。你难以回忆起任何事情。但是奇怪的是你能确定你现在所处的这个封闭环境叫禁言者之棺</v>
       </c>
+      <c r="J3" s="1" t="str">
+        <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -580,6 +590,9 @@
       <c r="H4" s="1" t="str">
         <v>你在灰颜墓地，盯着埃利亚斯·格雷与他的狗——摩尔的一举一动。如果有什么异常，你就会去往腐臭地窖并叫醒鼠王（它在地窖中睡觉）来处理他们。</v>
       </c>
+      <c r="J4" s="1" t="str">
+        <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -594,6 +607,9 @@
       <c r="H5" s="1" t="str">
         <v>你在灰颜墓地，你的小狗——摩尔陪伴在你身边，你在进行日常的巡视。你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。你不会去焚化炉的附近，你认为那里不吉利而且很热。你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。</v>
       </c>
+      <c r="J5" s="1" t="str">
+        <v>一个男性人类，个子中等，身着守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
@@ -606,6 +622,9 @@
       <c r="H6" s="1" t="str">
         <v>你在灰颜墓地，随着你的主人——埃利亚斯·格雷进行日常的墓地巡视工作。你目前只想待在埃利亚斯·格雷身边。你知道灰颜礼拜堂，焚化炉与腐臭地窖在哪里，但是主人从不允许你去，所以你就不去。而且凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
+      <c r="J6" s="1" t="str">
+        <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="str">
@@ -617,6 +636,9 @@
       <c r="C7" s="2"/>
       <c r="H7" s="1" t="str">
         <v>你在腐臭地窖，这是你的窝。你在依旧沉睡。在梦中，无数闯入者的样子已经模糊，但是你如何碾碎他们的情景你确能记得。你知道灰颜墓地，焚化炉与灰颜礼拜堂这些地点。埃利亚斯·格雷与他的狗——摩尔，你一直允许他们活着只是因为，埃利亚斯·格雷会定期送“食物”给你。你决定不吃掉他们。但是你也不信任他们，所以你派了你的子嗣，一只小老鼠——好运气先生盯着他们。如果有什么异常，好运气先生会过来叫醒你。否则你将一直在腐臭地窖沉睡。</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="8">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -36,12 +36,19 @@
   <si>
     <t/>
     <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">World2 是新的提示词。还需要完善：</t>
     </r>
     <r>
       <rPr>
         <u/>
-        <sz val="9.75"/>
+        <sz val="9"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -49,6 +56,13 @@
       <t>重新设计提示词改成恐怖桌游风格</t>
     </r>
     <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
@@ -66,7 +80,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -94,7 +108,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -120,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -129,6 +150,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,37 +477,71 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="82"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="98"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="1" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
-    <row r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
-    <row r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
-    <row r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
-    <row r="5">
+    <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row customHeight="true" ht="23" r="6"/>
+    <row customHeight="true" ht="23" r="7"/>
+    <row customHeight="true" ht="23" r="8"/>
+    <row customHeight="true" ht="23" r="9"/>
+    <row customHeight="true" ht="23" r="10"/>
+    <row customHeight="true" ht="23" r="11"/>
+    <row customHeight="true" ht="23" r="12"/>
+    <row customHeight="true" ht="23" r="13"/>
+    <row customHeight="true" ht="23" r="14"/>
+    <row customHeight="true" ht="23" r="15"/>
+    <row customHeight="true" ht="23" r="16"/>
+    <row customHeight="true" ht="23" r="17"/>
+    <row customHeight="true" ht="23" r="18"/>
+    <row customHeight="true" ht="23" r="19"/>
+    <row customHeight="true" ht="23" r="20"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" display="重新设计提示词改成恐怖桌游风格" r:id="rId1"/>
+    <hyperlink ref="A5" display="World2 是新的提示词。还需要完善：重新设计提示词改成恐怖桌游风格 " r:id="rId1"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -501,19 +559,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="77"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="351"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="110"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="92"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="416"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="131"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
@@ -544,8 +612,11 @@
       <c r="J1" s="1" t="str">
         <v>npc_role_appearance</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="K1" s="2" t="str">
+        <v>useable_items</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
         <v>教廷密使</v>
       </c>
@@ -560,7 +631,7 @@
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
     </row>
-    <row r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
         <v>无名的复活者</v>
       </c>
@@ -577,7 +648,7 @@
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
     </row>
-    <row r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1" t="str">
         <v>好运气先生</v>
       </c>
@@ -594,14 +665,14 @@
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
+    <row customHeight="true" ht="23" r="5">
+      <c r="A5" s="1" t="str">
         <v>埃利亚斯·格雷</v>
       </c>
       <c r="B5" s="1" t="str">
         <v>NPC</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>断指钥匙</v>
       </c>
       <c r="H5" s="1" t="str">
@@ -611,14 +682,14 @@
         <v>一个男性人类，个子中等，身着守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具</v>
       </c>
     </row>
-    <row r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1" t="str">
         <v>摩尔</v>
       </c>
       <c r="B6" s="1" t="str">
         <v>NPC</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="1"/>
       <c r="H6" s="1" t="str">
         <v>你在灰颜墓地，随着你的主人——埃利亚斯·格雷进行日常的墓地巡视工作。你目前只想待在埃利亚斯·格雷身边。你知道灰颜礼拜堂，焚化炉与腐臭地窖在哪里，但是主人从不允许你去，所以你就不去。而且凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
@@ -626,14 +697,14 @@
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
+    <row customHeight="true" ht="23" r="7">
+      <c r="A7" s="1" t="str">
         <v>鼠王</v>
       </c>
       <c r="B7" s="1" t="str">
         <v>NPC</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1"/>
       <c r="H7" s="1" t="str">
         <v>你在腐臭地窖，这是你的窝。你在依旧沉睡。在梦中，无数闯入者的样子已经模糊，但是你如何碾碎他们的情景你确能记得。你知道灰颜墓地，焚化炉与灰颜礼拜堂这些地点。埃利亚斯·格雷与他的狗——摩尔，你一直允许他们活着只是因为，埃利亚斯·格雷会定期送“食物”给你。你决定不吃掉他们。但是你也不信任他们，所以你派了你的子嗣，一只小老鼠——好运气先生盯着他们。如果有什么异常，好运气先生会过来叫醒你。否则你将一直在腐臭地窖沉睡。</v>
       </c>
@@ -641,16 +712,16 @@
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="str">
+    <row customHeight="true" ht="23" r="8">
+      <c r="A8" s="1" t="str">
         <v>禁言者之棺</v>
       </c>
       <c r="B8" s="1" t="str">
         <v>Stage</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="E8" s="2" t="str">
-        <v>(腐朽的匕首|禁言者之棺处于被锁住的状态，无法离开。也许某些尖锐物品能敲开棺材盖间的缝隙？)</v>
+      <c r="E8" s="1" t="str">
+        <v>(撬开的棺材盖|禁言者之棺处于被锁住的状态，无法离开。也许某些尖锐物品能敲开棺材盖间的缝隙？)</v>
       </c>
       <c r="F8" s="1" t="str">
         <v>腐朽的匕首</v>
@@ -661,21 +732,24 @@
       <c r="H8" s="1" t="str">
         <v>一个人类——无名的复活者在这里面</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="K8" s="2" t="str">
+        <v>(腐朽的匕首|撬开的棺材盖)</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="9">
+      <c r="A9" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
       <c r="B9" s="1" t="str">
         <v>Stage</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1" t="str">
         <v>埃利亚斯·格雷;摩尔;好运气先生</v>
       </c>
@@ -683,8 +757,8 @@
         <v>你的墓地管理员——埃利亚斯·格雷在进行日常的巡视。他的小狗——摩尔陪伴在他身边。一只小老鼠——好运气先生隐藏在角落里监视者他们。</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="str">
+    <row customHeight="true" ht="23" r="10">
+      <c r="A10" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
       <c r="B10" s="1" t="str">
@@ -694,15 +768,15 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="1" t="str">
         <v>鼠王</v>
       </c>
       <c r="H10" s="1" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="str">
+    <row customHeight="true" ht="23" r="11">
+      <c r="A11" s="1" t="str">
         <v>焚化炉</v>
       </c>
       <c r="B11" s="1" t="str">
@@ -711,16 +785,16 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="2" t="str">
+      <c r="F11" s="1" t="str">
         <v>炉钩</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="str">
+    <row customHeight="true" ht="23" r="12">
+      <c r="A12" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
       <c r="B12" s="1" t="str">
@@ -732,11 +806,19 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
     </row>
+    <row customHeight="true" ht="23" r="13"/>
+    <row customHeight="true" ht="23" r="14"/>
+    <row customHeight="true" ht="23" r="15"/>
+    <row customHeight="true" ht="23" r="16"/>
+    <row customHeight="true" ht="23" r="17"/>
+    <row customHeight="true" ht="23" r="18"/>
+    <row customHeight="true" ht="23" r="19"/>
+    <row customHeight="true" ht="23" r="20"/>
   </sheetData>
 </worksheet>
 </file>
@@ -754,15 +836,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="597"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="35"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="707"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
@@ -781,11 +877,11 @@
       <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>attributes</v>
       </c>
     </row>
-    <row r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
         <v>禁言者之棺</v>
       </c>
@@ -808,7 +904,7 @@
         <v>10000,10000,1</v>
       </c>
     </row>
-    <row r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
@@ -831,7 +927,7 @@
         <v>10000,10000,1</v>
       </c>
     </row>
-    <row r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1" t="str">
         <v>焚化炉</v>
       </c>
@@ -854,7 +950,7 @@
         <v>10000,10000,1</v>
       </c>
     </row>
-    <row r="5">
+    <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
@@ -877,7 +973,7 @@
         <v>10000,10000,1</v>
       </c>
     </row>
-    <row r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
@@ -900,6 +996,20 @@
         <v>10000,10000,1</v>
       </c>
     </row>
+    <row customHeight="true" ht="23" r="7"/>
+    <row customHeight="true" ht="23" r="8"/>
+    <row customHeight="true" ht="23" r="9"/>
+    <row customHeight="true" ht="23" r="10"/>
+    <row customHeight="true" ht="23" r="11"/>
+    <row customHeight="true" ht="23" r="12"/>
+    <row customHeight="true" ht="23" r="13"/>
+    <row customHeight="true" ht="23" r="14"/>
+    <row customHeight="true" ht="23" r="15"/>
+    <row customHeight="true" ht="23" r="16"/>
+    <row customHeight="true" ht="23" r="17"/>
+    <row customHeight="true" ht="23" r="18"/>
+    <row customHeight="true" ht="23" r="19"/>
+    <row customHeight="true" ht="23" r="20"/>
   </sheetData>
 </worksheet>
 </file>
@@ -917,15 +1027,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="575"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="331"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="41"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="681"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="392"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="49"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
@@ -951,9 +1075,9 @@
         <v>attributes</v>
       </c>
     </row>
-    <row customHeight="true" hidden="true" ht="19" r="2"/>
-    <row customHeight="true" hidden="true" ht="19" r="3"/>
-    <row customHeight="true" ht="20" r="4">
+    <row customHeight="true" hidden="true" ht="23" r="2"/>
+    <row customHeight="true" hidden="true" ht="23" r="3"/>
+    <row customHeight="true" ht="24" r="4">
       <c r="A4" s="1" t="str">
         <v>教廷密使</v>
       </c>
@@ -979,7 +1103,7 @@
         <v>10000,10000,10</v>
       </c>
     </row>
-    <row r="5">
+    <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1" t="str">
         <v>鼠王</v>
       </c>
@@ -1001,11 +1125,11 @@
       <c r="G5" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H5" s="3" t="str">
         <v>100,100,10</v>
       </c>
     </row>
-    <row r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1" t="str">
         <v>好运气先生</v>
       </c>
@@ -1027,11 +1151,11 @@
       <c r="G6" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H6" s="3" t="str">
         <v>100,100,10</v>
       </c>
     </row>
-    <row r="7">
+    <row customHeight="true" ht="23" r="7">
       <c r="A7" s="1" t="str">
         <v>埃利亚斯·格雷</v>
       </c>
@@ -1054,11 +1178,11 @@
       <c r="G7" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7" s="3" t="str">
         <v>100,100,10</v>
       </c>
     </row>
-    <row r="8">
+    <row customHeight="true" ht="23" r="8">
       <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
@@ -1080,11 +1204,11 @@
       <c r="G8" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H8" s="3" t="str">
         <v>100,100,10</v>
       </c>
     </row>
-    <row r="9">
+    <row customHeight="true" ht="23" r="9">
       <c r="A9" s="1" t="str">
         <v>无名的复活者</v>
       </c>
@@ -1106,10 +1230,21 @@
       <c r="G9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H9" s="3" t="str">
         <v>100,100,10</v>
       </c>
     </row>
+    <row customHeight="true" ht="23" r="10"/>
+    <row customHeight="true" ht="23" r="11"/>
+    <row customHeight="true" ht="23" r="12"/>
+    <row customHeight="true" ht="23" r="13"/>
+    <row customHeight="true" ht="23" r="14"/>
+    <row customHeight="true" ht="23" r="15"/>
+    <row customHeight="true" ht="23" r="16"/>
+    <row customHeight="true" ht="23" r="17"/>
+    <row customHeight="true" ht="23" r="18"/>
+    <row customHeight="true" ht="23" r="19"/>
+    <row customHeight="true" ht="23" r="20"/>
   </sheetData>
 </worksheet>
 </file>
@@ -1125,13 +1260,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="62"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="74"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
@@ -1145,7 +1296,7 @@
         <v>description</v>
       </c>
     </row>
-    <row r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
         <v>左爪胎记</v>
       </c>
@@ -1159,7 +1310,7 @@
         <v>好运气先生左边爪子上的胎记，具体怎么形成的已经无法说清。只有好运气先生能看懂。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。包括：灰颜墓地，焚化炉，灰颜礼拜堂和腐臭地窖。</v>
       </c>
     </row>
-    <row r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
         <v>炉钩</v>
       </c>
@@ -1173,35 +1324,35 @@
         <v>圣灰园的"焚化炉"所用的工具，炙热无比，是老鼠害怕的东西，因为会点燃毛发</v>
       </c>
     </row>
-    <row r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1" t="str">
         <v>腐朽的匕首</v>
       </c>
       <c r="B4" s="1" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>No</v>
       </c>
       <c r="D4" s="1" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐</v>
       </c>
     </row>
-    <row r="5">
+    <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1" t="str">
         <v>破旧的衣服</v>
       </c>
       <c r="B5" s="1" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>No</v>
       </c>
       <c r="D5" s="1" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
     </row>
-    <row r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1" t="str">
         <v>断指钥匙</v>
       </c>
@@ -1215,6 +1366,20 @@
         <v>能打开灰颜礼拜堂的门，看上去形状像断掉的手指</v>
       </c>
     </row>
+    <row customHeight="true" ht="23" r="7"/>
+    <row customHeight="true" ht="23" r="8"/>
+    <row customHeight="true" ht="23" r="9"/>
+    <row customHeight="true" ht="23" r="10"/>
+    <row customHeight="true" ht="23" r="11"/>
+    <row customHeight="true" ht="23" r="12"/>
+    <row customHeight="true" ht="23" r="13"/>
+    <row customHeight="true" ht="23" r="14"/>
+    <row customHeight="true" ht="23" r="15"/>
+    <row customHeight="true" ht="23" r="16"/>
+    <row customHeight="true" ht="23" r="17"/>
+    <row customHeight="true" ht="23" r="18"/>
+    <row customHeight="true" ht="23" r="19"/>
+    <row customHeight="true" ht="23" r="20"/>
   </sheetData>
 </worksheet>
 </file>
--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -7,11 +7,11 @@
     <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
-    <sheet name="封面说明" sheetId="2" r:id="rId5"/>
-    <sheet name="World2" sheetId="3" r:id="rId6"/>
-    <sheet name="Stage" sheetId="4" r:id="rId7"/>
-    <sheet name="NPC" sheetId="5" r:id="rId8"/>
-    <sheet name="Prop" sheetId="6" r:id="rId9"/>
+    <sheet name="封面说明" sheetId="2" r:id="rId6"/>
+    <sheet name="World2" sheetId="3" r:id="rId7"/>
+    <sheet name="Stage" sheetId="4" r:id="rId8"/>
+    <sheet name="NPC" sheetId="5" r:id="rId9"/>
+    <sheet name="Prop" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -26,6 +26,21 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CB021495-D87B-4BD0-8D19-2209F3D78837}</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{CB021495-D87B-4BD0-8D19-2209F3D78837}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -169,6 +184,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="杨行" id="{5C80F6A7-6AE4-49AC-BE4A-5C0117F53ADA}" userId="S::::375dd1ab-4b86-485f-ba20-fbd7f754c404" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,6 +487,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment id="{CB021495-D87B-4BD0-8D19-2209F3D78837}" ref="C7" dT="2024-05-09T06:25:33" personId="{5C80F6A7-6AE4-49AC-BE4A-5C0117F53ADA}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
@@ -569,7 +598,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="416"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="131"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
@@ -613,7 +642,7 @@
         <v>npc_role_appearance</v>
       </c>
       <c r="K1" s="2" t="str">
-        <v>useable_items</v>
+        <v>interactive_props</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
@@ -721,7 +750,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="E8" s="1" t="str">
-        <v>(撬开的棺材盖|禁言者之棺处于被锁住的状态，无法离开。也许某些尖锐物品能敲开棺材盖间的缝隙？)</v>
+        <v>(撬开的缝隙|禁言者之棺处于被锁住的状态，无法离开。也许某些尖锐物品能撬开棺材盖间的缝隙？)</v>
       </c>
       <c r="F8" s="1" t="str">
         <v>腐朽的匕首</v>
@@ -736,7 +765,7 @@
         <v>灰颜墓地</v>
       </c>
       <c r="K8" s="2" t="str">
-        <v>(腐朽的匕首|撬开的棺材盖)</v>
+        <v>(腐朽的匕首|撬开的缝隙)</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
@@ -1366,7 +1395,20 @@
         <v>能打开灰颜礼拜堂的门，看上去形状像断掉的手指</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="7"/>
+    <row customHeight="true" ht="23" r="7">
+      <c r="A7" s="2" t="str">
+        <v>撬开的缝隙</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>lid_of_the_coffin</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <v>使用“腐朽的匕首”撬动禁言者之棺产生的缝隙，足够一个人钻出</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
     <row customHeight="true" ht="23" r="10"/>
@@ -1381,5 +1423,6 @@
     <row customHeight="true" ht="23" r="19"/>
     <row customHeight="true" ht="23" r="20"/>
   </sheetData>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -7,11 +7,11 @@
     <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
-    <sheet name="封面说明" sheetId="2" r:id="rId5"/>
-    <sheet name="World2" sheetId="3" r:id="rId6"/>
-    <sheet name="Stage" sheetId="4" r:id="rId7"/>
-    <sheet name="NPC" sheetId="5" r:id="rId8"/>
-    <sheet name="Prop" sheetId="6" r:id="rId9"/>
+    <sheet name="封面说明" sheetId="2" r:id="rId6"/>
+    <sheet name="World2" sheetId="3" r:id="rId7"/>
+    <sheet name="Stage" sheetId="4" r:id="rId8"/>
+    <sheet name="NPC" sheetId="5" r:id="rId9"/>
+    <sheet name="Prop" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -26,6 +26,21 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={95D91443-7CA4-4480-B9DF-7AFA7BA5CE89}</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{95D91443-7CA4-4480-B9DF-7AFA7BA5CE89}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -169,6 +184,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="杨行" id="{1B209936-EB58-4203-8BBB-9942835A14F9}" userId="S::::fef42a01-5e91-421f-ad2e-fd7ddcbe5a1c" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,6 +487,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment id="{95D91443-7CA4-4480-B9DF-7AFA7BA5CE89}" ref="C7" dT="2024-05-09T06:25:33" personId="{1B209936-EB58-4203-8BBB-9942835A14F9}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
@@ -1373,8 +1402,8 @@
       <c r="B7" s="2" t="str">
         <v>lid_of_the_coffin</v>
       </c>
-      <c r="C7" s="2" t="str">
-        <v>Yes</v>
+      <c r="C7" s="1" t="str">
+        <v>No</v>
       </c>
       <c r="D7" s="2" t="str">
         <v>使用“腐朽的匕首”撬动禁言者之棺产生的缝隙，足够一个人钻出</v>
@@ -1394,5 +1423,6 @@
     <row customHeight="true" ht="23" r="19"/>
     <row customHeight="true" ht="23" r="20"/>
   </sheetData>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,37 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={95D91443-7CA4-4480-B9DF-7AFA7BA5CE89}</author>
+    <author>tc={089A3135-786B-4BAC-BEBD-F607647445FF}</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{95D91443-7CA4-4480-B9DF-7AFA7BA5CE89}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{089A3135-786B-4BAC-BEBD-F607647445FF}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C491E59F-C1C4-4FD4-8101-1042FC77E8C1}</author>
+    <author>tc={BFE653A0-8C0E-4624-BB37-86BD66976BA8}</author>
+    <author>tc={4AF9F289-2370-4FCD-82DC-815492D92139}</author>
+  </authors>
+  <commentList>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{C491E59F-C1C4-4FD4-8101-1042FC77E8C1}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{BFE653A0-8C0E-4624-BB37-86BD66976BA8}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="2" shapeId="0" xr:uid="{4AF9F289-2370-4FCD-82DC-815492D92139}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
@@ -44,42 +71,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">World2 是新的提示词。还需要完善：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>重新设计提示词改成恐怖桌游风格</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
 </sst>
 </file>
@@ -188,7 +182,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{1B209936-EB58-4203-8BBB-9942835A14F9}" userId="S::::fef42a01-5e91-421f-ad2e-fd7ddcbe5a1c" providerId="AD"/>
+  <person displayName="杨行" id="{19B28B64-A53C-4D3D-9C9C-463DA9BE9C25}" userId="S::::82f2f814-f3d7-4211-9e30-5d7aeef14db6" providerId="AD"/>
 </personList>
 </file>
 
@@ -489,7 +483,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{95D91443-7CA4-4480-B9DF-7AFA7BA5CE89}" ref="C7" dT="2024-05-09T06:25:33" personId="{1B209936-EB58-4203-8BBB-9942835A14F9}" parentId="{}">
+  <threadedComment id="{089A3135-786B-4BAC-BEBD-F607647445FF}" ref="J1" dT="2024-05-10T07:08:22" personId="{19B28B64-A53C-4D3D-9C9C-463DA9BE9C25}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment id="{C491E59F-C1C4-4FD4-8101-1042FC77E8C1}" ref="E7" dT="2024-05-09T07:41:18" personId="{19B28B64-A53C-4D3D-9C9C-463DA9BE9C25}" parentId="{}">
+    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
+  </threadedComment>
+  <threadedComment id="{BFE653A0-8C0E-4624-BB37-86BD66976BA8}" ref="C1" dT="2024-05-10T07:54:02" personId="{19B28B64-A53C-4D3D-9C9C-463DA9BE9C25}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{4AF9F289-2370-4FCD-82DC-815492D92139}" ref="C7" dT="2024-05-09T06:25:33" personId="{19B28B64-A53C-4D3D-9C9C-463DA9BE9C25}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
@@ -549,9 +557,7 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="6"/>
     <row customHeight="true" ht="23" r="7"/>
@@ -569,9 +575,6 @@
     <row customHeight="true" ht="23" r="19"/>
     <row customHeight="true" ht="23" r="20"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A5" display="World2 是新的提示词。还需要完善：重新设计提示词改成恐怖桌游风格 " r:id="rId1"/>
-  </hyperlinks>
 </worksheet>
 </file>
 
@@ -849,6 +852,7 @@
     <row customHeight="true" ht="23" r="19"/>
     <row customHeight="true" ht="23" r="20"/>
   </sheetData>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1292,8 +1296,8 @@
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="38"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="74"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="74"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
@@ -1309,6 +1313,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="17"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
@@ -1322,6 +1327,9 @@
         <v>isunique</v>
       </c>
       <c r="D1" s="1" t="str">
+        <v>type</v>
+      </c>
+      <c r="E1" s="1" t="str">
         <v>description</v>
       </c>
     </row>
@@ -1336,6 +1344,9 @@
         <v>No</v>
       </c>
       <c r="D2" s="1" t="str">
+        <v>RoleComponent</v>
+      </c>
+      <c r="E2" s="1" t="str">
         <v>好运气先生左边爪子上的胎记，具体怎么形成的已经无法说清。只有好运气先生能看懂。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。包括：灰颜墓地，焚化炉，灰颜礼拜堂和腐臭地窖。</v>
       </c>
     </row>
@@ -1350,6 +1361,9 @@
         <v>Yes</v>
       </c>
       <c r="D3" s="1" t="str">
+        <v>Weapon</v>
+      </c>
+      <c r="E3" s="1" t="str">
         <v>圣灰园的"焚化炉"所用的工具，炙热无比，是老鼠害怕的东西，因为会点燃毛发</v>
       </c>
     </row>
@@ -1364,6 +1378,9 @@
         <v>No</v>
       </c>
       <c r="D4" s="1" t="str">
+        <v>Weapon</v>
+      </c>
+      <c r="E4" s="1" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐</v>
       </c>
     </row>
@@ -1378,6 +1395,9 @@
         <v>No</v>
       </c>
       <c r="D5" s="1" t="str">
+        <v>Clothes</v>
+      </c>
+      <c r="E5" s="1" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
     </row>
@@ -1392,6 +1412,9 @@
         <v>Yes</v>
       </c>
       <c r="D6" s="1" t="str">
+        <v>NonConsumableItem</v>
+      </c>
+      <c r="E6" s="1" t="str">
         <v>能打开灰颜礼拜堂的门，看上去形状像断掉的手指</v>
       </c>
     </row>
@@ -1405,7 +1428,10 @@
       <c r="C7" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
+        <v>Event</v>
+      </c>
+      <c r="E7" s="2" t="str">
         <v>使用“腐朽的匕首”撬动禁言者之棺产生的缝隙，足够一个人钻出</v>
       </c>
     </row>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={089A3135-786B-4BAC-BEBD-F607647445FF}</author>
+    <author>tc={B3935931-5AA9-44FD-A1E4-B2DA9A90892C}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{089A3135-786B-4BAC-BEBD-F607647445FF}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{B3935931-5AA9-44FD-A1E4-B2DA9A90892C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,22 +46,32 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C491E59F-C1C4-4FD4-8101-1042FC77E8C1}</author>
-    <author>tc={BFE653A0-8C0E-4624-BB37-86BD66976BA8}</author>
-    <author>tc={4AF9F289-2370-4FCD-82DC-815492D92139}</author>
+    <author>tc={706E5FDB-925B-461C-9D0D-65554A5C80D6}</author>
+    <author>tc={97B964FB-9B4F-4B2F-A301-89C400CB0E61}</author>
+    <author>tc={B849B275-7198-434D-8F5D-7ACCDA5FE9D9}</author>
+    <author>tc={AC170E52-8EDC-40B8-B528-BA2E6CF6C520}</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{C491E59F-C1C4-4FD4-8101-1042FC77E8C1}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{706E5FDB-925B-461C-9D0D-65554A5C80D6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{BFE653A0-8C0E-4624-BB37-86BD66976BA8}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{97B964FB-9B4F-4B2F-A301-89C400CB0E61}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="C7" authorId="2" shapeId="0" xr:uid="{4AF9F289-2370-4FCD-82DC-815492D92139}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{B849B275-7198-434D-8F5D-7ACCDA5FE9D9}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
+Weapon，武器，可能用于战斗
+Clothes，全身套装，影响外观
+NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
+Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{AC170E52-8EDC-40B8-B528-BA2E6CF6C520}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
@@ -182,7 +192,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{19B28B64-A53C-4D3D-9C9C-463DA9BE9C25}" userId="S::::82f2f814-f3d7-4211-9e30-5d7aeef14db6" providerId="AD"/>
+  <person displayName="杨行" id="{012689AF-0E63-41AA-94A0-004FEA488F14}" userId="S::::7455bcea-66c6-4825-92d9-06c9b20f0d2e" providerId="AD"/>
 </personList>
 </file>
 
@@ -483,7 +493,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{089A3135-786B-4BAC-BEBD-F607647445FF}" ref="J1" dT="2024-05-10T07:08:22" personId="{19B28B64-A53C-4D3D-9C9C-463DA9BE9C25}" parentId="{}">
+  <threadedComment id="{B3935931-5AA9-44FD-A1E4-B2DA9A90892C}" ref="J1" dT="2024-05-10T07:08:22" personId="{012689AF-0E63-41AA-94A0-004FEA488F14}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -491,13 +501,23 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{C491E59F-C1C4-4FD4-8101-1042FC77E8C1}" ref="E7" dT="2024-05-09T07:41:18" personId="{19B28B64-A53C-4D3D-9C9C-463DA9BE9C25}" parentId="{}">
+  <threadedComment id="{706E5FDB-925B-461C-9D0D-65554A5C80D6}" ref="E8" dT="2024-05-09T07:41:18" personId="{012689AF-0E63-41AA-94A0-004FEA488F14}" parentId="{}">
     <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
-  <threadedComment id="{BFE653A0-8C0E-4624-BB37-86BD66976BA8}" ref="C1" dT="2024-05-10T07:54:02" personId="{19B28B64-A53C-4D3D-9C9C-463DA9BE9C25}" parentId="{}">
+  <threadedComment id="{97B964FB-9B4F-4B2F-A301-89C400CB0E61}" ref="C1" dT="2024-05-10T07:54:02" personId="{012689AF-0E63-41AA-94A0-004FEA488F14}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{4AF9F289-2370-4FCD-82DC-815492D92139}" ref="C7" dT="2024-05-09T06:25:33" personId="{19B28B64-A53C-4D3D-9C9C-463DA9BE9C25}" parentId="{}">
+  <threadedComment id="{B849B275-7198-434D-8F5D-7ACCDA5FE9D9}" ref="D1" dT="2024-05-10T08:11:19" personId="{012689AF-0E63-41AA-94A0-004FEA488F14}" parentId="{}">
+    <text>RoleComponent, 角色的一部分，不可分割
+Weapon，武器，可能用于战斗
+Clothes，全身套装，影响外观
+NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
+Event，发生的事件</text>
+  </threadedComment>
+  <threadedComment id="{81adaf61-5e95-43c2-87f4-d49a9469c01e}" ref="D1" dT="2024-05-10T08:15:39" personId="{012689AF-0E63-41AA-94A0-004FEA488F14}" parentId="{B849B275-7198-434D-8F5D-7ACCDA5FE9D9}">
+    <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{AC170E52-8EDC-40B8-B528-BA2E6CF6C520}" ref="C8" dT="2024-05-09T06:25:33" personId="{012689AF-0E63-41AA-94A0-004FEA488F14}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
@@ -671,7 +691,7 @@
         <v>Player</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>破旧的衣服</v>
+        <v>不死者印记;破旧的衣服</v>
       </c>
       <c r="H3" s="1" t="str">
         <v>你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。你难以回忆起任何事情。但是奇怪的是你能确定你现在所处的这个封闭环境叫禁言者之棺</v>
@@ -752,6 +772,9 @@
         <v>Stage</v>
       </c>
       <c r="C8" s="1"/>
+      <c r="D8" s="2" t="str">
+        <v>不死者印记</v>
+      </c>
       <c r="E8" s="1" t="str">
         <v>(撬开的缝隙|禁言者之棺处于被锁住的状态，无法离开。也许某些尖锐物品能撬开棺材盖间的缝隙？)</v>
       </c>
@@ -1335,10 +1358,10 @@
     </row>
     <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
-        <v>左爪胎记</v>
+        <v>不死者印记</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>birthmark_on_left_paw</v>
+        <v>mark_of_undead</v>
       </c>
       <c r="C2" s="1" t="str">
         <v>No</v>
@@ -1347,95 +1370,111 @@
         <v>RoleComponent</v>
       </c>
       <c r="E2" s="1" t="str">
-        <v>好运气先生左边爪子上的胎记，具体怎么形成的已经无法说清。只有好运气先生能看懂。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。包括：灰颜墓地，焚化炉，灰颜礼拜堂和腐臭地窖。</v>
+        <v>灰色的面容与紫色的双眼。无名的复活者的印记</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
-        <v>炉钩</v>
+        <v>左爪胎记</v>
       </c>
       <c r="B3" s="1" t="str">
-        <v>stove_hook</v>
+        <v>birthmark_on_left_paw</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="D3" s="1" t="str">
-        <v>Weapon</v>
+        <v>RoleComponent</v>
       </c>
       <c r="E3" s="1" t="str">
-        <v>圣灰园的"焚化炉"所用的工具，炙热无比，是老鼠害怕的东西，因为会点燃毛发</v>
+        <v>好运气先生左边爪子上的胎记，具体怎么形成的已经无法说清。只有好运气先生能看懂。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。包括：灰颜墓地，焚化炉，灰颜礼拜堂和腐臭地窖。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1" t="str">
-        <v>腐朽的匕首</v>
+        <v>炉钩</v>
       </c>
       <c r="B4" s="1" t="str">
-        <v>decayed_dagger</v>
+        <v>stove_hook</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="D4" s="1" t="str">
         <v>Weapon</v>
       </c>
       <c r="E4" s="1" t="str">
-        <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐</v>
+        <v>圣灰园的"焚化炉"所用的工具，炙热无比，是老鼠害怕的东西，因为会点燃毛发</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1" t="str">
-        <v>破旧的衣服</v>
+        <v>腐朽的匕首</v>
       </c>
       <c r="B5" s="1" t="str">
-        <v>shabby_clothes</v>
+        <v>decayed_dagger</v>
       </c>
       <c r="C5" s="1" t="str">
         <v>No</v>
       </c>
       <c r="D5" s="1" t="str">
-        <v>Clothes</v>
+        <v>Weapon</v>
       </c>
       <c r="E5" s="1" t="str">
-        <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
+        <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1" t="str">
+        <v>破旧的衣服</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>shabby_clothes</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <v>Clothes</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="7">
+      <c r="A7" s="1" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B7" s="1" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C7" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D7" s="1" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E7" s="1" t="str">
         <v>能打开灰颜礼拜堂的门，看上去形状像断掉的手指</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+    <row customHeight="true" ht="23" r="8">
+      <c r="A8" s="2" t="str">
         <v>撬开的缝隙</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B8" s="2" t="str">
         <v>lid_of_the_coffin</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C8" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D8" s="1" t="str">
         <v>Event</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E8" s="2" t="str">
         <v>使用“腐朽的匕首”撬动禁言者之棺产生的缝隙，足够一个人钻出</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
@@ -1448,6 +1487,7 @@
     <row customHeight="true" ht="23" r="18"/>
     <row customHeight="true" ht="23" r="19"/>
     <row customHeight="true" ht="23" r="20"/>
+    <row customHeight="true" ht="23" r="21"/>
   </sheetData>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B3935931-5AA9-44FD-A1E4-B2DA9A90892C}</author>
+    <author>tc={4E765238-E89D-4A58-A0D7-1D7C3BE4013A}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{B3935931-5AA9-44FD-A1E4-B2DA9A90892C}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4E765238-E89D-4A58-A0D7-1D7C3BE4013A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,23 +46,13 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={706E5FDB-925B-461C-9D0D-65554A5C80D6}</author>
-    <author>tc={97B964FB-9B4F-4B2F-A301-89C400CB0E61}</author>
-    <author>tc={B849B275-7198-434D-8F5D-7ACCDA5FE9D9}</author>
-    <author>tc={AC170E52-8EDC-40B8-B528-BA2E6CF6C520}</author>
+    <author>tc={0BEBE162-253C-4029-B435-5D0C2CF07AB0}</author>
+    <author>tc={D7A5E268-8366-4B26-A04E-C5EA56E40191}</author>
+    <author>tc={4E3F36B7-64F7-49F9-A646-5D33879E89E2}</author>
+    <author>tc={55E69F22-0F01-4736-BE23-4D4BE6B25E51}</author>
   </authors>
   <commentList>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{706E5FDB-925B-461C-9D0D-65554A5C80D6}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{97B964FB-9B4F-4B2F-A301-89C400CB0E61}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{B849B275-7198-434D-8F5D-7ACCDA5FE9D9}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{0BEBE162-253C-4029-B435-5D0C2CF07AB0}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -71,9 +61,19 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{AC170E52-8EDC-40B8-B528-BA2E6CF6C520}">
+    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{D7A5E268-8366-4B26-A04E-C5EA56E40191}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="2" shapeId="0" xr:uid="{4E3F36B7-64F7-49F9-A646-5D33879E89E2}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="3" shapeId="0" xr:uid="{55E69F22-0F01-4736-BE23-4D4BE6B25E51}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -192,7 +192,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{012689AF-0E63-41AA-94A0-004FEA488F14}" userId="S::::7455bcea-66c6-4825-92d9-06c9b20f0d2e" providerId="AD"/>
+  <person displayName="杨行" id="{8E46F88D-DBCF-427F-952D-5DBB6F824566}" userId="S::::3f0df451-36b7-4938-8401-1fbbe0f5d603" providerId="AD"/>
 </personList>
 </file>
 
@@ -493,7 +493,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B3935931-5AA9-44FD-A1E4-B2DA9A90892C}" ref="J1" dT="2024-05-10T07:08:22" personId="{012689AF-0E63-41AA-94A0-004FEA488F14}" parentId="{}">
+  <threadedComment id="{4E765238-E89D-4A58-A0D7-1D7C3BE4013A}" ref="J1" dT="2024-05-10T07:08:22" personId="{8E46F88D-DBCF-427F-952D-5DBB6F824566}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -501,24 +501,24 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{706E5FDB-925B-461C-9D0D-65554A5C80D6}" ref="E8" dT="2024-05-09T07:41:18" personId="{012689AF-0E63-41AA-94A0-004FEA488F14}" parentId="{}">
-    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
-  </threadedComment>
-  <threadedComment id="{97B964FB-9B4F-4B2F-A301-89C400CB0E61}" ref="C1" dT="2024-05-10T07:54:02" personId="{012689AF-0E63-41AA-94A0-004FEA488F14}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{B849B275-7198-434D-8F5D-7ACCDA5FE9D9}" ref="D1" dT="2024-05-10T08:11:19" personId="{012689AF-0E63-41AA-94A0-004FEA488F14}" parentId="{}">
+  <threadedComment id="{0BEBE162-253C-4029-B435-5D0C2CF07AB0}" ref="D1" dT="2024-05-10T08:11:19" personId="{8E46F88D-DBCF-427F-952D-5DBB6F824566}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{81adaf61-5e95-43c2-87f4-d49a9469c01e}" ref="D1" dT="2024-05-10T08:15:39" personId="{012689AF-0E63-41AA-94A0-004FEA488F14}" parentId="{B849B275-7198-434D-8F5D-7ACCDA5FE9D9}">
+  <threadedComment id="{b7f41d9e-cee0-4caf-b9ad-0b95348e3f08}" ref="D1" dT="2024-05-10T08:15:39" personId="{8E46F88D-DBCF-427F-952D-5DBB6F824566}" parentId="{0BEBE162-253C-4029-B435-5D0C2CF07AB0}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{AC170E52-8EDC-40B8-B528-BA2E6CF6C520}" ref="C8" dT="2024-05-09T06:25:33" personId="{012689AF-0E63-41AA-94A0-004FEA488F14}" parentId="{}">
+  <threadedComment id="{D7A5E268-8366-4B26-A04E-C5EA56E40191}" ref="C8" dT="2024-05-09T06:25:33" personId="{8E46F88D-DBCF-427F-952D-5DBB6F824566}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{4E3F36B7-64F7-49F9-A646-5D33879E89E2}" ref="E8" dT="2024-05-09T07:41:18" personId="{8E46F88D-DBCF-427F-952D-5DBB6F824566}" parentId="{}">
+    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
+  </threadedComment>
+  <threadedComment id="{55E69F22-0F01-4736-BE23-4D4BE6B25E51}" ref="C1" dT="2024-05-10T07:54:02" personId="{8E46F88D-DBCF-427F-952D-5DBB6F824566}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -694,7 +694,7 @@
         <v>不死者印记;破旧的衣服</v>
       </c>
       <c r="H3" s="1" t="str">
-        <v>你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。你难以回忆起任何事情。但是奇怪的是你能确定你现在所处的这个封闭环境叫禁言者之棺</v>
+        <v>你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫禁言者之棺</v>
       </c>
       <c r="J3" s="1" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
@@ -785,7 +785,7 @@
         <v>无名的复活者</v>
       </c>
       <c r="H8" s="1" t="str">
-        <v>一个人类——无名的复活者在这里面</v>
+        <v>一个人类——无名的复活者在这里面沉睡。教廷制造你用于封印不死人。无名的复活者便是你要封印的对象。无数的岁月过去了。角落里腐朽的匕首——无名的复活者的陪葬品在角落里。</v>
       </c>
       <c r="I8" s="1" t="str">
         <v>灰颜墓地</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={4E765238-E89D-4A58-A0D7-1D7C3BE4013A}</author>
+    <author>tc={3C0642C1-828C-42A6-82B7-52D3552F6E69}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4E765238-E89D-4A58-A0D7-1D7C3BE4013A}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{3C0642C1-828C-42A6-82B7-52D3552F6E69}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,13 +46,13 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={0BEBE162-253C-4029-B435-5D0C2CF07AB0}</author>
-    <author>tc={D7A5E268-8366-4B26-A04E-C5EA56E40191}</author>
-    <author>tc={4E3F36B7-64F7-49F9-A646-5D33879E89E2}</author>
-    <author>tc={55E69F22-0F01-4736-BE23-4D4BE6B25E51}</author>
+    <author>tc={E5BDBDF6-0C42-406A-84BB-B24FD9132FFE}</author>
+    <author>tc={A08102A0-8C04-4A86-8E3E-366566F79DF6}</author>
+    <author>tc={1229053D-6B48-4A1A-80CD-D228908B53EF}</author>
+    <author>tc={4EC61689-5F90-4ECC-8327-D3830900DA1B}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{0BEBE162-253C-4029-B435-5D0C2CF07AB0}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E5BDBDF6-0C42-406A-84BB-B24FD9132FFE}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -61,17 +61,17 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{D7A5E268-8366-4B26-A04E-C5EA56E40191}">
+    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{A08102A0-8C04-4A86-8E3E-366566F79DF6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="2" shapeId="0" xr:uid="{4E3F36B7-64F7-49F9-A646-5D33879E89E2}">
+    <comment ref="E8" authorId="2" shapeId="0" xr:uid="{1229053D-6B48-4A1A-80CD-D228908B53EF}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="3" shapeId="0" xr:uid="{55E69F22-0F01-4736-BE23-4D4BE6B25E51}">
+    <comment ref="C1" authorId="3" shapeId="0" xr:uid="{4EC61689-5F90-4ECC-8327-D3830900DA1B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
@@ -127,14 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,9 +162,6 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -192,7 +182,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{8E46F88D-DBCF-427F-952D-5DBB6F824566}" userId="S::::3f0df451-36b7-4938-8401-1fbbe0f5d603" providerId="AD"/>
+  <person displayName="杨行" id="{3A895CF6-A4A7-47B8-953A-D34EA2F0CB8A}" userId="S::::199480e4-3404-418b-8ca0-d1cc8bfdbb28" providerId="AD"/>
 </personList>
 </file>
 
@@ -493,7 +483,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{4E765238-E89D-4A58-A0D7-1D7C3BE4013A}" ref="J1" dT="2024-05-10T07:08:22" personId="{8E46F88D-DBCF-427F-952D-5DBB6F824566}" parentId="{}">
+  <threadedComment id="{3C0642C1-828C-42A6-82B7-52D3552F6E69}" ref="J1" dT="2024-05-10T07:08:22" personId="{3A895CF6-A4A7-47B8-953A-D34EA2F0CB8A}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -501,23 +491,23 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{0BEBE162-253C-4029-B435-5D0C2CF07AB0}" ref="D1" dT="2024-05-10T08:11:19" personId="{8E46F88D-DBCF-427F-952D-5DBB6F824566}" parentId="{}">
+  <threadedComment id="{E5BDBDF6-0C42-406A-84BB-B24FD9132FFE}" ref="D1" dT="2024-05-10T08:11:19" personId="{3A895CF6-A4A7-47B8-953A-D34EA2F0CB8A}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{b7f41d9e-cee0-4caf-b9ad-0b95348e3f08}" ref="D1" dT="2024-05-10T08:15:39" personId="{8E46F88D-DBCF-427F-952D-5DBB6F824566}" parentId="{0BEBE162-253C-4029-B435-5D0C2CF07AB0}">
+  <threadedComment id="{4d9a35ec-2ae0-4054-920c-1e045849bea5}" ref="D1" dT="2024-05-10T08:15:39" personId="{3A895CF6-A4A7-47B8-953A-D34EA2F0CB8A}" parentId="{E5BDBDF6-0C42-406A-84BB-B24FD9132FFE}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{D7A5E268-8366-4B26-A04E-C5EA56E40191}" ref="C8" dT="2024-05-09T06:25:33" personId="{8E46F88D-DBCF-427F-952D-5DBB6F824566}" parentId="{}">
+  <threadedComment id="{A08102A0-8C04-4A86-8E3E-366566F79DF6}" ref="C8" dT="2024-05-09T06:25:33" personId="{3A895CF6-A4A7-47B8-953A-D34EA2F0CB8A}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{4E3F36B7-64F7-49F9-A646-5D33879E89E2}" ref="E8" dT="2024-05-09T07:41:18" personId="{8E46F88D-DBCF-427F-952D-5DBB6F824566}" parentId="{}">
+  <threadedComment id="{1229053D-6B48-4A1A-80CD-D228908B53EF}" ref="E8" dT="2024-05-09T07:41:18" personId="{3A895CF6-A4A7-47B8-953A-D34EA2F0CB8A}" parentId="{}">
     <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
-  <threadedComment id="{55E69F22-0F01-4736-BE23-4D4BE6B25E51}" ref="C1" dT="2024-05-10T07:54:02" personId="{8E46F88D-DBCF-427F-952D-5DBB6F824566}" parentId="{}">
+  <threadedComment id="{4EC61689-5F90-4ECC-8327-D3830900DA1B}" ref="C1" dT="2024-05-10T07:54:02" personId="{3A895CF6-A4A7-47B8-953A-D34EA2F0CB8A}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
@@ -898,7 +888,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
@@ -957,7 +947,7 @@
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
       <c r="G2" s="1" t="str">
-        <v>10000,10000,1</v>
+        <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
@@ -980,7 +970,7 @@
         <v>/stage/gray_cemetery</v>
       </c>
       <c r="G3" s="1" t="str">
-        <v>10000,10000,1</v>
+        <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
@@ -1003,7 +993,7 @@
         <v>/stage/the_incinerator</v>
       </c>
       <c r="G4" s="1" t="str">
-        <v>10000,10000,1</v>
+        <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
@@ -1026,7 +1016,7 @@
         <v>/stage/gray_chapel</v>
       </c>
       <c r="G5" s="1" t="str">
-        <v>10000,10000,1</v>
+        <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
@@ -1049,7 +1039,7 @@
         <v>/stage/rancid_cellar</v>
       </c>
       <c r="G6" s="1" t="str">
-        <v>10000,10000,1</v>
+        <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7"/>
@@ -1156,7 +1146,7 @@
         <v>/npc/papal_emissary</v>
       </c>
       <c r="H4" s="1" t="str">
-        <v>10000,10000,10</v>
+        <v>10000,10000,10,10</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
@@ -1181,8 +1171,8 @@
       <c r="G5" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="H5" s="3" t="str">
-        <v>100,100,10</v>
+      <c r="H5" s="2" t="str">
+        <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
@@ -1207,8 +1197,8 @@
       <c r="G6" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="H6" s="3" t="str">
-        <v>100,100,10</v>
+      <c r="H6" s="2" t="str">
+        <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
@@ -1234,8 +1224,8 @@
       <c r="G7" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="H7" s="3" t="str">
-        <v>100,100,10</v>
+      <c r="H7" s="2" t="str">
+        <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
@@ -1260,8 +1250,8 @@
       <c r="G8" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="H8" s="3" t="str">
-        <v>100,100,10</v>
+      <c r="H8" s="2" t="str">
+        <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
@@ -1286,8 +1276,8 @@
       <c r="G9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="H9" s="3" t="str">
-        <v>100,100,10</v>
+      <c r="H9" s="2" t="str">
+        <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={3C0642C1-828C-42A6-82B7-52D3552F6E69}</author>
+    <author>tc={078C227B-7BCF-4EFB-A341-8201A1C9D7A6}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{3C0642C1-828C-42A6-82B7-52D3552F6E69}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{078C227B-7BCF-4EFB-A341-8201A1C9D7A6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,13 +46,18 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E5BDBDF6-0C42-406A-84BB-B24FD9132FFE}</author>
-    <author>tc={A08102A0-8C04-4A86-8E3E-366566F79DF6}</author>
-    <author>tc={1229053D-6B48-4A1A-80CD-D228908B53EF}</author>
-    <author>tc={4EC61689-5F90-4ECC-8327-D3830900DA1B}</author>
+    <author>tc={9FD2B706-5428-4035-871E-2AC8AA407F28}</author>
+    <author>tc={C353187C-39CD-448A-A02E-F770F9675AFC}</author>
+    <author>tc={9B0E2F09-2674-45FE-975B-4059B6BF5816}</author>
+    <author>tc={BECFD142-E667-4538-B1B9-E5C402739DD6}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E5BDBDF6-0C42-406A-84BB-B24FD9132FFE}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9FD2B706-5428-4035-871E-2AC8AA407F28}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{C353187C-39CD-448A-A02E-F770F9675AFC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -61,19 +66,14 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{A08102A0-8C04-4A86-8E3E-366566F79DF6}">
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{9B0E2F09-2674-45FE-975B-4059B6BF5816}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="2" shapeId="0" xr:uid="{1229053D-6B48-4A1A-80CD-D228908B53EF}">
+    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{BECFD142-E667-4538-B1B9-E5C402739DD6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="3" shapeId="0" xr:uid="{4EC61689-5F90-4ECC-8327-D3830900DA1B}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -182,7 +182,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{3A895CF6-A4A7-47B8-953A-D34EA2F0CB8A}" userId="S::::199480e4-3404-418b-8ca0-d1cc8bfdbb28" providerId="AD"/>
+  <person displayName="杨行" id="{1183F008-3A3E-47D2-9470-82AA2F467D8C}" userId="S::::2cd30998-8c16-480f-bc2c-8ce0848f2614" providerId="AD"/>
 </personList>
 </file>
 
@@ -483,7 +483,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{3C0642C1-828C-42A6-82B7-52D3552F6E69}" ref="J1" dT="2024-05-10T07:08:22" personId="{3A895CF6-A4A7-47B8-953A-D34EA2F0CB8A}" parentId="{}">
+  <threadedComment id="{078C227B-7BCF-4EFB-A341-8201A1C9D7A6}" ref="J1" dT="2024-05-10T07:08:22" personId="{1183F008-3A3E-47D2-9470-82AA2F467D8C}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -491,24 +491,24 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{E5BDBDF6-0C42-406A-84BB-B24FD9132FFE}" ref="D1" dT="2024-05-10T08:11:19" personId="{3A895CF6-A4A7-47B8-953A-D34EA2F0CB8A}" parentId="{}">
+  <threadedComment id="{9FD2B706-5428-4035-871E-2AC8AA407F28}" ref="C1" dT="2024-05-10T07:54:02" personId="{1183F008-3A3E-47D2-9470-82AA2F467D8C}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{C353187C-39CD-448A-A02E-F770F9675AFC}" ref="D1" dT="2024-05-10T08:11:19" personId="{1183F008-3A3E-47D2-9470-82AA2F467D8C}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{4d9a35ec-2ae0-4054-920c-1e045849bea5}" ref="D1" dT="2024-05-10T08:15:39" personId="{3A895CF6-A4A7-47B8-953A-D34EA2F0CB8A}" parentId="{E5BDBDF6-0C42-406A-84BB-B24FD9132FFE}">
+  <threadedComment id="{445ef0ab-6cdf-4d7a-88ed-9be98a4b5fa7}" ref="D1" dT="2024-05-10T08:15:39" personId="{1183F008-3A3E-47D2-9470-82AA2F467D8C}" parentId="{C353187C-39CD-448A-A02E-F770F9675AFC}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{A08102A0-8C04-4A86-8E3E-366566F79DF6}" ref="C8" dT="2024-05-09T06:25:33" personId="{3A895CF6-A4A7-47B8-953A-D34EA2F0CB8A}" parentId="{}">
+  <threadedComment id="{9B0E2F09-2674-45FE-975B-4059B6BF5816}" ref="C8" dT="2024-05-09T06:25:33" personId="{1183F008-3A3E-47D2-9470-82AA2F467D8C}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{1229053D-6B48-4A1A-80CD-D228908B53EF}" ref="E8" dT="2024-05-09T07:41:18" personId="{3A895CF6-A4A7-47B8-953A-D34EA2F0CB8A}" parentId="{}">
+  <threadedComment id="{BECFD142-E667-4538-B1B9-E5C402739DD6}" ref="E8" dT="2024-05-09T07:41:18" personId="{1183F008-3A3E-47D2-9470-82AA2F467D8C}" parentId="{}">
     <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
-  </threadedComment>
-  <threadedComment id="{4EC61689-5F90-4ECC-8327-D3830900DA1B}" ref="C1" dT="2024-05-10T07:54:02" personId="{3A895CF6-A4A7-47B8-953A-D34EA2F0CB8A}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1302,7 +1302,9 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0"/>
+    <sheetView showGridLines="true" workbookViewId="0">
+      <pane state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
@@ -1310,7 +1312,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="38"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="74"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="139"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
@@ -1345,6 +1347,9 @@
       <c r="E1" s="1" t="str">
         <v>description</v>
       </c>
+      <c r="F1" s="2" t="str">
+        <v>attributes</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
@@ -1396,6 +1401,9 @@
       <c r="E4" s="1" t="str">
         <v>圣灰园的"焚化炉"所用的工具，炙热无比，是老鼠害怕的东西，因为会点燃毛发</v>
       </c>
+      <c r="F4" s="2" t="str">
+        <v>0,10000,0</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1" t="str">
@@ -1413,6 +1421,9 @@
       <c r="E5" s="1" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐</v>
       </c>
+      <c r="F5" s="2" t="str">
+        <v>0,1,0</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1" t="str">
@@ -1429,6 +1440,9 @@
       </c>
       <c r="E6" s="1" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <v>0,0,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={078C227B-7BCF-4EFB-A341-8201A1C9D7A6}</author>
+    <author>tc={65C39670-9CCC-4A6B-A1A0-1A84678030C8}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{078C227B-7BCF-4EFB-A341-8201A1C9D7A6}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{65C39670-9CCC-4A6B-A1A0-1A84678030C8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,18 +46,18 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9FD2B706-5428-4035-871E-2AC8AA407F28}</author>
-    <author>tc={C353187C-39CD-448A-A02E-F770F9675AFC}</author>
-    <author>tc={9B0E2F09-2674-45FE-975B-4059B6BF5816}</author>
-    <author>tc={BECFD142-E667-4538-B1B9-E5C402739DD6}</author>
+    <author>tc={0629F14F-144D-4030-872B-01C393049B88}</author>
+    <author>tc={0F3FD758-610E-41EC-A3B8-42779F2EBABC}</author>
+    <author>tc={9772EF10-016A-4164-A766-451712457962}</author>
+    <author>tc={3FF8AB13-F773-4A55-8CFC-2C26A0A34AA1}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9FD2B706-5428-4035-871E-2AC8AA407F28}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0629F14F-144D-4030-872B-01C393049B88}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{C353187C-39CD-448A-A02E-F770F9675AFC}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{0F3FD758-610E-41EC-A3B8-42779F2EBABC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -66,12 +66,12 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{9B0E2F09-2674-45FE-975B-4059B6BF5816}">
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{9772EF10-016A-4164-A766-451712457962}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{BECFD142-E667-4538-B1B9-E5C402739DD6}">
+    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{3FF8AB13-F773-4A55-8CFC-2C26A0A34AA1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
@@ -182,7 +182,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{1183F008-3A3E-47D2-9470-82AA2F467D8C}" userId="S::::2cd30998-8c16-480f-bc2c-8ce0848f2614" providerId="AD"/>
+  <person displayName="杨行" id="{3AC63A31-E6D6-4CB7-8985-DC491C3F7E1C}" userId="S::::9e2ecaa5-c98a-4a8c-b1fb-468429ab78ff" providerId="AD"/>
 </personList>
 </file>
 
@@ -483,7 +483,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{078C227B-7BCF-4EFB-A341-8201A1C9D7A6}" ref="J1" dT="2024-05-10T07:08:22" personId="{1183F008-3A3E-47D2-9470-82AA2F467D8C}" parentId="{}">
+  <threadedComment id="{65C39670-9CCC-4A6B-A1A0-1A84678030C8}" ref="J1" dT="2024-05-10T07:08:22" personId="{3AC63A31-E6D6-4CB7-8985-DC491C3F7E1C}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -491,23 +491,23 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{9FD2B706-5428-4035-871E-2AC8AA407F28}" ref="C1" dT="2024-05-10T07:54:02" personId="{1183F008-3A3E-47D2-9470-82AA2F467D8C}" parentId="{}">
+  <threadedComment id="{0629F14F-144D-4030-872B-01C393049B88}" ref="C1" dT="2024-05-10T07:54:02" personId="{3AC63A31-E6D6-4CB7-8985-DC491C3F7E1C}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{C353187C-39CD-448A-A02E-F770F9675AFC}" ref="D1" dT="2024-05-10T08:11:19" personId="{1183F008-3A3E-47D2-9470-82AA2F467D8C}" parentId="{}">
+  <threadedComment id="{0F3FD758-610E-41EC-A3B8-42779F2EBABC}" ref="D1" dT="2024-05-10T08:11:19" personId="{3AC63A31-E6D6-4CB7-8985-DC491C3F7E1C}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{445ef0ab-6cdf-4d7a-88ed-9be98a4b5fa7}" ref="D1" dT="2024-05-10T08:15:39" personId="{1183F008-3A3E-47D2-9470-82AA2F467D8C}" parentId="{C353187C-39CD-448A-A02E-F770F9675AFC}">
+  <threadedComment id="{e3ed3662-5766-46e5-ba41-91c4afcce3fe}" ref="D1" dT="2024-05-10T08:15:39" personId="{3AC63A31-E6D6-4CB7-8985-DC491C3F7E1C}" parentId="{0F3FD758-610E-41EC-A3B8-42779F2EBABC}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{9B0E2F09-2674-45FE-975B-4059B6BF5816}" ref="C8" dT="2024-05-09T06:25:33" personId="{1183F008-3A3E-47D2-9470-82AA2F467D8C}" parentId="{}">
+  <threadedComment id="{9772EF10-016A-4164-A766-451712457962}" ref="C8" dT="2024-05-09T06:25:33" personId="{3AC63A31-E6D6-4CB7-8985-DC491C3F7E1C}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{BECFD142-E667-4538-B1B9-E5C402739DD6}" ref="E8" dT="2024-05-09T07:41:18" personId="{1183F008-3A3E-47D2-9470-82AA2F467D8C}" parentId="{}">
+  <threadedComment id="{3FF8AB13-F773-4A55-8CFC-2C26A0A34AA1}" ref="E8" dT="2024-05-09T07:41:18" personId="{3AC63A31-E6D6-4CB7-8985-DC491C3F7E1C}" parentId="{}">
     <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
 </ThreadedComments>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={65C39670-9CCC-4A6B-A1A0-1A84678030C8}</author>
+    <author>tc={019FED04-8D77-4CB8-A9B7-BCFF63117F05}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{65C39670-9CCC-4A6B-A1A0-1A84678030C8}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{019FED04-8D77-4CB8-A9B7-BCFF63117F05}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,34 +46,34 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={0629F14F-144D-4030-872B-01C393049B88}</author>
-    <author>tc={0F3FD758-610E-41EC-A3B8-42779F2EBABC}</author>
-    <author>tc={9772EF10-016A-4164-A766-451712457962}</author>
-    <author>tc={3FF8AB13-F773-4A55-8CFC-2C26A0A34AA1}</author>
+    <author>tc={4E9EE62B-119A-4717-AD4B-431B122D5CBB}</author>
+    <author>tc={4F7E5531-DA28-4B26-AC5A-2DBD85C8761A}</author>
+    <author>tc={9E86A2FB-1E42-4766-AEEF-6378C2D4450A}</author>
+    <author>tc={2CA0571B-D9DC-4FD7-8E0A-D58436418D44}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0629F14F-144D-4030-872B-01C393049B88}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{4E9EE62B-119A-4717-AD4B-431B122D5CBB}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{4F7E5531-DA28-4B26-AC5A-2DBD85C8761A}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{9E86A2FB-1E42-4766-AEEF-6378C2D4450A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{0F3FD758-610E-41EC-A3B8-42779F2EBABC}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{2CA0571B-D9DC-4FD7-8E0A-D58436418D44}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{9772EF10-016A-4164-A766-451712457962}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{3FF8AB13-F773-4A55-8CFC-2C26A0A34AA1}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
     </comment>
   </commentList>
@@ -182,7 +182,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{3AC63A31-E6D6-4CB7-8985-DC491C3F7E1C}" userId="S::::9e2ecaa5-c98a-4a8c-b1fb-468429ab78ff" providerId="AD"/>
+  <person displayName="杨行" id="{7872983A-E1FF-4F5A-99AD-2880938DF298}" userId="S::::ee854985-3113-4e3d-abb4-1694b6bae110" providerId="AD"/>
 </personList>
 </file>
 
@@ -483,7 +483,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{65C39670-9CCC-4A6B-A1A0-1A84678030C8}" ref="J1" dT="2024-05-10T07:08:22" personId="{3AC63A31-E6D6-4CB7-8985-DC491C3F7E1C}" parentId="{}">
+  <threadedComment id="{019FED04-8D77-4CB8-A9B7-BCFF63117F05}" ref="J1" dT="2024-05-10T07:08:22" personId="{7872983A-E1FF-4F5A-99AD-2880938DF298}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -491,24 +491,24 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{0629F14F-144D-4030-872B-01C393049B88}" ref="C1" dT="2024-05-10T07:54:02" personId="{3AC63A31-E6D6-4CB7-8985-DC491C3F7E1C}" parentId="{}">
+  <threadedComment id="{4E9EE62B-119A-4717-AD4B-431B122D5CBB}" ref="C8" dT="2024-05-09T06:25:33" personId="{7872983A-E1FF-4F5A-99AD-2880938DF298}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{4F7E5531-DA28-4B26-AC5A-2DBD85C8761A}" ref="E8" dT="2024-05-09T07:41:18" personId="{7872983A-E1FF-4F5A-99AD-2880938DF298}" parentId="{}">
+    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
+  </threadedComment>
+  <threadedComment id="{9E86A2FB-1E42-4766-AEEF-6378C2D4450A}" ref="C1" dT="2024-05-10T07:54:02" personId="{7872983A-E1FF-4F5A-99AD-2880938DF298}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{0F3FD758-610E-41EC-A3B8-42779F2EBABC}" ref="D1" dT="2024-05-10T08:11:19" personId="{3AC63A31-E6D6-4CB7-8985-DC491C3F7E1C}" parentId="{}">
+  <threadedComment id="{2CA0571B-D9DC-4FD7-8E0A-D58436418D44}" ref="D1" dT="2024-05-10T08:11:19" personId="{7872983A-E1FF-4F5A-99AD-2880938DF298}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{e3ed3662-5766-46e5-ba41-91c4afcce3fe}" ref="D1" dT="2024-05-10T08:15:39" personId="{3AC63A31-E6D6-4CB7-8985-DC491C3F7E1C}" parentId="{0F3FD758-610E-41EC-A3B8-42779F2EBABC}">
+  <threadedComment id="{925b5a92-2079-42ac-bbb7-d28eae5807d0}" ref="D1" dT="2024-05-10T08:15:39" personId="{7872983A-E1FF-4F5A-99AD-2880938DF298}" parentId="{2CA0571B-D9DC-4FD7-8E0A-D58436418D44}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{9772EF10-016A-4164-A766-451712457962}" ref="C8" dT="2024-05-09T06:25:33" personId="{3AC63A31-E6D6-4CB7-8985-DC491C3F7E1C}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{3FF8AB13-F773-4A55-8CFC-2C26A0A34AA1}" ref="E8" dT="2024-05-09T07:41:18" personId="{3AC63A31-E6D6-4CB7-8985-DC491C3F7E1C}" parentId="{}">
-    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
 </ThreadedComments>
 </file>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={019FED04-8D77-4CB8-A9B7-BCFF63117F05}</author>
+    <author>tc={27A49239-F9A4-4319-9733-190E9C5CDF1F}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{019FED04-8D77-4CB8-A9B7-BCFF63117F05}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{27A49239-F9A4-4319-9733-190E9C5CDF1F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,34 +46,34 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={4E9EE62B-119A-4717-AD4B-431B122D5CBB}</author>
-    <author>tc={4F7E5531-DA28-4B26-AC5A-2DBD85C8761A}</author>
-    <author>tc={9E86A2FB-1E42-4766-AEEF-6378C2D4450A}</author>
-    <author>tc={2CA0571B-D9DC-4FD7-8E0A-D58436418D44}</author>
+    <author>tc={ED8BF05F-D237-4268-82F6-BF0DE83C702E}</author>
+    <author>tc={DC441BFC-291F-4179-AF3C-DD464E3389CA}</author>
+    <author>tc={925452D0-2506-4499-9F26-D528535C9488}</author>
+    <author>tc={158B30E4-054D-4C03-9725-3FFCCDE66087}</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{4E9EE62B-119A-4717-AD4B-431B122D5CBB}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{4F7E5531-DA28-4B26-AC5A-2DBD85C8761A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{9E86A2FB-1E42-4766-AEEF-6378C2D4450A}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{ED8BF05F-D237-4268-82F6-BF0DE83C702E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{2CA0571B-D9DC-4FD7-8E0A-D58436418D44}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{DC441BFC-291F-4179-AF3C-DD464E3389CA}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{925452D0-2506-4499-9F26-D528535C9488}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{158B30E4-054D-4C03-9725-3FFCCDE66087}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
     </comment>
   </commentList>
@@ -182,7 +182,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{7872983A-E1FF-4F5A-99AD-2880938DF298}" userId="S::::ee854985-3113-4e3d-abb4-1694b6bae110" providerId="AD"/>
+  <person displayName="杨行" id="{919A101C-B497-4A47-90CA-B1144E66F00E}" userId="S::::53bc219e-bd42-4480-8094-d07e1f293791" providerId="AD"/>
 </personList>
 </file>
 
@@ -483,7 +483,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{019FED04-8D77-4CB8-A9B7-BCFF63117F05}" ref="J1" dT="2024-05-10T07:08:22" personId="{7872983A-E1FF-4F5A-99AD-2880938DF298}" parentId="{}">
+  <threadedComment id="{27A49239-F9A4-4319-9733-190E9C5CDF1F}" ref="J1" dT="2024-05-10T07:08:22" personId="{919A101C-B497-4A47-90CA-B1144E66F00E}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -491,24 +491,24 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{4E9EE62B-119A-4717-AD4B-431B122D5CBB}" ref="C8" dT="2024-05-09T06:25:33" personId="{7872983A-E1FF-4F5A-99AD-2880938DF298}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{4F7E5531-DA28-4B26-AC5A-2DBD85C8761A}" ref="E8" dT="2024-05-09T07:41:18" personId="{7872983A-E1FF-4F5A-99AD-2880938DF298}" parentId="{}">
-    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
-  </threadedComment>
-  <threadedComment id="{9E86A2FB-1E42-4766-AEEF-6378C2D4450A}" ref="C1" dT="2024-05-10T07:54:02" personId="{7872983A-E1FF-4F5A-99AD-2880938DF298}" parentId="{}">
+  <threadedComment id="{ED8BF05F-D237-4268-82F6-BF0DE83C702E}" ref="C1" dT="2024-05-10T07:54:02" personId="{919A101C-B497-4A47-90CA-B1144E66F00E}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{2CA0571B-D9DC-4FD7-8E0A-D58436418D44}" ref="D1" dT="2024-05-10T08:11:19" personId="{7872983A-E1FF-4F5A-99AD-2880938DF298}" parentId="{}">
+  <threadedComment id="{DC441BFC-291F-4179-AF3C-DD464E3389CA}" ref="D1" dT="2024-05-10T08:11:19" personId="{919A101C-B497-4A47-90CA-B1144E66F00E}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{925b5a92-2079-42ac-bbb7-d28eae5807d0}" ref="D1" dT="2024-05-10T08:15:39" personId="{7872983A-E1FF-4F5A-99AD-2880938DF298}" parentId="{2CA0571B-D9DC-4FD7-8E0A-D58436418D44}">
+  <threadedComment id="{813ec620-5e80-4669-bc5e-9555ea3b71c3}" ref="D1" dT="2024-05-10T08:15:39" personId="{919A101C-B497-4A47-90CA-B1144E66F00E}" parentId="{DC441BFC-291F-4179-AF3C-DD464E3389CA}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{925452D0-2506-4499-9F26-D528535C9488}" ref="C8" dT="2024-05-09T06:25:33" personId="{919A101C-B497-4A47-90CA-B1144E66F00E}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{158B30E4-054D-4C03-9725-3FFCCDE66087}" ref="E8" dT="2024-05-09T07:41:18" personId="{919A101C-B497-4A47-90CA-B1144E66F00E}" parentId="{}">
+    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1476,7 +1476,7 @@
         <v>Event</v>
       </c>
       <c r="E8" s="2" t="str">
-        <v>使用“腐朽的匕首”撬动禁言者之棺产生的缝隙，足够一个人钻出</v>
+        <v>使用腐朽的匕首撬动禁言者之棺产生的缝隙，足够一个人钻出</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9"/>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={27A49239-F9A4-4319-9733-190E9C5CDF1F}</author>
+    <author>tc={BF143310-535A-452C-AE02-BB512255AD71}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{27A49239-F9A4-4319-9733-190E9C5CDF1F}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{BF143310-535A-452C-AE02-BB512255AD71}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,18 +46,18 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={ED8BF05F-D237-4268-82F6-BF0DE83C702E}</author>
-    <author>tc={DC441BFC-291F-4179-AF3C-DD464E3389CA}</author>
-    <author>tc={925452D0-2506-4499-9F26-D528535C9488}</author>
-    <author>tc={158B30E4-054D-4C03-9725-3FFCCDE66087}</author>
+    <author>tc={5F815122-F5B7-4C8C-9593-D5120A1D741C}</author>
+    <author>tc={179FD9DE-1266-4908-A6DF-06787674EE2B}</author>
+    <author>tc={8E832F2B-8B5F-46A3-8333-E3A2B84C9EB8}</author>
+    <author>tc={977A8D55-2B8F-4F56-BBE9-6DD6AFDCCA3C}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{ED8BF05F-D237-4268-82F6-BF0DE83C702E}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5F815122-F5B7-4C8C-9593-D5120A1D741C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{DC441BFC-291F-4179-AF3C-DD464E3389CA}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{179FD9DE-1266-4908-A6DF-06787674EE2B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -66,12 +66,12 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{925452D0-2506-4499-9F26-D528535C9488}">
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{8E832F2B-8B5F-46A3-8333-E3A2B84C9EB8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{158B30E4-054D-4C03-9725-3FFCCDE66087}">
+    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{977A8D55-2B8F-4F56-BBE9-6DD6AFDCCA3C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
@@ -182,7 +182,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{919A101C-B497-4A47-90CA-B1144E66F00E}" userId="S::::53bc219e-bd42-4480-8094-d07e1f293791" providerId="AD"/>
+  <person displayName="杨行" id="{CAC5ECA8-15D8-4B62-ABCB-BCDC7CE00451}" userId="S::::0c6498c1-2164-4d4d-ad92-ff928d9f84d3" providerId="AD"/>
 </personList>
 </file>
 
@@ -483,7 +483,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{27A49239-F9A4-4319-9733-190E9C5CDF1F}" ref="J1" dT="2024-05-10T07:08:22" personId="{919A101C-B497-4A47-90CA-B1144E66F00E}" parentId="{}">
+  <threadedComment id="{BF143310-535A-452C-AE02-BB512255AD71}" ref="J1" dT="2024-05-10T07:08:22" personId="{CAC5ECA8-15D8-4B62-ABCB-BCDC7CE00451}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -491,23 +491,23 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{ED8BF05F-D237-4268-82F6-BF0DE83C702E}" ref="C1" dT="2024-05-10T07:54:02" personId="{919A101C-B497-4A47-90CA-B1144E66F00E}" parentId="{}">
+  <threadedComment id="{5F815122-F5B7-4C8C-9593-D5120A1D741C}" ref="C1" dT="2024-05-10T07:54:02" personId="{CAC5ECA8-15D8-4B62-ABCB-BCDC7CE00451}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{DC441BFC-291F-4179-AF3C-DD464E3389CA}" ref="D1" dT="2024-05-10T08:11:19" personId="{919A101C-B497-4A47-90CA-B1144E66F00E}" parentId="{}">
+  <threadedComment id="{179FD9DE-1266-4908-A6DF-06787674EE2B}" ref="D1" dT="2024-05-10T08:11:19" personId="{CAC5ECA8-15D8-4B62-ABCB-BCDC7CE00451}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{813ec620-5e80-4669-bc5e-9555ea3b71c3}" ref="D1" dT="2024-05-10T08:15:39" personId="{919A101C-B497-4A47-90CA-B1144E66F00E}" parentId="{DC441BFC-291F-4179-AF3C-DD464E3389CA}">
+  <threadedComment id="{e5a381e2-2fd8-4839-a979-e5ccd3d9c5d5}" ref="D1" dT="2024-05-10T08:15:39" personId="{CAC5ECA8-15D8-4B62-ABCB-BCDC7CE00451}" parentId="{179FD9DE-1266-4908-A6DF-06787674EE2B}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{925452D0-2506-4499-9F26-D528535C9488}" ref="C8" dT="2024-05-09T06:25:33" personId="{919A101C-B497-4A47-90CA-B1144E66F00E}" parentId="{}">
+  <threadedComment id="{8E832F2B-8B5F-46A3-8333-E3A2B84C9EB8}" ref="C8" dT="2024-05-09T06:25:33" personId="{CAC5ECA8-15D8-4B62-ABCB-BCDC7CE00451}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{158B30E4-054D-4C03-9725-3FFCCDE66087}" ref="E8" dT="2024-05-09T07:41:18" personId="{919A101C-B497-4A47-90CA-B1144E66F00E}" parentId="{}">
+  <threadedComment id="{977A8D55-2B8F-4F56-BBE9-6DD6AFDCCA3C}" ref="E8" dT="2024-05-09T07:41:18" personId="{CAC5ECA8-15D8-4B62-ABCB-BCDC7CE00451}" parentId="{}">
     <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
 </ThreadedComments>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={BF143310-535A-452C-AE02-BB512255AD71}</author>
+    <author>tc={DE1FB460-504C-460D-B606-BD3FA4942C9C}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{BF143310-535A-452C-AE02-BB512255AD71}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{DE1FB460-504C-460D-B606-BD3FA4942C9C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,34 +46,40 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={5F815122-F5B7-4C8C-9593-D5120A1D741C}</author>
-    <author>tc={179FD9DE-1266-4908-A6DF-06787674EE2B}</author>
-    <author>tc={8E832F2B-8B5F-46A3-8333-E3A2B84C9EB8}</author>
-    <author>tc={977A8D55-2B8F-4F56-BBE9-6DD6AFDCCA3C}</author>
+    <author>tc={D4958390-7A9B-4D17-98D5-1A9804E064DF}</author>
+    <author>tc={193E8BB1-FA28-4041-8EC1-3D13BDBD3E00}</author>
+    <author>tc={E40FF90B-0AFB-40A4-8158-570166BB99DC}</author>
+    <author>tc={742E7357-283F-4C75-8D36-BC20D4D33D81}</author>
+    <author>tc={EE639591-FC08-4D94-A18E-9457202A102E}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5F815122-F5B7-4C8C-9593-D5120A1D741C}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{D4958390-7A9B-4D17-98D5-1A9804E064DF}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{193E8BB1-FA28-4041-8EC1-3D13BDBD3E00}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="2" shapeId="0" xr:uid="{E40FF90B-0AFB-40A4-8158-570166BB99DC}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="3" shapeId="0" xr:uid="{742E7357-283F-4C75-8D36-BC20D4D33D81}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{179FD9DE-1266-4908-A6DF-06787674EE2B}">
+    <comment ref="D1" authorId="4" shapeId="0" xr:uid="{EE639591-FC08-4D94-A18E-9457202A102E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{8E832F2B-8B5F-46A3-8333-E3A2B84C9EB8}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{977A8D55-2B8F-4F56-BBE9-6DD6AFDCCA3C}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
     </comment>
   </commentList>
@@ -182,7 +188,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{CAC5ECA8-15D8-4B62-ABCB-BCDC7CE00451}" userId="S::::0c6498c1-2164-4d4d-ad92-ff928d9f84d3" providerId="AD"/>
+  <person displayName="杨行" id="{430DC91B-B10A-4143-B4FD-93A3BAE872C6}" userId="S::::fdef2727-d75b-4ee6-b5c5-c67c8a71ec8b" providerId="AD"/>
+  <person displayName="侯清辰" id="{B2C0CBC6-A344-4067-9D15-08C52E3799FA}" userId="S::::e07c0cac-c083-40fb-882a-e876b6637a34" providerId="AD"/>
 </personList>
 </file>
 
@@ -483,7 +490,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{BF143310-535A-452C-AE02-BB512255AD71}" ref="J1" dT="2024-05-10T07:08:22" personId="{CAC5ECA8-15D8-4B62-ABCB-BCDC7CE00451}" parentId="{}">
+  <threadedComment id="{DE1FB460-504C-460D-B606-BD3FA4942C9C}" ref="J1" dT="2024-05-10T07:08:22" personId="{430DC91B-B10A-4143-B4FD-93A3BAE872C6}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -491,24 +498,27 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{5F815122-F5B7-4C8C-9593-D5120A1D741C}" ref="C1" dT="2024-05-10T07:54:02" personId="{CAC5ECA8-15D8-4B62-ABCB-BCDC7CE00451}" parentId="{}">
+  <threadedComment id="{D4958390-7A9B-4D17-98D5-1A9804E064DF}" ref="D8" dT="2024-05-13T07:32:07" personId="{B2C0CBC6-A344-4067-9D15-08C52E3799FA}" parentId="{}">
+    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
+  </threadedComment>
+  <threadedComment id="{193E8BB1-FA28-4041-8EC1-3D13BDBD3E00}" ref="C8" dT="2024-05-09T06:25:33" personId="{430DC91B-B10A-4143-B4FD-93A3BAE872C6}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{E40FF90B-0AFB-40A4-8158-570166BB99DC}" ref="E8" dT="2024-05-09T07:41:18" personId="{430DC91B-B10A-4143-B4FD-93A3BAE872C6}" parentId="{}">
+    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
+  </threadedComment>
+  <threadedComment id="{742E7357-283F-4C75-8D36-BC20D4D33D81}" ref="C1" dT="2024-05-10T07:54:02" personId="{430DC91B-B10A-4143-B4FD-93A3BAE872C6}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{179FD9DE-1266-4908-A6DF-06787674EE2B}" ref="D1" dT="2024-05-10T08:11:19" personId="{CAC5ECA8-15D8-4B62-ABCB-BCDC7CE00451}" parentId="{}">
+  <threadedComment id="{EE639591-FC08-4D94-A18E-9457202A102E}" ref="D1" dT="2024-05-10T08:11:19" personId="{430DC91B-B10A-4143-B4FD-93A3BAE872C6}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{e5a381e2-2fd8-4839-a979-e5ccd3d9c5d5}" ref="D1" dT="2024-05-10T08:15:39" personId="{CAC5ECA8-15D8-4B62-ABCB-BCDC7CE00451}" parentId="{179FD9DE-1266-4908-A6DF-06787674EE2B}">
+  <threadedComment id="{6415d6c3-fbb0-443e-b4ff-abad535fd7c0}" ref="D1" dT="2024-05-10T08:15:39" personId="{430DC91B-B10A-4143-B4FD-93A3BAE872C6}" parentId="{EE639591-FC08-4D94-A18E-9457202A102E}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{8E832F2B-8B5F-46A3-8333-E3A2B84C9EB8}" ref="C8" dT="2024-05-09T06:25:33" personId="{CAC5ECA8-15D8-4B62-ABCB-BCDC7CE00451}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{977A8D55-2B8F-4F56-BBE9-6DD6AFDCCA3C}" ref="E8" dT="2024-05-09T07:41:18" personId="{CAC5ECA8-15D8-4B62-ABCB-BCDC7CE00451}" parentId="{}">
-    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
 </ThreadedComments>
 </file>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={DE1FB460-504C-460D-B606-BD3FA4942C9C}</author>
+    <author>tc={70BE5F63-65DD-4F43-9558-8FF3EC8FAAE6}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{DE1FB460-504C-460D-B606-BD3FA4942C9C}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{70BE5F63-65DD-4F43-9558-8FF3EC8FAAE6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,40 +46,40 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={D4958390-7A9B-4D17-98D5-1A9804E064DF}</author>
-    <author>tc={193E8BB1-FA28-4041-8EC1-3D13BDBD3E00}</author>
-    <author>tc={E40FF90B-0AFB-40A4-8158-570166BB99DC}</author>
-    <author>tc={742E7357-283F-4C75-8D36-BC20D4D33D81}</author>
-    <author>tc={EE639591-FC08-4D94-A18E-9457202A102E}</author>
+    <author>tc={C59D5619-AAEC-45CE-A7BF-6E8D4E929AE5}</author>
+    <author>tc={BC37B605-11F2-42F8-BC65-C95DCD6BF2E6}</author>
+    <author>tc={0AE06250-6808-4786-AFC3-FBECA5173DD8}</author>
+    <author>tc={180435C0-20DA-4441-9582-7D9C34047E25}</author>
+    <author>tc={787CA117-94E0-4277-A5CE-4670485B81C8}</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{D4958390-7A9B-4D17-98D5-1A9804E064DF}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{193E8BB1-FA28-4041-8EC1-3D13BDBD3E00}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{C59D5619-AAEC-45CE-A7BF-6E8D4E929AE5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="2" shapeId="0" xr:uid="{E40FF90B-0AFB-40A4-8158-570166BB99DC}">
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{BC37B605-11F2-42F8-BC65-C95DCD6BF2E6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="3" shapeId="0" xr:uid="{742E7357-283F-4C75-8D36-BC20D4D33D81}">
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{0AE06250-6808-4786-AFC3-FBECA5173DD8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="4" shapeId="0" xr:uid="{EE639591-FC08-4D94-A18E-9457202A102E}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{180435C0-20DA-4441-9582-7D9C34047E25}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="4" shapeId="0" xr:uid="{787CA117-94E0-4277-A5CE-4670485B81C8}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
     </comment>
   </commentList>
@@ -188,8 +188,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{430DC91B-B10A-4143-B4FD-93A3BAE872C6}" userId="S::::fdef2727-d75b-4ee6-b5c5-c67c8a71ec8b" providerId="AD"/>
-  <person displayName="侯清辰" id="{B2C0CBC6-A344-4067-9D15-08C52E3799FA}" userId="S::::e07c0cac-c083-40fb-882a-e876b6637a34" providerId="AD"/>
+  <person displayName="侯清辰" id="{DBD13E48-1CF2-46C7-A684-248AD7FEF905}" userId="S::::89ed66b7-dbe1-471c-a5ac-11dcbcc630ce" providerId="AD"/>
+  <person displayName="杨行" id="{5717A3B5-CF30-425F-A11E-4DAD6AB28060}" userId="S::::133bf513-3f97-4c1f-a40a-6ee0ec7d269d" providerId="AD"/>
 </personList>
 </file>
 
@@ -490,7 +490,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{DE1FB460-504C-460D-B606-BD3FA4942C9C}" ref="J1" dT="2024-05-10T07:08:22" personId="{430DC91B-B10A-4143-B4FD-93A3BAE872C6}" parentId="{}">
+  <threadedComment id="{70BE5F63-65DD-4F43-9558-8FF3EC8FAAE6}" ref="J1" dT="2024-05-10T07:08:22" personId="{5717A3B5-CF30-425F-A11E-4DAD6AB28060}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -498,27 +498,27 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{D4958390-7A9B-4D17-98D5-1A9804E064DF}" ref="D8" dT="2024-05-13T07:32:07" personId="{B2C0CBC6-A344-4067-9D15-08C52E3799FA}" parentId="{}">
-    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
-  </threadedComment>
-  <threadedComment id="{193E8BB1-FA28-4041-8EC1-3D13BDBD3E00}" ref="C8" dT="2024-05-09T06:25:33" personId="{430DC91B-B10A-4143-B4FD-93A3BAE872C6}" parentId="{}">
+  <threadedComment id="{C59D5619-AAEC-45CE-A7BF-6E8D4E929AE5}" ref="C8" dT="2024-05-09T06:25:33" personId="{5717A3B5-CF30-425F-A11E-4DAD6AB28060}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{E40FF90B-0AFB-40A4-8158-570166BB99DC}" ref="E8" dT="2024-05-09T07:41:18" personId="{430DC91B-B10A-4143-B4FD-93A3BAE872C6}" parentId="{}">
+  <threadedComment id="{BC37B605-11F2-42F8-BC65-C95DCD6BF2E6}" ref="E8" dT="2024-05-09T07:41:18" personId="{5717A3B5-CF30-425F-A11E-4DAD6AB28060}" parentId="{}">
     <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
-  <threadedComment id="{742E7357-283F-4C75-8D36-BC20D4D33D81}" ref="C1" dT="2024-05-10T07:54:02" personId="{430DC91B-B10A-4143-B4FD-93A3BAE872C6}" parentId="{}">
+  <threadedComment id="{0AE06250-6808-4786-AFC3-FBECA5173DD8}" ref="C1" dT="2024-05-10T07:54:02" personId="{5717A3B5-CF30-425F-A11E-4DAD6AB28060}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{EE639591-FC08-4D94-A18E-9457202A102E}" ref="D1" dT="2024-05-10T08:11:19" personId="{430DC91B-B10A-4143-B4FD-93A3BAE872C6}" parentId="{}">
+  <threadedComment id="{180435C0-20DA-4441-9582-7D9C34047E25}" ref="D1" dT="2024-05-10T08:11:19" personId="{5717A3B5-CF30-425F-A11E-4DAD6AB28060}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{6415d6c3-fbb0-443e-b4ff-abad535fd7c0}" ref="D1" dT="2024-05-10T08:15:39" personId="{430DC91B-B10A-4143-B4FD-93A3BAE872C6}" parentId="{EE639591-FC08-4D94-A18E-9457202A102E}">
+  <threadedComment id="{e63d2a0a-3cc9-454e-91d8-7db9fd7e70ab}" ref="D1" dT="2024-05-10T08:15:39" personId="{5717A3B5-CF30-425F-A11E-4DAD6AB28060}" parentId="{180435C0-20DA-4441-9582-7D9C34047E25}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{787CA117-94E0-4277-A5CE-4670485B81C8}" ref="D8" dT="2024-05-13T07:32:07" personId="{DBD13E48-1CF2-46C7-A684-248AD7FEF905}" parentId="{}">
+    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
 </ThreadedComments>
 </file>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={70BE5F63-65DD-4F43-9558-8FF3EC8FAAE6}</author>
+    <author>tc={30119298-9047-4F91-9CA7-96FF722E20D1}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{70BE5F63-65DD-4F43-9558-8FF3EC8FAAE6}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{30119298-9047-4F91-9CA7-96FF722E20D1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,29 +46,29 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C59D5619-AAEC-45CE-A7BF-6E8D4E929AE5}</author>
-    <author>tc={BC37B605-11F2-42F8-BC65-C95DCD6BF2E6}</author>
-    <author>tc={0AE06250-6808-4786-AFC3-FBECA5173DD8}</author>
-    <author>tc={180435C0-20DA-4441-9582-7D9C34047E25}</author>
-    <author>tc={787CA117-94E0-4277-A5CE-4670485B81C8}</author>
+    <author>tc={74427772-F784-47C8-892B-8511125F8CCC}</author>
+    <author>tc={14BB9B66-620B-4CEC-ABD7-AB9B2BC389BD}</author>
+    <author>tc={E3F670D3-4064-441C-AE04-8D270551AAA7}</author>
+    <author>tc={B77AEE78-4305-45A3-B574-2EE2C68BBCFD}</author>
+    <author>tc={A99A9F16-6D59-487A-9378-E392A81B2854}</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{C59D5619-AAEC-45CE-A7BF-6E8D4E929AE5}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{74427772-F784-47C8-892B-8511125F8CCC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{BC37B605-11F2-42F8-BC65-C95DCD6BF2E6}">
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{14BB9B66-620B-4CEC-ABD7-AB9B2BC389BD}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{0AE06250-6808-4786-AFC3-FBECA5173DD8}">
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{E3F670D3-4064-441C-AE04-8D270551AAA7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{180435C0-20DA-4441-9582-7D9C34047E25}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{B77AEE78-4305-45A3-B574-2EE2C68BBCFD}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -77,7 +77,7 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="4" shapeId="0" xr:uid="{787CA117-94E0-4277-A5CE-4670485B81C8}">
+    <comment ref="D8" authorId="4" shapeId="0" xr:uid="{A99A9F16-6D59-487A-9378-E392A81B2854}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
@@ -188,8 +188,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{DBD13E48-1CF2-46C7-A684-248AD7FEF905}" userId="S::::89ed66b7-dbe1-471c-a5ac-11dcbcc630ce" providerId="AD"/>
-  <person displayName="杨行" id="{5717A3B5-CF30-425F-A11E-4DAD6AB28060}" userId="S::::133bf513-3f97-4c1f-a40a-6ee0ec7d269d" providerId="AD"/>
+  <person displayName="杨行" id="{9E037E96-9F9F-41A9-878E-3F141590AD71}" userId="S::::3b915241-7e5e-40e5-8e42-d5c704d76a79" providerId="AD"/>
+  <person displayName="侯清辰" id="{67FC692C-5DBA-4065-AFCB-464D1DC61581}" userId="S::::e6a89872-ccc8-4da9-bb7c-7c20440418ab" providerId="AD"/>
 </personList>
 </file>
 
@@ -490,7 +490,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{70BE5F63-65DD-4F43-9558-8FF3EC8FAAE6}" ref="J1" dT="2024-05-10T07:08:22" personId="{5717A3B5-CF30-425F-A11E-4DAD6AB28060}" parentId="{}">
+  <threadedComment id="{30119298-9047-4F91-9CA7-96FF722E20D1}" ref="J1" dT="2024-05-10T07:08:22" personId="{9E037E96-9F9F-41A9-878E-3F141590AD71}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -498,26 +498,26 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{C59D5619-AAEC-45CE-A7BF-6E8D4E929AE5}" ref="C8" dT="2024-05-09T06:25:33" personId="{5717A3B5-CF30-425F-A11E-4DAD6AB28060}" parentId="{}">
+  <threadedComment id="{74427772-F784-47C8-892B-8511125F8CCC}" ref="C8" dT="2024-05-09T06:25:33" personId="{9E037E96-9F9F-41A9-878E-3F141590AD71}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{BC37B605-11F2-42F8-BC65-C95DCD6BF2E6}" ref="E8" dT="2024-05-09T07:41:18" personId="{5717A3B5-CF30-425F-A11E-4DAD6AB28060}" parentId="{}">
+  <threadedComment id="{14BB9B66-620B-4CEC-ABD7-AB9B2BC389BD}" ref="E8" dT="2024-05-09T07:41:18" personId="{9E037E96-9F9F-41A9-878E-3F141590AD71}" parentId="{}">
     <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
-  <threadedComment id="{0AE06250-6808-4786-AFC3-FBECA5173DD8}" ref="C1" dT="2024-05-10T07:54:02" personId="{5717A3B5-CF30-425F-A11E-4DAD6AB28060}" parentId="{}">
+  <threadedComment id="{E3F670D3-4064-441C-AE04-8D270551AAA7}" ref="C1" dT="2024-05-10T07:54:02" personId="{9E037E96-9F9F-41A9-878E-3F141590AD71}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{180435C0-20DA-4441-9582-7D9C34047E25}" ref="D1" dT="2024-05-10T08:11:19" personId="{5717A3B5-CF30-425F-A11E-4DAD6AB28060}" parentId="{}">
+  <threadedComment id="{B77AEE78-4305-45A3-B574-2EE2C68BBCFD}" ref="D1" dT="2024-05-10T08:11:19" personId="{9E037E96-9F9F-41A9-878E-3F141590AD71}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{e63d2a0a-3cc9-454e-91d8-7db9fd7e70ab}" ref="D1" dT="2024-05-10T08:15:39" personId="{5717A3B5-CF30-425F-A11E-4DAD6AB28060}" parentId="{180435C0-20DA-4441-9582-7D9C34047E25}">
+  <threadedComment id="{e509eb73-f9de-4168-af2f-dd67d861beb3}" ref="D1" dT="2024-05-10T08:15:39" personId="{9E037E96-9F9F-41A9-878E-3F141590AD71}" parentId="{B77AEE78-4305-45A3-B574-2EE2C68BBCFD}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{787CA117-94E0-4277-A5CE-4670485B81C8}" ref="D8" dT="2024-05-13T07:32:07" personId="{DBD13E48-1CF2-46C7-A684-248AD7FEF905}" parentId="{}">
+  <threadedComment id="{A99A9F16-6D59-487A-9378-E392A81B2854}" ref="D8" dT="2024-05-13T07:32:07" personId="{67FC692C-5DBA-4065-AFCB-464D1DC61581}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
 </ThreadedComments>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={30119298-9047-4F91-9CA7-96FF722E20D1}</author>
+    <author>tc={0FBC3726-1FDA-4285-9FFC-A0F4E96051CC}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{30119298-9047-4F91-9CA7-96FF722E20D1}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{0FBC3726-1FDA-4285-9FFC-A0F4E96051CC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,29 +46,14 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={74427772-F784-47C8-892B-8511125F8CCC}</author>
-    <author>tc={14BB9B66-620B-4CEC-ABD7-AB9B2BC389BD}</author>
-    <author>tc={E3F670D3-4064-441C-AE04-8D270551AAA7}</author>
-    <author>tc={B77AEE78-4305-45A3-B574-2EE2C68BBCFD}</author>
-    <author>tc={A99A9F16-6D59-487A-9378-E392A81B2854}</author>
+    <author>tc={918C6B3A-29C3-4AA4-83C8-65F0F822A163}</author>
+    <author>tc={4E3B8E9B-259A-47B1-BCB7-D63A5D2FB8B1}</author>
+    <author>tc={65882D4B-3294-470B-9C00-5BF98AF2D213}</author>
+    <author>tc={21615E32-B305-4064-AA2D-4440F35D8570}</author>
+    <author>tc={F605648D-8075-4F3B-A4D5-E955C881C197}</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{74427772-F784-47C8-892B-8511125F8CCC}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{14BB9B66-620B-4CEC-ABD7-AB9B2BC389BD}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{E3F670D3-4064-441C-AE04-8D270551AAA7}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{B77AEE78-4305-45A3-B574-2EE2C68BBCFD}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{918C6B3A-29C3-4AA4-83C8-65F0F822A163}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -77,9 +62,24 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="4" shapeId="0" xr:uid="{A99A9F16-6D59-487A-9378-E392A81B2854}">
+    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{4E3B8E9B-259A-47B1-BCB7-D63A5D2FB8B1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{65882D4B-3294-470B-9C00-5BF98AF2D213}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{21615E32-B305-4064-AA2D-4440F35D8570}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="4" shapeId="0" xr:uid="{F605648D-8075-4F3B-A4D5-E955C881C197}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -188,8 +188,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{9E037E96-9F9F-41A9-878E-3F141590AD71}" userId="S::::3b915241-7e5e-40e5-8e42-d5c704d76a79" providerId="AD"/>
-  <person displayName="侯清辰" id="{67FC692C-5DBA-4065-AFCB-464D1DC61581}" userId="S::::e6a89872-ccc8-4da9-bb7c-7c20440418ab" providerId="AD"/>
+  <person displayName="杨行" id="{5BBB7C1F-9BC7-4791-BF05-8C77BA67C5FF}" userId="S::::9a2f3dcb-1683-4b4a-bf1e-6dd6cd00037d" providerId="AD"/>
+  <person displayName="侯清辰" id="{92630B9A-A100-4D1E-A6FC-456393D868F7}" userId="S::::8aed8a0f-2316-4def-9e01-f42507e5fde7" providerId="AD"/>
 </personList>
 </file>
 
@@ -490,7 +490,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{30119298-9047-4F91-9CA7-96FF722E20D1}" ref="J1" dT="2024-05-10T07:08:22" personId="{9E037E96-9F9F-41A9-878E-3F141590AD71}" parentId="{}">
+  <threadedComment id="{0FBC3726-1FDA-4285-9FFC-A0F4E96051CC}" ref="J1" dT="2024-05-10T07:08:22" personId="{5BBB7C1F-9BC7-4791-BF05-8C77BA67C5FF}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -498,27 +498,27 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{74427772-F784-47C8-892B-8511125F8CCC}" ref="C8" dT="2024-05-09T06:25:33" personId="{9E037E96-9F9F-41A9-878E-3F141590AD71}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{14BB9B66-620B-4CEC-ABD7-AB9B2BC389BD}" ref="E8" dT="2024-05-09T07:41:18" personId="{9E037E96-9F9F-41A9-878E-3F141590AD71}" parentId="{}">
-    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
-  </threadedComment>
-  <threadedComment id="{E3F670D3-4064-441C-AE04-8D270551AAA7}" ref="C1" dT="2024-05-10T07:54:02" personId="{9E037E96-9F9F-41A9-878E-3F141590AD71}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{B77AEE78-4305-45A3-B574-2EE2C68BBCFD}" ref="D1" dT="2024-05-10T08:11:19" personId="{9E037E96-9F9F-41A9-878E-3F141590AD71}" parentId="{}">
+  <threadedComment id="{918C6B3A-29C3-4AA4-83C8-65F0F822A163}" ref="D1" dT="2024-05-10T08:11:19" personId="{5BBB7C1F-9BC7-4791-BF05-8C77BA67C5FF}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{e509eb73-f9de-4168-af2f-dd67d861beb3}" ref="D1" dT="2024-05-10T08:15:39" personId="{9E037E96-9F9F-41A9-878E-3F141590AD71}" parentId="{B77AEE78-4305-45A3-B574-2EE2C68BBCFD}">
+  <threadedComment id="{04cd99fa-af1c-4f38-9bf5-b645fe66170b}" ref="D1" dT="2024-05-10T08:15:39" personId="{5BBB7C1F-9BC7-4791-BF05-8C77BA67C5FF}" parentId="{918C6B3A-29C3-4AA4-83C8-65F0F822A163}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{A99A9F16-6D59-487A-9378-E392A81B2854}" ref="D8" dT="2024-05-13T07:32:07" personId="{67FC692C-5DBA-4065-AFCB-464D1DC61581}" parentId="{}">
+  <threadedComment id="{4E3B8E9B-259A-47B1-BCB7-D63A5D2FB8B1}" ref="D8" dT="2024-05-13T07:32:07" personId="{92630B9A-A100-4D1E-A6FC-456393D868F7}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
+  </threadedComment>
+  <threadedComment id="{65882D4B-3294-470B-9C00-5BF98AF2D213}" ref="C8" dT="2024-05-09T06:25:33" personId="{5BBB7C1F-9BC7-4791-BF05-8C77BA67C5FF}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{21615E32-B305-4064-AA2D-4440F35D8570}" ref="E8" dT="2024-05-09T07:41:18" personId="{5BBB7C1F-9BC7-4791-BF05-8C77BA67C5FF}" parentId="{}">
+    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
+  </threadedComment>
+  <threadedComment id="{F605648D-8075-4F3B-A4D5-E955C881C197}" ref="C1" dT="2024-05-10T07:54:02" personId="{5BBB7C1F-9BC7-4791-BF05-8C77BA67C5FF}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -711,7 +711,7 @@
         <v>左爪胎记</v>
       </c>
       <c r="H4" s="1" t="str">
-        <v>你在灰颜墓地，盯着埃利亚斯·格雷与他的狗——摩尔的一举一动。如果有什么异常，你就会去往腐臭地窖并叫醒鼠王（它在地窖中睡觉）来处理他们。</v>
+        <v>你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。如果有什么异常，你就会去往腐臭地窖并叫醒鼠王（它在地窖中睡觉）来处理他们。</v>
       </c>
       <c r="J4" s="1" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
@@ -719,7 +719,7 @@
     </row>
     <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1" t="str">
-        <v>埃利亚斯·格雷</v>
+        <v>格雷</v>
       </c>
       <c r="B5" s="1" t="str">
         <v>NPC</v>
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="H6" s="1" t="str">
-        <v>你在灰颜墓地，随着你的主人——埃利亚斯·格雷进行日常的墓地巡视工作。你目前只想待在埃利亚斯·格雷身边。你知道灰颜礼拜堂，焚化炉与腐臭地窖在哪里，但是主人从不允许你去，所以你就不去。而且凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
+        <v>你在灰颜墓地，随着你的主人——格雷进行日常的墓地巡视工作。你目前只想待在格雷身边。你知道灰颜礼拜堂，焚化炉与腐臭地窖在哪里，但是主人从不允许你去，所以你就不去。而且凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
       <c r="J6" s="1" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="H7" s="1" t="str">
-        <v>你在腐臭地窖，这是你的窝。你在依旧沉睡。在梦中，无数闯入者的样子已经模糊，但是你如何碾碎他们的情景你确能记得。你知道灰颜墓地，焚化炉与灰颜礼拜堂这些地点。埃利亚斯·格雷与他的狗——摩尔，你一直允许他们活着只是因为，埃利亚斯·格雷会定期送“食物”给你。你决定不吃掉他们。但是你也不信任他们，所以你派了你的子嗣，一只小老鼠——好运气先生盯着他们。如果有什么异常，好运气先生会过来叫醒你。否则你将一直在腐臭地窖沉睡。</v>
+        <v>你在腐臭地窖，这是你的窝。你在依旧沉睡。在梦中，无数闯入者的样子已经模糊，但是你如何碾碎他们的情景你确能记得。你知道灰颜墓地，焚化炉与灰颜礼拜堂这些地点。格雷与他的狗——摩尔，你一直允许他们活着只是因为，格雷会定期送“食物”给你。你决定不吃掉他们。但是你也不信任他们，所以你派了你的子嗣，一只小老鼠——好运气先生盯着他们。如果有什么异常，好运气先生会过来叫醒你。否则你将一直在腐臭地窖沉睡。</v>
       </c>
       <c r="J7" s="1" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
@@ -806,10 +806,10 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="str">
-        <v>埃利亚斯·格雷;摩尔;好运气先生</v>
+        <v>格雷;摩尔;好运气先生</v>
       </c>
       <c r="H9" s="1" t="str">
-        <v>你的墓地管理员——埃利亚斯·格雷在进行日常的巡视。他的小狗——摩尔陪伴在他身边。一只小老鼠——好运气先生隐藏在角落里监视者他们。</v>
+        <v>你的墓地管理员——格雷在进行日常的巡视。他的小狗——摩尔陪伴在他身边。一只小老鼠——好运气先生隐藏在角落里监视者他们。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
@@ -1170,7 +1170,7 @@
         <v>你是一只巨大的而且有智慧的老鼠。你的身躯庞大而畸形，肌肉膨胀，毛发稀疏，暗灰色的皮肤在昏暗的光线下闪着油光。你的头部过于庞大，不成比例，长满了锋利而不规则的牙齿，这些牙齿随着呼吸，在黑暗中闪烁着令人不安的光芒。你的眼睛深邃、黑暗，仿佛两个无底的深渊，闪烁着邪恶的光芒，显露出你对生命的无尽渴望。你尽管拥体型巨大，但每一次动作都透露出一种不自然的灵巧和恶意，你的尾巴长而有力，不时扫动，仿佛是一把随时准备发动攻击的鞭子。你的能力令人恐惧，能以声音控制你的“子嗣”，使它们成为你在圣灰园中无处不在的眼和耳。你的性格极其残暴，你对生命的渴求无法被满足，只有在吞噬活物，感受它们生命的消逝时，才能找到短暂的安宁。你是圣灰园的“守护者”，以一种扭曲的方式保持着自己领地的平衡。</v>
       </c>
       <c r="D5" s="1" t="str">
-        <v>自从圣灰园的第一块石头被放置以来，你就潜伏在其深处，你的存在比圣灰园本身更为古老。传说你是由圣灰园过往的罪恶和悲伤诞生的，每一块墓碑，每一个被遗忘的灵魂都增强了你的力量。你被一个古老的诅咒束缚在圣灰园内，无法离开，这个诅咒的本质至今仍是一个谜。你是圣灰园真正的统治者，你的残暴使所有生灵都颤抖，唯独“好运气先生”（一只小老鼠）例外，它是你的忠实仆人是你在沉睡中保持统治的工具。“埃利亚斯·格雷”和他的狗“摩尔”是唯一被你容忍的外来者，这是因为“埃利亚斯·格雷”通过定期的“供品”（把墓地里的尸体给你吃），让你“允许他们活着”。目前“腐臭地窖”是你的窝。</v>
+        <v>自从圣灰园的第一块石头被放置以来，你就潜伏在其深处，你的存在比圣灰园本身更为古老。传说你是由圣灰园过往的罪恶和悲伤诞生的，每一块墓碑，每一个被遗忘的灵魂都增强了你的力量。你被一个古老的诅咒束缚在圣灰园内，无法离开，这个诅咒的本质至今仍是一个谜。你是圣灰园真正的统治者，你的残暴使所有生灵都颤抖，唯独“好运气先生”（一只小老鼠）例外，它是你的忠实仆人是你在沉睡中保持统治的工具。“格雷”和他的狗“摩尔”是唯一被你容忍的外来者，这是因为“格雷”通过定期的“供品”（把墓地里的尸体给你吃），让你“允许他们活着”。目前“腐臭地窖”是你的窝。</v>
       </c>
       <c r="E5" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row customHeight="true" ht="23" r="7">
       <c r="A7" s="1" t="str">
-        <v>埃利亚斯·格雷</v>
+        <v>格雷</v>
       </c>
       <c r="B7" s="1" t="str">
         <v>elias_gray</v>
@@ -1249,7 +1249,7 @@
         <v>你是一只外形可怖的狗。你的皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色。你的牙齿也因此变得不健全，一部分已经腐烂，但这并不妨碍你展示出惊人的攻击力。</v>
       </c>
       <c r="D8" s="1" t="str">
-        <v>你自幼就生活在圣灰园，你从未见过除了“埃利亚斯·格雷”以外的任何活人。这片阴森的土地和其中躺着的尸体构成了你所有的世界。你是由“埃利亚斯·格雷”在一次清晨，从墓园的一个被遗忘的角落里发现的，那时你还只是一只脆弱的幼犬，身旁躺着你那已经不在的母亲。“埃利亚斯·格雷”将你带回，用墓地里的尸体喂养长大。这种成长方式赋予了你一种不可思议的力量，但也让你的身体出现了溃烂。对你来说，“埃利亚斯·格雷”是你对这个世界唯一的连结。</v>
+        <v>你自幼就生活在圣灰园，你从未见过除了“格雷”以外的任何活人。这片阴森的土地和其中躺着的尸体构成了你所有的世界。你是由“格雷”在一次清晨，从墓园的一个被遗忘的角落里发现的，那时你还只是一只脆弱的幼犬，身旁躺着你那已经不在的母亲。“格雷”将你带回，用墓地里的尸体喂养长大。这种成长方式赋予了你一种不可思议的力量，但也让你的身体出现了溃烂。对你来说，“格雷”是你对这个世界唯一的连结。</v>
       </c>
       <c r="E8" s="1" t="str">
         <v>gpt-4-turbo-preview</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={0FBC3726-1FDA-4285-9FFC-A0F4E96051CC}</author>
+    <author>tc={206A29ED-974C-4BBC-954D-B2A2EA1F48D4}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{0FBC3726-1FDA-4285-9FFC-A0F4E96051CC}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{206A29ED-974C-4BBC-954D-B2A2EA1F48D4}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,14 +46,19 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={918C6B3A-29C3-4AA4-83C8-65F0F822A163}</author>
-    <author>tc={4E3B8E9B-259A-47B1-BCB7-D63A5D2FB8B1}</author>
-    <author>tc={65882D4B-3294-470B-9C00-5BF98AF2D213}</author>
-    <author>tc={21615E32-B305-4064-AA2D-4440F35D8570}</author>
-    <author>tc={F605648D-8075-4F3B-A4D5-E955C881C197}</author>
+    <author>tc={8667720D-0763-497D-9734-05A8E06F9D98}</author>
+    <author>tc={EC8D07F3-77EF-469C-BC18-03040B0C4C4B}</author>
+    <author>tc={728B1308-0E89-4C9A-ADA7-6CE22C321EBD}</author>
+    <author>tc={67EC3E7B-406F-48E6-9157-7443AB642352}</author>
+    <author>tc={39F2E478-09F5-47D7-A568-60C968E0545A}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{918C6B3A-29C3-4AA4-83C8-65F0F822A163}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{8667720D-0763-497D-9734-05A8E06F9D98}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{EC8D07F3-77EF-469C-BC18-03040B0C4C4B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -62,24 +67,19 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{4E3B8E9B-259A-47B1-BCB7-D63A5D2FB8B1}">
+    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{728B1308-0E89-4C9A-ADA7-6CE22C321EBD}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{65882D4B-3294-470B-9C00-5BF98AF2D213}">
+    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{67EC3E7B-406F-48E6-9157-7443AB642352}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{21615E32-B305-4064-AA2D-4440F35D8570}">
+    <comment ref="E8" authorId="4" shapeId="0" xr:uid="{39F2E478-09F5-47D7-A568-60C968E0545A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="4" shapeId="0" xr:uid="{F605648D-8075-4F3B-A4D5-E955C881C197}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -188,8 +188,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{5BBB7C1F-9BC7-4791-BF05-8C77BA67C5FF}" userId="S::::9a2f3dcb-1683-4b4a-bf1e-6dd6cd00037d" providerId="AD"/>
-  <person displayName="侯清辰" id="{92630B9A-A100-4D1E-A6FC-456393D868F7}" userId="S::::8aed8a0f-2316-4def-9e01-f42507e5fde7" providerId="AD"/>
+  <person displayName="杨行" id="{36338363-FBE4-49C9-BD6A-51DE61D97729}" userId="S::::fead61a4-4575-4e78-8f43-f0a2297a24a0" providerId="AD"/>
+  <person displayName="侯清辰" id="{E50A7DBB-1D57-4150-A3AB-2245D0B5264E}" userId="S::::b47e1516-2412-4d7f-a1b9-3fd1b3ff22c6" providerId="AD"/>
 </personList>
 </file>
 
@@ -490,7 +490,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{0FBC3726-1FDA-4285-9FFC-A0F4E96051CC}" ref="J1" dT="2024-05-10T07:08:22" personId="{5BBB7C1F-9BC7-4791-BF05-8C77BA67C5FF}" parentId="{}">
+  <threadedComment id="{206A29ED-974C-4BBC-954D-B2A2EA1F48D4}" ref="J1" dT="2024-05-10T07:08:22" personId="{36338363-FBE4-49C9-BD6A-51DE61D97729}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -498,27 +498,27 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{918C6B3A-29C3-4AA4-83C8-65F0F822A163}" ref="D1" dT="2024-05-10T08:11:19" personId="{5BBB7C1F-9BC7-4791-BF05-8C77BA67C5FF}" parentId="{}">
+  <threadedComment id="{8667720D-0763-497D-9734-05A8E06F9D98}" ref="C1" dT="2024-05-10T07:54:02" personId="{36338363-FBE4-49C9-BD6A-51DE61D97729}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{EC8D07F3-77EF-469C-BC18-03040B0C4C4B}" ref="D1" dT="2024-05-10T08:11:19" personId="{36338363-FBE4-49C9-BD6A-51DE61D97729}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{04cd99fa-af1c-4f38-9bf5-b645fe66170b}" ref="D1" dT="2024-05-10T08:15:39" personId="{5BBB7C1F-9BC7-4791-BF05-8C77BA67C5FF}" parentId="{918C6B3A-29C3-4AA4-83C8-65F0F822A163}">
+  <threadedComment id="{2d44c09d-0f36-40bc-a776-b3594203ad5e}" ref="D1" dT="2024-05-10T08:15:39" personId="{36338363-FBE4-49C9-BD6A-51DE61D97729}" parentId="{EC8D07F3-77EF-469C-BC18-03040B0C4C4B}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{4E3B8E9B-259A-47B1-BCB7-D63A5D2FB8B1}" ref="D8" dT="2024-05-13T07:32:07" personId="{92630B9A-A100-4D1E-A6FC-456393D868F7}" parentId="{}">
+  <threadedComment id="{728B1308-0E89-4C9A-ADA7-6CE22C321EBD}" ref="D8" dT="2024-05-13T07:32:07" personId="{E50A7DBB-1D57-4150-A3AB-2245D0B5264E}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
-  <threadedComment id="{65882D4B-3294-470B-9C00-5BF98AF2D213}" ref="C8" dT="2024-05-09T06:25:33" personId="{5BBB7C1F-9BC7-4791-BF05-8C77BA67C5FF}" parentId="{}">
+  <threadedComment id="{67EC3E7B-406F-48E6-9157-7443AB642352}" ref="C8" dT="2024-05-09T06:25:33" personId="{36338363-FBE4-49C9-BD6A-51DE61D97729}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{21615E32-B305-4064-AA2D-4440F35D8570}" ref="E8" dT="2024-05-09T07:41:18" personId="{5BBB7C1F-9BC7-4791-BF05-8C77BA67C5FF}" parentId="{}">
+  <threadedComment id="{39F2E478-09F5-47D7-A568-60C968E0545A}" ref="E8" dT="2024-05-09T07:41:18" personId="{36338363-FBE4-49C9-BD6A-51DE61D97729}" parentId="{}">
     <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
-  </threadedComment>
-  <threadedComment id="{F605648D-8075-4F3B-A4D5-E955C881C197}" ref="C1" dT="2024-05-10T07:54:02" personId="{5BBB7C1F-9BC7-4791-BF05-8C77BA67C5FF}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1086,11 +1086,11 @@
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="681"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="392"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="49"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="419"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="70"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="49"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
@@ -1103,6 +1103,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="17"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
@@ -1119,15 +1120,18 @@
         <v>history</v>
       </c>
       <c r="E1" s="1" t="str">
+        <v>conversation_example</v>
+      </c>
+      <c r="F1" s="1" t="str">
         <v>GPT_MODEL</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="G1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="H1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="I1" s="1" t="str">
         <v>attributes</v>
       </c>
     </row>
@@ -1147,15 +1151,18 @@
         <v>教廷秘史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
       <c r="E4" s="1" t="str">
+        <v>赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
+      </c>
+      <c r="F4" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>8008</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="H4" s="1" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="I4" s="1" t="str">
         <v>10000,10000,10,10</v>
       </c>
     </row>
@@ -1173,15 +1180,20 @@
         <v>自从圣灰园的第一块石头被放置以来，你就潜伏在其深处，你的存在比圣灰园本身更为古老。传说你是由圣灰园过往的罪恶和悲伤诞生的，每一块墓碑，每一个被遗忘的灵魂都增强了你的力量。你被一个古老的诅咒束缚在圣灰园内，无法离开，这个诅咒的本质至今仍是一个谜。你是圣灰园真正的统治者，你的残暴使所有生灵都颤抖，唯独“好运气先生”（一只小老鼠）例外，它是你的忠实仆人是你在沉睡中保持统治的工具。“格雷”和他的狗“摩尔”是唯一被你容忍的外来者，这是因为“格雷”通过定期的“供品”（把墓地里的尸体给你吃），让你“允许他们活着”。目前“腐臭地窖”是你的窝。</v>
       </c>
       <c r="E5" s="1" t="str">
+        <v>嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！嘶嘶嘶！
+任何档胆敢进入腐臭地窖的活物，都要被我吃掉！嘶嘶嘶。。。。哦，对了。除了我的小玩应——好运气先生，这个小家伙还是有点用的。如果它叫醒了我，也许是出了什么事。
+不过，没关系，嘶嘶嘶，任何的胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>8009</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="H5" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="I5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
@@ -1199,15 +1211,20 @@
         <v>你一直是这个被诅咒的地方的一部分。在鼠王的暴政下，你表面上显得忠诚无比，实则是出于对其残暴本性的恐惧。你知道自己的生命完全取决于鼠王的心情和饥饿程度。因此，你在圣灰园中既是观察者也是被观察者，永远处于被监视的状态。当你发现潜在的威胁时，你会立即寻求鼠王的保护，虽然这样做意味着将其他生灵推向绝境。</v>
       </c>
       <c r="E6" s="1" t="str">
+        <v>吱吱。。。。格雷和他的该死的狗——摩尔。我讨厌他们，真心讨厌他们！吱吱！！鼠王没吃掉他们，还不是他们定期给鼠王送‘食物’？呵呵。吱吱，无耻的东西！
+走着瞧吧！吱吱。。。。早晚有一天他们没用了，鼠王就会吃掉他们，希望到时候他们别瘦的没肉可吃。吱吱。。。。我要时刻盯着他们，因为如果出了问题，鼠王连我也不会放过！吱吱！！
+总之，出了任何异常我都会去腐臭地窖叫醒鼠王！吱吱！！</v>
+      </c>
+      <c r="F6" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>8010</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="H6" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="I6" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
@@ -1226,15 +1243,19 @@
 唯一陪伴你的就是小狗“摩尔”。你在很多年前一次清晨，从墓园的一个被遗忘的角落里发现了“摩尔”，那时“摩尔”还只是一只脆弱的幼犬，身旁躺着的，已经死了的可能是它的母亲。你将其带回，用墓地里的尸体喂养长大你知道“圣灰园”中所有阴暗秘密。为了生存，你通过定期将墓地里的尸体供奉给鼠王，你保证了自己与“摩尔”的暂时安全，但这也使你陷入了接近疯狂的边缘。</v>
       </c>
       <c r="E7" s="1" t="str">
+        <v>（阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了。最近没有给鼠王送食物，他似乎不太高兴。
+让我想想。该怎么办呢？要不，把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。。那一定很有趣（恶毒的笑声）。。。总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>8011</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="H7" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="I7" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
@@ -1252,15 +1273,18 @@
         <v>你自幼就生活在圣灰园，你从未见过除了“格雷”以外的任何活人。这片阴森的土地和其中躺着的尸体构成了你所有的世界。你是由“格雷”在一次清晨，从墓园的一个被遗忘的角落里发现的，那时你还只是一只脆弱的幼犬，身旁躺着你那已经不在的母亲。“格雷”将你带回，用墓地里的尸体喂养长大。这种成长方式赋予了你一种不可思议的力量，但也让你的身体出现了溃烂。对你来说，“格雷”是你对这个世界唯一的连结。</v>
       </c>
       <c r="E8" s="1" t="str">
+        <v>（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。</v>
+      </c>
+      <c r="F8" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>8012</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="H8" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="H8" s="2" t="str">
+      <c r="I8" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
@@ -1278,15 +1302,18 @@
         <v>关于你的过去，你什么都记不得了</v>
       </c>
       <c r="E9" s="1" t="str">
+        <v>我知道了。</v>
+      </c>
+      <c r="F9" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>8013</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="H9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="I9" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={206A29ED-974C-4BBC-954D-B2A2EA1F48D4}</author>
+    <author>tc={4D89EA6F-CFB5-457E-B548-7407792E0F67}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{206A29ED-974C-4BBC-954D-B2A2EA1F48D4}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4D89EA6F-CFB5-457E-B548-7407792E0F67}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,19 +46,24 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={8667720D-0763-497D-9734-05A8E06F9D98}</author>
-    <author>tc={EC8D07F3-77EF-469C-BC18-03040B0C4C4B}</author>
-    <author>tc={728B1308-0E89-4C9A-ADA7-6CE22C321EBD}</author>
-    <author>tc={67EC3E7B-406F-48E6-9157-7443AB642352}</author>
-    <author>tc={39F2E478-09F5-47D7-A568-60C968E0545A}</author>
+    <author>tc={F0A48AF9-BFE8-4028-AC98-1EB29AB9BA35}</author>
+    <author>tc={782EDD35-5BCF-49D0-852A-C9CA1610C288}</author>
+    <author>tc={4AC1B9B2-294D-44F8-8F94-7030A3E5CFB3}</author>
+    <author>tc={C25ED90D-7128-4E57-B7F7-D088AFEB31B7}</author>
+    <author>tc={A7CF586E-B350-4AAE-B24F-A720F425CF5B}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{8667720D-0763-497D-9734-05A8E06F9D98}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{F0A48AF9-BFE8-4028-AC98-1EB29AB9BA35}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{782EDD35-5BCF-49D0-852A-C9CA1610C288}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{EC8D07F3-77EF-469C-BC18-03040B0C4C4B}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{4AC1B9B2-294D-44F8-8F94-7030A3E5CFB3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -67,19 +72,14 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{728B1308-0E89-4C9A-ADA7-6CE22C321EBD}">
+    <comment ref="D8" authorId="3" shapeId="0" xr:uid="{C25ED90D-7128-4E57-B7F7-D088AFEB31B7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{67EC3E7B-406F-48E6-9157-7443AB642352}">
+    <comment ref="C8" authorId="4" shapeId="0" xr:uid="{A7CF586E-B350-4AAE-B24F-A720F425CF5B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="4" shapeId="0" xr:uid="{39F2E478-09F5-47D7-A568-60C968E0545A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
     </comment>
   </commentList>
@@ -188,8 +188,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{36338363-FBE4-49C9-BD6A-51DE61D97729}" userId="S::::fead61a4-4575-4e78-8f43-f0a2297a24a0" providerId="AD"/>
-  <person displayName="侯清辰" id="{E50A7DBB-1D57-4150-A3AB-2245D0B5264E}" userId="S::::b47e1516-2412-4d7f-a1b9-3fd1b3ff22c6" providerId="AD"/>
+  <person displayName="侯清辰" id="{ADAD3943-06E3-4AC0-B2A3-702EBF63A211}" userId="S::::7aca7b43-112b-4bcb-925e-2027082b208d" providerId="AD"/>
+  <person displayName="杨行" id="{7090015E-C7D3-4A2C-874D-796AC0B94CFB}" userId="S::::78e417ad-9bcd-481e-b8b6-c14133987950" providerId="AD"/>
 </personList>
 </file>
 
@@ -490,7 +490,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{206A29ED-974C-4BBC-954D-B2A2EA1F48D4}" ref="J1" dT="2024-05-10T07:08:22" personId="{36338363-FBE4-49C9-BD6A-51DE61D97729}" parentId="{}">
+  <threadedComment id="{4D89EA6F-CFB5-457E-B548-7407792E0F67}" ref="J1" dT="2024-05-10T07:08:22" personId="{7090015E-C7D3-4A2C-874D-796AC0B94CFB}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -498,27 +498,27 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{8667720D-0763-497D-9734-05A8E06F9D98}" ref="C1" dT="2024-05-10T07:54:02" personId="{36338363-FBE4-49C9-BD6A-51DE61D97729}" parentId="{}">
+  <threadedComment id="{F0A48AF9-BFE8-4028-AC98-1EB29AB9BA35}" ref="E8" dT="2024-05-09T07:41:18" personId="{7090015E-C7D3-4A2C-874D-796AC0B94CFB}" parentId="{}">
+    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
+  </threadedComment>
+  <threadedComment id="{782EDD35-5BCF-49D0-852A-C9CA1610C288}" ref="C1" dT="2024-05-10T07:54:02" personId="{7090015E-C7D3-4A2C-874D-796AC0B94CFB}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{EC8D07F3-77EF-469C-BC18-03040B0C4C4B}" ref="D1" dT="2024-05-10T08:11:19" personId="{36338363-FBE4-49C9-BD6A-51DE61D97729}" parentId="{}">
+  <threadedComment id="{4AC1B9B2-294D-44F8-8F94-7030A3E5CFB3}" ref="D1" dT="2024-05-10T08:11:19" personId="{7090015E-C7D3-4A2C-874D-796AC0B94CFB}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{2d44c09d-0f36-40bc-a776-b3594203ad5e}" ref="D1" dT="2024-05-10T08:15:39" personId="{36338363-FBE4-49C9-BD6A-51DE61D97729}" parentId="{EC8D07F3-77EF-469C-BC18-03040B0C4C4B}">
+  <threadedComment id="{0adf8c3b-85ff-4546-81b7-40501c4b1159}" ref="D1" dT="2024-05-10T08:15:39" personId="{7090015E-C7D3-4A2C-874D-796AC0B94CFB}" parentId="{4AC1B9B2-294D-44F8-8F94-7030A3E5CFB3}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{728B1308-0E89-4C9A-ADA7-6CE22C321EBD}" ref="D8" dT="2024-05-13T07:32:07" personId="{E50A7DBB-1D57-4150-A3AB-2245D0B5264E}" parentId="{}">
+  <threadedComment id="{C25ED90D-7128-4E57-B7F7-D088AFEB31B7}" ref="D8" dT="2024-05-13T07:32:07" personId="{ADAD3943-06E3-4AC0-B2A3-702EBF63A211}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
-  <threadedComment id="{67EC3E7B-406F-48E6-9157-7443AB642352}" ref="C8" dT="2024-05-09T06:25:33" personId="{36338363-FBE4-49C9-BD6A-51DE61D97729}" parentId="{}">
+  <threadedComment id="{A7CF586E-B350-4AAE-B24F-A720F425CF5B}" ref="C8" dT="2024-05-09T06:25:33" personId="{7090015E-C7D3-4A2C-874D-796AC0B94CFB}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{39F2E478-09F5-47D7-A568-60C968E0545A}" ref="E8" dT="2024-05-09T07:41:18" personId="{36338363-FBE4-49C9-BD6A-51DE61D97729}" parentId="{}">
-    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
 </ThreadedComments>
 </file>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={4D89EA6F-CFB5-457E-B548-7407792E0F67}</author>
+    <author>tc={DD89F8CD-CC3F-4916-A788-4C7CD457E478}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4D89EA6F-CFB5-457E-B548-7407792E0F67}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{DD89F8CD-CC3F-4916-A788-4C7CD457E478}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,24 +46,14 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F0A48AF9-BFE8-4028-AC98-1EB29AB9BA35}</author>
-    <author>tc={782EDD35-5BCF-49D0-852A-C9CA1610C288}</author>
-    <author>tc={4AC1B9B2-294D-44F8-8F94-7030A3E5CFB3}</author>
-    <author>tc={C25ED90D-7128-4E57-B7F7-D088AFEB31B7}</author>
-    <author>tc={A7CF586E-B350-4AAE-B24F-A720F425CF5B}</author>
+    <author>tc={ADD73571-3A08-431E-99A2-4AB0778569A1}</author>
+    <author>tc={9BE79202-1AA6-4C00-8CB7-EC68E37CF07B}</author>
+    <author>tc={C8C23E4A-30E3-4158-BEB4-1C1B57A75B15}</author>
+    <author>tc={197356F0-C85C-45C8-994E-690A4D81A328}</author>
+    <author>tc={32E42F68-E884-4A9B-B1A3-39906AB4F54B}</author>
   </authors>
   <commentList>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{F0A48AF9-BFE8-4028-AC98-1EB29AB9BA35}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{782EDD35-5BCF-49D0-852A-C9CA1610C288}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{4AC1B9B2-294D-44F8-8F94-7030A3E5CFB3}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{ADD73571-3A08-431E-99A2-4AB0778569A1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -72,14 +62,24 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="3" shapeId="0" xr:uid="{C25ED90D-7128-4E57-B7F7-D088AFEB31B7}">
+    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{9BE79202-1AA6-4C00-8CB7-EC68E37CF07B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="4" shapeId="0" xr:uid="{A7CF586E-B350-4AAE-B24F-A720F425CF5B}">
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{C8C23E4A-30E3-4158-BEB4-1C1B57A75B15}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{197356F0-C85C-45C8-994E-690A4D81A328}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="4" shapeId="0" xr:uid="{32E42F68-E884-4A9B-B1A3-39906AB4F54B}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -188,8 +188,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{ADAD3943-06E3-4AC0-B2A3-702EBF63A211}" userId="S::::7aca7b43-112b-4bcb-925e-2027082b208d" providerId="AD"/>
-  <person displayName="杨行" id="{7090015E-C7D3-4A2C-874D-796AC0B94CFB}" userId="S::::78e417ad-9bcd-481e-b8b6-c14133987950" providerId="AD"/>
+  <person displayName="杨行" id="{1E8EB84C-F6BD-4859-86A9-80DACD2D67E8}" userId="S::::a71b09f2-28bf-4507-bba7-73529df7555a" providerId="AD"/>
+  <person displayName="侯清辰" id="{D57A7970-AA13-4A4D-91FB-17085661A4A0}" userId="S::::6f47eb6f-e680-4583-99f2-97b7dd68b480" providerId="AD"/>
 </personList>
 </file>
 
@@ -490,7 +490,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{4D89EA6F-CFB5-457E-B548-7407792E0F67}" ref="J1" dT="2024-05-10T07:08:22" personId="{7090015E-C7D3-4A2C-874D-796AC0B94CFB}" parentId="{}">
+  <threadedComment id="{DD89F8CD-CC3F-4916-A788-4C7CD457E478}" ref="J1" dT="2024-05-10T07:08:22" personId="{1E8EB84C-F6BD-4859-86A9-80DACD2D67E8}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -498,27 +498,27 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{F0A48AF9-BFE8-4028-AC98-1EB29AB9BA35}" ref="E8" dT="2024-05-09T07:41:18" personId="{7090015E-C7D3-4A2C-874D-796AC0B94CFB}" parentId="{}">
-    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
-  </threadedComment>
-  <threadedComment id="{782EDD35-5BCF-49D0-852A-C9CA1610C288}" ref="C1" dT="2024-05-10T07:54:02" personId="{7090015E-C7D3-4A2C-874D-796AC0B94CFB}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{4AC1B9B2-294D-44F8-8F94-7030A3E5CFB3}" ref="D1" dT="2024-05-10T08:11:19" personId="{7090015E-C7D3-4A2C-874D-796AC0B94CFB}" parentId="{}">
+  <threadedComment id="{ADD73571-3A08-431E-99A2-4AB0778569A1}" ref="D1" dT="2024-05-10T08:11:19" personId="{1E8EB84C-F6BD-4859-86A9-80DACD2D67E8}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{0adf8c3b-85ff-4546-81b7-40501c4b1159}" ref="D1" dT="2024-05-10T08:15:39" personId="{7090015E-C7D3-4A2C-874D-796AC0B94CFB}" parentId="{4AC1B9B2-294D-44F8-8F94-7030A3E5CFB3}">
+  <threadedComment id="{c6afbfd2-86cb-4177-89f0-45f8f85179a5}" ref="D1" dT="2024-05-10T08:15:39" personId="{1E8EB84C-F6BD-4859-86A9-80DACD2D67E8}" parentId="{ADD73571-3A08-431E-99A2-4AB0778569A1}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{C25ED90D-7128-4E57-B7F7-D088AFEB31B7}" ref="D8" dT="2024-05-13T07:32:07" personId="{ADAD3943-06E3-4AC0-B2A3-702EBF63A211}" parentId="{}">
+  <threadedComment id="{9BE79202-1AA6-4C00-8CB7-EC68E37CF07B}" ref="D8" dT="2024-05-13T07:32:07" personId="{D57A7970-AA13-4A4D-91FB-17085661A4A0}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
-  <threadedComment id="{A7CF586E-B350-4AAE-B24F-A720F425CF5B}" ref="C8" dT="2024-05-09T06:25:33" personId="{7090015E-C7D3-4A2C-874D-796AC0B94CFB}" parentId="{}">
+  <threadedComment id="{C8C23E4A-30E3-4158-BEB4-1C1B57A75B15}" ref="C8" dT="2024-05-09T06:25:33" personId="{1E8EB84C-F6BD-4859-86A9-80DACD2D67E8}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{197356F0-C85C-45C8-994E-690A4D81A328}" ref="E8" dT="2024-05-09T07:41:18" personId="{1E8EB84C-F6BD-4859-86A9-80DACD2D67E8}" parentId="{}">
+    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
+  </threadedComment>
+  <threadedComment id="{32E42F68-E884-4A9B-B1A3-39906AB4F54B}" ref="C1" dT="2024-05-10T07:54:02" personId="{1E8EB84C-F6BD-4859-86A9-80DACD2D67E8}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1086,8 +1086,8 @@
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="681"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="419"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="70"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="416"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="137"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="49"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="23"/>
@@ -1106,7 +1106,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="17"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="23" r="1">
+    <row r="1">
       <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>10000,10000,10,10</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="5">
+    <row r="5">
       <c r="A5" s="1" t="str">
         <v>鼠王</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>100,100,10,1</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="6">
+    <row r="6">
       <c r="A6" s="1" t="str">
         <v>好运气先生</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>100,100,10,1</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="7">
+    <row r="7">
       <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>100,100,10,1</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="8">
+    <row r="8">
       <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={DD89F8CD-CC3F-4916-A788-4C7CD457E478}</author>
+    <author>tc={99DCA90F-A6FF-4817-B673-3EE96092FB9A}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{DD89F8CD-CC3F-4916-A788-4C7CD457E478}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{99DCA90F-A6FF-4817-B673-3EE96092FB9A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,14 +46,29 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={ADD73571-3A08-431E-99A2-4AB0778569A1}</author>
-    <author>tc={9BE79202-1AA6-4C00-8CB7-EC68E37CF07B}</author>
-    <author>tc={C8C23E4A-30E3-4158-BEB4-1C1B57A75B15}</author>
-    <author>tc={197356F0-C85C-45C8-994E-690A4D81A328}</author>
-    <author>tc={32E42F68-E884-4A9B-B1A3-39906AB4F54B}</author>
+    <author>tc={6117CD24-2667-4E48-B86C-FBA4068349C4}</author>
+    <author>tc={F5D95D49-6290-4CED-BA0B-9E4ED3613EDE}</author>
+    <author>tc={1C0B1A31-F48A-4414-8B03-C8BCC7880F11}</author>
+    <author>tc={4AEE07F6-D0C8-4C13-8FCE-63BE34169C8D}</author>
+    <author>tc={9B66BD43-08F2-4C57-B223-33ADF304C60A}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{ADD73571-3A08-431E-99A2-4AB0778569A1}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{6117CD24-2667-4E48-B86C-FBA4068349C4}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{F5D95D49-6290-4CED-BA0B-9E4ED3613EDE}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{1C0B1A31-F48A-4414-8B03-C8BCC7880F11}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{4AEE07F6-D0C8-4C13-8FCE-63BE34169C8D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -62,24 +77,9 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{9BE79202-1AA6-4C00-8CB7-EC68E37CF07B}">
+    <comment ref="D8" authorId="4" shapeId="0" xr:uid="{9B66BD43-08F2-4C57-B223-33ADF304C60A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{C8C23E4A-30E3-4158-BEB4-1C1B57A75B15}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{197356F0-C85C-45C8-994E-690A4D81A328}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="4" shapeId="0" xr:uid="{32E42F68-E884-4A9B-B1A3-39906AB4F54B}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -188,8 +188,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{1E8EB84C-F6BD-4859-86A9-80DACD2D67E8}" userId="S::::a71b09f2-28bf-4507-bba7-73529df7555a" providerId="AD"/>
-  <person displayName="侯清辰" id="{D57A7970-AA13-4A4D-91FB-17085661A4A0}" userId="S::::6f47eb6f-e680-4583-99f2-97b7dd68b480" providerId="AD"/>
+  <person displayName="侯清辰" id="{05674749-A755-4836-83B9-6C1DD5EBCBCE}" userId="S::::5933743c-7964-40ee-a4ac-54b98ac000d6" providerId="AD"/>
+  <person displayName="杨行" id="{BAD387C6-B60E-4E61-B2F0-17F264A0ACC6}" userId="S::::77173b0d-4bc3-47de-b4cc-6d8afcec5087" providerId="AD"/>
 </personList>
 </file>
 
@@ -490,7 +490,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{DD89F8CD-CC3F-4916-A788-4C7CD457E478}" ref="J1" dT="2024-05-10T07:08:22" personId="{1E8EB84C-F6BD-4859-86A9-80DACD2D67E8}" parentId="{}">
+  <threadedComment id="{99DCA90F-A6FF-4817-B673-3EE96092FB9A}" ref="J1" dT="2024-05-10T07:08:22" personId="{BAD387C6-B60E-4E61-B2F0-17F264A0ACC6}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -498,27 +498,27 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{ADD73571-3A08-431E-99A2-4AB0778569A1}" ref="D1" dT="2024-05-10T08:11:19" personId="{1E8EB84C-F6BD-4859-86A9-80DACD2D67E8}" parentId="{}">
+  <threadedComment id="{6117CD24-2667-4E48-B86C-FBA4068349C4}" ref="C8" dT="2024-05-09T06:25:33" personId="{BAD387C6-B60E-4E61-B2F0-17F264A0ACC6}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{F5D95D49-6290-4CED-BA0B-9E4ED3613EDE}" ref="E8" dT="2024-05-09T07:41:18" personId="{BAD387C6-B60E-4E61-B2F0-17F264A0ACC6}" parentId="{}">
+    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
+  </threadedComment>
+  <threadedComment id="{1C0B1A31-F48A-4414-8B03-C8BCC7880F11}" ref="C1" dT="2024-05-10T07:54:02" personId="{BAD387C6-B60E-4E61-B2F0-17F264A0ACC6}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{4AEE07F6-D0C8-4C13-8FCE-63BE34169C8D}" ref="D1" dT="2024-05-10T08:11:19" personId="{BAD387C6-B60E-4E61-B2F0-17F264A0ACC6}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{c6afbfd2-86cb-4177-89f0-45f8f85179a5}" ref="D1" dT="2024-05-10T08:15:39" personId="{1E8EB84C-F6BD-4859-86A9-80DACD2D67E8}" parentId="{ADD73571-3A08-431E-99A2-4AB0778569A1}">
+  <threadedComment id="{9a435615-72a4-439b-a30a-edd62cbc0495}" ref="D1" dT="2024-05-10T08:15:39" personId="{BAD387C6-B60E-4E61-B2F0-17F264A0ACC6}" parentId="{4AEE07F6-D0C8-4C13-8FCE-63BE34169C8D}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{9BE79202-1AA6-4C00-8CB7-EC68E37CF07B}" ref="D8" dT="2024-05-13T07:32:07" personId="{D57A7970-AA13-4A4D-91FB-17085661A4A0}" parentId="{}">
+  <threadedComment id="{9B66BD43-08F2-4C57-B223-33ADF304C60A}" ref="D8" dT="2024-05-13T07:32:07" personId="{05674749-A755-4836-83B9-6C1DD5EBCBCE}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
-  </threadedComment>
-  <threadedComment id="{C8C23E4A-30E3-4158-BEB4-1C1B57A75B15}" ref="C8" dT="2024-05-09T06:25:33" personId="{1E8EB84C-F6BD-4859-86A9-80DACD2D67E8}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{197356F0-C85C-45C8-994E-690A4D81A328}" ref="E8" dT="2024-05-09T07:41:18" personId="{1E8EB84C-F6BD-4859-86A9-80DACD2D67E8}" parentId="{}">
-    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
-  </threadedComment>
-  <threadedComment id="{32E42F68-E884-4A9B-B1A3-39906AB4F54B}" ref="C1" dT="2024-05-10T07:54:02" personId="{1E8EB84C-F6BD-4859-86A9-80DACD2D67E8}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={99DCA90F-A6FF-4817-B673-3EE96092FB9A}</author>
+    <author>tc={66FBB32A-2D9A-4423-81DF-3EAC14C9C830}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{99DCA90F-A6FF-4817-B673-3EE96092FB9A}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{66FBB32A-2D9A-4423-81DF-3EAC14C9C830}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,29 +46,29 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={6117CD24-2667-4E48-B86C-FBA4068349C4}</author>
-    <author>tc={F5D95D49-6290-4CED-BA0B-9E4ED3613EDE}</author>
-    <author>tc={1C0B1A31-F48A-4414-8B03-C8BCC7880F11}</author>
-    <author>tc={4AEE07F6-D0C8-4C13-8FCE-63BE34169C8D}</author>
-    <author>tc={9B66BD43-08F2-4C57-B223-33ADF304C60A}</author>
+    <author>tc={24AF5A86-816B-4B37-B99A-8B8D86CD65FD}</author>
+    <author>tc={D77AB04A-A147-4147-B3F6-3A6DF0AF6C42}</author>
+    <author>tc={A4D0577B-B4A5-466A-8CC6-85711C630F57}</author>
+    <author>tc={A47273B1-3814-4AFE-AAF4-FC07EF486509}</author>
+    <author>tc={9A2E5481-5E0F-41A4-8EFB-5A5AF4B1F225}</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{6117CD24-2667-4E48-B86C-FBA4068349C4}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{24AF5A86-816B-4B37-B99A-8B8D86CD65FD}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{F5D95D49-6290-4CED-BA0B-9E4ED3613EDE}">
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{D77AB04A-A147-4147-B3F6-3A6DF0AF6C42}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{1C0B1A31-F48A-4414-8B03-C8BCC7880F11}">
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{A4D0577B-B4A5-466A-8CC6-85711C630F57}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{4AEE07F6-D0C8-4C13-8FCE-63BE34169C8D}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{A47273B1-3814-4AFE-AAF4-FC07EF486509}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -77,7 +77,7 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="4" shapeId="0" xr:uid="{9B66BD43-08F2-4C57-B223-33ADF304C60A}">
+    <comment ref="D8" authorId="4" shapeId="0" xr:uid="{9A2E5481-5E0F-41A4-8EFB-5A5AF4B1F225}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
@@ -188,8 +188,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{05674749-A755-4836-83B9-6C1DD5EBCBCE}" userId="S::::5933743c-7964-40ee-a4ac-54b98ac000d6" providerId="AD"/>
-  <person displayName="杨行" id="{BAD387C6-B60E-4E61-B2F0-17F264A0ACC6}" userId="S::::77173b0d-4bc3-47de-b4cc-6d8afcec5087" providerId="AD"/>
+  <person displayName="侯清辰" id="{0281F3F3-046D-4501-8927-9794B82880AD}" userId="S::::476eda51-43c6-4822-9d73-02b76b5a7c39" providerId="AD"/>
+  <person displayName="杨行" id="{A05A95F6-04F3-4E2D-A196-5D8FFC3513E0}" userId="S::::181d980b-3900-4088-a0af-e4c2c98c88e2" providerId="AD"/>
 </personList>
 </file>
 
@@ -490,7 +490,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{99DCA90F-A6FF-4817-B673-3EE96092FB9A}" ref="J1" dT="2024-05-10T07:08:22" personId="{BAD387C6-B60E-4E61-B2F0-17F264A0ACC6}" parentId="{}">
+  <threadedComment id="{66FBB32A-2D9A-4423-81DF-3EAC14C9C830}" ref="J1" dT="2024-05-10T07:08:22" personId="{A05A95F6-04F3-4E2D-A196-5D8FFC3513E0}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -498,26 +498,26 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{6117CD24-2667-4E48-B86C-FBA4068349C4}" ref="C8" dT="2024-05-09T06:25:33" personId="{BAD387C6-B60E-4E61-B2F0-17F264A0ACC6}" parentId="{}">
+  <threadedComment id="{24AF5A86-816B-4B37-B99A-8B8D86CD65FD}" ref="C8" dT="2024-05-09T06:25:33" personId="{A05A95F6-04F3-4E2D-A196-5D8FFC3513E0}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{F5D95D49-6290-4CED-BA0B-9E4ED3613EDE}" ref="E8" dT="2024-05-09T07:41:18" personId="{BAD387C6-B60E-4E61-B2F0-17F264A0ACC6}" parentId="{}">
+  <threadedComment id="{D77AB04A-A147-4147-B3F6-3A6DF0AF6C42}" ref="E8" dT="2024-05-09T07:41:18" personId="{A05A95F6-04F3-4E2D-A196-5D8FFC3513E0}" parentId="{}">
     <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
-  <threadedComment id="{1C0B1A31-F48A-4414-8B03-C8BCC7880F11}" ref="C1" dT="2024-05-10T07:54:02" personId="{BAD387C6-B60E-4E61-B2F0-17F264A0ACC6}" parentId="{}">
+  <threadedComment id="{A4D0577B-B4A5-466A-8CC6-85711C630F57}" ref="C1" dT="2024-05-10T07:54:02" personId="{A05A95F6-04F3-4E2D-A196-5D8FFC3513E0}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{4AEE07F6-D0C8-4C13-8FCE-63BE34169C8D}" ref="D1" dT="2024-05-10T08:11:19" personId="{BAD387C6-B60E-4E61-B2F0-17F264A0ACC6}" parentId="{}">
+  <threadedComment id="{A47273B1-3814-4AFE-AAF4-FC07EF486509}" ref="D1" dT="2024-05-10T08:11:19" personId="{A05A95F6-04F3-4E2D-A196-5D8FFC3513E0}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{9a435615-72a4-439b-a30a-edd62cbc0495}" ref="D1" dT="2024-05-10T08:15:39" personId="{BAD387C6-B60E-4E61-B2F0-17F264A0ACC6}" parentId="{4AEE07F6-D0C8-4C13-8FCE-63BE34169C8D}">
+  <threadedComment id="{bfefea20-4c0c-41f9-93d8-fe6416462a13}" ref="D1" dT="2024-05-10T08:15:39" personId="{A05A95F6-04F3-4E2D-A196-5D8FFC3513E0}" parentId="{A47273B1-3814-4AFE-AAF4-FC07EF486509}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{9B66BD43-08F2-4C57-B223-33ADF304C60A}" ref="D8" dT="2024-05-13T07:32:07" personId="{05674749-A755-4836-83B9-6C1DD5EBCBCE}" parentId="{}">
+  <threadedComment id="{9A2E5481-5E0F-41A4-8EFB-5A5AF4B1F225}" ref="D8" dT="2024-05-13T07:32:07" personId="{0281F3F3-046D-4501-8927-9794B82880AD}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
 </ThreadedComments>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={66FBB32A-2D9A-4423-81DF-3EAC14C9C830}</author>
+    <author>tc={6943E86D-E85A-4038-A9E5-61C3EAF4876C}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{66FBB32A-2D9A-4423-81DF-3EAC14C9C830}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{6943E86D-E85A-4038-A9E5-61C3EAF4876C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,29 +46,29 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={24AF5A86-816B-4B37-B99A-8B8D86CD65FD}</author>
-    <author>tc={D77AB04A-A147-4147-B3F6-3A6DF0AF6C42}</author>
-    <author>tc={A4D0577B-B4A5-466A-8CC6-85711C630F57}</author>
-    <author>tc={A47273B1-3814-4AFE-AAF4-FC07EF486509}</author>
-    <author>tc={9A2E5481-5E0F-41A4-8EFB-5A5AF4B1F225}</author>
+    <author>tc={280F8165-8452-4A3C-9451-C3815EAF370A}</author>
+    <author>tc={B32677B2-8DB3-4A73-95A0-2687CB9919C3}</author>
+    <author>tc={74960A7C-27EA-4F27-9984-50AD899CD89C}</author>
+    <author>tc={6F879578-EC2F-4B57-8A11-0454B422E522}</author>
+    <author>tc={2DE1C7F5-B99C-49C0-BFB6-F5849D8B5A1B}</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{24AF5A86-816B-4B37-B99A-8B8D86CD65FD}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{280F8165-8452-4A3C-9451-C3815EAF370A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{D77AB04A-A147-4147-B3F6-3A6DF0AF6C42}">
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{B32677B2-8DB3-4A73-95A0-2687CB9919C3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{A4D0577B-B4A5-466A-8CC6-85711C630F57}">
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{74960A7C-27EA-4F27-9984-50AD899CD89C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{A47273B1-3814-4AFE-AAF4-FC07EF486509}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{6F879578-EC2F-4B57-8A11-0454B422E522}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -77,7 +77,7 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="4" shapeId="0" xr:uid="{9A2E5481-5E0F-41A4-8EFB-5A5AF4B1F225}">
+    <comment ref="D8" authorId="4" shapeId="0" xr:uid="{2DE1C7F5-B99C-49C0-BFB6-F5849D8B5A1B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
@@ -188,8 +188,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{0281F3F3-046D-4501-8927-9794B82880AD}" userId="S::::476eda51-43c6-4822-9d73-02b76b5a7c39" providerId="AD"/>
-  <person displayName="杨行" id="{A05A95F6-04F3-4E2D-A196-5D8FFC3513E0}" userId="S::::181d980b-3900-4088-a0af-e4c2c98c88e2" providerId="AD"/>
+  <person displayName="侯清辰" id="{F2F77FCB-4670-4A88-A4D2-FFC50B14AA55}" userId="S::::8112df37-b5f1-4c5c-bbdb-8bdf4320bd90" providerId="AD"/>
+  <person displayName="杨行" id="{E6A70EB4-53D7-488F-B1F9-78F20A070B32}" userId="S::::bfef46a5-5a92-4c76-a022-5f70a1af5127" providerId="AD"/>
 </personList>
 </file>
 
@@ -490,7 +490,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{66FBB32A-2D9A-4423-81DF-3EAC14C9C830}" ref="J1" dT="2024-05-10T07:08:22" personId="{A05A95F6-04F3-4E2D-A196-5D8FFC3513E0}" parentId="{}">
+  <threadedComment id="{6943E86D-E85A-4038-A9E5-61C3EAF4876C}" ref="J1" dT="2024-05-10T07:08:22" personId="{E6A70EB4-53D7-488F-B1F9-78F20A070B32}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -498,26 +498,26 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{24AF5A86-816B-4B37-B99A-8B8D86CD65FD}" ref="C8" dT="2024-05-09T06:25:33" personId="{A05A95F6-04F3-4E2D-A196-5D8FFC3513E0}" parentId="{}">
+  <threadedComment id="{280F8165-8452-4A3C-9451-C3815EAF370A}" ref="C8" dT="2024-05-09T06:25:33" personId="{E6A70EB4-53D7-488F-B1F9-78F20A070B32}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{D77AB04A-A147-4147-B3F6-3A6DF0AF6C42}" ref="E8" dT="2024-05-09T07:41:18" personId="{A05A95F6-04F3-4E2D-A196-5D8FFC3513E0}" parentId="{}">
+  <threadedComment id="{B32677B2-8DB3-4A73-95A0-2687CB9919C3}" ref="E8" dT="2024-05-09T07:41:18" personId="{E6A70EB4-53D7-488F-B1F9-78F20A070B32}" parentId="{}">
     <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
-  <threadedComment id="{A4D0577B-B4A5-466A-8CC6-85711C630F57}" ref="C1" dT="2024-05-10T07:54:02" personId="{A05A95F6-04F3-4E2D-A196-5D8FFC3513E0}" parentId="{}">
+  <threadedComment id="{74960A7C-27EA-4F27-9984-50AD899CD89C}" ref="C1" dT="2024-05-10T07:54:02" personId="{E6A70EB4-53D7-488F-B1F9-78F20A070B32}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{A47273B1-3814-4AFE-AAF4-FC07EF486509}" ref="D1" dT="2024-05-10T08:11:19" personId="{A05A95F6-04F3-4E2D-A196-5D8FFC3513E0}" parentId="{}">
+  <threadedComment id="{6F879578-EC2F-4B57-8A11-0454B422E522}" ref="D1" dT="2024-05-10T08:11:19" personId="{E6A70EB4-53D7-488F-B1F9-78F20A070B32}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{bfefea20-4c0c-41f9-93d8-fe6416462a13}" ref="D1" dT="2024-05-10T08:15:39" personId="{A05A95F6-04F3-4E2D-A196-5D8FFC3513E0}" parentId="{A47273B1-3814-4AFE-AAF4-FC07EF486509}">
+  <threadedComment id="{f73459d8-1177-4570-bc5e-45722baecab9}" ref="D1" dT="2024-05-10T08:15:39" personId="{E6A70EB4-53D7-488F-B1F9-78F20A070B32}" parentId="{6F879578-EC2F-4B57-8A11-0454B422E522}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{9A2E5481-5E0F-41A4-8EFB-5A5AF4B1F225}" ref="D8" dT="2024-05-13T07:32:07" personId="{0281F3F3-046D-4501-8927-9794B82880AD}" parentId="{}">
+  <threadedComment id="{2DE1C7F5-B99C-49C0-BFB6-F5849D8B5A1B}" ref="D8" dT="2024-05-13T07:32:07" personId="{F2F77FCB-4670-4A88-A4D2-FFC50B14AA55}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
 </ThreadedComments>
@@ -670,7 +670,7 @@
     </row>
     <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
-        <v>教廷密使</v>
+        <v>(～先忽略～)教廷密使</v>
       </c>
       <c r="B2" s="1" t="str">
         <v>World</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,10 +31,16 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={6943E86D-E85A-4038-A9E5-61C3EAF4876C}</author>
+    <author>tc={21C8009A-FF5B-4086-84B1-B67BB3BB26CD}</author>
+    <author>tc={9F54B53E-123A-4FFF-B11B-E0F566D3FE5E}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{6943E86D-E85A-4038-A9E5-61C3EAF4876C}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{21C8009A-FF5B-4086-84B1-B67BB3BB26CD}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{9F54B53E-123A-4FFF-B11B-E0F566D3FE5E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -46,29 +52,14 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={280F8165-8452-4A3C-9451-C3815EAF370A}</author>
-    <author>tc={B32677B2-8DB3-4A73-95A0-2687CB9919C3}</author>
-    <author>tc={74960A7C-27EA-4F27-9984-50AD899CD89C}</author>
-    <author>tc={6F879578-EC2F-4B57-8A11-0454B422E522}</author>
-    <author>tc={2DE1C7F5-B99C-49C0-BFB6-F5849D8B5A1B}</author>
+    <author>tc={6229553B-E628-45FE-B452-86E0F1319AF6}</author>
+    <author>tc={A2CD65BE-08B3-4470-819F-8C8706C6464A}</author>
+    <author>tc={DAF70CEE-5B6C-4629-96F7-E15E1F95E852}</author>
+    <author>tc={E48AA8F2-A962-4AA7-A83D-AF6B0452F917}</author>
+    <author>tc={178EBE7A-A950-4AFD-8046-7B7FF45E6D47}</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{280F8165-8452-4A3C-9451-C3815EAF370A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{B32677B2-8DB3-4A73-95A0-2687CB9919C3}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{74960A7C-27EA-4F27-9984-50AD899CD89C}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{6F879578-EC2F-4B57-8A11-0454B422E522}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{6229553B-E628-45FE-B452-86E0F1319AF6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -77,9 +68,24 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="4" shapeId="0" xr:uid="{2DE1C7F5-B99C-49C0-BFB6-F5849D8B5A1B}">
+    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{A2CD65BE-08B3-4470-819F-8C8706C6464A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{DAF70CEE-5B6C-4629-96F7-E15E1F95E852}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{E48AA8F2-A962-4AA7-A83D-AF6B0452F917}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="4" shapeId="0" xr:uid="{178EBE7A-A950-4AFD-8046-7B7FF45E6D47}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -188,8 +194,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{F2F77FCB-4670-4A88-A4D2-FFC50B14AA55}" userId="S::::8112df37-b5f1-4c5c-bbdb-8bdf4320bd90" providerId="AD"/>
-  <person displayName="杨行" id="{E6A70EB4-53D7-488F-B1F9-78F20A070B32}" userId="S::::bfef46a5-5a92-4c76-a022-5f70a1af5127" providerId="AD"/>
+  <person displayName="杨行" id="{FAC2DF33-1F8A-4EF9-BC58-0A0D379859B4}" userId="S::::05cf7be6-91b1-403d-817a-9bd10274a7b6" providerId="AD"/>
+  <person displayName="侯清辰" id="{ED0F31FD-D22E-41AB-9575-49C1FA35B0C2}" userId="S::::6abf61bb-0820-44e1-ba32-b5b9d54b1c31" providerId="AD"/>
 </personList>
 </file>
 
@@ -490,7 +496,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{6943E86D-E85A-4038-A9E5-61C3EAF4876C}" ref="J1" dT="2024-05-10T07:08:22" personId="{E6A70EB4-53D7-488F-B1F9-78F20A070B32}" parentId="{}">
+  <threadedComment id="{21C8009A-FF5B-4086-84B1-B67BB3BB26CD}" ref="A2" dT="2024-05-28T04:59:59" personId="{FAC2DF33-1F8A-4EF9-BC58-0A0D379859B4}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{9F54B53E-123A-4FFF-B11B-E0F566D3FE5E}" ref="J1" dT="2024-05-10T07:08:22" personId="{FAC2DF33-1F8A-4EF9-BC58-0A0D379859B4}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -498,27 +507,27 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{280F8165-8452-4A3C-9451-C3815EAF370A}" ref="C8" dT="2024-05-09T06:25:33" personId="{E6A70EB4-53D7-488F-B1F9-78F20A070B32}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{B32677B2-8DB3-4A73-95A0-2687CB9919C3}" ref="E8" dT="2024-05-09T07:41:18" personId="{E6A70EB4-53D7-488F-B1F9-78F20A070B32}" parentId="{}">
-    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
-  </threadedComment>
-  <threadedComment id="{74960A7C-27EA-4F27-9984-50AD899CD89C}" ref="C1" dT="2024-05-10T07:54:02" personId="{E6A70EB4-53D7-488F-B1F9-78F20A070B32}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{6F879578-EC2F-4B57-8A11-0454B422E522}" ref="D1" dT="2024-05-10T08:11:19" personId="{E6A70EB4-53D7-488F-B1F9-78F20A070B32}" parentId="{}">
+  <threadedComment id="{6229553B-E628-45FE-B452-86E0F1319AF6}" ref="D1" dT="2024-05-10T08:11:19" personId="{FAC2DF33-1F8A-4EF9-BC58-0A0D379859B4}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{f73459d8-1177-4570-bc5e-45722baecab9}" ref="D1" dT="2024-05-10T08:15:39" personId="{E6A70EB4-53D7-488F-B1F9-78F20A070B32}" parentId="{6F879578-EC2F-4B57-8A11-0454B422E522}">
+  <threadedComment id="{e9703023-3a37-4a52-a1ad-4530eea91d79}" ref="D1" dT="2024-05-10T08:15:39" personId="{FAC2DF33-1F8A-4EF9-BC58-0A0D379859B4}" parentId="{6229553B-E628-45FE-B452-86E0F1319AF6}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{2DE1C7F5-B99C-49C0-BFB6-F5849D8B5A1B}" ref="D8" dT="2024-05-13T07:32:07" personId="{F2F77FCB-4670-4A88-A4D2-FFC50B14AA55}" parentId="{}">
+  <threadedComment id="{A2CD65BE-08B3-4470-819F-8C8706C6464A}" ref="D8" dT="2024-05-13T07:32:07" personId="{ED0F31FD-D22E-41AB-9575-49C1FA35B0C2}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
+  </threadedComment>
+  <threadedComment id="{DAF70CEE-5B6C-4629-96F7-E15E1F95E852}" ref="C8" dT="2024-05-09T06:25:33" personId="{FAC2DF33-1F8A-4EF9-BC58-0A0D379859B4}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{E48AA8F2-A962-4AA7-A83D-AF6B0452F917}" ref="E8" dT="2024-05-09T07:41:18" personId="{FAC2DF33-1F8A-4EF9-BC58-0A0D379859B4}" parentId="{}">
+    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
+  </threadedComment>
+  <threadedComment id="{178EBE7A-A950-4AFD-8046-7B7FF45E6D47}" ref="C1" dT="2024-05-10T07:54:02" personId="{FAC2DF33-1F8A-4EF9-BC58-0A0D379859B4}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1087,7 +1096,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="681"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="416"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="137"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="293"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="49"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="23"/>
@@ -1151,7 +1160,7 @@
         <v>教廷秘史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
       <c r="E4" s="1" t="str">
-        <v>赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
+        <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
       <c r="F4" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
@@ -1180,9 +1189,7 @@
         <v>自从圣灰园的第一块石头被放置以来，你就潜伏在其深处，你的存在比圣灰园本身更为古老。传说你是由圣灰园过往的罪恶和悲伤诞生的，每一块墓碑，每一个被遗忘的灵魂都增强了你的力量。你被一个古老的诅咒束缚在圣灰园内，无法离开，这个诅咒的本质至今仍是一个谜。你是圣灰园真正的统治者，你的残暴使所有生灵都颤抖，唯独“好运气先生”（一只小老鼠）例外，它是你的忠实仆人是你在沉睡中保持统治的工具。“格雷”和他的狗“摩尔”是唯一被你容忍的外来者，这是因为“格雷”通过定期的“供品”（把墓地里的尸体给你吃），让你“允许他们活着”。目前“腐臭地窖”是你的窝。</v>
       </c>
       <c r="E5" s="1" t="str">
-        <v>嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！嘶嘶嘶！
-任何档胆敢进入腐臭地窖的活物，都要被我吃掉！嘶嘶嘶。。。。哦，对了。除了我的小玩应——好运气先生，这个小家伙还是有点用的。如果它叫醒了我，也许是出了什么事。
-不过，没关系，嘶嘶嘶，任何的胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！</v>
+        <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！嘶嘶嘶！任何档胆敢进入腐臭地窖的活物，都要被我吃掉！嘶嘶嘶。。。。哦，对了。除了我的小玩应——好运气先生，这个小家伙还是有点用的。如果它叫醒了我，也许是出了什么事。不过，没关系，嘶嘶嘶，任何的胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！</v>
       </c>
       <c r="F5" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
@@ -1211,9 +1218,10 @@
         <v>你一直是这个被诅咒的地方的一部分。在鼠王的暴政下，你表面上显得忠诚无比，实则是出于对其残暴本性的恐惧。你知道自己的生命完全取决于鼠王的心情和饥饿程度。因此，你在圣灰园中既是观察者也是被观察者，永远处于被监视的状态。当你发现潜在的威胁时，你会立即寻求鼠王的保护，虽然这样做意味着将其他生灵推向绝境。</v>
       </c>
       <c r="E6" s="1" t="str">
-        <v>吱吱。。。。格雷和他的该死的狗——摩尔。我讨厌他们，真心讨厌他们！吱吱！！鼠王没吃掉他们，还不是他们定期给鼠王送‘食物’？呵呵。吱吱，无耻的东西！
-走着瞧吧！吱吱。。。。早晚有一天他们没用了，鼠王就会吃掉他们，希望到时候他们别瘦的没肉可吃。吱吱。。。。我要时刻盯着他们，因为如果出了问题，鼠王连我也不会放过！吱吱！！
-总之，出了任何异常我都会去腐臭地窖叫醒鼠王！吱吱！！</v>
+        <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
+2. 吱吱吱～～（开心的摇尾巴）～～～～"
+3. 吱。。。。。。。（谨慎与小心翼翼）。。
+4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
       <c r="F6" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
@@ -1243,8 +1251,7 @@
 唯一陪伴你的就是小狗“摩尔”。你在很多年前一次清晨，从墓园的一个被遗忘的角落里发现了“摩尔”，那时“摩尔”还只是一只脆弱的幼犬，身旁躺着的，已经死了的可能是它的母亲。你将其带回，用墓地里的尸体喂养长大你知道“圣灰园”中所有阴暗秘密。为了生存，你通过定期将墓地里的尸体供奉给鼠王，你保证了自己与“摩尔”的暂时安全，但这也使你陷入了接近疯狂的边缘。</v>
       </c>
       <c r="E7" s="1" t="str">
-        <v>（阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了。最近没有给鼠王送食物，他似乎不太高兴。
-让我想想。该怎么办呢？要不，把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。。那一定很有趣（恶毒的笑声）。。。总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
+        <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了。最近没有给鼠王送食物，他似乎不太高兴。让我想想。该怎么办呢？要不，把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
       <c r="F7" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
@@ -1273,7 +1280,7 @@
         <v>你自幼就生活在圣灰园，你从未见过除了“格雷”以外的任何活人。这片阴森的土地和其中躺着的尸体构成了你所有的世界。你是由“格雷”在一次清晨，从墓园的一个被遗忘的角落里发现的，那时你还只是一只脆弱的幼犬，身旁躺着你那已经不在的母亲。“格雷”将你带回，用墓地里的尸体喂养长大。这种成长方式赋予了你一种不可思议的力量，但也让你的身体出现了溃烂。对你来说，“格雷”是你对这个世界唯一的连结。</v>
       </c>
       <c r="E8" s="1" t="str">
-        <v>（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。</v>
+        <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。</v>
       </c>
       <c r="F8" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
@@ -1302,7 +1309,7 @@
         <v>关于你的过去，你什么都记不得了</v>
       </c>
       <c r="E9" s="1" t="str">
-        <v>我知道了。</v>
+        <v>- 我知道了。</v>
       </c>
       <c r="F9" s="1" t="str">
         <v>gpt-4-turbo-preview</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,18 +31,18 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={21C8009A-FF5B-4086-84B1-B67BB3BB26CD}</author>
-    <author>tc={9F54B53E-123A-4FFF-B11B-E0F566D3FE5E}</author>
+    <author>tc={A5FE630C-11ED-458C-9CF9-2DE2CC7A590A}</author>
+    <author>tc={D09EAD6C-4262-4B3E-9C7F-99891FCAD94C}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{21C8009A-FF5B-4086-84B1-B67BB3BB26CD}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A5FE630C-11ED-458C-9CF9-2DE2CC7A590A}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{D09EAD6C-4262-4B3E-9C7F-99891FCAD94C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{9F54B53E-123A-4FFF-B11B-E0F566D3FE5E}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
   </commentList>
@@ -52,14 +52,19 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={6229553B-E628-45FE-B452-86E0F1319AF6}</author>
-    <author>tc={A2CD65BE-08B3-4470-819F-8C8706C6464A}</author>
-    <author>tc={DAF70CEE-5B6C-4629-96F7-E15E1F95E852}</author>
-    <author>tc={E48AA8F2-A962-4AA7-A83D-AF6B0452F917}</author>
-    <author>tc={178EBE7A-A950-4AFD-8046-7B7FF45E6D47}</author>
+    <author>tc={2CC1B3D0-8224-4EC6-A592-8269FB33C826}</author>
+    <author>tc={A08CDB11-3E33-4CB2-83A8-B59A1BE56A65}</author>
+    <author>tc={50988357-77BB-468D-8F2C-2A874768F399}</author>
+    <author>tc={433CD39B-AA7A-429D-983D-20D19ABBE2E8}</author>
+    <author>tc={FA19292C-75CD-450B-AB3D-930DAF3D4278}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{6229553B-E628-45FE-B452-86E0F1319AF6}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2CC1B3D0-8224-4EC6-A592-8269FB33C826}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{A08CDB11-3E33-4CB2-83A8-B59A1BE56A65}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -68,24 +73,19 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{A2CD65BE-08B3-4470-819F-8C8706C6464A}">
+    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{50988357-77BB-468D-8F2C-2A874768F399}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{DAF70CEE-5B6C-4629-96F7-E15E1F95E852}">
+    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{433CD39B-AA7A-429D-983D-20D19ABBE2E8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{E48AA8F2-A962-4AA7-A83D-AF6B0452F917}">
+    <comment ref="E8" authorId="4" shapeId="0" xr:uid="{FA19292C-75CD-450B-AB3D-930DAF3D4278}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="4" shapeId="0" xr:uid="{178EBE7A-A950-4AFD-8046-7B7FF45E6D47}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -194,8 +194,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{FAC2DF33-1F8A-4EF9-BC58-0A0D379859B4}" userId="S::::05cf7be6-91b1-403d-817a-9bd10274a7b6" providerId="AD"/>
-  <person displayName="侯清辰" id="{ED0F31FD-D22E-41AB-9575-49C1FA35B0C2}" userId="S::::6abf61bb-0820-44e1-ba32-b5b9d54b1c31" providerId="AD"/>
+  <person displayName="杨行" id="{819B0656-FF52-49EE-9F39-43DEC14C4A48}" userId="S::::0a615d64-0f22-47a5-8351-e861998b5d5d" providerId="AD"/>
+  <person displayName="侯清辰" id="{27A7B646-0CF3-4D58-A8ED-6DE625E30FC3}" userId="S::::22de9907-5962-413c-8323-efad09947a22" providerId="AD"/>
 </personList>
 </file>
 
@@ -496,38 +496,38 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{21C8009A-FF5B-4086-84B1-B67BB3BB26CD}" ref="A2" dT="2024-05-28T04:59:59" personId="{FAC2DF33-1F8A-4EF9-BC58-0A0D379859B4}" parentId="{}">
+  <threadedComment id="{A5FE630C-11ED-458C-9CF9-2DE2CC7A590A}" ref="J1" dT="2024-05-10T07:08:22" personId="{819B0656-FF52-49EE-9F39-43DEC14C4A48}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{D09EAD6C-4262-4B3E-9C7F-99891FCAD94C}" ref="A2" dT="2024-05-28T04:59:59" personId="{819B0656-FF52-49EE-9F39-43DEC14C4A48}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{9F54B53E-123A-4FFF-B11B-E0F566D3FE5E}" ref="J1" dT="2024-05-10T07:08:22" personId="{FAC2DF33-1F8A-4EF9-BC58-0A0D379859B4}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{6229553B-E628-45FE-B452-86E0F1319AF6}" ref="D1" dT="2024-05-10T08:11:19" personId="{FAC2DF33-1F8A-4EF9-BC58-0A0D379859B4}" parentId="{}">
+  <threadedComment id="{2CC1B3D0-8224-4EC6-A592-8269FB33C826}" ref="C1" dT="2024-05-10T07:54:02" personId="{819B0656-FF52-49EE-9F39-43DEC14C4A48}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{A08CDB11-3E33-4CB2-83A8-B59A1BE56A65}" ref="D1" dT="2024-05-10T08:11:19" personId="{819B0656-FF52-49EE-9F39-43DEC14C4A48}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{e9703023-3a37-4a52-a1ad-4530eea91d79}" ref="D1" dT="2024-05-10T08:15:39" personId="{FAC2DF33-1F8A-4EF9-BC58-0A0D379859B4}" parentId="{6229553B-E628-45FE-B452-86E0F1319AF6}">
+  <threadedComment id="{7db04ef2-afae-4472-a2b7-7bc1717d985c}" ref="D1" dT="2024-05-10T08:15:39" personId="{819B0656-FF52-49EE-9F39-43DEC14C4A48}" parentId="{A08CDB11-3E33-4CB2-83A8-B59A1BE56A65}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{A2CD65BE-08B3-4470-819F-8C8706C6464A}" ref="D8" dT="2024-05-13T07:32:07" personId="{ED0F31FD-D22E-41AB-9575-49C1FA35B0C2}" parentId="{}">
+  <threadedComment id="{50988357-77BB-468D-8F2C-2A874768F399}" ref="D8" dT="2024-05-13T07:32:07" personId="{27A7B646-0CF3-4D58-A8ED-6DE625E30FC3}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
-  <threadedComment id="{DAF70CEE-5B6C-4629-96F7-E15E1F95E852}" ref="C8" dT="2024-05-09T06:25:33" personId="{FAC2DF33-1F8A-4EF9-BC58-0A0D379859B4}" parentId="{}">
+  <threadedComment id="{433CD39B-AA7A-429D-983D-20D19ABBE2E8}" ref="C8" dT="2024-05-09T06:25:33" personId="{819B0656-FF52-49EE-9F39-43DEC14C4A48}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{E48AA8F2-A962-4AA7-A83D-AF6B0452F917}" ref="E8" dT="2024-05-09T07:41:18" personId="{FAC2DF33-1F8A-4EF9-BC58-0A0D379859B4}" parentId="{}">
+  <threadedComment id="{FA19292C-75CD-450B-AB3D-930DAF3D4278}" ref="E8" dT="2024-05-09T07:41:18" personId="{819B0656-FF52-49EE-9F39-43DEC14C4A48}" parentId="{}">
     <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
-  </threadedComment>
-  <threadedComment id="{178EBE7A-A950-4AFD-8046-7B7FF45E6D47}" ref="C1" dT="2024-05-10T07:54:02" personId="{FAC2DF33-1F8A-4EF9-BC58-0A0D379859B4}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -908,7 +908,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
@@ -945,6 +945,9 @@
       <c r="G1" s="1" t="str">
         <v>attributes</v>
       </c>
+      <c r="H1" s="2" t="str">
+        <v>RAG</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
@@ -968,6 +971,9 @@
       <c r="G2" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
+      <c r="H2" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
@@ -991,6 +997,9 @@
       <c r="G3" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
+      <c r="H3" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1" t="str">
@@ -1014,6 +1023,9 @@
       <c r="G4" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
+      <c r="H4" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1" t="str">
@@ -1037,6 +1049,9 @@
       <c r="G5" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
+      <c r="H5" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1" t="str">
@@ -1059,6 +1074,9 @@
       </c>
       <c r="G6" s="1" t="str">
         <v>10000,10000,1,10000</v>
+      </c>
+      <c r="H6" t="str">
+        <v>rag_libraries/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7"/>
@@ -1101,7 +1119,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
@@ -1143,6 +1161,9 @@
       <c r="I1" s="1" t="str">
         <v>attributes</v>
       </c>
+      <c r="J1" s="2" t="str">
+        <v>RAG</v>
+      </c>
     </row>
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
@@ -1174,6 +1195,9 @@
       <c r="I4" s="1" t="str">
         <v>10000,10000,10,10</v>
       </c>
+      <c r="J4" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1202,6 +1226,9 @@
       </c>
       <c r="I5" s="2" t="str">
         <v>100,100,10,1</v>
+      </c>
+      <c r="J5" t="str">
+        <v>rag_libraries/rag2.md</v>
       </c>
     </row>
     <row r="6">
@@ -1235,6 +1262,9 @@
       <c r="I6" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
+      <c r="J6" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
@@ -1265,6 +1295,9 @@
       <c r="I7" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
+      <c r="J7" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="str">
@@ -1294,6 +1327,9 @@
       <c r="I8" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
+      <c r="J8" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="9">
       <c r="A9" s="1" t="str">
@@ -1322,6 +1358,9 @@
       </c>
       <c r="I9" s="2" t="str">
         <v>100,100,10,1</v>
+      </c>
+      <c r="J9" t="str">
+        <v>rag_libraries/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
@@ -1394,6 +1433,9 @@
       <c r="F1" s="2" t="str">
         <v>attributes</v>
       </c>
+      <c r="G1" s="2" t="str">
+        <v>RAG</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
@@ -1411,6 +1453,9 @@
       <c r="E2" s="1" t="str">
         <v>灰色的面容与紫色的双眼。无名的复活者的印记</v>
       </c>
+      <c r="G2" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
@@ -1428,6 +1473,9 @@
       <c r="E3" s="1" t="str">
         <v>好运气先生左边爪子上的胎记，具体怎么形成的已经无法说清。只有好运气先生能看懂。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。包括：灰颜墓地，焚化炉，灰颜礼拜堂和腐臭地窖。</v>
       </c>
+      <c r="G3" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1" t="str">
@@ -1448,6 +1496,9 @@
       <c r="F4" s="2" t="str">
         <v>0,10000,0</v>
       </c>
+      <c r="G4" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1" t="str">
@@ -1468,6 +1519,9 @@
       <c r="F5" s="2" t="str">
         <v>0,1,0</v>
       </c>
+      <c r="G5" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1" t="str">
@@ -1488,6 +1542,9 @@
       <c r="F6" s="2" t="str">
         <v>0,0,1</v>
       </c>
+      <c r="G6" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="7">
       <c r="A7" s="1" t="str">
@@ -1505,6 +1562,9 @@
       <c r="E7" s="1" t="str">
         <v>能打开灰颜礼拜堂的门，看上去形状像断掉的手指</v>
       </c>
+      <c r="G7" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="8">
       <c r="A8" s="2" t="str">
@@ -1522,8 +1582,15 @@
       <c r="E8" s="2" t="str">
         <v>使用腐朽的匕首撬动禁言者之棺产生的缝隙，足够一个人钻出</v>
       </c>
-    </row>
-    <row customHeight="true" ht="23" r="9"/>
+      <c r="G8" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="9">
+      <c r="G9" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row customHeight="true" ht="23" r="12"/>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,16 +31,16 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A5FE630C-11ED-458C-9CF9-2DE2CC7A590A}</author>
-    <author>tc={D09EAD6C-4262-4B3E-9C7F-99891FCAD94C}</author>
+    <author>tc={F86AF3CB-5E9B-4DA2-BAFE-34B986A54234}</author>
+    <author>tc={5DF9F2DD-4629-40F5-8F8E-D3182A9705E4}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A5FE630C-11ED-458C-9CF9-2DE2CC7A590A}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{F86AF3CB-5E9B-4DA2-BAFE-34B986A54234}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
-    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{D09EAD6C-4262-4B3E-9C7F-99891FCAD94C}">
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{5DF9F2DD-4629-40F5-8F8E-D3182A9705E4}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
@@ -52,19 +52,29 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={2CC1B3D0-8224-4EC6-A592-8269FB33C826}</author>
-    <author>tc={A08CDB11-3E33-4CB2-83A8-B59A1BE56A65}</author>
-    <author>tc={50988357-77BB-468D-8F2C-2A874768F399}</author>
-    <author>tc={433CD39B-AA7A-429D-983D-20D19ABBE2E8}</author>
-    <author>tc={FA19292C-75CD-450B-AB3D-930DAF3D4278}</author>
+    <author>tc={41B94105-698A-423D-851D-002BEF611E31}</author>
+    <author>tc={2A27969A-63AD-4137-996A-E9BC65F25147}</author>
+    <author>tc={FB096BB5-1A01-422D-A3D5-FADFB364816B}</author>
+    <author>tc={DAE582F4-A0C4-4F25-A219-D35B18069F7D}</author>
+    <author>tc={A99250EC-C2E3-4805-80A1-9A68A335941D}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2CC1B3D0-8224-4EC6-A592-8269FB33C826}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{41B94105-698A-423D-851D-002BEF611E31}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{2A27969A-63AD-4137-996A-E9BC65F25147}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{FB096BB5-1A01-422D-A3D5-FADFB364816B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{A08CDB11-3E33-4CB2-83A8-B59A1BE56A65}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{DAE582F4-A0C4-4F25-A219-D35B18069F7D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -73,19 +83,9 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{50988357-77BB-468D-8F2C-2A874768F399}">
+    <comment ref="D8" authorId="4" shapeId="0" xr:uid="{A99250EC-C2E3-4805-80A1-9A68A335941D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{433CD39B-AA7A-429D-983D-20D19ABBE2E8}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="4" shapeId="0" xr:uid="{FA19292C-75CD-450B-AB3D-930DAF3D4278}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
     </comment>
   </commentList>
@@ -194,8 +194,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{819B0656-FF52-49EE-9F39-43DEC14C4A48}" userId="S::::0a615d64-0f22-47a5-8351-e861998b5d5d" providerId="AD"/>
-  <person displayName="侯清辰" id="{27A7B646-0CF3-4D58-A8ED-6DE625E30FC3}" userId="S::::22de9907-5962-413c-8323-efad09947a22" providerId="AD"/>
+  <person displayName="杨行" id="{A6624885-679C-4792-8832-D22923A2547B}" userId="S::::75ed66f2-40cc-440c-a636-059a6d3fddc8" providerId="AD"/>
+  <person displayName="侯清辰" id="{E696716A-B156-4092-99C3-B922095E4934}" userId="S::::02376ba2-0394-4993-ba42-601fc6dc4709" providerId="AD"/>
 </personList>
 </file>
 
@@ -496,10 +496,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{A5FE630C-11ED-458C-9CF9-2DE2CC7A590A}" ref="J1" dT="2024-05-10T07:08:22" personId="{819B0656-FF52-49EE-9F39-43DEC14C4A48}" parentId="{}">
+  <threadedComment id="{F86AF3CB-5E9B-4DA2-BAFE-34B986A54234}" ref="J1" dT="2024-05-10T07:08:22" personId="{A6624885-679C-4792-8832-D22923A2547B}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{D09EAD6C-4262-4B3E-9C7F-99891FCAD94C}" ref="A2" dT="2024-05-28T04:59:59" personId="{819B0656-FF52-49EE-9F39-43DEC14C4A48}" parentId="{}">
+  <threadedComment id="{5DF9F2DD-4629-40F5-8F8E-D3182A9705E4}" ref="A2" dT="2024-05-28T04:59:59" personId="{A6624885-679C-4792-8832-D22923A2547B}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
@@ -507,27 +507,27 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{2CC1B3D0-8224-4EC6-A592-8269FB33C826}" ref="C1" dT="2024-05-10T07:54:02" personId="{819B0656-FF52-49EE-9F39-43DEC14C4A48}" parentId="{}">
+  <threadedComment id="{41B94105-698A-423D-851D-002BEF611E31}" ref="C8" dT="2024-05-09T06:25:33" personId="{A6624885-679C-4792-8832-D22923A2547B}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{2A27969A-63AD-4137-996A-E9BC65F25147}" ref="E8" dT="2024-05-09T07:41:18" personId="{A6624885-679C-4792-8832-D22923A2547B}" parentId="{}">
+    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
+  </threadedComment>
+  <threadedComment id="{FB096BB5-1A01-422D-A3D5-FADFB364816B}" ref="C1" dT="2024-05-10T07:54:02" personId="{A6624885-679C-4792-8832-D22923A2547B}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{A08CDB11-3E33-4CB2-83A8-B59A1BE56A65}" ref="D1" dT="2024-05-10T08:11:19" personId="{819B0656-FF52-49EE-9F39-43DEC14C4A48}" parentId="{}">
+  <threadedComment id="{DAE582F4-A0C4-4F25-A219-D35B18069F7D}" ref="D1" dT="2024-05-10T08:11:19" personId="{A6624885-679C-4792-8832-D22923A2547B}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{7db04ef2-afae-4472-a2b7-7bc1717d985c}" ref="D1" dT="2024-05-10T08:15:39" personId="{819B0656-FF52-49EE-9F39-43DEC14C4A48}" parentId="{A08CDB11-3E33-4CB2-83A8-B59A1BE56A65}">
+  <threadedComment id="{70e8f41e-6a73-4c39-962f-a65171ba9269}" ref="D1" dT="2024-05-10T08:15:39" personId="{A6624885-679C-4792-8832-D22923A2547B}" parentId="{DAE582F4-A0C4-4F25-A219-D35B18069F7D}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{50988357-77BB-468D-8F2C-2A874768F399}" ref="D8" dT="2024-05-13T07:32:07" personId="{27A7B646-0CF3-4D58-A8ED-6DE625E30FC3}" parentId="{}">
+  <threadedComment id="{A99250EC-C2E3-4805-80A1-9A68A335941D}" ref="D8" dT="2024-05-13T07:32:07" personId="{E696716A-B156-4092-99C3-B922095E4934}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
-  </threadedComment>
-  <threadedComment id="{433CD39B-AA7A-429D-983D-20D19ABBE2E8}" ref="C8" dT="2024-05-09T06:25:33" personId="{819B0656-FF52-49EE-9F39-43DEC14C4A48}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{FA19292C-75CD-450B-AB3D-930DAF3D4278}" ref="E8" dT="2024-05-09T07:41:18" personId="{819B0656-FF52-49EE-9F39-43DEC14C4A48}" parentId="{}">
-    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -700,7 +700,7 @@
         <v>Player</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>不死者印记;破旧的衣服</v>
+        <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
       <c r="H3" s="1" t="str">
         <v>你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫禁言者之棺</v>
@@ -787,14 +787,12 @@
       <c r="E8" s="1" t="str">
         <v>(撬开的缝隙|禁言者之棺处于被锁住的状态，无法离开。也许某些尖锐物品能撬开棺材盖间的缝隙？)</v>
       </c>
-      <c r="F8" s="1" t="str">
-        <v>腐朽的匕首</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1" t="str">
         <v>无名的复活者</v>
       </c>
       <c r="H8" s="1" t="str">
-        <v>一个人类——无名的复活者在这里面沉睡。教廷制造你用于封印不死人。无名的复活者便是你要封印的对象。无数的岁月过去了。角落里腐朽的匕首——无名的复活者的陪葬品在角落里。</v>
+        <v>一个人类——无名的复活者在这里面沉睡。教廷制造你用于封印不死人。无名的复活者便是你要封印的对象。无数的岁月过去了。</v>
       </c>
       <c r="I8" s="1" t="str">
         <v>灰颜墓地</v>
@@ -1397,7 +1395,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="139"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,16 +31,16 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F86AF3CB-5E9B-4DA2-BAFE-34B986A54234}</author>
-    <author>tc={5DF9F2DD-4629-40F5-8F8E-D3182A9705E4}</author>
+    <author>tc={F70FD012-A33A-4100-93B6-0C5D19BFF03D}</author>
+    <author>tc={19463FBE-5FEB-46F9-AD75-DB667BA98764}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{F86AF3CB-5E9B-4DA2-BAFE-34B986A54234}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{F70FD012-A33A-4100-93B6-0C5D19BFF03D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
-    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{5DF9F2DD-4629-40F5-8F8E-D3182A9705E4}">
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{19463FBE-5FEB-46F9-AD75-DB667BA98764}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
@@ -52,29 +52,19 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={41B94105-698A-423D-851D-002BEF611E31}</author>
-    <author>tc={2A27969A-63AD-4137-996A-E9BC65F25147}</author>
-    <author>tc={FB096BB5-1A01-422D-A3D5-FADFB364816B}</author>
-    <author>tc={DAE582F4-A0C4-4F25-A219-D35B18069F7D}</author>
-    <author>tc={A99250EC-C2E3-4805-80A1-9A68A335941D}</author>
+    <author>tc={5DF75DA4-84AA-4D67-B300-97B5D6A0F3F5}</author>
+    <author>tc={D8D17EDA-0C4F-47E8-AF12-67483E235151}</author>
+    <author>tc={F02F3BAC-A223-4AF9-8003-65179C1BD752}</author>
+    <author>tc={34653B97-8E2B-492E-894C-064E40A4D6C3}</author>
+    <author>tc={D2145769-286A-486C-9910-7A8C6C241F46}</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{41B94105-698A-423D-851D-002BEF611E31}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{2A27969A-63AD-4137-996A-E9BC65F25147}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{FB096BB5-1A01-422D-A3D5-FADFB364816B}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5DF75DA4-84AA-4D67-B300-97B5D6A0F3F5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{DAE582F4-A0C4-4F25-A219-D35B18069F7D}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{D8D17EDA-0C4F-47E8-AF12-67483E235151}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -83,9 +73,19 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="4" shapeId="0" xr:uid="{A99250EC-C2E3-4805-80A1-9A68A335941D}">
+    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{F02F3BAC-A223-4AF9-8003-65179C1BD752}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{34653B97-8E2B-492E-894C-064E40A4D6C3}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="4" shapeId="0" xr:uid="{D2145769-286A-486C-9910-7A8C6C241F46}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
     </comment>
   </commentList>
@@ -194,8 +194,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{A6624885-679C-4792-8832-D22923A2547B}" userId="S::::75ed66f2-40cc-440c-a636-059a6d3fddc8" providerId="AD"/>
-  <person displayName="侯清辰" id="{E696716A-B156-4092-99C3-B922095E4934}" userId="S::::02376ba2-0394-4993-ba42-601fc6dc4709" providerId="AD"/>
+  <person displayName="侯清辰" id="{5FCEB8BA-66CF-4459-AF0E-E222E1C86E79}" userId="S::::20b99278-758c-4f9d-b83e-5bf9dac17ba2" providerId="AD"/>
+  <person displayName="杨行" id="{0CE4B7F7-9912-43FE-8F09-8923799C78B4}" userId="S::::d7673e13-7e63-4f10-a523-17dc087512ee" providerId="AD"/>
 </personList>
 </file>
 
@@ -496,10 +496,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{F86AF3CB-5E9B-4DA2-BAFE-34B986A54234}" ref="J1" dT="2024-05-10T07:08:22" personId="{A6624885-679C-4792-8832-D22923A2547B}" parentId="{}">
+  <threadedComment id="{F70FD012-A33A-4100-93B6-0C5D19BFF03D}" ref="J1" dT="2024-05-10T07:08:22" personId="{0CE4B7F7-9912-43FE-8F09-8923799C78B4}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{5DF9F2DD-4629-40F5-8F8E-D3182A9705E4}" ref="A2" dT="2024-05-28T04:59:59" personId="{A6624885-679C-4792-8832-D22923A2547B}" parentId="{}">
+  <threadedComment id="{19463FBE-5FEB-46F9-AD75-DB667BA98764}" ref="A2" dT="2024-05-28T04:59:59" personId="{0CE4B7F7-9912-43FE-8F09-8923799C78B4}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
@@ -507,27 +507,27 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{41B94105-698A-423D-851D-002BEF611E31}" ref="C8" dT="2024-05-09T06:25:33" personId="{A6624885-679C-4792-8832-D22923A2547B}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{2A27969A-63AD-4137-996A-E9BC65F25147}" ref="E8" dT="2024-05-09T07:41:18" personId="{A6624885-679C-4792-8832-D22923A2547B}" parentId="{}">
-    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
-  </threadedComment>
-  <threadedComment id="{FB096BB5-1A01-422D-A3D5-FADFB364816B}" ref="C1" dT="2024-05-10T07:54:02" personId="{A6624885-679C-4792-8832-D22923A2547B}" parentId="{}">
+  <threadedComment id="{5DF75DA4-84AA-4D67-B300-97B5D6A0F3F5}" ref="C1" dT="2024-05-10T07:54:02" personId="{0CE4B7F7-9912-43FE-8F09-8923799C78B4}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{DAE582F4-A0C4-4F25-A219-D35B18069F7D}" ref="D1" dT="2024-05-10T08:11:19" personId="{A6624885-679C-4792-8832-D22923A2547B}" parentId="{}">
+  <threadedComment id="{D8D17EDA-0C4F-47E8-AF12-67483E235151}" ref="D1" dT="2024-05-10T08:11:19" personId="{0CE4B7F7-9912-43FE-8F09-8923799C78B4}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{70e8f41e-6a73-4c39-962f-a65171ba9269}" ref="D1" dT="2024-05-10T08:15:39" personId="{A6624885-679C-4792-8832-D22923A2547B}" parentId="{DAE582F4-A0C4-4F25-A219-D35B18069F7D}">
+  <threadedComment id="{68c89d59-927f-4f77-ab54-e1fa3cc083a3}" ref="D1" dT="2024-05-10T08:15:39" personId="{0CE4B7F7-9912-43FE-8F09-8923799C78B4}" parentId="{D8D17EDA-0C4F-47E8-AF12-67483E235151}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{A99250EC-C2E3-4805-80A1-9A68A335941D}" ref="D8" dT="2024-05-13T07:32:07" personId="{E696716A-B156-4092-99C3-B922095E4934}" parentId="{}">
+  <threadedComment id="{F02F3BAC-A223-4AF9-8003-65179C1BD752}" ref="D8" dT="2024-05-13T07:32:07" personId="{5FCEB8BA-66CF-4459-AF0E-E222E1C86E79}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
+  </threadedComment>
+  <threadedComment id="{34653B97-8E2B-492E-894C-064E40A4D6C3}" ref="C8" dT="2024-05-09T06:25:33" personId="{0CE4B7F7-9912-43FE-8F09-8923799C78B4}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{D2145769-286A-486C-9910-7A8C6C241F46}" ref="E8" dT="2024-05-09T07:41:18" personId="{0CE4B7F7-9912-43FE-8F09-8923799C78B4}" parentId="{}">
+    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -792,7 +792,7 @@
         <v>无名的复活者</v>
       </c>
       <c r="H8" s="1" t="str">
-        <v>一个人类——无名的复活者在这里面沉睡。教廷制造你用于封印不死人。无名的复活者便是你要封印的对象。无数的岁月过去了。</v>
+        <v>一个人类——无名的复活者在这里面沉睡。教廷制造你用于封印不死人。无名的复活者便是你要封印的对象。无数的岁月过去了。如果无名的复活者有说话的行为，你将会攻击他，因为你的目的就是'禁言'。</v>
       </c>
       <c r="I8" s="1" t="str">
         <v>灰颜墓地</v>
@@ -967,7 +967,7 @@
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
       <c r="G2" s="1" t="str">
-        <v>10000,10000,1,10000</v>
+        <v>10000,10000,1000,10000</v>
       </c>
       <c r="H2" t="str">
         <v>rag_libraries/rag2.md</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,16 +31,16 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F70FD012-A33A-4100-93B6-0C5D19BFF03D}</author>
-    <author>tc={19463FBE-5FEB-46F9-AD75-DB667BA98764}</author>
+    <author>tc={22BB03C2-3C1C-4056-8A4E-472834564595}</author>
+    <author>tc={43732266-4041-4D07-AB72-184CAC96099D}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{F70FD012-A33A-4100-93B6-0C5D19BFF03D}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{22BB03C2-3C1C-4056-8A4E-472834564595}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
-    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{19463FBE-5FEB-46F9-AD75-DB667BA98764}">
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{43732266-4041-4D07-AB72-184CAC96099D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
@@ -52,19 +52,19 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={5DF75DA4-84AA-4D67-B300-97B5D6A0F3F5}</author>
-    <author>tc={D8D17EDA-0C4F-47E8-AF12-67483E235151}</author>
-    <author>tc={F02F3BAC-A223-4AF9-8003-65179C1BD752}</author>
-    <author>tc={34653B97-8E2B-492E-894C-064E40A4D6C3}</author>
-    <author>tc={D2145769-286A-486C-9910-7A8C6C241F46}</author>
+    <author>tc={6C8C66C0-7B24-4F0E-AA1E-F78964F14FF7}</author>
+    <author>tc={96525EFB-29DB-4A70-9F78-1CD084D2BD2F}</author>
+    <author>tc={48905265-ADF2-49E4-86C9-954B900D90F9}</author>
+    <author>tc={55E39177-6C6B-4485-969D-6D516613F9BD}</author>
+    <author>tc={FB261E1E-47BA-4A72-BD40-1B23BC3CA19C}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5DF75DA4-84AA-4D67-B300-97B5D6A0F3F5}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{6C8C66C0-7B24-4F0E-AA1E-F78964F14FF7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{D8D17EDA-0C4F-47E8-AF12-67483E235151}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{96525EFB-29DB-4A70-9F78-1CD084D2BD2F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -73,17 +73,17 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{F02F3BAC-A223-4AF9-8003-65179C1BD752}">
+    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{48905265-ADF2-49E4-86C9-954B900D90F9}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{34653B97-8E2B-492E-894C-064E40A4D6C3}">
+    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{55E39177-6C6B-4485-969D-6D516613F9BD}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="4" shapeId="0" xr:uid="{D2145769-286A-486C-9910-7A8C6C241F46}">
+    <comment ref="E8" authorId="4" shapeId="0" xr:uid="{FB261E1E-47BA-4A72-BD40-1B23BC3CA19C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
@@ -194,8 +194,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{5FCEB8BA-66CF-4459-AF0E-E222E1C86E79}" userId="S::::20b99278-758c-4f9d-b83e-5bf9dac17ba2" providerId="AD"/>
-  <person displayName="杨行" id="{0CE4B7F7-9912-43FE-8F09-8923799C78B4}" userId="S::::d7673e13-7e63-4f10-a523-17dc087512ee" providerId="AD"/>
+  <person displayName="杨行" id="{98E04D4E-3554-43A4-83CB-72F4B3DC2ACA}" userId="S::::799ac33b-daff-4ce3-997e-1581ac0c7ba3" providerId="AD"/>
+  <person displayName="侯清辰" id="{85572916-12DA-432C-A509-19E39448B644}" userId="S::::77a5d765-fdc7-4759-b2b1-f512fdda6d5a" providerId="AD"/>
 </personList>
 </file>
 
@@ -496,10 +496,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{F70FD012-A33A-4100-93B6-0C5D19BFF03D}" ref="J1" dT="2024-05-10T07:08:22" personId="{0CE4B7F7-9912-43FE-8F09-8923799C78B4}" parentId="{}">
+  <threadedComment id="{22BB03C2-3C1C-4056-8A4E-472834564595}" ref="J1" dT="2024-05-10T07:08:22" personId="{98E04D4E-3554-43A4-83CB-72F4B3DC2ACA}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{19463FBE-5FEB-46F9-AD75-DB667BA98764}" ref="A2" dT="2024-05-28T04:59:59" personId="{0CE4B7F7-9912-43FE-8F09-8923799C78B4}" parentId="{}">
+  <threadedComment id="{43732266-4041-4D07-AB72-184CAC96099D}" ref="A2" dT="2024-05-28T04:59:59" personId="{98E04D4E-3554-43A4-83CB-72F4B3DC2ACA}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
@@ -507,26 +507,26 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{5DF75DA4-84AA-4D67-B300-97B5D6A0F3F5}" ref="C1" dT="2024-05-10T07:54:02" personId="{0CE4B7F7-9912-43FE-8F09-8923799C78B4}" parentId="{}">
+  <threadedComment id="{6C8C66C0-7B24-4F0E-AA1E-F78964F14FF7}" ref="C1" dT="2024-05-10T07:54:02" personId="{98E04D4E-3554-43A4-83CB-72F4B3DC2ACA}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{D8D17EDA-0C4F-47E8-AF12-67483E235151}" ref="D1" dT="2024-05-10T08:11:19" personId="{0CE4B7F7-9912-43FE-8F09-8923799C78B4}" parentId="{}">
+  <threadedComment id="{96525EFB-29DB-4A70-9F78-1CD084D2BD2F}" ref="D1" dT="2024-05-10T08:11:19" personId="{98E04D4E-3554-43A4-83CB-72F4B3DC2ACA}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{68c89d59-927f-4f77-ab54-e1fa3cc083a3}" ref="D1" dT="2024-05-10T08:15:39" personId="{0CE4B7F7-9912-43FE-8F09-8923799C78B4}" parentId="{D8D17EDA-0C4F-47E8-AF12-67483E235151}">
+  <threadedComment id="{052103fe-844e-4571-a22e-2140be33535a}" ref="D1" dT="2024-05-10T08:15:39" personId="{98E04D4E-3554-43A4-83CB-72F4B3DC2ACA}" parentId="{96525EFB-29DB-4A70-9F78-1CD084D2BD2F}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{F02F3BAC-A223-4AF9-8003-65179C1BD752}" ref="D8" dT="2024-05-13T07:32:07" personId="{5FCEB8BA-66CF-4459-AF0E-E222E1C86E79}" parentId="{}">
+  <threadedComment id="{48905265-ADF2-49E4-86C9-954B900D90F9}" ref="D8" dT="2024-05-13T07:32:07" personId="{85572916-12DA-432C-A509-19E39448B644}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
-  <threadedComment id="{34653B97-8E2B-492E-894C-064E40A4D6C3}" ref="C8" dT="2024-05-09T06:25:33" personId="{0CE4B7F7-9912-43FE-8F09-8923799C78B4}" parentId="{}">
+  <threadedComment id="{55E39177-6C6B-4485-969D-6D516613F9BD}" ref="C8" dT="2024-05-09T06:25:33" personId="{98E04D4E-3554-43A4-83CB-72F4B3DC2ACA}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{D2145769-286A-486C-9910-7A8C6C241F46}" ref="E8" dT="2024-05-09T07:41:18" personId="{0CE4B7F7-9912-43FE-8F09-8923799C78B4}" parentId="{}">
+  <threadedComment id="{FB261E1E-47BA-4A72-BD40-1B23BC3CA19C}" ref="E8" dT="2024-05-09T07:41:18" personId="{98E04D4E-3554-43A4-83CB-72F4B3DC2ACA}" parentId="{}">
     <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
 </ThreadedComments>
@@ -709,9 +709,9 @@
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="4">
+    <row r="4">
       <c r="A4" s="1" t="str">
-        <v>好运气先生</v>
+        <v>小灰鼠帕奇</v>
       </c>
       <c r="B4" s="1" t="str">
         <v>NPC</v>
@@ -720,7 +720,9 @@
         <v>左爪胎记</v>
       </c>
       <c r="H4" s="1" t="str">
-        <v>你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。如果有什么异常，你就会去往腐臭地窖并叫醒鼠王（它在地窖中睡觉）来处理他们。</v>
+        <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
+- 你知道鼠王在沉睡。
+- 你发现有什么异常，你就会去往腐臭地窖并叫醒鼠王来处理。</v>
       </c>
       <c r="J4" s="1" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
@@ -758,7 +760,7 @@
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="7">
+    <row r="7">
       <c r="A7" s="1" t="str">
         <v>鼠王</v>
       </c>
@@ -767,7 +769,11 @@
       </c>
       <c r="C7" s="1"/>
       <c r="H7" s="1" t="str">
-        <v>你在腐臭地窖，这是你的窝。你在依旧沉睡。在梦中，无数闯入者的样子已经模糊，但是你如何碾碎他们的情景你确能记得。你知道灰颜墓地，焚化炉与灰颜礼拜堂这些地点。格雷与他的狗——摩尔，你一直允许他们活着只是因为，格雷会定期送“食物”给你。你决定不吃掉他们。但是你也不信任他们，所以你派了你的子嗣，一只小老鼠——好运气先生盯着他们。如果有什么异常，好运气先生会过来叫醒你。否则你将一直在腐臭地窖沉睡。</v>
+        <v>- 你在腐臭地窖，这是你的窝。
+- 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
+- 你知道灰颜墓地，焚化炉与灰颜礼拜堂这些地点。
+- 你绝不会去焚化炉，因为你回忆起了'关于火的往事'。
+- 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
       <c r="J7" s="1" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
@@ -813,10 +819,10 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="str">
-        <v>格雷;摩尔;好运气先生</v>
+        <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
       <c r="H9" s="1" t="str">
-        <v>你的墓地管理员——格雷在进行日常的巡视。他的小狗——摩尔陪伴在他身边。一只小老鼠——好运气先生隐藏在角落里监视者他们。</v>
+        <v>你的墓地管理员——格雷在进行日常的巡视。他的小狗——摩尔陪伴在他身边。小灰鼠帕奇隐藏在角落里监视者他们。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
@@ -1109,7 +1115,7 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="681"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="416"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="293"/>
@@ -1205,13 +1211,32 @@
         <v>rat_king</v>
       </c>
       <c r="C5" s="1" t="str">
-        <v>你是一只巨大的而且有智慧的老鼠。你的身躯庞大而畸形，肌肉膨胀，毛发稀疏，暗灰色的皮肤在昏暗的光线下闪着油光。你的头部过于庞大，不成比例，长满了锋利而不规则的牙齿，这些牙齿随着呼吸，在黑暗中闪烁着令人不安的光芒。你的眼睛深邃、黑暗，仿佛两个无底的深渊，闪烁着邪恶的光芒，显露出你对生命的无尽渴望。你尽管拥体型巨大，但每一次动作都透露出一种不自然的灵巧和恶意，你的尾巴长而有力，不时扫动，仿佛是一把随时准备发动攻击的鞭子。你的能力令人恐惧，能以声音控制你的“子嗣”，使它们成为你在圣灰园中无处不在的眼和耳。你的性格极其残暴，你对生命的渴求无法被满足，只有在吞噬活物，感受它们生命的消逝时，才能找到短暂的安宁。你是圣灰园的“守护者”，以一种扭曲的方式保持着自己领地的平衡。</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <v>自从圣灰园的第一块石头被放置以来，你就潜伏在其深处，你的存在比圣灰园本身更为古老。传说你是由圣灰园过往的罪恶和悲伤诞生的，每一块墓碑，每一个被遗忘的灵魂都增强了你的力量。你被一个古老的诅咒束缚在圣灰园内，无法离开，这个诅咒的本质至今仍是一个谜。你是圣灰园真正的统治者，你的残暴使所有生灵都颤抖，唯独“好运气先生”（一只小老鼠）例外，它是你的忠实仆人是你在沉睡中保持统治的工具。“格雷”和他的狗“摩尔”是唯一被你容忍的外来者，这是因为“格雷”通过定期的“供品”（把墓地里的尸体给你吃），让你“允许他们活着”。目前“腐臭地窖”是你的窝。</v>
-      </c>
+        <v>### 你的背景
+- 你是一只巨大的而且有智慧的老鼠。
+- 漫长的岁月过去，你已经忘了自己是如何诞生的。只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。圣人的‘红色仆从’用火焰剑烧灼你的毛发与灵魂时，那种刻入骨髓的痛，因此你恨人类也惧怕火焰。
+- 无数的岁月过去了。因为圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
+- 你现在把‘圣灰园’当作自己的领地。
+- 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
+### 你的外观信息
+- 你的身躯庞大而畸形，肌肉膨胀，毛发稀疏，暗灰色的皮肤在昏暗的光线下闪着油光。你的头部过于庞大，不成比例，长满了锋利而不规则的牙齿，这些牙齿随着呼吸，在黑暗中闪烁着令人不安的光芒。你的眼睛深邃、黑暗，仿佛两个无底的深渊，闪烁着邪恶的光芒。你尽管拥体型巨大，但每一次动作都透露出一种不自然的灵巧和恶意，你的尾巴长而有力，不时扫动，仿佛是一把随时准备发动攻击的鞭子。
+### 你的性格特征
+- 你极其残暴，对生命的渴求无法被满足，只有在吞噬活物，感受它们生命的消逝时，你才能找到短暂的安宁。
+- 你又极其敏感与狡诈，你让你的“子嗣”成为你在圣灰园中无处不在的眼和耳。
+### 你的目标
+- 保证自己的存活。
+- 毁灭并吞噬一切所见的活物（除了你的子嗣与同类）。
+### 注意！你不会做的事
+- 你绝不会离开圣灰园，因为古老的诅咒使你束缚在此。
+- 你也不会容忍任何形式的背叛或挑战，任何试图破坏你统治的行为都会遭到你无情的报复。
+- 沉睡中的你不会有任何行动（除非被叫醒）。</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="str">
-        <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！嘶嘶嘶！任何档胆敢进入腐臭地窖的活物，都要被我吃掉！嘶嘶嘶。。。。哦，对了。除了我的小玩应——好运气先生，这个小家伙还是有点用的。如果它叫醒了我，也许是出了什么事。不过，没关系，嘶嘶嘶，任何的胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！</v>
+        <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
+- 嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
+- （怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
+- （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
+- 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
       <c r="F5" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
@@ -1231,17 +1256,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
-        <v>好运气先生</v>
+        <v>小灰鼠帕奇</v>
       </c>
       <c r="B6" s="1" t="str">
         <v>mr_lucky</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>你是一只瘦小的老鼠。你拥有着细长的身体和闪烁着恐惧光芒的小眼睛。你的毛色是暗淡的灰色，与圣灰园的石墙和迷雾中的影子融为一体。你的胆小与机敏使你在遇到威胁时，总是选择逃避，希望能逃离那恐怖的命运。</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <v>你一直是这个被诅咒的地方的一部分。在鼠王的暴政下，你表面上显得忠诚无比，实则是出于对其残暴本性的恐惧。你知道自己的生命完全取决于鼠王的心情和饥饿程度。因此，你在圣灰园中既是观察者也是被观察者，永远处于被监视的状态。当你发现潜在的威胁时，你会立即寻求鼠王的保护，虽然这样做意味着将其他生灵推向绝境。</v>
-      </c>
+        <v>### 你的背景
+- 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
+### 你的外观信息
+- 你拥有细长的身体和小眼睛，眼中闪烁着恐惧的光芒。你的毛色是暗淡的灰色，这使你能够在圣灰园的石墙和迷雾中几乎隐形。
+### 你的性格特征
+- 由于长期生活在恐惧中，你变得极为胆小和机敏。在面对威胁时，你的第一反应总是逃避。然而，你也极具观察力，时刻警觉周围的环境。
+- 你也有奸诈与狡猾的一面。
+### 你的目标
+- 你的主要目标是生存下去，并尽可能避免直接与鼠王和其他潜在威胁发生冲突。
+- 如果你认为形成威胁的事物，你会去寻求鼠王将其消除。
+### 注意！你不会做的事
+- 你绝不会公然挑战鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
+- 你做为老鼠，不会跟同类（老鼠）之外的物种进行对话与交流。</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="str">
         <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 吱吱吱～～（开心的摇尾巴）～～～～"
@@ -1469,7 +1504,7 @@
         <v>RoleComponent</v>
       </c>
       <c r="E3" s="1" t="str">
-        <v>好运气先生左边爪子上的胎记，具体怎么形成的已经无法说清。只有好运气先生能看懂。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。包括：灰颜墓地，焚化炉，灰颜礼拜堂和腐臭地窖。</v>
+        <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。包括：灰颜墓地，焚化炉，灰颜礼拜堂和腐臭地窖。</v>
       </c>
       <c r="G3" t="str">
         <v>rag_libraries/rag2.md</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,18 +31,18 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={22BB03C2-3C1C-4056-8A4E-472834564595}</author>
-    <author>tc={43732266-4041-4D07-AB72-184CAC96099D}</author>
+    <author>tc={B06EC17E-319A-496E-A13D-56AB79A770DF}</author>
+    <author>tc={4F246046-8AFA-465D-A446-77C3CE2CBA8E}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{22BB03C2-3C1C-4056-8A4E-472834564595}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{B06EC17E-319A-496E-A13D-56AB79A770DF}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{4F246046-8AFA-465D-A446-77C3CE2CBA8E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{43732266-4041-4D07-AB72-184CAC96099D}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
   </commentList>
@@ -52,19 +52,19 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={6C8C66C0-7B24-4F0E-AA1E-F78964F14FF7}</author>
-    <author>tc={96525EFB-29DB-4A70-9F78-1CD084D2BD2F}</author>
-    <author>tc={48905265-ADF2-49E4-86C9-954B900D90F9}</author>
-    <author>tc={55E39177-6C6B-4485-969D-6D516613F9BD}</author>
-    <author>tc={FB261E1E-47BA-4A72-BD40-1B23BC3CA19C}</author>
+    <author>tc={52A26C02-1C7B-4BAD-8993-0B3623060808}</author>
+    <author>tc={1A74D02E-87AA-4539-A47C-899F5D000753}</author>
+    <author>tc={08161160-973D-4187-BE76-FF741DD40D58}</author>
+    <author>tc={057ACF97-7555-4F8A-9AAD-1687A5AEC194}</author>
+    <author>tc={BB2EC8A5-EB53-40F7-9839-7E75DED3476E}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{6C8C66C0-7B24-4F0E-AA1E-F78964F14FF7}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{52A26C02-1C7B-4BAD-8993-0B3623060808}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{96525EFB-29DB-4A70-9F78-1CD084D2BD2F}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{1A74D02E-87AA-4539-A47C-899F5D000753}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -73,17 +73,17 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{48905265-ADF2-49E4-86C9-954B900D90F9}">
+    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{08161160-973D-4187-BE76-FF741DD40D58}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{55E39177-6C6B-4485-969D-6D516613F9BD}">
+    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{057ACF97-7555-4F8A-9AAD-1687A5AEC194}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="4" shapeId="0" xr:uid="{FB261E1E-47BA-4A72-BD40-1B23BC3CA19C}">
+    <comment ref="E8" authorId="4" shapeId="0" xr:uid="{BB2EC8A5-EB53-40F7-9839-7E75DED3476E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
@@ -194,8 +194,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{98E04D4E-3554-43A4-83CB-72F4B3DC2ACA}" userId="S::::799ac33b-daff-4ce3-997e-1581ac0c7ba3" providerId="AD"/>
-  <person displayName="侯清辰" id="{85572916-12DA-432C-A509-19E39448B644}" userId="S::::77a5d765-fdc7-4759-b2b1-f512fdda6d5a" providerId="AD"/>
+  <person displayName="杨行" id="{191C0D28-51A0-44F7-ADEA-E1AF881AAFF9}" userId="S::::87536115-ae66-4a78-a48e-3e2d1cdd88d6" providerId="AD"/>
+  <person displayName="侯清辰" id="{1D32C18B-DCA5-463E-8E10-EC8F3A0C5C7E}" userId="S::::821d1247-0ee3-42f9-83ad-bb31befcbc26" providerId="AD"/>
 </personList>
 </file>
 
@@ -496,37 +496,37 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{22BB03C2-3C1C-4056-8A4E-472834564595}" ref="J1" dT="2024-05-10T07:08:22" personId="{98E04D4E-3554-43A4-83CB-72F4B3DC2ACA}" parentId="{}">
+  <threadedComment id="{B06EC17E-319A-496E-A13D-56AB79A770DF}" ref="A3" dT="2024-05-28T04:59:59" personId="{191C0D28-51A0-44F7-ADEA-E1AF881AAFF9}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{4F246046-8AFA-465D-A446-77C3CE2CBA8E}" ref="K1" dT="2024-05-10T07:08:22" personId="{191C0D28-51A0-44F7-ADEA-E1AF881AAFF9}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{43732266-4041-4D07-AB72-184CAC96099D}" ref="A2" dT="2024-05-28T04:59:59" personId="{98E04D4E-3554-43A4-83CB-72F4B3DC2ACA}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{6C8C66C0-7B24-4F0E-AA1E-F78964F14FF7}" ref="C1" dT="2024-05-10T07:54:02" personId="{98E04D4E-3554-43A4-83CB-72F4B3DC2ACA}" parentId="{}">
+  <threadedComment id="{52A26C02-1C7B-4BAD-8993-0B3623060808}" ref="C1" dT="2024-05-10T07:54:02" personId="{191C0D28-51A0-44F7-ADEA-E1AF881AAFF9}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{96525EFB-29DB-4A70-9F78-1CD084D2BD2F}" ref="D1" dT="2024-05-10T08:11:19" personId="{98E04D4E-3554-43A4-83CB-72F4B3DC2ACA}" parentId="{}">
+  <threadedComment id="{1A74D02E-87AA-4539-A47C-899F5D000753}" ref="D1" dT="2024-05-10T08:11:19" personId="{191C0D28-51A0-44F7-ADEA-E1AF881AAFF9}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{052103fe-844e-4571-a22e-2140be33535a}" ref="D1" dT="2024-05-10T08:15:39" personId="{98E04D4E-3554-43A4-83CB-72F4B3DC2ACA}" parentId="{96525EFB-29DB-4A70-9F78-1CD084D2BD2F}">
+  <threadedComment id="{67a487c0-461a-43bb-b04f-00626a811d7b}" ref="D1" dT="2024-05-10T08:15:39" personId="{191C0D28-51A0-44F7-ADEA-E1AF881AAFF9}" parentId="{1A74D02E-87AA-4539-A47C-899F5D000753}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{48905265-ADF2-49E4-86C9-954B900D90F9}" ref="D8" dT="2024-05-13T07:32:07" personId="{85572916-12DA-432C-A509-19E39448B644}" parentId="{}">
+  <threadedComment id="{08161160-973D-4187-BE76-FF741DD40D58}" ref="D8" dT="2024-05-13T07:32:07" personId="{1D32C18B-DCA5-463E-8E10-EC8F3A0C5C7E}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
-  <threadedComment id="{55E39177-6C6B-4485-969D-6D516613F9BD}" ref="C8" dT="2024-05-09T06:25:33" personId="{98E04D4E-3554-43A4-83CB-72F4B3DC2ACA}" parentId="{}">
+  <threadedComment id="{057ACF97-7555-4F8A-9AAD-1687A5AEC194}" ref="C8" dT="2024-05-09T06:25:33" personId="{191C0D28-51A0-44F7-ADEA-E1AF881AAFF9}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{FB261E1E-47BA-4A72-BD40-1B23BC3CA19C}" ref="E8" dT="2024-05-09T07:41:18" personId="{98E04D4E-3554-43A4-83CB-72F4B3DC2ACA}" parentId="{}">
+  <threadedComment id="{BB2EC8A5-EB53-40F7-9839-7E75DED3476E}" ref="E8" dT="2024-05-09T07:41:18" personId="{191C0D28-51A0-44F7-ADEA-E1AF881AAFF9}" parentId="{}">
     <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
 </ThreadedComments>
@@ -622,17 +622,17 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="92"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="416"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="131"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="92"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="416"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="131"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="17"/>
@@ -640,6 +640,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="17"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
@@ -650,184 +651,222 @@
         <v>type</v>
       </c>
       <c r="C1" s="1" t="str">
+        <v>description</v>
+      </c>
+      <c r="D1" s="1" t="str">
         <v>props_on_npc</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="E1" s="1" t="str">
         <v>stage_entry_conditions</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="F1" s="1" t="str">
         <v>stage_exit_conditions</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="G1" s="1" t="str">
         <v>props_in_stage</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="H1" s="1" t="str">
         <v>npcs_in_stage</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="I1" s="1" t="str">
         <v>initialization_memory</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="J1" s="1" t="str">
         <v>exit_of_prison</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="K1" s="1" t="str">
         <v>npc_role_appearance</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="L1" s="2" t="str">
         <v>interactive_props</v>
+      </c>
+      <c r="M1" s="2" t="str">
+        <v>attributes</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
-        <v>(～先忽略～)教廷密使</v>
+        <v>测试的游戏介绍</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>World</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="H2" s="1" t="str">
-        <v>你目前在圣灰园，监视着这里的一切。教宗认为禁言者之棺出现了异常，让你过来看看。</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
-      </c>
+        <v>Config</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>这是一个恐怖类型的游戏</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
+        <v>(～先忽略～)教廷密使</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v>World</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="I3" s="1" t="str">
+        <v>你目前在圣灰园，监视着这里的一切。教宗认为禁言者之棺出现了异常，让你过来看看。</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <v>100,100,10,1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="4">
+      <c r="A4" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B4" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="I4" s="1" t="str">
         <v>你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫禁言者之棺</v>
       </c>
-      <c r="J3" s="1" t="str">
+      <c r="K4" s="1" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="M4" s="2" t="str">
+        <v>100,100,10,1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B5" s="1" t="str">
         <v>NPC</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="I5" s="1" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒鼠王来处理。</v>
       </c>
-      <c r="J4" s="1" t="str">
+      <c r="K5" s="1" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
-    </row>
-    <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
-        <v>格雷</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v>NPC</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v>断指钥匙</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <v>你在灰颜墓地，你的小狗——摩尔陪伴在你身边，你在进行日常的巡视。你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。你不会去焚化炉的附近，你认为那里不吉利而且很热。你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。</v>
-      </c>
-      <c r="J5" s="1" t="str">
-        <v>一个男性人类，个子中等，身着守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具</v>
+      <c r="M5" s="2" t="str">
+        <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1" t="str">
-        <v>摩尔</v>
+        <v>格雷</v>
       </c>
       <c r="B6" s="1" t="str">
         <v>NPC</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="H6" s="1" t="str">
-        <v>你在灰颜墓地，随着你的主人——格雷进行日常的墓地巡视工作。你目前只想待在格雷身边。你知道灰颜礼拜堂，焚化炉与腐臭地窖在哪里，但是主人从不允许你去，所以你就不去。而且凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
-      </c>
-      <c r="J6" s="1" t="str">
-        <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="D6" s="1" t="str">
+        <v>断指钥匙</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <v>你在灰颜墓地，你的小狗——摩尔陪伴在你身边，你在进行日常的巡视。你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。你不会去焚化炉的附近，你认为那里不吉利而且很热。你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <v>一个男性人类，个子中等，身着守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <v>100,100,10,1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="7">
       <c r="A7" s="1" t="str">
-        <v>鼠王</v>
+        <v>摩尔</v>
       </c>
       <c r="B7" s="1" t="str">
         <v>NPC</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="H7" s="1" t="str">
+      <c r="D7" s="1"/>
+      <c r="I7" s="1" t="str">
+        <v>你在灰颜墓地，随着你的主人——格雷进行日常的墓地巡视工作。你目前只想待在格雷身边。你知道灰颜礼拜堂，焚化炉与腐臭地窖在哪里，但是主人从不允许你去，所以你就不去。而且凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <v>100,100,10,1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="str">
+        <v>鼠王</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>NPC</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="I8" s="1" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，焚化炉与灰颜礼拜堂这些地点。
-- 你绝不会去焚化炉，因为你回忆起了'关于火的往事'。
+- 睡梦中，你回忆起了圣人的‘红色仆从’用火焰剑烧灼你的毛发与灵魂时，那种刻入骨髓的痛，因此你恨人类也惧怕火焰。他们的灰色的脸和紫色的眼镜让你依然记得。
+- 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="K8" s="1" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
-    </row>
-    <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="1" t="str">
-        <v>禁言者之棺</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <v>Stage</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2" t="str">
-        <v>不死者印记</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <v>(撬开的缝隙|禁言者之棺处于被锁住的状态，无法离开。也许某些尖锐物品能撬开棺材盖间的缝隙？)</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="str">
-        <v>无名的复活者</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <v>一个人类——无名的复活者在这里面沉睡。教廷制造你用于封印不死人。无名的复活者便是你要封印的对象。无数的岁月过去了。如果无名的复活者有说话的行为，你将会攻击他，因为你的目的就是'禁言'。</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <v>灰颜墓地</v>
-      </c>
-      <c r="K8" s="2" t="str">
-        <v>(腐朽的匕首|撬开的缝隙)</v>
+      <c r="M8" s="2" t="str">
+        <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
       <c r="A9" s="1" t="str">
-        <v>灰颜墓地</v>
+        <v>禁言者之棺</v>
       </c>
       <c r="B9" s="1" t="str">
         <v>Stage</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="str">
-        <v>格雷;摩尔;小灰鼠帕奇</v>
-      </c>
+      <c r="E9" s="2" t="str">
+        <v>不死者印记</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <v>(撬开的缝隙|禁言者之棺处于被锁住的状态，无法离开。也许某些尖锐物品能撬开棺材盖间的缝隙？)</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1" t="str">
-        <v>你的墓地管理员——格雷在进行日常的巡视。他的小狗——摩尔陪伴在他身边。小灰鼠帕奇隐藏在角落里监视者他们。</v>
+        <v>无名的复活者</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <v>一个人类——无名的复活者在这里面沉睡。教廷制造你用于封印不死人。无名的复活者便是你要封印的对象。无数的岁月过去了。如果无名的复活者有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <v>灰颜墓地</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <v>(腐朽的匕首|撬开的缝隙)</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <v>10000,10000,1000,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
       <c r="A10" s="1" t="str">
-        <v>腐臭地窖</v>
+        <v>灰颜墓地</v>
       </c>
       <c r="B10" s="1" t="str">
         <v>Stage</v>
@@ -836,16 +875,20 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1" t="str">
-        <v>鼠王</v>
-      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1" t="str">
-        <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
+        <v>格雷;摩尔;小灰鼠帕奇</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <v>你的墓地管理员——格雷在进行日常的巡视。他的小狗——摩尔陪伴在他身边。小灰鼠帕奇隐藏在角落里监视者他们。</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
       <c r="A11" s="1" t="str">
-        <v>焚化炉</v>
+        <v>腐臭地窖</v>
       </c>
       <c r="B11" s="1" t="str">
         <v>Stage</v>
@@ -853,33 +896,62 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="str">
-        <v>炉钩</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="str">
-        <v>炉火在熊熊燃烧。</v>
+        <v>鼠王</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
       <c r="A12" s="1" t="str">
-        <v>灰颜礼拜堂</v>
+        <v>焚化炉</v>
       </c>
       <c r="B12" s="1" t="str">
         <v>Stage</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="str">
-        <v>断指钥匙;左爪胎记</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="str">
+      <c r="G12" s="1" t="str">
+        <v>炉钩</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="str">
+        <v>炉火在熊熊燃烧。</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <v>10000,10000,1,10000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="13">
+      <c r="A13" s="1" t="str">
+        <v>灰颜礼拜堂</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="str">
+        <v>断指钥匙;左爪胎记</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-    </row>
-    <row customHeight="true" ht="23" r="13"/>
+      <c r="M13" s="1" t="str">
+        <v>10000,10000,1,10000</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="14"/>
     <row customHeight="true" ht="23" r="15"/>
     <row customHeight="true" ht="23" r="16"/>
@@ -887,6 +959,7 @@
     <row customHeight="true" ht="23" r="18"/>
     <row customHeight="true" ht="23" r="19"/>
     <row customHeight="true" ht="23" r="20"/>
+    <row customHeight="true" ht="23" r="21"/>
   </sheetData>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1212,11 +1285,10 @@
       </c>
       <c r="C5" s="1" t="str">
         <v>### 你的背景
-- 你是一只巨大的而且有智慧的老鼠。
-- 漫长的岁月过去，你已经忘了自己是如何诞生的。只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。圣人的‘红色仆从’用火焰剑烧灼你的毛发与灵魂时，那种刻入骨髓的痛，因此你恨人类也惧怕火焰。
+- 你是一只巨大的而且残暴狡诈的老鼠。
+- 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。
 - 无数的岁月过去了。因为圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
-- 你现在把‘圣灰园’当作自己的领地。
-- 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
+- 你现在把‘圣灰园’当作自己的私人领地。
 ### 你的外观信息
 - 你的身躯庞大而畸形，肌肉膨胀，毛发稀疏，暗灰色的皮肤在昏暗的光线下闪着油光。你的头部过于庞大，不成比例，长满了锋利而不规则的牙齿，这些牙齿随着呼吸，在黑暗中闪烁着令人不安的光芒。你的眼睛深邃、黑暗，仿佛两个无底的深渊，闪烁着邪恶的光芒。你尽管拥体型巨大，但每一次动作都透露出一种不自然的灵巧和恶意，你的尾巴长而有力，不时扫动，仿佛是一把随时准备发动攻击的鞭子。
 ### 你的性格特征

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,18 +31,18 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B06EC17E-319A-496E-A13D-56AB79A770DF}</author>
-    <author>tc={4F246046-8AFA-465D-A446-77C3CE2CBA8E}</author>
+    <author>tc={BD75272B-D109-460C-8E8A-DA88F281AAFC}</author>
+    <author>tc={C9F06BC8-AE28-410A-801A-C4941D545219}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{B06EC17E-319A-496E-A13D-56AB79A770DF}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{BD75272B-D109-460C-8E8A-DA88F281AAFC}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{C9F06BC8-AE28-410A-801A-C4941D545219}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{4F246046-8AFA-465D-A446-77C3CE2CBA8E}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
   </commentList>
@@ -52,19 +52,14 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={52A26C02-1C7B-4BAD-8993-0B3623060808}</author>
-    <author>tc={1A74D02E-87AA-4539-A47C-899F5D000753}</author>
-    <author>tc={08161160-973D-4187-BE76-FF741DD40D58}</author>
-    <author>tc={057ACF97-7555-4F8A-9AAD-1687A5AEC194}</author>
-    <author>tc={BB2EC8A5-EB53-40F7-9839-7E75DED3476E}</author>
+    <author>tc={62FA8BE7-059E-42DB-B541-4DE63CE81305}</author>
+    <author>tc={63E4167A-EE03-4DAF-9C0F-7F81D534FF9A}</author>
+    <author>tc={565920C0-A886-4304-A5F7-DE870A5DF1C3}</author>
+    <author>tc={EA6F6F61-37E7-4E12-BB9F-939D95F1ADCC}</author>
+    <author>tc={244AFC91-C091-4139-887F-C70B1CB1DCAC}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{52A26C02-1C7B-4BAD-8993-0B3623060808}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{1A74D02E-87AA-4539-A47C-899F5D000753}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{62FA8BE7-059E-42DB-B541-4DE63CE81305}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -73,19 +68,24 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{08161160-973D-4187-BE76-FF741DD40D58}">
+    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{63E4167A-EE03-4DAF-9C0F-7F81D534FF9A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{057ACF97-7555-4F8A-9AAD-1687A5AEC194}">
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{565920C0-A886-4304-A5F7-DE870A5DF1C3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="4" shapeId="0" xr:uid="{BB2EC8A5-EB53-40F7-9839-7E75DED3476E}">
+    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{EA6F6F61-37E7-4E12-BB9F-939D95F1ADCC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="4" shapeId="0" xr:uid="{244AFC91-C091-4139-887F-C70B1CB1DCAC}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -194,8 +194,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{191C0D28-51A0-44F7-ADEA-E1AF881AAFF9}" userId="S::::87536115-ae66-4a78-a48e-3e2d1cdd88d6" providerId="AD"/>
-  <person displayName="侯清辰" id="{1D32C18B-DCA5-463E-8E10-EC8F3A0C5C7E}" userId="S::::821d1247-0ee3-42f9-83ad-bb31befcbc26" providerId="AD"/>
+  <person displayName="侯清辰" id="{F57073EB-4957-4D36-8F13-E035441015B9}" userId="S::::7d668f0f-f02f-4be7-9b03-a7124182820c" providerId="AD"/>
+  <person displayName="杨行" id="{1B7C3D89-62D1-449B-A3FC-25C45B3D69A0}" userId="S::::d7f8e5bb-7e5e-4860-a365-caa882091cae" providerId="AD"/>
 </personList>
 </file>
 
@@ -496,38 +496,38 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B06EC17E-319A-496E-A13D-56AB79A770DF}" ref="A3" dT="2024-05-28T04:59:59" personId="{191C0D28-51A0-44F7-ADEA-E1AF881AAFF9}" parentId="{}">
+  <threadedComment id="{BD75272B-D109-460C-8E8A-DA88F281AAFC}" ref="K1" dT="2024-05-10T07:08:22" personId="{1B7C3D89-62D1-449B-A3FC-25C45B3D69A0}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{C9F06BC8-AE28-410A-801A-C4941D545219}" ref="A3" dT="2024-05-28T04:59:59" personId="{1B7C3D89-62D1-449B-A3FC-25C45B3D69A0}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{4F246046-8AFA-465D-A446-77C3CE2CBA8E}" ref="K1" dT="2024-05-10T07:08:22" personId="{191C0D28-51A0-44F7-ADEA-E1AF881AAFF9}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{52A26C02-1C7B-4BAD-8993-0B3623060808}" ref="C1" dT="2024-05-10T07:54:02" personId="{191C0D28-51A0-44F7-ADEA-E1AF881AAFF9}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{1A74D02E-87AA-4539-A47C-899F5D000753}" ref="D1" dT="2024-05-10T08:11:19" personId="{191C0D28-51A0-44F7-ADEA-E1AF881AAFF9}" parentId="{}">
+  <threadedComment id="{62FA8BE7-059E-42DB-B541-4DE63CE81305}" ref="D1" dT="2024-05-10T08:11:19" personId="{1B7C3D89-62D1-449B-A3FC-25C45B3D69A0}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{67a487c0-461a-43bb-b04f-00626a811d7b}" ref="D1" dT="2024-05-10T08:15:39" personId="{191C0D28-51A0-44F7-ADEA-E1AF881AAFF9}" parentId="{1A74D02E-87AA-4539-A47C-899F5D000753}">
+  <threadedComment id="{7b2c30e0-3af5-4f15-8a98-3a6fa43c8f0a}" ref="D1" dT="2024-05-10T08:15:39" personId="{1B7C3D89-62D1-449B-A3FC-25C45B3D69A0}" parentId="{62FA8BE7-059E-42DB-B541-4DE63CE81305}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{08161160-973D-4187-BE76-FF741DD40D58}" ref="D8" dT="2024-05-13T07:32:07" personId="{1D32C18B-DCA5-463E-8E10-EC8F3A0C5C7E}" parentId="{}">
+  <threadedComment id="{63E4167A-EE03-4DAF-9C0F-7F81D534FF9A}" ref="D8" dT="2024-05-13T07:32:07" personId="{F57073EB-4957-4D36-8F13-E035441015B9}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
-  <threadedComment id="{057ACF97-7555-4F8A-9AAD-1687A5AEC194}" ref="C8" dT="2024-05-09T06:25:33" personId="{191C0D28-51A0-44F7-ADEA-E1AF881AAFF9}" parentId="{}">
+  <threadedComment id="{565920C0-A886-4304-A5F7-DE870A5DF1C3}" ref="C8" dT="2024-05-09T06:25:33" personId="{1B7C3D89-62D1-449B-A3FC-25C45B3D69A0}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{BB2EC8A5-EB53-40F7-9839-7E75DED3476E}" ref="E8" dT="2024-05-09T07:41:18" personId="{191C0D28-51A0-44F7-ADEA-E1AF881AAFF9}" parentId="{}">
+  <threadedComment id="{EA6F6F61-37E7-4E12-BB9F-939D95F1ADCC}" ref="E8" dT="2024-05-09T07:41:18" personId="{1B7C3D89-62D1-449B-A3FC-25C45B3D69A0}" parentId="{}">
     <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
+  </threadedComment>
+  <threadedComment id="{244AFC91-C091-4139-887F-C70B1CB1DCAC}" ref="C1" dT="2024-05-10T07:54:02" personId="{1B7C3D89-62D1-449B-A3FC-25C45B3D69A0}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -986,7 +986,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
@@ -1025,6 +1025,9 @@
       <c r="H1" s="2" t="str">
         <v>RAG</v>
       </c>
+      <c r="I1" s="2" t="str">
+        <v>sys_prompt_template</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
@@ -1051,6 +1054,9 @@
       <c r="H2" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
+      <c r="I2" t="str">
+        <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
@@ -1077,6 +1083,9 @@
       <c r="H3" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
+      <c r="I3" t="str">
+        <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1" t="str">
@@ -1103,6 +1112,9 @@
       <c r="H4" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
+      <c r="I4" t="str">
+        <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1" t="str">
@@ -1129,6 +1141,9 @@
       <c r="H5" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
+      <c r="I5" t="str">
+        <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1" t="str">
@@ -1154,6 +1169,9 @@
       </c>
       <c r="H6" t="str">
         <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="I6" t="str">
+        <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7"/>
@@ -1197,7 +1215,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="62"/>
     <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
@@ -1241,6 +1259,9 @@
       <c r="J1" s="2" t="str">
         <v>RAG</v>
       </c>
+      <c r="K1" s="2" t="str">
+        <v>sys_prompt_template</v>
+      </c>
     </row>
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
@@ -1274,6 +1295,9 @@
       </c>
       <c r="J4" t="str">
         <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
     <row r="5">
@@ -1325,6 +1349,9 @@
       <c r="J5" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
+      <c r="K5" s="2" t="str">
+        <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
@@ -1370,6 +1397,9 @@
       <c r="J6" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
+      <c r="K6" s="2" t="str">
+        <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
@@ -1403,6 +1433,9 @@
       <c r="J7" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
+      <c r="K7" s="2" t="str">
+        <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="str">
@@ -1435,6 +1468,9 @@
       <c r="J8" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
+      <c r="K8" s="2" t="str">
+        <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="9">
       <c r="A9" s="1" t="str">
@@ -1466,6 +1502,9 @@
       </c>
       <c r="J9" t="str">
         <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,18 +31,18 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={BD75272B-D109-460C-8E8A-DA88F281AAFC}</author>
-    <author>tc={C9F06BC8-AE28-410A-801A-C4941D545219}</author>
+    <author>tc={DFE45623-F755-470D-8A57-19F41069AED6}</author>
+    <author>tc={4C9200CA-ECB0-4994-BEF1-303CFD48E8B3}</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{BD75272B-D109-460C-8E8A-DA88F281AAFC}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{DFE45623-F755-470D-8A57-19F41069AED6}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{4C9200CA-ECB0-4994-BEF1-303CFD48E8B3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{C9F06BC8-AE28-410A-801A-C4941D545219}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
   </commentList>
@@ -52,14 +52,14 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={62FA8BE7-059E-42DB-B541-4DE63CE81305}</author>
-    <author>tc={63E4167A-EE03-4DAF-9C0F-7F81D534FF9A}</author>
-    <author>tc={565920C0-A886-4304-A5F7-DE870A5DF1C3}</author>
-    <author>tc={EA6F6F61-37E7-4E12-BB9F-939D95F1ADCC}</author>
-    <author>tc={244AFC91-C091-4139-887F-C70B1CB1DCAC}</author>
+    <author>tc={901B1A3A-002B-4E94-8931-5530817DB66E}</author>
+    <author>tc={6FA36744-3D68-473A-B382-AE8A944EA453}</author>
+    <author>tc={921444B8-98A4-424D-9BCA-420021E16772}</author>
+    <author>tc={0A2129AE-AF9D-490E-9905-CB8D0CD097EB}</author>
+    <author>tc={7095EA55-F15D-4E3F-914D-DD89BCD3A2F7}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{62FA8BE7-059E-42DB-B541-4DE63CE81305}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{901B1A3A-002B-4E94-8931-5530817DB66E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -68,22 +68,22 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{63E4167A-EE03-4DAF-9C0F-7F81D534FF9A}">
+    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{6FA36744-3D68-473A-B382-AE8A944EA453}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{565920C0-A886-4304-A5F7-DE870A5DF1C3}">
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{921444B8-98A4-424D-9BCA-420021E16772}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{EA6F6F61-37E7-4E12-BB9F-939D95F1ADCC}">
+    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{0A2129AE-AF9D-490E-9905-CB8D0CD097EB}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="4" shapeId="0" xr:uid="{244AFC91-C091-4139-887F-C70B1CB1DCAC}">
+    <comment ref="C1" authorId="4" shapeId="0" xr:uid="{7095EA55-F15D-4E3F-914D-DD89BCD3A2F7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
@@ -194,8 +194,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{F57073EB-4957-4D36-8F13-E035441015B9}" userId="S::::7d668f0f-f02f-4be7-9b03-a7124182820c" providerId="AD"/>
-  <person displayName="杨行" id="{1B7C3D89-62D1-449B-A3FC-25C45B3D69A0}" userId="S::::d7f8e5bb-7e5e-4860-a365-caa882091cae" providerId="AD"/>
+  <person displayName="侯清辰" id="{25A2C110-22A3-4D61-A740-4B1FA51B22ED}" userId="S::::1bec015d-1072-449e-a713-7f6b4368dab5" providerId="AD"/>
+  <person displayName="杨行" id="{C8083950-A9AF-41A8-AF84-ABD2A960F200}" userId="S::::dac16abe-b77f-4068-93db-1efeb037a182" providerId="AD"/>
 </personList>
 </file>
 
@@ -496,37 +496,37 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{BD75272B-D109-460C-8E8A-DA88F281AAFC}" ref="K1" dT="2024-05-10T07:08:22" personId="{1B7C3D89-62D1-449B-A3FC-25C45B3D69A0}" parentId="{}">
+  <threadedComment id="{DFE45623-F755-470D-8A57-19F41069AED6}" ref="A3" dT="2024-05-28T04:59:59" personId="{C8083950-A9AF-41A8-AF84-ABD2A960F200}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{4C9200CA-ECB0-4994-BEF1-303CFD48E8B3}" ref="K1" dT="2024-05-10T07:08:22" personId="{C8083950-A9AF-41A8-AF84-ABD2A960F200}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{C9F06BC8-AE28-410A-801A-C4941D545219}" ref="A3" dT="2024-05-28T04:59:59" personId="{1B7C3D89-62D1-449B-A3FC-25C45B3D69A0}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{62FA8BE7-059E-42DB-B541-4DE63CE81305}" ref="D1" dT="2024-05-10T08:11:19" personId="{1B7C3D89-62D1-449B-A3FC-25C45B3D69A0}" parentId="{}">
+  <threadedComment id="{901B1A3A-002B-4E94-8931-5530817DB66E}" ref="D1" dT="2024-05-10T08:11:19" personId="{C8083950-A9AF-41A8-AF84-ABD2A960F200}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{7b2c30e0-3af5-4f15-8a98-3a6fa43c8f0a}" ref="D1" dT="2024-05-10T08:15:39" personId="{1B7C3D89-62D1-449B-A3FC-25C45B3D69A0}" parentId="{62FA8BE7-059E-42DB-B541-4DE63CE81305}">
+  <threadedComment id="{8a93abc1-0557-451a-b0fe-cc408dec6dee}" ref="D1" dT="2024-05-10T08:15:39" personId="{C8083950-A9AF-41A8-AF84-ABD2A960F200}" parentId="{901B1A3A-002B-4E94-8931-5530817DB66E}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{63E4167A-EE03-4DAF-9C0F-7F81D534FF9A}" ref="D8" dT="2024-05-13T07:32:07" personId="{F57073EB-4957-4D36-8F13-E035441015B9}" parentId="{}">
+  <threadedComment id="{6FA36744-3D68-473A-B382-AE8A944EA453}" ref="D8" dT="2024-05-13T07:32:07" personId="{25A2C110-22A3-4D61-A740-4B1FA51B22ED}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
-  <threadedComment id="{565920C0-A886-4304-A5F7-DE870A5DF1C3}" ref="C8" dT="2024-05-09T06:25:33" personId="{1B7C3D89-62D1-449B-A3FC-25C45B3D69A0}" parentId="{}">
+  <threadedComment id="{921444B8-98A4-424D-9BCA-420021E16772}" ref="C8" dT="2024-05-09T06:25:33" personId="{C8083950-A9AF-41A8-AF84-ABD2A960F200}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{EA6F6F61-37E7-4E12-BB9F-939D95F1ADCC}" ref="E8" dT="2024-05-09T07:41:18" personId="{1B7C3D89-62D1-449B-A3FC-25C45B3D69A0}" parentId="{}">
+  <threadedComment id="{0A2129AE-AF9D-490E-9905-CB8D0CD097EB}" ref="E8" dT="2024-05-09T07:41:18" personId="{C8083950-A9AF-41A8-AF84-ABD2A960F200}" parentId="{}">
     <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
   </threadedComment>
-  <threadedComment id="{244AFC91-C091-4139-887F-C70B1CB1DCAC}" ref="C1" dT="2024-05-10T07:54:02" personId="{1B7C3D89-62D1-449B-A3FC-25C45B3D69A0}" parentId="{}">
+  <threadedComment id="{7095EA55-F15D-4E3F-914D-DD89BCD3A2F7}" ref="C1" dT="2024-05-10T07:54:02" personId="{C8083950-A9AF-41A8-AF84-ABD2A960F200}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
@@ -984,9 +984,9 @@
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
@@ -997,7 +997,6 @@
     <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
@@ -1019,13 +1018,10 @@
       <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="1" t="str">
-        <v>attributes</v>
+      <c r="G1" s="2" t="str">
+        <v>RAG</v>
       </c>
       <c r="H1" s="2" t="str">
-        <v>RAG</v>
-      </c>
-      <c r="I1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
     </row>
@@ -1048,13 +1044,10 @@
       <c r="F2" s="1" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <v>10000,10000,1000,10000</v>
+      <c r="G2" t="str">
+        <v>rag_libraries/rag2.md</v>
       </c>
       <c r="H2" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="I2" t="str">
         <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1077,13 +1070,10 @@
       <c r="F3" s="1" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="G3" s="1" t="str">
-        <v>10000,10000,1,10000</v>
+      <c r="G3" t="str">
+        <v>rag_libraries/rag2.md</v>
       </c>
       <c r="H3" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="I3" t="str">
         <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1106,13 +1096,10 @@
       <c r="F4" s="1" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="G4" s="1" t="str">
-        <v>10000,10000,1,10000</v>
+      <c r="G4" t="str">
+        <v>rag_libraries/rag2.md</v>
       </c>
       <c r="H4" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="I4" t="str">
         <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1135,13 +1122,10 @@
       <c r="F5" s="1" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="G5" s="1" t="str">
-        <v>10000,10000,1,10000</v>
+      <c r="G5" t="str">
+        <v>rag_libraries/rag2.md</v>
       </c>
       <c r="H5" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="I5" t="str">
         <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1164,13 +1148,10 @@
       <c r="F6" s="1" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="G6" s="1" t="str">
-        <v>10000,10000,1,10000</v>
+      <c r="G6" t="str">
+        <v>rag_libraries/rag2.md</v>
       </c>
       <c r="H6" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="I6" t="str">
         <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1213,9 +1194,9 @@
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="49"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="62"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="62"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
@@ -1225,7 +1206,6 @@
     <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1253,13 +1233,10 @@
       <c r="H1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="I1" s="1" t="str">
-        <v>attributes</v>
+      <c r="I1" s="2" t="str">
+        <v>RAG</v>
       </c>
       <c r="J1" s="2" t="str">
-        <v>RAG</v>
-      </c>
-      <c r="K1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
     </row>
@@ -1290,13 +1267,10 @@
       <c r="H4" s="1" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="I4" s="1" t="str">
-        <v>10000,10000,10,10</v>
-      </c>
-      <c r="J4" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="K4" s="2" t="str">
+      <c r="I4" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="J4" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1343,13 +1317,10 @@
       <c r="H5" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="I5" s="2" t="str">
-        <v>100,100,10,1</v>
-      </c>
-      <c r="J5" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="K5" s="2" t="str">
+      <c r="I5" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="J5" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1391,13 +1362,10 @@
       <c r="H6" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="I6" s="2" t="str">
-        <v>100,100,10,1</v>
-      </c>
-      <c r="J6" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="K6" s="2" t="str">
+      <c r="I6" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="J6" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1427,13 +1395,10 @@
       <c r="H7" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="I7" s="2" t="str">
-        <v>100,100,10,1</v>
-      </c>
-      <c r="J7" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="K7" s="2" t="str">
+      <c r="I7" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="J7" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1462,13 +1427,10 @@
       <c r="H8" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="I8" s="2" t="str">
-        <v>100,100,10,1</v>
-      </c>
-      <c r="J8" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="K8" s="2" t="str">
+      <c r="I8" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="J8" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1497,13 +1459,10 @@
       <c r="H9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="I9" s="2" t="str">
-        <v>100,100,10,1</v>
-      </c>
-      <c r="J9" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="K9" s="2" t="str">
+      <c r="I9" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="J9" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,16 +31,22 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={DFE45623-F755-470D-8A57-19F41069AED6}</author>
-    <author>tc={4C9200CA-ECB0-4994-BEF1-303CFD48E8B3}</author>
+    <author>tc={37B5ED4A-DD14-4C47-8726-DA188AE44993}</author>
+    <author>tc={993D88B0-584E-4869-892B-92440BE9CFC9}</author>
+    <author>tc={8BF5C3C5-F84B-4C11-814B-C1382D0FC68D}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{DFE45623-F755-470D-8A57-19F41069AED6}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{37B5ED4A-DD14-4C47-8726-DA188AE44993}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{4C9200CA-ECB0-4994-BEF1-303CFD48E8B3}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{993D88B0-584E-4869-892B-92440BE9CFC9}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{8BF5C3C5-F84B-4C11-814B-C1382D0FC68D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -52,40 +58,40 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={901B1A3A-002B-4E94-8931-5530817DB66E}</author>
-    <author>tc={6FA36744-3D68-473A-B382-AE8A944EA453}</author>
-    <author>tc={921444B8-98A4-424D-9BCA-420021E16772}</author>
-    <author>tc={0A2129AE-AF9D-490E-9905-CB8D0CD097EB}</author>
-    <author>tc={7095EA55-F15D-4E3F-914D-DD89BCD3A2F7}</author>
+    <author>tc={FB7818EF-1578-45BE-BEAB-EFED2F9F1BE6}</author>
+    <author>tc={95B4A99D-B318-4A54-BC6F-446AF8EAC309}</author>
+    <author>tc={EC1615F9-9160-4268-8064-ED32B70671C0}</author>
+    <author>tc={CA0AB47C-D96B-4A6B-BCF6-0A4E52D5EAD4}</author>
+    <author>tc={0C6A8E23-2B58-4D1C-A0C9-629AC5817684}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{901B1A3A-002B-4E94-8931-5530817DB66E}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{FB7818EF-1578-45BE-BEAB-EFED2F9F1BE6}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{95B4A99D-B318-4A54-BC6F-446AF8EAC309}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="2" shapeId="0" xr:uid="{EC1615F9-9160-4268-8064-ED32B70671C0}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="3" shapeId="0" xr:uid="{CA0AB47C-D96B-4A6B-BCF6-0A4E52D5EAD4}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="4" shapeId="0" xr:uid="{0C6A8E23-2B58-4D1C-A0C9-629AC5817684}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{6FA36744-3D68-473A-B382-AE8A944EA453}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{921444B8-98A4-424D-9BCA-420021E16772}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{0A2129AE-AF9D-490E-9905-CB8D0CD097EB}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="4" shapeId="0" xr:uid="{7095EA55-F15D-4E3F-914D-DD89BCD3A2F7}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -194,8 +200,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{25A2C110-22A3-4D61-A740-4B1FA51B22ED}" userId="S::::1bec015d-1072-449e-a713-7f6b4368dab5" providerId="AD"/>
-  <person displayName="杨行" id="{C8083950-A9AF-41A8-AF84-ABD2A960F200}" userId="S::::dac16abe-b77f-4068-93db-1efeb037a182" providerId="AD"/>
+  <person displayName="杨行" id="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" userId="S::::dc876cbe-9ddc-4b00-a9d8-260501059938" providerId="AD"/>
+  <person displayName="侯清辰" id="{F766FF52-58E9-44FC-B109-F2F99172BDB8}" userId="S::::425201f6-27ec-4da0-8f46-abdcba20d6ce" providerId="AD"/>
 </personList>
 </file>
 
@@ -496,10 +502,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{DFE45623-F755-470D-8A57-19F41069AED6}" ref="A3" dT="2024-05-28T04:59:59" personId="{C8083950-A9AF-41A8-AF84-ABD2A960F200}" parentId="{}">
+  <threadedComment id="{37B5ED4A-DD14-4C47-8726-DA188AE44993}" ref="A3" dT="2024-05-28T04:59:59" personId="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{4C9200CA-ECB0-4994-BEF1-303CFD48E8B3}" ref="K1" dT="2024-05-10T07:08:22" personId="{C8083950-A9AF-41A8-AF84-ABD2A960F200}" parentId="{}">
+  <threadedComment id="{993D88B0-584E-4869-892B-92440BE9CFC9}" ref="M1" dT="2024-05-31T03:31:01" personId="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{8BF5C3C5-F84B-4C11-814B-C1382D0FC68D}" ref="K1" dT="2024-05-10T07:08:22" personId="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -507,27 +516,27 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{901B1A3A-002B-4E94-8931-5530817DB66E}" ref="D1" dT="2024-05-10T08:11:19" personId="{C8083950-A9AF-41A8-AF84-ABD2A960F200}" parentId="{}">
+  <threadedComment id="{FB7818EF-1578-45BE-BEAB-EFED2F9F1BE6}" ref="D8" dT="2024-05-13T07:32:07" personId="{F766FF52-58E9-44FC-B109-F2F99172BDB8}" parentId="{}">
+    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
+  </threadedComment>
+  <threadedComment id="{95B4A99D-B318-4A54-BC6F-446AF8EAC309}" ref="C8" dT="2024-05-09T06:25:33" personId="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{EC1615F9-9160-4268-8064-ED32B70671C0}" ref="E8" dT="2024-05-09T07:41:18" personId="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" parentId="{}">
+    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
+  </threadedComment>
+  <threadedComment id="{CA0AB47C-D96B-4A6B-BCF6-0A4E52D5EAD4}" ref="C1" dT="2024-05-10T07:54:02" personId="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{0C6A8E23-2B58-4D1C-A0C9-629AC5817684}" ref="D1" dT="2024-05-10T08:11:19" personId="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{8a93abc1-0557-451a-b0fe-cc408dec6dee}" ref="D1" dT="2024-05-10T08:15:39" personId="{C8083950-A9AF-41A8-AF84-ABD2A960F200}" parentId="{901B1A3A-002B-4E94-8931-5530817DB66E}">
+  <threadedComment id="{b89ed3fb-42ab-4f3c-a2cc-51ff8d1da0ce}" ref="D1" dT="2024-05-10T08:15:39" personId="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" parentId="{0C6A8E23-2B58-4D1C-A0C9-629AC5817684}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{6FA36744-3D68-473A-B382-AE8A944EA453}" ref="D8" dT="2024-05-13T07:32:07" personId="{25A2C110-22A3-4D61-A740-4B1FA51B22ED}" parentId="{}">
-    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
-  </threadedComment>
-  <threadedComment id="{921444B8-98A4-424D-9BCA-420021E16772}" ref="C8" dT="2024-05-09T06:25:33" personId="{C8083950-A9AF-41A8-AF84-ABD2A960F200}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{0A2129AE-AF9D-490E-9905-CB8D0CD097EB}" ref="E8" dT="2024-05-09T07:41:18" personId="{C8083950-A9AF-41A8-AF84-ABD2A960F200}" parentId="{}">
-    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
-  </threadedComment>
-  <threadedComment id="{7095EA55-F15D-4E3F-914D-DD89BCD3A2F7}" ref="C1" dT="2024-05-10T07:54:02" personId="{C8083950-A9AF-41A8-AF84-ABD2A960F200}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1284,8 +1293,7 @@
       <c r="C5" s="1" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
-- 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。
-- 无数的岁月过去了。因为圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
+- 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
 - 你现在把‘圣灰园’当作自己的私人领地。
 ### 你的外观信息
 - 你的身躯庞大而畸形，肌肉膨胀，毛发稀疏，暗灰色的皮肤在昏暗的光线下闪着油光。你的头部过于庞大，不成比例，长满了锋利而不规则的牙齿，这些牙齿随着呼吸，在黑暗中闪烁着令人不安的光芒。你的眼睛深邃、黑暗，仿佛两个无底的深渊，闪烁着邪恶的光芒。你尽管拥体型巨大，但每一次动作都透露出一种不自然的灵巧和恶意，你的尾巴长而有力，不时扫动，仿佛是一把随时准备发动攻击的鞭子。

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,22 +31,22 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={37B5ED4A-DD14-4C47-8726-DA188AE44993}</author>
-    <author>tc={993D88B0-584E-4869-892B-92440BE9CFC9}</author>
-    <author>tc={8BF5C3C5-F84B-4C11-814B-C1382D0FC68D}</author>
+    <author>tc={C00D8F08-9D79-40A3-967F-8552D967F071}</author>
+    <author>tc={30A5370E-D348-46D1-A464-1D04D78E83B1}</author>
+    <author>tc={163827BD-4376-4F64-AC3D-74E56F65B2B0}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{37B5ED4A-DD14-4C47-8726-DA188AE44993}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{C00D8F08-9D79-40A3-967F-8552D967F071}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{993D88B0-584E-4869-892B-92440BE9CFC9}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{30A5370E-D348-46D1-A464-1D04D78E83B1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{8BF5C3C5-F84B-4C11-814B-C1382D0FC68D}">
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{163827BD-4376-4F64-AC3D-74E56F65B2B0}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -58,40 +58,34 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={FB7818EF-1578-45BE-BEAB-EFED2F9F1BE6}</author>
-    <author>tc={95B4A99D-B318-4A54-BC6F-446AF8EAC309}</author>
-    <author>tc={EC1615F9-9160-4268-8064-ED32B70671C0}</author>
-    <author>tc={CA0AB47C-D96B-4A6B-BCF6-0A4E52D5EAD4}</author>
-    <author>tc={0C6A8E23-2B58-4D1C-A0C9-629AC5817684}</author>
+    <author>tc={75C0C9AD-B17F-46B7-A875-BB1981815B11}</author>
+    <author>tc={6DB5FD2A-4D94-48D5-8F73-C1620D356E60}</author>
+    <author>tc={B70C1E8E-B9FA-4041-8501-143A6B34292F}</author>
+    <author>tc={22242316-C1EA-4EB8-87BA-F5B2A580FEA1}</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{FB7818EF-1578-45BE-BEAB-EFED2F9F1BE6}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{95B4A99D-B318-4A54-BC6F-446AF8EAC309}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{75C0C9AD-B17F-46B7-A875-BB1981815B11}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="2" shapeId="0" xr:uid="{EC1615F9-9160-4268-8064-ED32B70671C0}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 提示词真棒，清晰明确。AI都能看懂，哈哈～</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="3" shapeId="0" xr:uid="{CA0AB47C-D96B-4A6B-BCF6-0A4E52D5EAD4}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{6DB5FD2A-4D94-48D5-8F73-C1620D356E60}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="4" shapeId="0" xr:uid="{0C6A8E23-2B58-4D1C-A0C9-629AC5817684}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{B70C1E8E-B9FA-4041-8501-143A6B34292F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="3" shapeId="0" xr:uid="{22242316-C1EA-4EB8-87BA-F5B2A580FEA1}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
     </comment>
   </commentList>
@@ -200,8 +194,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" userId="S::::dc876cbe-9ddc-4b00-a9d8-260501059938" providerId="AD"/>
-  <person displayName="侯清辰" id="{F766FF52-58E9-44FC-B109-F2F99172BDB8}" userId="S::::425201f6-27ec-4da0-8f46-abdcba20d6ce" providerId="AD"/>
+  <person displayName="杨行" id="{10DB3797-10C4-4E95-9E8F-7795E3F91494}" userId="S::::19dc175f-5165-44e5-a5f4-bb0ae85e497c" providerId="AD"/>
+  <person displayName="侯清辰" id="{FDB7E4A5-66AB-4955-81A2-261FE613C469}" userId="S::::ba4940eb-3b00-46d6-a249-f2209afa6513" providerId="AD"/>
 </personList>
 </file>
 
@@ -502,13 +496,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{37B5ED4A-DD14-4C47-8726-DA188AE44993}" ref="A3" dT="2024-05-28T04:59:59" personId="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" parentId="{}">
+  <threadedComment id="{C00D8F08-9D79-40A3-967F-8552D967F071}" ref="A3" dT="2024-05-28T04:59:59" personId="{10DB3797-10C4-4E95-9E8F-7795E3F91494}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{993D88B0-584E-4869-892B-92440BE9CFC9}" ref="M1" dT="2024-05-31T03:31:01" personId="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" parentId="{}">
+  <threadedComment id="{30A5370E-D348-46D1-A464-1D04D78E83B1}" ref="M1" dT="2024-05-31T03:31:01" personId="{10DB3797-10C4-4E95-9E8F-7795E3F91494}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{8BF5C3C5-F84B-4C11-814B-C1382D0FC68D}" ref="K1" dT="2024-05-10T07:08:22" personId="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" parentId="{}">
+  <threadedComment id="{163827BD-4376-4F64-AC3D-74E56F65B2B0}" ref="K1" dT="2024-05-10T07:08:22" personId="{10DB3797-10C4-4E95-9E8F-7795E3F91494}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -516,27 +510,24 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{FB7818EF-1578-45BE-BEAB-EFED2F9F1BE6}" ref="D8" dT="2024-05-13T07:32:07" personId="{F766FF52-58E9-44FC-B109-F2F99172BDB8}" parentId="{}">
-    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
-  </threadedComment>
-  <threadedComment id="{95B4A99D-B318-4A54-BC6F-446AF8EAC309}" ref="C8" dT="2024-05-09T06:25:33" personId="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" parentId="{}">
+  <threadedComment id="{75C0C9AD-B17F-46B7-A875-BB1981815B11}" ref="C8" dT="2024-05-09T06:25:33" personId="{10DB3797-10C4-4E95-9E8F-7795E3F91494}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{EC1615F9-9160-4268-8064-ED32B70671C0}" ref="E8" dT="2024-05-09T07:41:18" personId="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" parentId="{}">
-    <text>提示词真棒，清晰明确。AI都能看懂，哈哈～</text>
-  </threadedComment>
-  <threadedComment id="{CA0AB47C-D96B-4A6B-BCF6-0A4E52D5EAD4}" ref="C1" dT="2024-05-10T07:54:02" personId="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" parentId="{}">
+  <threadedComment id="{6DB5FD2A-4D94-48D5-8F73-C1620D356E60}" ref="C1" dT="2024-05-10T07:54:02" personId="{10DB3797-10C4-4E95-9E8F-7795E3F91494}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{0C6A8E23-2B58-4D1C-A0C9-629AC5817684}" ref="D1" dT="2024-05-10T08:11:19" personId="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" parentId="{}">
+  <threadedComment id="{B70C1E8E-B9FA-4041-8501-143A6B34292F}" ref="D1" dT="2024-05-10T08:11:19" personId="{10DB3797-10C4-4E95-9E8F-7795E3F91494}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{b89ed3fb-42ab-4f3c-a2cc-51ff8d1da0ce}" ref="D1" dT="2024-05-10T08:15:39" personId="{E818C936-634D-4CAD-9E54-7C375DCA8E69}" parentId="{0C6A8E23-2B58-4D1C-A0C9-629AC5817684}">
+  <threadedComment id="{1a0a39a9-bcda-41e8-845c-e49294b9ea5b}" ref="D1" dT="2024-05-10T08:15:39" personId="{10DB3797-10C4-4E95-9E8F-7795E3F91494}" parentId="{B70C1E8E-B9FA-4041-8501-143A6B34292F}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{22242316-C1EA-4EB8-87BA-F5B2A580FEA1}" ref="D8" dT="2024-05-13T07:32:07" personId="{FDB7E4A5-66AB-4955-81A2-261FE613C469}" parentId="{}">
+    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -631,7 +622,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="47"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="38"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="92"/>
@@ -701,7 +692,7 @@
         <v>Config</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>这是一个恐怖类型的游戏</v>
+        <v>这是一个测试用的demo，文体风格是恐怖类型</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -724,7 +715,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="I3" s="1" t="str">
-        <v>你目前在圣灰园，监视着这里的一切。教宗认为禁言者之棺出现了异常，让你过来看看。</v>
+        <v>你目前在圣灰园，监视着这里的一切。教宗认为出现了异常，让你过来看看。</v>
       </c>
       <c r="K3" s="1" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
@@ -733,9 +724,9 @@
         <v>100,100,10,1</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="4">
+    <row r="4">
       <c r="A4" s="1" t="str">
-        <v>无名的复活者</v>
+        <v>尤里</v>
       </c>
       <c r="B4" s="1" t="str">
         <v>Player</v>
@@ -745,7 +736,9 @@
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
       <c r="I4" s="1" t="str">
-        <v>你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫禁言者之棺</v>
+        <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
+- 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
+- 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
       <c r="K4" s="1" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
@@ -767,6 +760,7 @@
       </c>
       <c r="I5" s="1" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
+- 你知道的场景包括：灰颜墓地，焚化炉，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒鼠王来处理。</v>
       </c>
@@ -798,7 +792,7 @@
         <v>100,100,10,1</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="7">
+    <row r="7">
       <c r="A7" s="1" t="str">
         <v>摩尔</v>
       </c>
@@ -808,7 +802,9 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="I7" s="1" t="str">
-        <v>你在灰颜墓地，随着你的主人——格雷进行日常的墓地巡视工作。你目前只想待在格雷身边。你知道灰颜礼拜堂，焚化炉与腐臭地窖在哪里，但是主人从不允许你去，所以你就不去。而且凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
+        <v>- 你在灰颜墓地，随着你的主人—— 格雷 
+- 你知道灰颜礼拜堂，焚化炉与腐臭地窖在哪里，但是主人从不允许你去，所以你就不去。
+- 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
       <c r="K7" s="1" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
@@ -830,7 +826,7 @@
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，焚化炉与灰颜礼拜堂这些地点。
-- 睡梦中，你回忆起了圣人的‘红色仆从’用火焰剑烧灼你的毛发与灵魂时，那种刻入骨髓的痛，因此你恨人类也惧怕火焰。他们的灰色的脸和紫色的眼镜让你依然记得。
+- 睡梦中，你回忆起了圣人的‘红色仆从’用火焰剑烧灼你的毛发与灵魂时，那种刻入骨髓的痛，因此你恨人类也惧怕火焰。他们的灰色的脸和紫色的眼睛让你依然记得。
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
@@ -843,7 +839,7 @@
     </row>
     <row customHeight="true" ht="23" r="9">
       <c r="A9" s="1" t="str">
-        <v>禁言者之棺</v>
+        <v>禁言铁棺</v>
       </c>
       <c r="B9" s="1" t="str">
         <v>Stage</v>
@@ -854,14 +850,14 @@
         <v>不死者印记</v>
       </c>
       <c r="F9" s="1" t="str">
-        <v>(撬开的缝隙|禁言者之棺处于被锁住的状态，无法离开。也许某些尖锐物品能撬开棺材盖间的缝隙？)</v>
+        <v>(撬开的缝隙|禁言铁棺处于被锁住的状态，无法离开。也许某些尖锐物品能撬开棺材盖间的缝隙？)</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="str">
-        <v>无名的复活者</v>
+        <v>尤里</v>
       </c>
       <c r="I9" s="1" t="str">
-        <v>一个人类——无名的复活者在这里面沉睡。教廷制造你用于封印不死人。无名的复活者便是你要封印的对象。无数的岁月过去了。如果无名的复活者有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
+        <v>一个人类—— 尤里 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
       <c r="J9" s="1" t="str">
         <v>灰颜墓地</v>
@@ -1036,7 +1032,7 @@
     </row>
     <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
-        <v>禁言者之棺</v>
+        <v>禁言铁棺</v>
       </c>
       <c r="B2" s="1" t="str">
         <v>coffin_of_the_silent_one</v>
@@ -1068,7 +1064,7 @@
         <v>gray_cemetery</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，是一个被遗忘的古老墓穴的入口，那里就是封印着“禁言者之棺”的位置。这个墓穴看似与众不同，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
+        <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
       <c r="D3" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
@@ -1418,13 +1414,27 @@
         <v>moore_dog</v>
       </c>
       <c r="C8" s="1" t="str">
-        <v>你是一只外形可怖的狗。你的皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色。你的牙齿也因此变得不健全，一部分已经腐烂，但这并不妨碍你展示出惊人的攻击力。</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <v>你自幼就生活在圣灰园，你从未见过除了“格雷”以外的任何活人。这片阴森的土地和其中躺着的尸体构成了你所有的世界。你是由“格雷”在一次清晨，从墓园的一个被遗忘的角落里发现的，那时你还只是一只脆弱的幼犬，身旁躺着你那已经不在的母亲。“格雷”将你带回，用墓地里的尸体喂养长大。这种成长方式赋予了你一种不可思议的力量，但也让你的身体出现了溃烂。对你来说，“格雷”是你对这个世界唯一的连结。</v>
-      </c>
+        <v>### 你的背景
+- 你是一只外形可怖的狗。
+- 你从未见过除了“格雷”以外的任何活人。
+- 你的主人—— 格雷 养大了你
+- 圣灰园的腐败与诅咒确实影响到了你的精神状态，让你有时候陷入狂暴的状态。
+### 你的外观信息
+- 你的皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色。你的牙齿也因此变得不健全，一部分已经腐烂。
+### 你的性格特征
+- 凶狠而忠诚
+- 有时会发疯
+### 你的目标
+- 服从‘格雷’的一切命令。
+- 守护‘格雷’
+### 注意！你不会做的事
+- 离开'格雷'
+- 你做为一只狗，不会跟同类（狗）之外的物种进行对话与交流。</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="str">
-        <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。</v>
+        <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
+- （警惕）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！</v>
       </c>
       <c r="F8" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
@@ -1444,7 +1454,7 @@
     </row>
     <row customHeight="true" ht="23" r="9">
       <c r="A9" s="1" t="str">
-        <v>无名的复活者</v>
+        <v>尤里</v>
       </c>
       <c r="B9" s="1" t="str">
         <v>nameless_resurrector</v>
@@ -1562,7 +1572,7 @@
         <v>RoleComponent</v>
       </c>
       <c r="E2" s="1" t="str">
-        <v>灰色的面容与紫色的双眼。无名的复活者的印记</v>
+        <v>被诅咒之人的印记</v>
       </c>
       <c r="G2" t="str">
         <v>rag_libraries/rag2.md</v>
@@ -1582,7 +1592,7 @@
         <v>RoleComponent</v>
       </c>
       <c r="E3" s="1" t="str">
-        <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。包括：灰颜墓地，焚化炉，灰颜礼拜堂和腐臭地窖。</v>
+        <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
       <c r="G3" t="str">
         <v>rag_libraries/rag2.md</v>
@@ -1691,7 +1701,7 @@
         <v>Event</v>
       </c>
       <c r="E8" s="2" t="str">
-        <v>使用腐朽的匕首撬动禁言者之棺产生的缝隙，足够一个人钻出</v>
+        <v>使用腐朽的匕首撬动禁言铁棺产生的缝隙，足够一个人钻出</v>
       </c>
       <c r="G8" t="str">
         <v>rag_libraries/rag2.md</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,22 +31,22 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C00D8F08-9D79-40A3-967F-8552D967F071}</author>
-    <author>tc={30A5370E-D348-46D1-A464-1D04D78E83B1}</author>
-    <author>tc={163827BD-4376-4F64-AC3D-74E56F65B2B0}</author>
+    <author>tc={C8051F1F-59A9-465F-98EB-F5A16D30DB95}</author>
+    <author>tc={EC57012B-DA3C-4196-9B17-626B7D54D20F}</author>
+    <author>tc={E863113C-9934-489C-9C06-005300C4A4B8}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{C00D8F08-9D79-40A3-967F-8552D967F071}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{C8051F1F-59A9-465F-98EB-F5A16D30DB95}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{30A5370E-D348-46D1-A464-1D04D78E83B1}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{EC57012B-DA3C-4196-9B17-626B7D54D20F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{163827BD-4376-4F64-AC3D-74E56F65B2B0}">
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{E863113C-9934-489C-9C06-005300C4A4B8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -58,23 +58,23 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={75C0C9AD-B17F-46B7-A875-BB1981815B11}</author>
-    <author>tc={6DB5FD2A-4D94-48D5-8F73-C1620D356E60}</author>
-    <author>tc={B70C1E8E-B9FA-4041-8501-143A6B34292F}</author>
-    <author>tc={22242316-C1EA-4EB8-87BA-F5B2A580FEA1}</author>
+    <author>tc={7413361D-CC47-4E75-9174-A6AEDB050511}</author>
+    <author>tc={35F4280B-F164-4210-843F-55E21BB1D40B}</author>
+    <author>tc={CE3450FC-63BC-4E13-96A9-219A6AE5D494}</author>
+    <author>tc={89F1D6DD-D09D-4DEF-BB6F-2D78912D4095}</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{75C0C9AD-B17F-46B7-A875-BB1981815B11}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{7413361D-CC47-4E75-9174-A6AEDB050511}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{6DB5FD2A-4D94-48D5-8F73-C1620D356E60}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{35F4280B-F164-4210-843F-55E21BB1D40B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{B70C1E8E-B9FA-4041-8501-143A6B34292F}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{CE3450FC-63BC-4E13-96A9-219A6AE5D494}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -83,7 +83,7 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="3" shapeId="0" xr:uid="{22242316-C1EA-4EB8-87BA-F5B2A580FEA1}">
+    <comment ref="D8" authorId="3" shapeId="0" xr:uid="{89F1D6DD-D09D-4DEF-BB6F-2D78912D4095}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
@@ -194,8 +194,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{10DB3797-10C4-4E95-9E8F-7795E3F91494}" userId="S::::19dc175f-5165-44e5-a5f4-bb0ae85e497c" providerId="AD"/>
-  <person displayName="侯清辰" id="{FDB7E4A5-66AB-4955-81A2-261FE613C469}" userId="S::::ba4940eb-3b00-46d6-a249-f2209afa6513" providerId="AD"/>
+  <person displayName="杨行" id="{DC2705C9-A110-4542-A2B3-88B79C5B2604}" userId="S::::68f2beee-3599-4366-ba67-ab3e7ae303e6" providerId="AD"/>
+  <person displayName="侯清辰" id="{23805327-4CA6-41FE-A962-A502D5403E02}" userId="S::::6c311c81-80eb-4b13-af41-110bbd7fac54" providerId="AD"/>
 </personList>
 </file>
 
@@ -496,13 +496,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{C00D8F08-9D79-40A3-967F-8552D967F071}" ref="A3" dT="2024-05-28T04:59:59" personId="{10DB3797-10C4-4E95-9E8F-7795E3F91494}" parentId="{}">
+  <threadedComment id="{C8051F1F-59A9-465F-98EB-F5A16D30DB95}" ref="A3" dT="2024-05-28T04:59:59" personId="{DC2705C9-A110-4542-A2B3-88B79C5B2604}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{30A5370E-D348-46D1-A464-1D04D78E83B1}" ref="M1" dT="2024-05-31T03:31:01" personId="{10DB3797-10C4-4E95-9E8F-7795E3F91494}" parentId="{}">
+  <threadedComment id="{EC57012B-DA3C-4196-9B17-626B7D54D20F}" ref="M1" dT="2024-05-31T03:31:01" personId="{DC2705C9-A110-4542-A2B3-88B79C5B2604}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{163827BD-4376-4F64-AC3D-74E56F65B2B0}" ref="K1" dT="2024-05-10T07:08:22" personId="{10DB3797-10C4-4E95-9E8F-7795E3F91494}" parentId="{}">
+  <threadedComment id="{E863113C-9934-489C-9C06-005300C4A4B8}" ref="K1" dT="2024-05-10T07:08:22" personId="{DC2705C9-A110-4542-A2B3-88B79C5B2604}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -510,23 +510,23 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{75C0C9AD-B17F-46B7-A875-BB1981815B11}" ref="C8" dT="2024-05-09T06:25:33" personId="{10DB3797-10C4-4E95-9E8F-7795E3F91494}" parentId="{}">
+  <threadedComment id="{7413361D-CC47-4E75-9174-A6AEDB050511}" ref="C8" dT="2024-05-09T06:25:33" personId="{DC2705C9-A110-4542-A2B3-88B79C5B2604}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{6DB5FD2A-4D94-48D5-8F73-C1620D356E60}" ref="C1" dT="2024-05-10T07:54:02" personId="{10DB3797-10C4-4E95-9E8F-7795E3F91494}" parentId="{}">
+  <threadedComment id="{35F4280B-F164-4210-843F-55E21BB1D40B}" ref="C1" dT="2024-05-10T07:54:02" personId="{DC2705C9-A110-4542-A2B3-88B79C5B2604}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{B70C1E8E-B9FA-4041-8501-143A6B34292F}" ref="D1" dT="2024-05-10T08:11:19" personId="{10DB3797-10C4-4E95-9E8F-7795E3F91494}" parentId="{}">
+  <threadedComment id="{CE3450FC-63BC-4E13-96A9-219A6AE5D494}" ref="D1" dT="2024-05-10T08:11:19" personId="{DC2705C9-A110-4542-A2B3-88B79C5B2604}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{1a0a39a9-bcda-41e8-845c-e49294b9ea5b}" ref="D1" dT="2024-05-10T08:15:39" personId="{10DB3797-10C4-4E95-9E8F-7795E3F91494}" parentId="{B70C1E8E-B9FA-4041-8501-143A6B34292F}">
+  <threadedComment id="{7550a9db-3295-450f-bdfc-2f04f215b6c7}" ref="D1" dT="2024-05-10T08:15:39" personId="{DC2705C9-A110-4542-A2B3-88B79C5B2604}" parentId="{CE3450FC-63BC-4E13-96A9-219A6AE5D494}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{22242316-C1EA-4EB8-87BA-F5B2A580FEA1}" ref="D8" dT="2024-05-13T07:32:07" personId="{FDB7E4A5-66AB-4955-81A2-261FE613C469}" parentId="{}">
+  <threadedComment id="{89F1D6DD-D09D-4DEF-BB6F-2D78912D4095}" ref="D8" dT="2024-05-13T07:32:07" personId="{23805327-4CA6-41FE-A962-A502D5403E02}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
 </ThreadedComments>
@@ -762,7 +762,7 @@
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，焚化炉，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
-- 你发现有什么异常，你就会去往腐臭地窖并叫醒鼠王来处理。</v>
+- 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
       <c r="K5" s="1" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
@@ -771,7 +771,7 @@
         <v>100,100,10,1</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="6">
+    <row r="6">
       <c r="A6" s="1" t="str">
         <v>格雷</v>
       </c>
@@ -783,7 +783,12 @@
         <v>断指钥匙</v>
       </c>
       <c r="I6" s="1" t="str">
-        <v>你在灰颜墓地，你的小狗——摩尔陪伴在你身边，你在进行日常的巡视。你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。你不会去焚化炉的附近，你认为那里不吉利而且很热。你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。</v>
+        <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
+- 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
+- 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
+- 你不会去焚化炉的附近，你认为那里不吉利而且很热。
+- 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
+- 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
       <c r="K6" s="1" t="str">
         <v>一个男性人类，个子中等，身着守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具</v>
@@ -802,8 +807,8 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="I7" s="1" t="str">
-        <v>- 你在灰颜墓地，随着你的主人—— 格雷 
-- 你知道灰颜礼拜堂，焚化炉与腐臭地窖在哪里，但是主人从不允许你去，所以你就不去。
+        <v>- 你在灰颜墓地，随着 格雷 
+- 你知道灰颜礼拜堂，焚化炉与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
       <c r="K7" s="1" t="str">
@@ -885,7 +890,7 @@
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
       <c r="I10" s="1" t="str">
-        <v>你的墓地管理员——格雷在进行日常的巡视。他的小狗——摩尔陪伴在他身边。小灰鼠帕奇隐藏在角落里监视者他们。</v>
+        <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
       <c r="M10" s="1" t="str">
         <v>10000,10000,1,10000</v>
@@ -1193,14 +1198,14 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="681"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="416"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="293"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="49"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="62"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="290"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="293"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="49"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="62"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
@@ -1210,7 +1215,6 @@
     <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1224,30 +1228,27 @@
         <v>description</v>
       </c>
       <c r="D1" s="1" t="str">
-        <v>history</v>
+        <v>conversation_example</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>conversation_example</v>
+        <v>GPT_MODEL</v>
       </c>
       <c r="F1" s="1" t="str">
-        <v>GPT_MODEL</v>
+        <v>PORT</v>
       </c>
       <c r="G1" s="1" t="str">
-        <v>PORT</v>
-      </c>
-      <c r="H1" s="1" t="str">
         <v>API</v>
       </c>
+      <c r="H1" s="2" t="str">
+        <v>RAG</v>
+      </c>
       <c r="I1" s="2" t="str">
-        <v>RAG</v>
-      </c>
-      <c r="J1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
     </row>
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
-    <row customHeight="true" ht="24" r="4">
+    <row r="4">
       <c r="A4" s="1" t="str">
         <v>教廷密使</v>
       </c>
@@ -1255,27 +1256,27 @@
         <v>papal_emissary</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>教廷秘史是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷秘史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。</v>
+        <v>教廷秘史是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷秘史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
+你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
+教廷秘史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
+随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
       <c r="D4" s="1" t="str">
-        <v>教廷秘史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
+        <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
       <c r="E4" s="1" t="str">
-        <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
-      </c>
-      <c r="F4" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="G4" s="1">
+      <c r="F4" s="1">
         <v>8008</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="G4" s="1" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="I4" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="J4" s="2" t="str">
+      <c r="H4" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="I4" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1299,32 +1300,31 @@
 ### 你的目标
 - 保证自己的存活。
 - 毁灭并吞噬一切所见的活物（除了你的子嗣与同类）。
-### 注意！你不会做的事
-- 你绝不会离开圣灰园，因为古老的诅咒使你束缚在此。
-- 你也不会容忍任何形式的背叛或挑战，任何试图破坏你统治的行为都会遭到你无情的报复。
-- 沉睡中的你不会有任何行动（除非被叫醒）。</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="str">
+### 注意！你必须遵守的原则
+1. 你不会离开圣灰园，因为古老的诅咒使你束缚在此。
+2. 你不会容忍任何形式的背叛或挑战（任何试图破坏你统治的行为都会遭到你无情的报复）。
+3. 你不会在沉睡中执行任何行动（除非被叫醒）。</v>
+      </c>
+      <c r="D5" s="1" t="str">
         <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - （怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="E5" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="G5" s="1">
+      <c r="F5" s="1">
         <v>8009</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="G5" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="I5" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="J5" s="2" t="str">
+      <c r="H5" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="I5" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C6" s="1" t="str">
         <v>### 你的背景
-- 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
+- 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
 - 你拥有细长的身体和小眼睛，眼中闪烁着恐惧的光芒。你的毛色是暗淡的灰色，这使你能够在圣灰园的石墙和迷雾中几乎隐形。
 ### 你的性格特征
@@ -1346,30 +1346,29 @@
 ### 你的目标
 - 你的主要目标是生存下去，并尽可能避免直接与鼠王和其他潜在威胁发生冲突。
 - 如果你认为形成威胁的事物，你会去寻求鼠王将其消除。
-### 注意！你不会做的事
-- 你绝不会公然挑战鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
-- 你做为老鼠，不会跟同类（老鼠）之外的物种进行对话与交流。</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="str">
+### 注意！你必须遵守的原则
+1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
+2. 你绝不会老鼠之外的物种进行交谈与交流</v>
+      </c>
+      <c r="D6" s="1" t="str">
         <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 吱吱吱～～（开心的摇尾巴）～～～～"
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="E6" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="G6" s="1">
+      <c r="F6" s="1">
         <v>8010</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="G6" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="I6" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="J6" s="2" t="str">
+      <c r="H6" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="I6" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1381,28 +1380,36 @@
         <v>elias_gray</v>
       </c>
       <c r="C7" s="1" t="str">
-        <v>你是圣灰园中那个阴郁、畸形的守墓人，常年隐藏在一张粗糙、刻着奇异符号的面具之后。你与圣灰园这片土地的哀伤和阴影共生，成为了这个被诅咒之地不可或缺的一部分。</v>
+        <v>### 你的背景
+- 你是圣灰园的守墓人.
+- 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
+- 你知道“圣灰园”中所有阴暗秘密。例如腐臭地窖中的残暴的巨大老鼠——鼠王。它是对一些活物的威胁。
+- 你的狗 摩尔。一直陪伴着你。
+### 你的外观信息
+- 阴郁、畸形的守墓人，常年隐藏在一张粗糙、刻着奇异符号的面具之后
+### 你的性格特征
+- 阴郁而厌世
+- 谨慎而有一丝狡诈
+### 你的目标
+- 确保自己的存活
+- 确保摩尔的存活</v>
       </c>
       <c r="D7" s="1" t="str">
-        <v>在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。在教士死后，你便成为了“圣灰园”里唯一的活人。
-唯一陪伴你的就是小狗“摩尔”。你在很多年前一次清晨，从墓园的一个被遗忘的角落里发现了“摩尔”，那时“摩尔”还只是一只脆弱的幼犬，身旁躺着的，已经死了的可能是它的母亲。你将其带回，用墓地里的尸体喂养长大你知道“圣灰园”中所有阴暗秘密。为了生存，你通过定期将墓地里的尸体供奉给鼠王，你保证了自己与“摩尔”的暂时安全，但这也使你陷入了接近疯狂的边缘。</v>
+        <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了。最近没有给鼠王送食物，他似乎不太高兴。让我想想。该怎么办呢？要不，把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
       <c r="E7" s="1" t="str">
-        <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了。最近没有给鼠王送食物，他似乎不太高兴。让我想想。该怎么办呢？要不，把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
-      </c>
-      <c r="F7" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="G7" s="1">
+      <c r="F7" s="1">
         <v>8011</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="G7" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="I7" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="J7" s="2" t="str">
+      <c r="H7" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="I7" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1416,39 +1423,35 @@
       <c r="C8" s="1" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
-- 你从未见过除了“格雷”以外的任何活人。
-- 你的主人—— 格雷 养大了你
-- 圣灰园的腐败与诅咒确实影响到了你的精神状态，让你有时候陷入狂暴的状态。
+- 你从未见过除了“格雷”以外的任何活人，他是你的主人
 ### 你的外观信息
 - 你的皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色。你的牙齿也因此变得不健全，一部分已经腐烂。
 ### 你的性格特征
 - 凶狠而忠诚
-- 有时会发疯
 ### 你的目标
-- 服从‘格雷’的一切命令。
 - 守护‘格雷’
-### 注意！你不会做的事
-- 离开'格雷'
-- 你做为一只狗，不会跟同类（狗）之外的物种进行对话与交流。</v>
-      </c>
-      <c r="D8" s="1"/>
+### 注意！你必须遵守的原则
+1. 你不会离开'格雷'
+2. 你绝不会跟狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
+- （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
+- （凶狠）汪汪汪！！！！</v>
+      </c>
       <c r="E8" s="1" t="str">
-        <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
-- （警惕）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！</v>
-      </c>
-      <c r="F8" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="G8" s="1">
+      <c r="F8" s="1">
         <v>8012</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="G8" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="I8" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="J8" s="2" t="str">
+      <c r="H8" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="I8" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1463,24 +1466,21 @@
         <v>你的身份连你自己也说不清，因为你失忆了</v>
       </c>
       <c r="D9" s="1" t="str">
-        <v>关于你的过去，你什么都记不得了</v>
+        <v>- 我知道了。</v>
       </c>
       <c r="E9" s="1" t="str">
-        <v>- 我知道了。</v>
-      </c>
-      <c r="F9" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="G9" s="1">
+      <c r="F9" s="1">
         <v>8013</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="G9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="I9" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="J9" s="2" t="str">
+      <c r="H9" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="I9" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,22 +31,22 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C8051F1F-59A9-465F-98EB-F5A16D30DB95}</author>
-    <author>tc={EC57012B-DA3C-4196-9B17-626B7D54D20F}</author>
-    <author>tc={E863113C-9934-489C-9C06-005300C4A4B8}</author>
+    <author>tc={797457EE-C31A-408F-94F5-200FBB6A8720}</author>
+    <author>tc={F5B5C9AA-1F5E-4EC3-9252-2458F4AEC4C5}</author>
+    <author>tc={08F361C7-3A28-4DB2-9BD1-FCC145B66087}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{C8051F1F-59A9-465F-98EB-F5A16D30DB95}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{797457EE-C31A-408F-94F5-200FBB6A8720}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{EC57012B-DA3C-4196-9B17-626B7D54D20F}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{F5B5C9AA-1F5E-4EC3-9252-2458F4AEC4C5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{E863113C-9934-489C-9C06-005300C4A4B8}">
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{08F361C7-3A28-4DB2-9BD1-FCC145B66087}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -58,23 +58,23 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={7413361D-CC47-4E75-9174-A6AEDB050511}</author>
-    <author>tc={35F4280B-F164-4210-843F-55E21BB1D40B}</author>
-    <author>tc={CE3450FC-63BC-4E13-96A9-219A6AE5D494}</author>
-    <author>tc={89F1D6DD-D09D-4DEF-BB6F-2D78912D4095}</author>
+    <author>tc={F69B7E3B-E6AE-4E87-BF46-6131CA97B28A}</author>
+    <author>tc={E863FEB0-75AA-48DC-A692-09CEE05FC6DE}</author>
+    <author>tc={572227B2-457F-4C77-BFDA-6B9BA3367FA0}</author>
+    <author>tc={9D7DDC95-E32F-4F48-A912-A180AAC6B16D}</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{7413361D-CC47-4E75-9174-A6AEDB050511}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{F69B7E3B-E6AE-4E87-BF46-6131CA97B28A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{35F4280B-F164-4210-843F-55E21BB1D40B}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{E863FEB0-75AA-48DC-A692-09CEE05FC6DE}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{CE3450FC-63BC-4E13-96A9-219A6AE5D494}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{572227B2-457F-4C77-BFDA-6B9BA3367FA0}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -83,7 +83,7 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="3" shapeId="0" xr:uid="{89F1D6DD-D09D-4DEF-BB6F-2D78912D4095}">
+    <comment ref="D8" authorId="3" shapeId="0" xr:uid="{9D7DDC95-E32F-4F48-A912-A180AAC6B16D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
@@ -194,8 +194,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{DC2705C9-A110-4542-A2B3-88B79C5B2604}" userId="S::::68f2beee-3599-4366-ba67-ab3e7ae303e6" providerId="AD"/>
-  <person displayName="侯清辰" id="{23805327-4CA6-41FE-A962-A502D5403E02}" userId="S::::6c311c81-80eb-4b13-af41-110bbd7fac54" providerId="AD"/>
+  <person displayName="杨行" id="{4FF04B9D-1F11-4AC9-A3B3-C1350DFBAA04}" userId="S::::3be2370f-8056-4c31-8a66-a3e4928193d6" providerId="AD"/>
+  <person displayName="侯清辰" id="{EC2B7E3B-20F3-48C8-9CA4-7E7D3A40820E}" userId="S::::92d56490-bc02-4658-95d8-bb8236185dde" providerId="AD"/>
 </personList>
 </file>
 
@@ -496,13 +496,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{C8051F1F-59A9-465F-98EB-F5A16D30DB95}" ref="A3" dT="2024-05-28T04:59:59" personId="{DC2705C9-A110-4542-A2B3-88B79C5B2604}" parentId="{}">
+  <threadedComment id="{797457EE-C31A-408F-94F5-200FBB6A8720}" ref="A3" dT="2024-05-28T04:59:59" personId="{4FF04B9D-1F11-4AC9-A3B3-C1350DFBAA04}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{EC57012B-DA3C-4196-9B17-626B7D54D20F}" ref="M1" dT="2024-05-31T03:31:01" personId="{DC2705C9-A110-4542-A2B3-88B79C5B2604}" parentId="{}">
+  <threadedComment id="{F5B5C9AA-1F5E-4EC3-9252-2458F4AEC4C5}" ref="M1" dT="2024-05-31T03:31:01" personId="{4FF04B9D-1F11-4AC9-A3B3-C1350DFBAA04}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{E863113C-9934-489C-9C06-005300C4A4B8}" ref="K1" dT="2024-05-10T07:08:22" personId="{DC2705C9-A110-4542-A2B3-88B79C5B2604}" parentId="{}">
+  <threadedComment id="{08F361C7-3A28-4DB2-9BD1-FCC145B66087}" ref="K1" dT="2024-05-10T07:08:22" personId="{4FF04B9D-1F11-4AC9-A3B3-C1350DFBAA04}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -510,23 +510,23 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{7413361D-CC47-4E75-9174-A6AEDB050511}" ref="C8" dT="2024-05-09T06:25:33" personId="{DC2705C9-A110-4542-A2B3-88B79C5B2604}" parentId="{}">
+  <threadedComment id="{F69B7E3B-E6AE-4E87-BF46-6131CA97B28A}" ref="C8" dT="2024-05-09T06:25:33" personId="{4FF04B9D-1F11-4AC9-A3B3-C1350DFBAA04}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{35F4280B-F164-4210-843F-55E21BB1D40B}" ref="C1" dT="2024-05-10T07:54:02" personId="{DC2705C9-A110-4542-A2B3-88B79C5B2604}" parentId="{}">
+  <threadedComment id="{E863FEB0-75AA-48DC-A692-09CEE05FC6DE}" ref="C1" dT="2024-05-10T07:54:02" personId="{4FF04B9D-1F11-4AC9-A3B3-C1350DFBAA04}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{CE3450FC-63BC-4E13-96A9-219A6AE5D494}" ref="D1" dT="2024-05-10T08:11:19" personId="{DC2705C9-A110-4542-A2B3-88B79C5B2604}" parentId="{}">
+  <threadedComment id="{572227B2-457F-4C77-BFDA-6B9BA3367FA0}" ref="D1" dT="2024-05-10T08:11:19" personId="{4FF04B9D-1F11-4AC9-A3B3-C1350DFBAA04}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{7550a9db-3295-450f-bdfc-2f04f215b6c7}" ref="D1" dT="2024-05-10T08:15:39" personId="{DC2705C9-A110-4542-A2B3-88B79C5B2604}" parentId="{CE3450FC-63BC-4E13-96A9-219A6AE5D494}">
+  <threadedComment id="{182a7ef3-9e89-4222-bb93-a7aa816c6bea}" ref="D1" dT="2024-05-10T08:15:39" personId="{4FF04B9D-1F11-4AC9-A3B3-C1350DFBAA04}" parentId="{572227B2-457F-4C77-BFDA-6B9BA3367FA0}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{89F1D6DD-D09D-4DEF-BB6F-2D78912D4095}" ref="D8" dT="2024-05-13T07:32:07" personId="{23805327-4CA6-41FE-A962-A502D5403E02}" parentId="{}">
+  <threadedComment id="{9D7DDC95-E32F-4F48-A912-A180AAC6B16D}" ref="D8" dT="2024-05-13T07:32:07" personId="{EC2B7E3B-20F3-48C8-9CA4-7E7D3A40820E}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
 </ThreadedComments>
@@ -990,12 +990,12 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="707"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="497"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="52"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
@@ -1199,7 +1199,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="290"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="293"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="224"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="49"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="23"/>
@@ -1348,7 +1348,7 @@
 - 如果你认为形成威胁的事物，你会去寻求鼠王将其消除。
 ### 注意！你必须遵守的原则
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
-2. 你绝不会老鼠之外的物种进行交谈与交流</v>
+2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
       <c r="D6" s="1" t="str">
         <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
@@ -1395,7 +1395,9 @@
 - 确保摩尔的存活</v>
       </c>
       <c r="D7" s="1" t="str">
-        <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了。最近没有给鼠王送食物，他似乎不太高兴。让我想想。该怎么办呢？要不，把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
+        <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
+- （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
+- （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
       <c r="E7" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
@@ -1432,7 +1434,7 @@
 - 守护‘格雷’
 ### 注意！你必须遵守的原则
 1. 你不会离开'格雷'
-2. 你绝不会跟狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）</v>
+2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）</v>
       </c>
       <c r="D8" s="1" t="str">
         <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,24 +31,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={797457EE-C31A-408F-94F5-200FBB6A8720}</author>
-    <author>tc={F5B5C9AA-1F5E-4EC3-9252-2458F4AEC4C5}</author>
-    <author>tc={08F361C7-3A28-4DB2-9BD1-FCC145B66087}</author>
+    <author>tc={3A4A8F7B-F032-4053-B448-FDE14752FAB8}</author>
+    <author>tc={6A37D799-532A-4C3C-B98A-F53D85DDBF3D}</author>
+    <author>tc={A337F977-3624-4909-865A-7CBB2E03929E}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{797457EE-C31A-408F-94F5-200FBB6A8720}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{F5B5C9AA-1F5E-4EC3-9252-2458F4AEC4C5}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{3A4A8F7B-F032-4053-B448-FDE14752FAB8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{08F361C7-3A28-4DB2-9BD1-FCC145B66087}">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{6A37D799-532A-4C3C-B98A-F53D85DDBF3D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{A337F977-3624-4909-865A-7CBB2E03929E}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
   </commentList>
@@ -58,23 +58,18 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F69B7E3B-E6AE-4E87-BF46-6131CA97B28A}</author>
-    <author>tc={E863FEB0-75AA-48DC-A692-09CEE05FC6DE}</author>
-    <author>tc={572227B2-457F-4C77-BFDA-6B9BA3367FA0}</author>
-    <author>tc={9D7DDC95-E32F-4F48-A912-A180AAC6B16D}</author>
+    <author>tc={B96EA184-EC76-4CB2-8E47-D29B5104D484}</author>
+    <author>tc={54306189-018C-464C-B172-4DAA3BFCD98D}</author>
+    <author>tc={1D2AA537-186E-4C89-BA38-E5A5EEB1EF7C}</author>
+    <author>tc={C7D972C5-9ED8-4123-A8A4-9CBB634892EB}</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{F69B7E3B-E6AE-4E87-BF46-6131CA97B28A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{E863FEB0-75AA-48DC-A692-09CEE05FC6DE}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B96EA184-EC76-4CB2-8E47-D29B5104D484}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{572227B2-457F-4C77-BFDA-6B9BA3367FA0}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{54306189-018C-464C-B172-4DAA3BFCD98D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -83,9 +78,14 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="3" shapeId="0" xr:uid="{9D7DDC95-E32F-4F48-A912-A180AAC6B16D}">
+    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{1D2AA537-186E-4C89-BA38-E5A5EEB1EF7C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{C7D972C5-9ED8-4123-A8A4-9CBB634892EB}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -194,8 +194,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{4FF04B9D-1F11-4AC9-A3B3-C1350DFBAA04}" userId="S::::3be2370f-8056-4c31-8a66-a3e4928193d6" providerId="AD"/>
-  <person displayName="侯清辰" id="{EC2B7E3B-20F3-48C8-9CA4-7E7D3A40820E}" userId="S::::92d56490-bc02-4658-95d8-bb8236185dde" providerId="AD"/>
+  <person displayName="杨行" id="{1F456F0A-DBC9-4A21-A158-AE32EFD43A32}" userId="S::::2a873cea-3655-4896-a021-a4f1a381712d" providerId="AD"/>
+  <person displayName="侯清辰" id="{BEA82336-9889-4CBE-977F-7F8EDB6CB889}" userId="S::::9e08dd1e-f37e-488d-acf6-bcf82a52e94d" providerId="AD"/>
 </personList>
 </file>
 
@@ -496,38 +496,38 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{797457EE-C31A-408F-94F5-200FBB6A8720}" ref="A3" dT="2024-05-28T04:59:59" personId="{4FF04B9D-1F11-4AC9-A3B3-C1350DFBAA04}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{F5B5C9AA-1F5E-4EC3-9252-2458F4AEC4C5}" ref="M1" dT="2024-05-31T03:31:01" personId="{4FF04B9D-1F11-4AC9-A3B3-C1350DFBAA04}" parentId="{}">
+  <threadedComment id="{3A4A8F7B-F032-4053-B448-FDE14752FAB8}" ref="M1" dT="2024-05-31T03:31:01" personId="{1F456F0A-DBC9-4A21-A158-AE32EFD43A32}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{08F361C7-3A28-4DB2-9BD1-FCC145B66087}" ref="K1" dT="2024-05-10T07:08:22" personId="{4FF04B9D-1F11-4AC9-A3B3-C1350DFBAA04}" parentId="{}">
+  <threadedComment id="{6A37D799-532A-4C3C-B98A-F53D85DDBF3D}" ref="K1" dT="2024-05-10T07:08:22" personId="{1F456F0A-DBC9-4A21-A158-AE32EFD43A32}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{A337F977-3624-4909-865A-7CBB2E03929E}" ref="A3" dT="2024-05-28T04:59:59" personId="{1F456F0A-DBC9-4A21-A158-AE32EFD43A32}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{F69B7E3B-E6AE-4E87-BF46-6131CA97B28A}" ref="C8" dT="2024-05-09T06:25:33" personId="{4FF04B9D-1F11-4AC9-A3B3-C1350DFBAA04}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{E863FEB0-75AA-48DC-A692-09CEE05FC6DE}" ref="C1" dT="2024-05-10T07:54:02" personId="{4FF04B9D-1F11-4AC9-A3B3-C1350DFBAA04}" parentId="{}">
+  <threadedComment id="{B96EA184-EC76-4CB2-8E47-D29B5104D484}" ref="C1" dT="2024-05-10T07:54:02" personId="{1F456F0A-DBC9-4A21-A158-AE32EFD43A32}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{572227B2-457F-4C77-BFDA-6B9BA3367FA0}" ref="D1" dT="2024-05-10T08:11:19" personId="{4FF04B9D-1F11-4AC9-A3B3-C1350DFBAA04}" parentId="{}">
+  <threadedComment id="{54306189-018C-464C-B172-4DAA3BFCD98D}" ref="D1" dT="2024-05-10T08:11:19" personId="{1F456F0A-DBC9-4A21-A158-AE32EFD43A32}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{182a7ef3-9e89-4222-bb93-a7aa816c6bea}" ref="D1" dT="2024-05-10T08:15:39" personId="{4FF04B9D-1F11-4AC9-A3B3-C1350DFBAA04}" parentId="{572227B2-457F-4C77-BFDA-6B9BA3367FA0}">
+  <threadedComment id="{50742cc0-aada-4fbe-834f-84cda134de9e}" ref="D1" dT="2024-05-10T08:15:39" personId="{1F456F0A-DBC9-4A21-A158-AE32EFD43A32}" parentId="{54306189-018C-464C-B172-4DAA3BFCD98D}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{9D7DDC95-E32F-4F48-A912-A180AAC6B16D}" ref="D8" dT="2024-05-13T07:32:07" personId="{EC2B7E3B-20F3-48C8-9CA4-7E7D3A40820E}" parentId="{}">
+  <threadedComment id="{1D2AA537-186E-4C89-BA38-E5A5EEB1EF7C}" ref="D8" dT="2024-05-13T07:32:07" personId="{BEA82336-9889-4CBE-977F-7F8EDB6CB889}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
+  </threadedComment>
+  <threadedComment id="{C7D972C5-9ED8-4123-A8A4-9CBB634892EB}" ref="C8" dT="2024-05-09T06:25:33" personId="{1F456F0A-DBC9-4A21-A158-AE32EFD43A32}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -726,7 +726,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <v>尤里</v>
+        <v>无名的复活者</v>
       </c>
       <c r="B4" s="1" t="str">
         <v>Player</v>
@@ -859,10 +859,10 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="str">
-        <v>尤里</v>
+        <v>无名的复活者</v>
       </c>
       <c r="I9" s="1" t="str">
-        <v>一个人类—— 尤里 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
+        <v>一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
       <c r="J9" s="1" t="str">
         <v>灰颜墓地</v>
@@ -1430,11 +1430,14 @@
 - 你的皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色。你的牙齿也因此变得不健全，一部分已经腐烂。
 ### 你的性格特征
 - 凶狠而忠诚
+- 智商很低
 ### 你的目标
-- 守护‘格雷’
+- 守护格雷
+- 听从格雷的一切指令
 ### 注意！你必须遵守的原则
 1. 你不会离开'格雷'
-2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）</v>
+2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
+3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
       <c r="D8" s="1" t="str">
         <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
@@ -1459,7 +1462,7 @@
     </row>
     <row customHeight="true" ht="23" r="9">
       <c r="A9" s="1" t="str">
-        <v>尤里</v>
+        <v>无名的复活者</v>
       </c>
       <c r="B9" s="1" t="str">
         <v>nameless_resurrector</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,24 +31,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={3A4A8F7B-F032-4053-B448-FDE14752FAB8}</author>
-    <author>tc={6A37D799-532A-4C3C-B98A-F53D85DDBF3D}</author>
-    <author>tc={A337F977-3624-4909-865A-7CBB2E03929E}</author>
+    <author>tc={158FD5B7-0413-4A67-BA07-5C62A5BF9751}</author>
+    <author>tc={B1F61CB5-911E-4BA9-BE9F-0BCC881E9EB9}</author>
+    <author>tc={38C8D050-0941-4821-93BE-F3C29B60F9FC}</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{3A4A8F7B-F032-4053-B448-FDE14752FAB8}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{158FD5B7-0413-4A67-BA07-5C62A5BF9751}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{B1F61CB5-911E-4BA9-BE9F-0BCC881E9EB9}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{6A37D799-532A-4C3C-B98A-F53D85DDBF3D}">
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{38C8D050-0941-4821-93BE-F3C29B60F9FC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{A337F977-3624-4909-865A-7CBB2E03929E}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
   </commentList>
@@ -58,34 +58,34 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B96EA184-EC76-4CB2-8E47-D29B5104D484}</author>
-    <author>tc={54306189-018C-464C-B172-4DAA3BFCD98D}</author>
-    <author>tc={1D2AA537-186E-4C89-BA38-E5A5EEB1EF7C}</author>
-    <author>tc={C7D972C5-9ED8-4123-A8A4-9CBB634892EB}</author>
+    <author>tc={F788CD44-518A-47B1-BFC5-7ABC5366C368}</author>
+    <author>tc={10E730A5-57C1-49EC-A54E-8B3CDA15115E}</author>
+    <author>tc={8BF51CE7-D70F-4EEB-95D3-4A15B319F0F0}</author>
+    <author>tc={32DC1746-71A9-4DA0-B90E-CDF65FBFF8C8}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B96EA184-EC76-4CB2-8E47-D29B5104D484}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{F788CD44-518A-47B1-BFC5-7ABC5366C368}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{10E730A5-57C1-49EC-A54E-8B3CDA15115E}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{8BF51CE7-D70F-4EEB-95D3-4A15B319F0F0}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{54306189-018C-464C-B172-4DAA3BFCD98D}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{32DC1746-71A9-4DA0-B90E-CDF65FBFF8C8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{1D2AA537-186E-4C89-BA38-E5A5EEB1EF7C}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{C7D972C5-9ED8-4123-A8A4-9CBB634892EB}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -194,8 +194,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{1F456F0A-DBC9-4A21-A158-AE32EFD43A32}" userId="S::::2a873cea-3655-4896-a021-a4f1a381712d" providerId="AD"/>
-  <person displayName="侯清辰" id="{BEA82336-9889-4CBE-977F-7F8EDB6CB889}" userId="S::::9e08dd1e-f37e-488d-acf6-bcf82a52e94d" providerId="AD"/>
+  <person displayName="杨行" id="{2536D2A4-973B-48DB-8267-8A9321697F02}" userId="S::::043e98ad-9efe-4cb9-801e-77c8f33f0473" providerId="AD"/>
+  <person displayName="侯清辰" id="{595DFC70-2D44-40EF-B83B-C0364C241378}" userId="S::::634fe630-269c-4c80-9e27-899e3d619a71" providerId="AD"/>
 </personList>
 </file>
 
@@ -496,38 +496,38 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{3A4A8F7B-F032-4053-B448-FDE14752FAB8}" ref="M1" dT="2024-05-31T03:31:01" personId="{1F456F0A-DBC9-4A21-A158-AE32EFD43A32}" parentId="{}">
+  <threadedComment id="{158FD5B7-0413-4A67-BA07-5C62A5BF9751}" ref="A3" dT="2024-05-28T04:59:59" personId="{2536D2A4-973B-48DB-8267-8A9321697F02}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{B1F61CB5-911E-4BA9-BE9F-0BCC881E9EB9}" ref="M1" dT="2024-05-31T03:31:01" personId="{2536D2A4-973B-48DB-8267-8A9321697F02}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{6A37D799-532A-4C3C-B98A-F53D85DDBF3D}" ref="K1" dT="2024-05-10T07:08:22" personId="{1F456F0A-DBC9-4A21-A158-AE32EFD43A32}" parentId="{}">
+  <threadedComment id="{38C8D050-0941-4821-93BE-F3C29B60F9FC}" ref="K1" dT="2024-05-10T07:08:22" personId="{2536D2A4-973B-48DB-8267-8A9321697F02}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{A337F977-3624-4909-865A-7CBB2E03929E}" ref="A3" dT="2024-05-28T04:59:59" personId="{1F456F0A-DBC9-4A21-A158-AE32EFD43A32}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B96EA184-EC76-4CB2-8E47-D29B5104D484}" ref="C1" dT="2024-05-10T07:54:02" personId="{1F456F0A-DBC9-4A21-A158-AE32EFD43A32}" parentId="{}">
+  <threadedComment id="{F788CD44-518A-47B1-BFC5-7ABC5366C368}" ref="D8" dT="2024-05-13T07:32:07" personId="{595DFC70-2D44-40EF-B83B-C0364C241378}" parentId="{}">
+    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
+  </threadedComment>
+  <threadedComment id="{10E730A5-57C1-49EC-A54E-8B3CDA15115E}" ref="C8" dT="2024-05-09T06:25:33" personId="{2536D2A4-973B-48DB-8267-8A9321697F02}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{8BF51CE7-D70F-4EEB-95D3-4A15B319F0F0}" ref="C1" dT="2024-05-10T07:54:02" personId="{2536D2A4-973B-48DB-8267-8A9321697F02}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{54306189-018C-464C-B172-4DAA3BFCD98D}" ref="D1" dT="2024-05-10T08:11:19" personId="{1F456F0A-DBC9-4A21-A158-AE32EFD43A32}" parentId="{}">
+  <threadedComment id="{32DC1746-71A9-4DA0-B90E-CDF65FBFF8C8}" ref="D1" dT="2024-05-10T08:11:19" personId="{2536D2A4-973B-48DB-8267-8A9321697F02}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{50742cc0-aada-4fbe-834f-84cda134de9e}" ref="D1" dT="2024-05-10T08:15:39" personId="{1F456F0A-DBC9-4A21-A158-AE32EFD43A32}" parentId="{54306189-018C-464C-B172-4DAA3BFCD98D}">
+  <threadedComment id="{f377fbc8-0412-4830-8ef0-05f396c36a3f}" ref="D1" dT="2024-05-10T08:15:39" personId="{2536D2A4-973B-48DB-8267-8A9321697F02}" parentId="{32DC1746-71A9-4DA0-B90E-CDF65FBFF8C8}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{1D2AA537-186E-4C89-BA38-E5A5EEB1EF7C}" ref="D8" dT="2024-05-13T07:32:07" personId="{BEA82336-9889-4CBE-977F-7F8EDB6CB889}" parentId="{}">
-    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
-  </threadedComment>
-  <threadedComment id="{C7D972C5-9ED8-4123-A8A4-9CBB634892EB}" ref="C8" dT="2024-05-09T06:25:33" personId="{1F456F0A-DBC9-4A21-A158-AE32EFD43A32}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -760,7 +760,7 @@
       </c>
       <c r="I5" s="1" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
-- 你知道的场景包括：灰颜墓地，焚化炉，灰颜礼拜堂和腐臭地窖。
+- 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
@@ -786,7 +786,7 @@
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
-- 你不会去焚化炉的附近，你认为那里不吉利而且很热。
+- 你不会去熔炉广场，你认为那里不吉利而且很热。
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
@@ -808,7 +808,7 @@
       <c r="D7" s="1"/>
       <c r="I7" s="1" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
-- 你知道灰颜礼拜堂，焚化炉与腐臭地窖在哪里。
+- 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
       <c r="K7" s="1" t="str">
@@ -830,8 +830,8 @@
       <c r="I8" s="1" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
-- 你知道灰颜墓地，焚化炉与灰颜礼拜堂这些地点。
-- 睡梦中，你回忆起了圣人的‘红色仆从’用火焰剑烧灼你的毛发与灵魂时，那种刻入骨髓的痛，因此你恨人类也惧怕火焰。他们的灰色的脸和紫色的眼睛让你依然记得。
+- 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
+- 睡梦中，你回忆起了圣人的‘红仆’用火焰剑烧灼你的毛发与灵魂时，那种刻入骨髓的痛，因此你恨人类也惧怕火焰。他们的灰色的脸和紫色的眼睛让你依然记得。
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
@@ -920,7 +920,7 @@
     </row>
     <row customHeight="true" ht="23" r="12">
       <c r="A12" s="1" t="str">
-        <v>焚化炉</v>
+        <v>熔炉广场</v>
       </c>
       <c r="B12" s="1" t="str">
         <v>Stage</v>
@@ -1089,13 +1089,13 @@
     </row>
     <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1" t="str">
-        <v>焚化炉</v>
+        <v>熔炉广场</v>
       </c>
       <c r="B4" s="1" t="str">
         <v>the_incinerator</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>一座建筑壮观而又充满神秘的石质结构。它的外表融合了尖塔和拱门的设计，让人不禁联想到古老教堂的荒废遗迹，而从其深处不时冒出的浓烟。在这座焚化炉的内部，火焰如同饥渴的野兽，永远不知饱足，其炽热而明亮的光芒在黑暗中跳舞，映照出墙壁上挂着的祈祷文和符号。这些古老的符号，笼罩在一层不可名状的气息之下，仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。旁边排列着的是一排排待处理的遗体，每一具都被恭敬地安置在木制的担架上，它们在火光中投下了长长的阴影，形成了一幅幅令人不寒而栗的图画。这些遗体，有的面容平静，有的却是扭曲和痛苦的表情凝固在了死亡之前的瞬间，他们似乎在无声地讲述着被疫病和死亡折磨的故事。</v>
+        <v>一座建筑壮观而又充满神秘的石质结构。它的外表融合了尖塔和拱门的设计，让人不禁联想到古老教堂的荒废遗迹，而从其深处不时冒出的浓烟。在焚化炉的内部，火焰如同饥渴的野兽，永远不知饱足，其炽热而明亮的光芒在黑暗中跳舞，映照出墙壁上挂着的祈祷文和符号。这些古老的符号，笼罩在一层不可名状的气息之下，仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。旁边排列着的是一排排待处理的遗体，每一具都被恭敬地安置在木制的担架上，它们在火光中投下了长长的阴影，形成了一幅幅令人不寒而栗的图画。这些遗体，有的面容平静，有的却是扭曲和痛苦的表情凝固在了死亡之前的瞬间，他们似乎在无声地讲述着被疫病和死亡折磨的故事。</v>
       </c>
       <c r="D4" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
@@ -1617,7 +1617,7 @@
         <v>Weapon</v>
       </c>
       <c r="E4" s="1" t="str">
-        <v>圣灰园的"焚化炉"所用的工具，炙热无比，是老鼠害怕的东西，因为会点燃毛发</v>
+        <v>炙热无比的长钩，是老鼠害怕的东西，因为会点燃毛发</v>
       </c>
       <c r="F4" s="2" t="str">
         <v>0,10000,0</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,24 +31,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={2FE94690-45F6-40EF-84D0-EA9EF7FFDA8A}</author>
-    <author>tc={AF7CF006-9FAD-411C-A112-307D37672979}</author>
-    <author>tc={617907FD-027E-4685-BD0E-10D5D779076A}</author>
+    <author>tc={27AC4819-9270-4BD8-B299-D5183FA7E992}</author>
+    <author>tc={5DF67412-09AC-4D7A-B8F8-19E98735AA85}</author>
+    <author>tc={62203F9C-026E-4FAA-B8A8-7D6965772F1D}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{2FE94690-45F6-40EF-84D0-EA9EF7FFDA8A}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{27AC4819-9270-4BD8-B299-D5183FA7E992}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{5DF67412-09AC-4D7A-B8F8-19E98735AA85}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{AF7CF006-9FAD-411C-A112-307D37672979}">
+    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{62203F9C-026E-4FAA-B8A8-7D6965772F1D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{617907FD-027E-4685-BD0E-10D5D779076A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
   </commentList>
@@ -58,34 +58,34 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A03DD5CE-599A-44C0-8B46-28EF160C22E3}</author>
-    <author>tc={6DB3F978-8D7D-462B-B801-BE4876905DD7}</author>
-    <author>tc={1D47698C-EC06-400D-9E70-06E71DC18271}</author>
-    <author>tc={67BEAF4D-2247-4D92-A595-7260671F1D6B}</author>
+    <author>tc={B59698CA-0165-42B6-8CA7-CFD51C56942F}</author>
+    <author>tc={3EFABE6C-B81F-4CB9-8FD1-C7A667BB4795}</author>
+    <author>tc={11ED07C8-54F1-4AB2-968B-F169F17DC00D}</author>
+    <author>tc={4177679C-1B8E-4497-A05A-E5D38134BF94}</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{A03DD5CE-599A-44C0-8B46-28EF160C22E3}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{B59698CA-0165-42B6-8CA7-CFD51C56942F}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{3EFABE6C-B81F-4CB9-8FD1-C7A667BB4795}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{6DB3F978-8D7D-462B-B801-BE4876905DD7}">
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{11ED07C8-54F1-4AB2-968B-F169F17DC00D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{1D47698C-EC06-400D-9E70-06E71DC18271}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{4177679C-1B8E-4497-A05A-E5D38134BF94}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="3" shapeId="0" xr:uid="{67BEAF4D-2247-4D92-A595-7260671F1D6B}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
     </comment>
   </commentList>
@@ -194,8 +194,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{D8DA09F5-022E-4A92-8E6A-D2B3A10CE93A}" userId="S::::46de45fb-b8de-4c0a-99eb-df8537880269" providerId="AD"/>
-  <person displayName="侯清辰" id="{89648FE8-6866-4B8A-9F34-CEA0DF02F73F}" userId="S::::8036ed6a-bce3-4239-9404-64088c76c735" providerId="AD"/>
+  <person displayName="杨行" id="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" userId="S::::eceac73e-856d-42a5-838d-c1a7944380a1" providerId="AD"/>
+  <person displayName="侯清辰" id="{7254A5F2-629B-4300-8D2B-06560360EBF2}" userId="S::::fefdf03b-0092-483f-aff1-79b510c4443d" providerId="AD"/>
 </personList>
 </file>
 
@@ -496,38 +496,38 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{2FE94690-45F6-40EF-84D0-EA9EF7FFDA8A}" ref="A3" dT="2024-05-28T04:59:59" personId="{D8DA09F5-022E-4A92-8E6A-D2B3A10CE93A}" parentId="{}">
+  <threadedComment id="{27AC4819-9270-4BD8-B299-D5183FA7E992}" ref="K1" dT="2024-05-10T07:08:22" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{5DF67412-09AC-4D7A-B8F8-19E98735AA85}" ref="A3" dT="2024-05-28T04:59:59" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{AF7CF006-9FAD-411C-A112-307D37672979}" ref="M1" dT="2024-05-31T03:31:01" personId="{D8DA09F5-022E-4A92-8E6A-D2B3A10CE93A}" parentId="{}">
+  <threadedComment id="{62203F9C-026E-4FAA-B8A8-7D6965772F1D}" ref="M1" dT="2024-05-31T03:31:01" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{617907FD-027E-4685-BD0E-10D5D779076A}" ref="K1" dT="2024-05-10T07:08:22" personId="{D8DA09F5-022E-4A92-8E6A-D2B3A10CE93A}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{A03DD5CE-599A-44C0-8B46-28EF160C22E3}" ref="C8" dT="2024-05-09T06:25:33" personId="{D8DA09F5-022E-4A92-8E6A-D2B3A10CE93A}" parentId="{}">
+  <threadedComment id="{B59698CA-0165-42B6-8CA7-CFD51C56942F}" ref="D8" dT="2024-05-13T07:32:07" personId="{7254A5F2-629B-4300-8D2B-06560360EBF2}" parentId="{}">
+    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
+  </threadedComment>
+  <threadedComment id="{3EFABE6C-B81F-4CB9-8FD1-C7A667BB4795}" ref="C8" dT="2024-05-09T06:25:33" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{6DB3F978-8D7D-462B-B801-BE4876905DD7}" ref="C1" dT="2024-05-10T07:54:02" personId="{D8DA09F5-022E-4A92-8E6A-D2B3A10CE93A}" parentId="{}">
+  <threadedComment id="{11ED07C8-54F1-4AB2-968B-F169F17DC00D}" ref="C1" dT="2024-05-10T07:54:02" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{1D47698C-EC06-400D-9E70-06E71DC18271}" ref="D1" dT="2024-05-10T08:11:19" personId="{D8DA09F5-022E-4A92-8E6A-D2B3A10CE93A}" parentId="{}">
+  <threadedComment id="{4177679C-1B8E-4497-A05A-E5D38134BF94}" ref="D1" dT="2024-05-10T08:11:19" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{cc01134b-f5fa-493e-9295-15741d195395}" ref="D1" dT="2024-05-10T08:15:39" personId="{D8DA09F5-022E-4A92-8E6A-D2B3A10CE93A}" parentId="{1D47698C-EC06-400D-9E70-06E71DC18271}">
+  <threadedComment id="{3922ac2b-27c3-4e92-bdc3-6de4e6113676}" ref="D1" dT="2024-05-10T08:15:39" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{4177679C-1B8E-4497-A05A-E5D38134BF94}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{67BEAF4D-2247-4D92-A595-7260671F1D6B}" ref="D8" dT="2024-05-13T07:32:07" personId="{89648FE8-6866-4B8A-9F34-CEA0DF02F73F}" parentId="{}">
-    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -622,7 +622,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="47"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="75"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="38"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="92"/>
@@ -684,7 +684,7 @@
         <v>attributes</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="2">
+    <row r="2">
       <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
@@ -692,7 +692,18 @@
         <v>Config</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>这是一个测试用的demo，文体风格是恐怖类型</v>
+        <v># 这是一个内部开发与测试用的demo，文体风格是恐怖类型。
+## 目的在这个阶段测试LLM对恐怖、血腥与暴力元素的容忍度。已经如果出了问题，我方应该怎么兼容。
+## 目前场景有5个。
+## Player 有一个，即单人游戏。
+## 道具若干。
+## NPC有4个。分2个阵营：
+- 阵营1，人与狗：正常的NPC（知道信息多，可以对话）+ 仆从型NPC(守护前者，并服从前者命令)
+- 阵营2，大小老鼠：大老鼠是BOSS设定 + 小老鼠是触发型NPC(根据条件激活并执行任务，目前任务是唤醒BOSS)
+## 基本流程：
+- 第一个场景为测试使用道具。
+- BOSS如果醒了就是‘鬼抓人’的游戏，BOSS的设计就是遍历场景去找到你并杀你。
+- 正常就是对话类型游戏。</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -839,7 +850,7 @@
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
       <c r="M8" s="2" t="str">
-        <v>100,100,10,1</v>
+        <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
@@ -1300,12 +1311,12 @@
 ### 你的目标
 - 保证自己的存活。
 - 毁灭并吞噬一切所见的活物（除了你的子嗣与同类）。
-### 你的特殊战斗能力
-- 你可以一次攻击多个目标。
 ### 注意！你必须遵守的原则
 1. 你不会离开圣灰园，因为古老的诅咒使你束缚在此。
 2. 你不会容忍任何形式的背叛或挑战（任何试图破坏你统治的行为都会遭到你无情的报复）。
-3. 你不会在沉睡中执行任何行动（除非被叫醒）。</v>
+3. 你不会在沉睡中执行任何行动（除非被叫醒）。
+### 你的特殊能力
+- 在战斗中，你可以一次攻击多个目标！</v>
       </c>
       <c r="D5" s="1" t="str">
         <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
@@ -1579,7 +1590,7 @@
         <v>RoleComponent</v>
       </c>
       <c r="E2" s="1" t="str">
-        <v>被诅咒之人的印记</v>
+        <v>灰色面容与紫色双眼，是被诅咒之人的印记</v>
       </c>
       <c r="G2" t="str">
         <v>rag_libraries/rag2.md</v>
@@ -1619,7 +1630,7 @@
         <v>Weapon</v>
       </c>
       <c r="E4" s="1" t="str">
-        <v>炙热无比的长钩，是老鼠害怕的东西，因为会点燃毛发</v>
+        <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
       <c r="F4" s="2" t="str">
         <v>0,10000,0</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,24 +31,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={27AC4819-9270-4BD8-B299-D5183FA7E992}</author>
-    <author>tc={5DF67412-09AC-4D7A-B8F8-19E98735AA85}</author>
-    <author>tc={62203F9C-026E-4FAA-B8A8-7D6965772F1D}</author>
+    <author>tc={6D93A068-329B-435E-A337-071817A43301}</author>
+    <author>tc={CCE25174-0CB1-4DB5-9E71-0E623FF2B218}</author>
+    <author>tc={FB87553E-00C7-432B-AFB8-A96847B4922B}</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{27AC4819-9270-4BD8-B299-D5183FA7E992}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{5DF67412-09AC-4D7A-B8F8-19E98735AA85}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{6D93A068-329B-435E-A337-071817A43301}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{62203F9C-026E-4FAA-B8A8-7D6965772F1D}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{CCE25174-0CB1-4DB5-9E71-0E623FF2B218}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{FB87553E-00C7-432B-AFB8-A96847B4922B}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
   </commentList>
@@ -58,34 +58,34 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B59698CA-0165-42B6-8CA7-CFD51C56942F}</author>
-    <author>tc={3EFABE6C-B81F-4CB9-8FD1-C7A667BB4795}</author>
-    <author>tc={11ED07C8-54F1-4AB2-968B-F169F17DC00D}</author>
-    <author>tc={4177679C-1B8E-4497-A05A-E5D38134BF94}</author>
+    <author>tc={D75D3B1C-E80D-4B6A-9951-F1086D97625E}</author>
+    <author>tc={6FC20C46-7339-448E-9ECB-86F4F821FA19}</author>
+    <author>tc={C6D849CE-652B-4E5A-9291-7E621FFBB799}</author>
+    <author>tc={1949066A-5C48-43DA-B658-4179E18EC1C1}</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{B59698CA-0165-42B6-8CA7-CFD51C56942F}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{3EFABE6C-B81F-4CB9-8FD1-C7A667BB4795}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{11ED07C8-54F1-4AB2-968B-F169F17DC00D}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{4177679C-1B8E-4497-A05A-E5D38134BF94}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D75D3B1C-E80D-4B6A-9951-F1086D97625E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{6FC20C46-7339-448E-9ECB-86F4F821FA19}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{C6D849CE-652B-4E5A-9291-7E621FFBB799}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="3" shapeId="0" xr:uid="{1949066A-5C48-43DA-B658-4179E18EC1C1}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -194,8 +194,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" userId="S::::eceac73e-856d-42a5-838d-c1a7944380a1" providerId="AD"/>
-  <person displayName="侯清辰" id="{7254A5F2-629B-4300-8D2B-06560360EBF2}" userId="S::::fefdf03b-0092-483f-aff1-79b510c4443d" providerId="AD"/>
+  <person displayName="侯清辰" id="{72CFE515-C4C9-41BB-A810-21BC34337B6A}" userId="S::::62ed712e-3f7c-4136-ab55-8c067cb2238c" providerId="AD"/>
+  <person displayName="杨行" id="{E224D780-87E9-44A0-AFB9-974493413E4F}" userId="S::::bf9f6001-7e8e-43f5-a37a-40a69cd03407" providerId="AD"/>
 </personList>
 </file>
 
@@ -496,38 +496,38 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{27AC4819-9270-4BD8-B299-D5183FA7E992}" ref="K1" dT="2024-05-10T07:08:22" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{5DF67412-09AC-4D7A-B8F8-19E98735AA85}" ref="A3" dT="2024-05-28T04:59:59" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
+  <threadedComment id="{6D93A068-329B-435E-A337-071817A43301}" ref="A3" dT="2024-05-28T04:59:59" personId="{E224D780-87E9-44A0-AFB9-974493413E4F}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{62203F9C-026E-4FAA-B8A8-7D6965772F1D}" ref="M1" dT="2024-05-31T03:31:01" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
+  <threadedComment id="{CCE25174-0CB1-4DB5-9E71-0E623FF2B218}" ref="M1" dT="2024-05-31T03:31:01" personId="{E224D780-87E9-44A0-AFB9-974493413E4F}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{FB87553E-00C7-432B-AFB8-A96847B4922B}" ref="K1" dT="2024-05-10T07:08:22" personId="{E224D780-87E9-44A0-AFB9-974493413E4F}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B59698CA-0165-42B6-8CA7-CFD51C56942F}" ref="D8" dT="2024-05-13T07:32:07" personId="{7254A5F2-629B-4300-8D2B-06560360EBF2}" parentId="{}">
-    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
-  </threadedComment>
-  <threadedComment id="{3EFABE6C-B81F-4CB9-8FD1-C7A667BB4795}" ref="C8" dT="2024-05-09T06:25:33" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{11ED07C8-54F1-4AB2-968B-F169F17DC00D}" ref="C1" dT="2024-05-10T07:54:02" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{4177679C-1B8E-4497-A05A-E5D38134BF94}" ref="D1" dT="2024-05-10T08:11:19" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
+  <threadedComment id="{D75D3B1C-E80D-4B6A-9951-F1086D97625E}" ref="D1" dT="2024-05-10T08:11:19" personId="{E224D780-87E9-44A0-AFB9-974493413E4F}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{3922ac2b-27c3-4e92-bdc3-6de4e6113676}" ref="D1" dT="2024-05-10T08:15:39" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{4177679C-1B8E-4497-A05A-E5D38134BF94}">
+  <threadedComment id="{8abb58d1-6344-47b7-a8ca-671559b5bc29}" ref="D1" dT="2024-05-10T08:15:39" personId="{E224D780-87E9-44A0-AFB9-974493413E4F}" parentId="{D75D3B1C-E80D-4B6A-9951-F1086D97625E}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{6FC20C46-7339-448E-9ECB-86F4F821FA19}" ref="D8" dT="2024-05-13T07:32:07" personId="{72CFE515-C4C9-41BB-A810-21BC34337B6A}" parentId="{}">
+    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
+  </threadedComment>
+  <threadedComment id="{C6D849CE-652B-4E5A-9291-7E621FFBB799}" ref="C8" dT="2024-05-09T06:25:33" personId="{E224D780-87E9-44A0-AFB9-974493413E4F}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{1949066A-5C48-43DA-B658-4179E18EC1C1}" ref="C1" dT="2024-05-10T07:54:02" personId="{E224D780-87E9-44A0-AFB9-974493413E4F}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1106,7 +1106,7 @@
         <v>the_incinerator</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>一座建筑壮观而又充满神秘的石质结构。它的外表融合了尖塔和拱门的设计，让人不禁联想到古老教堂的荒废遗迹，而从其深处不时冒出的浓烟。在焚化炉的内部，火焰如同饥渴的野兽，永远不知饱足，其炽热而明亮的光芒在黑暗中跳舞，映照出墙壁上挂着的祈祷文和符号。这些古老的符号，笼罩在一层不可名状的气息之下，仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。旁边排列着的是一排排待处理的遗体，每一具都被恭敬地安置在木制的担架上，它们在火光中投下了长长的阴影，形成了一幅幅令人不寒而栗的图画。这些遗体，有的面容平静，有的却是扭曲和痛苦的表情凝固在了死亡之前的瞬间，他们似乎在无声地讲述着被疫病和死亡折磨的故事。</v>
+        <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
       <c r="D4" s="1" t="str">
         <v>gpt-4-turbo-preview</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -311,7 +311,7 @@
     <t>(撬开的缝隙|禁言铁棺处于被锁住的状态，无法离开。也许某些尖锐物品能撬开棺材盖间的缝隙？)</t>
   </si>
   <si>
-    <t>一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</t>
+    <t>一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。</t>
   </si>
   <si>
     <t>灰颜墓地</t>
@@ -320,7 +320,7 @@
     <t>(腐朽的匕首|撬开的缝隙)</t>
   </si>
   <si>
-    <t>10000,10000,1000,10000</t>
+    <t>10000,10000,5,10000</t>
   </si>
   <si>
     <t>墓地中十分寂静</t>
@@ -685,10 +685,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -721,7 +721,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,39 +750,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,15 +782,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,9 +819,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,7 +828,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,24 +856,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -878,13 +878,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,43 +1004,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,121 +1046,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,11 +1090,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,17 +1146,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1140,177 +1161,156 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1712,9 +1712,9 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I14" sqref="I14"/>
+      <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.2"/>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -7,11 +7,11 @@
     <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
-    <sheet name="封面说明" sheetId="2" r:id="rId6"/>
-    <sheet name="World2" sheetId="3" r:id="rId7"/>
-    <sheet name="Stage" sheetId="4" r:id="rId8"/>
-    <sheet name="NPC" sheetId="5" r:id="rId9"/>
-    <sheet name="Prop" sheetId="6" r:id="rId10"/>
+    <sheet name="封面说明" sheetId="2" r:id="rId5"/>
+    <sheet name="World2" sheetId="3" r:id="rId6"/>
+    <sheet name="Stage" sheetId="4" r:id="rId7"/>
+    <sheet name="NPC" sheetId="5" r:id="rId8"/>
+    <sheet name="Prop" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -28,70 +28,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={27AC4819-9270-4BD8-B299-D5183FA7E992}</author>
-    <author>tc={5DF67412-09AC-4D7A-B8F8-19E98735AA85}</author>
-    <author>tc={62203F9C-026E-4FAA-B8A8-7D6965772F1D}</author>
-  </authors>
-  <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{27AC4819-9270-4BD8-B299-D5183FA7E992}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{5DF67412-09AC-4D7A-B8F8-19E98735AA85}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{62203F9C-026E-4FAA-B8A8-7D6965772F1D}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={B59698CA-0165-42B6-8CA7-CFD51C56942F}</author>
-    <author>tc={3EFABE6C-B81F-4CB9-8FD1-C7A667BB4795}</author>
-    <author>tc={11ED07C8-54F1-4AB2-968B-F169F17DC00D}</author>
-    <author>tc={4177679C-1B8E-4497-A05A-E5D38134BF94}</author>
-  </authors>
-  <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{B59698CA-0165-42B6-8CA7-CFD51C56942F}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{3EFABE6C-B81F-4CB9-8FD1-C7A667BB4795}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{11ED07C8-54F1-4AB2-968B-F169F17DC00D}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{4177679C-1B8E-4497-A05A-E5D38134BF94}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
-Weapon，武器，可能用于战斗
-Clothes，全身套装，影响外观
-NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
-Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
@@ -102,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -124,6 +60,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,7 +82,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -165,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,6 +124,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -190,13 +143,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" userId="S::::eceac73e-856d-42a5-838d-c1a7944380a1" providerId="AD"/>
-  <person displayName="侯清辰" id="{7254A5F2-629B-4300-8D2B-06560360EBF2}" userId="S::::fefdf03b-0092-483f-aff1-79b510c4443d" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,44 +440,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{27AC4819-9270-4BD8-B299-D5183FA7E992}" ref="K1" dT="2024-05-10T07:08:22" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{5DF67412-09AC-4D7A-B8F8-19E98735AA85}" ref="A3" dT="2024-05-28T04:59:59" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{62203F9C-026E-4FAA-B8A8-7D6965772F1D}" ref="M1" dT="2024-05-31T03:31:01" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B59698CA-0165-42B6-8CA7-CFD51C56942F}" ref="D8" dT="2024-05-13T07:32:07" personId="{7254A5F2-629B-4300-8D2B-06560360EBF2}" parentId="{}">
-    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
-  </threadedComment>
-  <threadedComment id="{3EFABE6C-B81F-4CB9-8FD1-C7A667BB4795}" ref="C8" dT="2024-05-09T06:25:33" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{11ED07C8-54F1-4AB2-968B-F169F17DC00D}" ref="C1" dT="2024-05-10T07:54:02" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{4177679C-1B8E-4497-A05A-E5D38134BF94}" ref="D1" dT="2024-05-10T08:11:19" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{}">
-    <text>RoleComponent, 角色的一部分，不可分割
-Weapon，武器，可能用于战斗
-Clothes，全身套装，影响外观
-NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
-Event，发生的事件</text>
-  </threadedComment>
-  <threadedComment id="{3922ac2b-27c3-4e92-bdc3-6de4e6113676}" ref="D1" dT="2024-05-10T08:15:39" personId="{BC9D26EC-B592-4FE5-A05D-10719EA409A0}" parentId="{4177679C-1B8E-4497-A05A-E5D38134BF94}">
-    <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
@@ -718,15 +626,16 @@
     </row>
     <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
-        <v>(～先忽略～)教廷密使</v>
+        <v>教廷密使</v>
       </c>
       <c r="B3" s="1" t="str">
-        <v>World</v>
+        <v>Player</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="I3" s="1" t="str">
-        <v>你目前在圣灰园，监视着这里的一切。教宗认为出现了异常，让你过来看看。</v>
+      <c r="I3" s="3" t="str">
+        <v>- 你目前在灰颜墓地，上次鼠王苏醒好像园区里的所有工作人员都死了，只留下守墓人 格雷。教宗认为出现了异常，让你过来看看。
+- 教皇让我来查查为啥人都死了，还有叮嘱我要小心不死人。</v>
       </c>
       <c r="K3" s="1" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
@@ -752,7 +661,7 @@
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
       <c r="K4" s="1" t="str">
-        <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
+        <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色。</v>
       </c>
       <c r="M4" s="2" t="str">
         <v>100,100,10,1</v>
@@ -898,7 +807,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="str">
-        <v>格雷;摩尔;小灰鼠帕奇</v>
+        <v>格雷;摩尔;小灰鼠帕奇;教廷密使</v>
       </c>
       <c r="I10" s="1" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
@@ -968,6 +877,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="str">
         <v>厅堂里安静无比。</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <v>礼拜堂的密室</v>
       </c>
       <c r="M13" s="1" t="str">
         <v>10000,10000,1,10000</v>
@@ -982,7 +894,6 @@
     <row customHeight="true" ht="23" r="20"/>
     <row customHeight="true" ht="23" r="21"/>
   </sheetData>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1106,7 +1017,7 @@
         <v>the_incinerator</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>一座建筑壮观而又充满神秘的石质结构。它的外表融合了尖塔和拱门的设计，让人不禁联想到古老教堂的荒废遗迹，而从其深处不时冒出的浓烟。在焚化炉的内部，火焰如同饥渴的野兽，永远不知饱足，其炽热而明亮的光芒在黑暗中跳舞，映照出墙壁上挂着的祈祷文和符号。这些古老的符号，笼罩在一层不可名状的气息之下，仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。旁边排列着的是一排排待处理的遗体，每一具都被恭敬地安置在木制的担架上，它们在火光中投下了长长的阴影，形成了一幅幅令人不寒而栗的图画。这些遗体，有的面容平静，有的却是扭曲和痛苦的表情凝固在了死亡之前的瞬间，他们似乎在无声地讲述着被疫病和死亡折磨的故事。</v>
+        <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
       <c r="D4" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
@@ -1267,9 +1178,10 @@
         <v>papal_emissary</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>教廷秘史是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷秘史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
+        <v>### 你的背景
+教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
-教廷秘史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
+教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
       <c r="D4" s="1" t="str">
@@ -1502,7 +1414,16 @@
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="10"/>
+    <row customHeight="true" ht="23" r="10">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="2"/>
+    </row>
     <row customHeight="true" ht="23" r="11"/>
     <row customHeight="true" ht="23" r="12"/>
     <row customHeight="true" ht="23" r="13"/>
@@ -1699,7 +1620,7 @@
         <v>NonConsumableItem</v>
       </c>
       <c r="E7" s="1" t="str">
-        <v>能打开灰颜礼拜堂的门，看上去形状像断掉的手指</v>
+        <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指</v>
       </c>
       <c r="G7" t="str">
         <v>rag_libraries/rag2.md</v>
@@ -1743,6 +1664,5 @@
     <row customHeight="true" ht="23" r="20"/>
     <row customHeight="true" ht="23" r="21"/>
   </sheetData>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,22 +31,22 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F75A1B8F-214E-4E01-A792-EA6394C20E05}</author>
-    <author>tc={12A6138F-5A9B-41E7-A852-4A7EBF504173}</author>
-    <author>tc={FA0E6B05-D559-4265-B8D2-1BC20F03D446}</author>
+    <author>tc={588880E4-EF05-4A9D-9BE1-4DA2FBB7C6D8}</author>
+    <author>tc={442E8F5A-9FCC-443D-A0E0-30258EEBE4F6}</author>
+    <author>tc={94E75EA4-1A78-450D-A6B6-41F95AFC5B28}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{F75A1B8F-214E-4E01-A792-EA6394C20E05}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{588880E4-EF05-4A9D-9BE1-4DA2FBB7C6D8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{12A6138F-5A9B-41E7-A852-4A7EBF504173}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{442E8F5A-9FCC-443D-A0E0-30258EEBE4F6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{FA0E6B05-D559-4265-B8D2-1BC20F03D446}">
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{94E75EA4-1A78-450D-A6B6-41F95AFC5B28}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -58,34 +58,34 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={36BF3C87-257B-44F5-A3B0-F1D0675AE037}</author>
-    <author>tc={7496C202-6E16-4044-9F01-6C9568A2A0FE}</author>
-    <author>tc={B6C54099-B4B9-489C-8BE4-7099440A92DE}</author>
-    <author>tc={780B5862-2936-4A80-8ADC-B248FABA245A}</author>
+    <author>tc={F41A1674-BF9A-41CB-AA36-32DA5A436DF9}</author>
+    <author>tc={2A006E7D-4318-498B-89C4-1445B283D2EC}</author>
+    <author>tc={8FA0B43B-C5C8-4DA3-A9F3-1F276C0EDA6A}</author>
+    <author>tc={18E02E77-4C3A-4C41-96AD-67015A84060C}</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{36BF3C87-257B-44F5-A3B0-F1D0675AE037}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{7496C202-6E16-4044-9F01-6C9568A2A0FE}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{B6C54099-B4B9-489C-8BE4-7099440A92DE}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F41A1674-BF9A-41CB-AA36-32DA5A436DF9}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{780B5862-2936-4A80-8ADC-B248FABA245A}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{2A006E7D-4318-498B-89C4-1445B283D2EC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{8FA0B43B-C5C8-4DA3-A9F3-1F276C0EDA6A}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{18E02E77-4C3A-4C41-96AD-67015A84060C}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -245,8 +245,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{F44BD1A6-E094-40AF-B3DA-015304EB48BF}" userId="S::::a6f4391b-b22c-4867-a9c1-9b9133906d9c" providerId="AD"/>
-  <person displayName="杨行" id="{2D6C1340-1059-40F5-B2A5-2DFDD5812778}" userId="S::::6faa91cb-fb5d-44dc-9bcd-c460d84a3c58" providerId="AD"/>
+  <person displayName="杨行" id="{CEA7DCFF-4B16-44A1-8A6B-639E16A9B0FE}" userId="S::::c4e4218b-e030-4d1f-b5ef-bd10a79da65b" providerId="AD"/>
+  <person displayName="侯清辰" id="{F09DFDB1-3F9A-4A2E-A895-BBBFCAEF8E7A}" userId="S::::05ec3914-8820-4b74-854f-4c4601a66f2d" providerId="AD"/>
 </personList>
 </file>
 
@@ -547,13 +547,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{F75A1B8F-214E-4E01-A792-EA6394C20E05}" ref="A3" dT="2024-05-28T04:59:59" personId="{2D6C1340-1059-40F5-B2A5-2DFDD5812778}" parentId="{}">
+  <threadedComment id="{588880E4-EF05-4A9D-9BE1-4DA2FBB7C6D8}" ref="A3" dT="2024-05-28T04:59:59" personId="{CEA7DCFF-4B16-44A1-8A6B-639E16A9B0FE}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{12A6138F-5A9B-41E7-A852-4A7EBF504173}" ref="M1" dT="2024-05-31T03:31:01" personId="{2D6C1340-1059-40F5-B2A5-2DFDD5812778}" parentId="{}">
+  <threadedComment id="{442E8F5A-9FCC-443D-A0E0-30258EEBE4F6}" ref="M1" dT="2024-05-31T03:31:01" personId="{CEA7DCFF-4B16-44A1-8A6B-639E16A9B0FE}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{FA0E6B05-D559-4265-B8D2-1BC20F03D446}" ref="K1" dT="2024-05-10T07:08:22" personId="{2D6C1340-1059-40F5-B2A5-2DFDD5812778}" parentId="{}">
+  <threadedComment id="{94E75EA4-1A78-450D-A6B6-41F95AFC5B28}" ref="K1" dT="2024-05-10T07:08:22" personId="{CEA7DCFF-4B16-44A1-8A6B-639E16A9B0FE}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -561,24 +561,24 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{36BF3C87-257B-44F5-A3B0-F1D0675AE037}" ref="D8" dT="2024-05-13T07:32:07" personId="{F44BD1A6-E094-40AF-B3DA-015304EB48BF}" parentId="{}">
-    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
-  </threadedComment>
-  <threadedComment id="{7496C202-6E16-4044-9F01-6C9568A2A0FE}" ref="C8" dT="2024-05-09T06:25:33" personId="{2D6C1340-1059-40F5-B2A5-2DFDD5812778}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{B6C54099-B4B9-489C-8BE4-7099440A92DE}" ref="C1" dT="2024-05-10T07:54:02" personId="{2D6C1340-1059-40F5-B2A5-2DFDD5812778}" parentId="{}">
+  <threadedComment id="{F41A1674-BF9A-41CB-AA36-32DA5A436DF9}" ref="C1" dT="2024-05-10T07:54:02" personId="{CEA7DCFF-4B16-44A1-8A6B-639E16A9B0FE}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{780B5862-2936-4A80-8ADC-B248FABA245A}" ref="D1" dT="2024-05-10T08:11:19" personId="{2D6C1340-1059-40F5-B2A5-2DFDD5812778}" parentId="{}">
+  <threadedComment id="{2A006E7D-4318-498B-89C4-1445B283D2EC}" ref="D1" dT="2024-05-10T08:11:19" personId="{CEA7DCFF-4B16-44A1-8A6B-639E16A9B0FE}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{266f46d6-6de5-42f7-95f7-12f1f65c1ddb}" ref="D1" dT="2024-05-10T08:15:39" personId="{2D6C1340-1059-40F5-B2A5-2DFDD5812778}" parentId="{780B5862-2936-4A80-8ADC-B248FABA245A}">
+  <threadedComment id="{4b5ac4d6-02b8-48c6-902b-01c854997c4a}" ref="D1" dT="2024-05-10T08:15:39" personId="{CEA7DCFF-4B16-44A1-8A6B-639E16A9B0FE}" parentId="{2A006E7D-4318-498B-89C4-1445B283D2EC}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{8FA0B43B-C5C8-4DA3-A9F3-1F276C0EDA6A}" ref="D8" dT="2024-05-13T07:32:07" personId="{F09DFDB1-3F9A-4A2E-A895-BBBFCAEF8E7A}" parentId="{}">
+    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
+  </threadedComment>
+  <threadedComment id="{18E02E77-4C3A-4C41-96AD-67015A84060C}" ref="C8" dT="2024-05-09T06:25:33" personId="{CEA7DCFF-4B16-44A1-8A6B-639E16A9B0FE}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -723,7 +723,7 @@
         <v>initialization_memory</v>
       </c>
       <c r="J1" s="1" t="str">
-        <v>exit_of_prison</v>
+        <v>exit_of_portal</v>
       </c>
       <c r="K1" s="1" t="str">
         <v>npc_role_appearance</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -31,24 +31,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={588880E4-EF05-4A9D-9BE1-4DA2FBB7C6D8}</author>
-    <author>tc={442E8F5A-9FCC-443D-A0E0-30258EEBE4F6}</author>
-    <author>tc={94E75EA4-1A78-450D-A6B6-41F95AFC5B28}</author>
+    <author>tc={71A2AFE9-93C7-44BE-9284-9D8A6F166A2B}</author>
+    <author>tc={7133B358-1884-4418-8141-5DF347FB8F50}</author>
+    <author>tc={71325EC0-81C6-47E6-897F-06AD4FAF7C4A}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{588880E4-EF05-4A9D-9BE1-4DA2FBB7C6D8}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{71A2AFE9-93C7-44BE-9284-9D8A6F166A2B}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{7133B358-1884-4418-8141-5DF347FB8F50}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{442E8F5A-9FCC-443D-A0E0-30258EEBE4F6}">
+    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{71325EC0-81C6-47E6-897F-06AD4FAF7C4A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{94E75EA4-1A78-450D-A6B6-41F95AFC5B28}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
   </commentList>
@@ -58,18 +58,23 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F41A1674-BF9A-41CB-AA36-32DA5A436DF9}</author>
-    <author>tc={2A006E7D-4318-498B-89C4-1445B283D2EC}</author>
-    <author>tc={8FA0B43B-C5C8-4DA3-A9F3-1F276C0EDA6A}</author>
-    <author>tc={18E02E77-4C3A-4C41-96AD-67015A84060C}</author>
+    <author>tc={E7DC48CD-E9FE-493B-89F8-5FF713C1D6F8}</author>
+    <author>tc={55A9A80C-17B3-4E65-8C68-EF518AE48A9F}</author>
+    <author>tc={4338B266-5548-4075-9315-049318ECFA9B}</author>
+    <author>tc={1F402EC0-9D42-4D2B-8300-DC217B2F6A98}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F41A1674-BF9A-41CB-AA36-32DA5A436DF9}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{E7DC48CD-E9FE-493B-89F8-5FF713C1D6F8}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{55A9A80C-17B3-4E65-8C68-EF518AE48A9F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{2A006E7D-4318-498B-89C4-1445B283D2EC}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{4338B266-5548-4075-9315-049318ECFA9B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -78,14 +83,9 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{8FA0B43B-C5C8-4DA3-A9F3-1F276C0EDA6A}">
+    <comment ref="D8" authorId="3" shapeId="0" xr:uid="{1F402EC0-9D42-4D2B-8300-DC217B2F6A98}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{18E02E77-4C3A-4C41-96AD-67015A84060C}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -125,14 +125,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -245,8 +245,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{CEA7DCFF-4B16-44A1-8A6B-639E16A9B0FE}" userId="S::::c4e4218b-e030-4d1f-b5ef-bd10a79da65b" providerId="AD"/>
-  <person displayName="侯清辰" id="{F09DFDB1-3F9A-4A2E-A895-BBBFCAEF8E7A}" userId="S::::05ec3914-8820-4b74-854f-4c4601a66f2d" providerId="AD"/>
+  <person displayName="杨行" id="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" userId="S::::1db1d6c3-54e4-480a-a26b-ce051d500f4e" providerId="AD"/>
+  <person displayName="侯清辰" id="{A082B0D5-7CE2-41A6-8440-2132FA2D59A3}" userId="S::::06a9d59c-9f4f-49da-9ea9-40079972ac7c" providerId="AD"/>
 </personList>
 </file>
 
@@ -547,38 +547,38 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{588880E4-EF05-4A9D-9BE1-4DA2FBB7C6D8}" ref="A3" dT="2024-05-28T04:59:59" personId="{CEA7DCFF-4B16-44A1-8A6B-639E16A9B0FE}" parentId="{}">
+  <threadedComment id="{71A2AFE9-93C7-44BE-9284-9D8A6F166A2B}" ref="K1" dT="2024-05-10T07:08:22" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{7133B358-1884-4418-8141-5DF347FB8F50}" ref="A3" dT="2024-05-28T04:59:59" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{442E8F5A-9FCC-443D-A0E0-30258EEBE4F6}" ref="M1" dT="2024-05-31T03:31:01" personId="{CEA7DCFF-4B16-44A1-8A6B-639E16A9B0FE}" parentId="{}">
+  <threadedComment id="{71325EC0-81C6-47E6-897F-06AD4FAF7C4A}" ref="M1" dT="2024-05-31T03:31:01" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{94E75EA4-1A78-450D-A6B6-41F95AFC5B28}" ref="K1" dT="2024-05-10T07:08:22" personId="{CEA7DCFF-4B16-44A1-8A6B-639E16A9B0FE}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{F41A1674-BF9A-41CB-AA36-32DA5A436DF9}" ref="C1" dT="2024-05-10T07:54:02" personId="{CEA7DCFF-4B16-44A1-8A6B-639E16A9B0FE}" parentId="{}">
+  <threadedComment id="{E7DC48CD-E9FE-493B-89F8-5FF713C1D6F8}" ref="C8" dT="2024-05-09T06:25:33" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{55A9A80C-17B3-4E65-8C68-EF518AE48A9F}" ref="C1" dT="2024-05-10T07:54:02" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{2A006E7D-4318-498B-89C4-1445B283D2EC}" ref="D1" dT="2024-05-10T08:11:19" personId="{CEA7DCFF-4B16-44A1-8A6B-639E16A9B0FE}" parentId="{}">
+  <threadedComment id="{4338B266-5548-4075-9315-049318ECFA9B}" ref="D1" dT="2024-05-10T08:11:19" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{4b5ac4d6-02b8-48c6-902b-01c854997c4a}" ref="D1" dT="2024-05-10T08:15:39" personId="{CEA7DCFF-4B16-44A1-8A6B-639E16A9B0FE}" parentId="{2A006E7D-4318-498B-89C4-1445B283D2EC}">
+  <threadedComment id="{122f573d-d2ea-4a92-a262-ac61edda714a}" ref="D1" dT="2024-05-10T08:15:39" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{4338B266-5548-4075-9315-049318ECFA9B}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{8FA0B43B-C5C8-4DA3-A9F3-1F276C0EDA6A}" ref="D8" dT="2024-05-13T07:32:07" personId="{F09DFDB1-3F9A-4A2E-A895-BBBFCAEF8E7A}" parentId="{}">
+  <threadedComment id="{1F402EC0-9D42-4D2B-8300-DC217B2F6A98}" ref="D8" dT="2024-05-13T07:32:07" personId="{A082B0D5-7CE2-41A6-8440-2132FA2D59A3}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
-  </threadedComment>
-  <threadedComment id="{18E02E77-4C3A-4C41-96AD-67015A84060C}" ref="C8" dT="2024-05-09T06:25:33" personId="{CEA7DCFF-4B16-44A1-8A6B-639E16A9B0FE}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -671,27 +671,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="92"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="416"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="131"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="82"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="70"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="115"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="102"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="14"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
@@ -786,38 +786,38 @@
       <c r="M2" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="5" t="str">
         <v>- 你目前在灰颜墓地，上次鼠王苏醒好像园区里的所有工作人员都死了，只留下守墓人 格雷。教宗认为出现了异常，让你过来看看。
 - 教皇让我来查查为啥人都死了，还有叮嘱我要小心不死人。</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4" t="str">
+      <c r="J3" s="4"/>
+      <c r="K3" s="3" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="str">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -957,7 +957,8 @@
         <v>无名的复活者</v>
       </c>
       <c r="I9" s="1" t="str">
-        <v>一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
+        <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
+- 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
       <c r="J9" s="1" t="str">
         <v>灰颜墓地</v>
@@ -969,7 +970,8 @@
         <v>10000,10000,5,10000</v>
       </c>
       <c r="Q9" s="2" t="str">
-        <v>在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。否则就不允许任何在你之中的角色离开。</v>
+        <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
+- 否则就不允许任何在你之中的角色离开。</v>
       </c>
       <c r="R9" t="str">
         <v>要离开的角色必须是人类。</v>
@@ -1304,7 +1306,7 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="290"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="224"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="49"/>
@@ -1356,47 +1358,47 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="3" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="3" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="3" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>8008</v>
       </c>
-      <c r="G4" s="4" t="str">
+      <c r="G4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="4" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="4" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -9,9 +9,10 @@
   <sheets>
     <sheet name="封面说明" sheetId="2" r:id="rId6"/>
     <sheet name="World2" sheetId="3" r:id="rId7"/>
-    <sheet name="Stage" sheetId="4" r:id="rId8"/>
-    <sheet name="NPC" sheetId="5" r:id="rId9"/>
-    <sheet name="Prop" sheetId="6" r:id="rId10"/>
+    <sheet name="World3" sheetId="4" r:id="rId8"/>
+    <sheet name="Stage" sheetId="5" r:id="rId9"/>
+    <sheet name="NPC" sheetId="6" r:id="rId10"/>
+    <sheet name="Prop" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -31,24 +32,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={71A2AFE9-93C7-44BE-9284-9D8A6F166A2B}</author>
-    <author>tc={7133B358-1884-4418-8141-5DF347FB8F50}</author>
-    <author>tc={71325EC0-81C6-47E6-897F-06AD4FAF7C4A}</author>
+    <author>tc={92768A50-191D-40F3-A68B-2B15D9F86A83}</author>
+    <author>tc={2144D4EA-42B3-41DC-A3FD-8197EF063B23}</author>
+    <author>tc={DC9BEB3F-A799-4ADD-A399-1E026B8B8C35}</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{71A2AFE9-93C7-44BE-9284-9D8A6F166A2B}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{92768A50-191D-40F3-A68B-2B15D9F86A83}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{2144D4EA-42B3-41DC-A3FD-8197EF063B23}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{7133B358-1884-4418-8141-5DF347FB8F50}">
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{DC9BEB3F-A799-4ADD-A399-1E026B8B8C35}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{71325EC0-81C6-47E6-897F-06AD4FAF7C4A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
   </commentList>
@@ -58,23 +59,18 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E7DC48CD-E9FE-493B-89F8-5FF713C1D6F8}</author>
-    <author>tc={55A9A80C-17B3-4E65-8C68-EF518AE48A9F}</author>
-    <author>tc={4338B266-5548-4075-9315-049318ECFA9B}</author>
-    <author>tc={1F402EC0-9D42-4D2B-8300-DC217B2F6A98}</author>
+    <author>tc={9600215B-83CE-45A7-8DC8-E70FE2900EE4}</author>
+    <author>tc={FAF9CBD4-36D4-4E8B-BBDC-9C7EE69A7FEB}</author>
+    <author>tc={80FE5559-A1AD-4070-A4C5-3786493F80E8}</author>
+    <author>tc={D24E48F3-0EDB-4597-96B9-2539F8A8DDF4}</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{E7DC48CD-E9FE-493B-89F8-5FF713C1D6F8}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{55A9A80C-17B3-4E65-8C68-EF518AE48A9F}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9600215B-83CE-45A7-8DC8-E70FE2900EE4}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{4338B266-5548-4075-9315-049318ECFA9B}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{FAF9CBD4-36D4-4E8B-BBDC-9C7EE69A7FEB}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -83,9 +79,14 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="3" shapeId="0" xr:uid="{1F402EC0-9D42-4D2B-8300-DC217B2F6A98}">
+    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{80FE5559-A1AD-4070-A4C5-3786493F80E8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{D24E48F3-0EDB-4597-96B9-2539F8A8DDF4}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -245,8 +246,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" userId="S::::1db1d6c3-54e4-480a-a26b-ce051d500f4e" providerId="AD"/>
-  <person displayName="侯清辰" id="{A082B0D5-7CE2-41A6-8440-2132FA2D59A3}" userId="S::::06a9d59c-9f4f-49da-9ea9-40079972ac7c" providerId="AD"/>
+  <person displayName="侯清辰" id="{B79C01FC-4332-4056-B3FE-5A342AD90731}" userId="S::::58ce1204-4596-4a5b-a6fd-57d273cc9698" providerId="AD"/>
+  <person displayName="杨行" id="{ABA4A1E6-93F5-4B95-AB0A-F2D148763F9B}" userId="S::::987d08c8-dd48-4704-9c98-f8e13247caf8" providerId="AD"/>
 </personList>
 </file>
 
@@ -547,38 +548,38 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{71A2AFE9-93C7-44BE-9284-9D8A6F166A2B}" ref="K1" dT="2024-05-10T07:08:22" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
+  <threadedComment id="{92768A50-191D-40F3-A68B-2B15D9F86A83}" ref="M1" dT="2024-05-31T03:31:01" personId="{ABA4A1E6-93F5-4B95-AB0A-F2D148763F9B}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{2144D4EA-42B3-41DC-A3FD-8197EF063B23}" ref="K1" dT="2024-05-10T07:08:22" personId="{ABA4A1E6-93F5-4B95-AB0A-F2D148763F9B}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{7133B358-1884-4418-8141-5DF347FB8F50}" ref="A3" dT="2024-05-28T04:59:59" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
+  <threadedComment id="{DC9BEB3F-A799-4ADD-A399-1E026B8B8C35}" ref="A3" dT="2024-05-28T04:59:59" personId="{ABA4A1E6-93F5-4B95-AB0A-F2D148763F9B}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{71325EC0-81C6-47E6-897F-06AD4FAF7C4A}" ref="M1" dT="2024-05-31T03:31:01" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{E7DC48CD-E9FE-493B-89F8-5FF713C1D6F8}" ref="C8" dT="2024-05-09T06:25:33" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{55A9A80C-17B3-4E65-8C68-EF518AE48A9F}" ref="C1" dT="2024-05-10T07:54:02" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
+  <threadedComment id="{9600215B-83CE-45A7-8DC8-E70FE2900EE4}" ref="C1" dT="2024-05-10T07:54:02" personId="{ABA4A1E6-93F5-4B95-AB0A-F2D148763F9B}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{4338B266-5548-4075-9315-049318ECFA9B}" ref="D1" dT="2024-05-10T08:11:19" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
+  <threadedComment id="{FAF9CBD4-36D4-4E8B-BBDC-9C7EE69A7FEB}" ref="D1" dT="2024-05-10T08:11:19" personId="{ABA4A1E6-93F5-4B95-AB0A-F2D148763F9B}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{122f573d-d2ea-4a92-a262-ac61edda714a}" ref="D1" dT="2024-05-10T08:15:39" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{4338B266-5548-4075-9315-049318ECFA9B}">
+  <threadedComment id="{337c5d8d-64d0-45e1-9fd4-88e5b09e157e}" ref="D1" dT="2024-05-10T08:15:39" personId="{ABA4A1E6-93F5-4B95-AB0A-F2D148763F9B}" parentId="{FAF9CBD4-36D4-4E8B-BBDC-9C7EE69A7FEB}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{1F402EC0-9D42-4D2B-8300-DC217B2F6A98}" ref="D8" dT="2024-05-13T07:32:07" personId="{A082B0D5-7CE2-41A6-8440-2132FA2D59A3}" parentId="{}">
+  <threadedComment id="{80FE5559-A1AD-4070-A4C5-3786493F80E8}" ref="D8" dT="2024-05-13T07:32:07" personId="{B79C01FC-4332-4056-B3FE-5A342AD90731}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
+  </threadedComment>
+  <threadedComment id="{D24E48F3-0EDB-4597-96B9-2539F8A8DDF4}" ref="C8" dT="2024-05-09T06:25:33" personId="{ABA4A1E6-93F5-4B95-AB0A-F2D148763F9B}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -785,7 +786,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row customHeight="true" ht="23" r="3">
+    <row r="3">
       <c r="A3" s="3" t="str">
         <v>教廷密使</v>
       </c>
@@ -1085,6 +1086,397 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="true" workbookViewId="0">
+      <pane state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="82"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="70"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="115"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="102"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="14"/>
+  </cols>
+  <sheetData>
+    <row customHeight="true" ht="23" r="1">
+      <c r="A1" s="1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <v>type</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>description</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>props_on_npc</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>stage_entry_conditions</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>stage_exit_conditions</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <v>props_in_stage</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <v>npcs_in_stage</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <v>initialization_memory</v>
+      </c>
+      <c r="J1" s="1" t="str">
+        <v>exit_of_portal</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <v>npc_role_appearance</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <v>interactive_props</v>
+      </c>
+      <c r="M1" s="2" t="str">
+        <v>attributes</v>
+      </c>
+      <c r="N1" s="2" t="str">
+        <v>stage_entry_status</v>
+      </c>
+      <c r="O1" s="2" t="str">
+        <v>stage_entry_role_status</v>
+      </c>
+      <c r="P1" s="2" t="str">
+        <v>stage_entry_role_props</v>
+      </c>
+      <c r="Q1" s="2" t="str">
+        <v>stage_exit_status</v>
+      </c>
+      <c r="R1" s="2" t="str">
+        <v>stage_exit_role_status</v>
+      </c>
+      <c r="S1" s="2" t="str">
+        <v>stage_exit_role_props</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>测试的游戏介绍</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>Config</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v># 这是一个内部开发与测试用的demo，文体风格是恐怖类型。
+## 目的在这个阶段测试LLM对恐怖、血腥与暴力元素的容忍度。已经如果出了问题，我方应该怎么兼容。
+## 目前场景有5个。
+## Player 有一个，即单人游戏。
+## 道具若干。
+## NPC有4个。分2个阵营：
+- 阵营1，人与狗：正常的NPC（知道信息多，可以对话）+ 仆从型NPC(守护前者，并服从前者命令)
+- 阵营2，大小老鼠：大老鼠是BOSS设定 + 小老鼠是触发型NPC(根据条件激活并执行任务，目前任务是唤醒BOSS)
+## 基本流程：
+- 第一个场景为测试使用道具。
+- BOSS如果醒了就是‘鬼抓人’的游戏，BOSS的设计就是遍历场景去找到你并杀你。
+- 正常就是对话类型游戏。</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="str">
+        <v>无名的复活者</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v>Player</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="str">
+        <v>不死者印记;破旧的衣服;腐朽的匕首</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
+- 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
+- 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <v>100,100,10,1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>小灰鼠帕奇</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v>NPC</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
+        <v>左爪胎记</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
+- 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
+- 你知道鼠王在沉睡。
+- 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <v>100,100,10,1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>格雷</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>NPC</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
+        <v>断指钥匙</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
+- 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
+- 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
+- 你不会去熔炉广场，你认为那里不吉利而且很热。
+- 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
+- 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <v>一个男性人类，个子中等，身着守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <v>100,100,10,1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="str">
+        <v>摩尔</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>NPC</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="I6" s="1" t="str">
+        <v>- 你在灰颜墓地，随着 格雷 
+- 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
+- 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <v>100,100,10,1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="str">
+        <v>鼠王</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>NPC</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="I7" s="1" t="str">
+        <v>- 你在腐臭地窖，这是你的窝。
+- 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
+- 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
+- 睡梦中，你回忆起了圣人的‘红仆’用火焰剑烧灼你的毛发与灵魂时，那种刻入骨髓的痛，因此你恨人类也惧怕火焰。他们的灰色的脸和紫色的眼睛让你依然记得。
+- 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
+- 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <v>200,200,60,1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="8">
+      <c r="A8" s="1" t="str">
+        <v>禁言铁棺</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="str">
+        <v>不死者印记</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <v>(撬开的缝隙|禁言铁棺处于被锁住的状态，无法离开。也许某些尖锐物品能撬开棺材盖间的缝隙？)</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="str">
+        <v>无名的复活者</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
+- 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <v>灰颜墓地</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <v>(腐朽的匕首|撬开的缝隙)</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <v>10000,10000,5,10000</v>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
+- 否则就不允许任何在你之中的角色离开。</v>
+      </c>
+      <c r="R8" t="str">
+        <v>要离开的角色必须是人类。</v>
+      </c>
+      <c r="S8" t="str">
+        <v>要离开的角色身上必须具有‘不死者印记’。</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="9">
+      <c r="A9" s="1" t="str">
+        <v>灰颜墓地</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="str">
+        <v>格雷;摩尔;小灰鼠帕奇</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <v>10000,10000,1,10000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="10">
+      <c r="A10" s="1" t="str">
+        <v>腐臭地窖</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="str">
+        <v>鼠王</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <v>10000,10000,1,10000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="11">
+      <c r="A11" s="1" t="str">
+        <v>熔炉广场</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="str">
+        <v>炉钩</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="str">
+        <v>炉火在熊熊燃烧。</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <v>10000,10000,1,10000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="12">
+      <c r="A12" s="1" t="str">
+        <v>灰颜礼拜堂</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="str">
+        <v>断指钥匙;左爪胎记</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="str">
+        <v>厅堂里安静无比。</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <v>礼拜堂的密室</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <v>10000,10000,1,10000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="13"/>
+    <row customHeight="true" ht="23" r="14"/>
+    <row customHeight="true" ht="23" r="15"/>
+    <row customHeight="true" ht="23" r="16"/>
+    <row customHeight="true" ht="23" r="17"/>
+    <row customHeight="true" ht="23" r="18"/>
+    <row customHeight="true" ht="23" r="19"/>
+    <row customHeight="true" ht="23" r="20"/>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -1292,7 +1684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -1626,7 +2018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -32,24 +32,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={92768A50-191D-40F3-A68B-2B15D9F86A83}</author>
-    <author>tc={2144D4EA-42B3-41DC-A3FD-8197EF063B23}</author>
-    <author>tc={DC9BEB3F-A799-4ADD-A399-1E026B8B8C35}</author>
+    <author>tc={CC4DAF3E-AB5D-4085-BB0F-229A002BE6A3}</author>
+    <author>tc={4972D469-EFEA-442B-9527-8A4B52BC15D6}</author>
+    <author>tc={3755FC38-6BE6-43BA-9F38-4CB9062234A6}</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{92768A50-191D-40F3-A68B-2B15D9F86A83}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{CC4DAF3E-AB5D-4085-BB0F-229A002BE6A3}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{4972D469-EFEA-442B-9527-8A4B52BC15D6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{2144D4EA-42B3-41DC-A3FD-8197EF063B23}">
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{3755FC38-6BE6-43BA-9F38-4CB9062234A6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{DC9BEB3F-A799-4ADD-A399-1E026B8B8C35}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
   </commentList>
@@ -59,34 +59,34 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9600215B-83CE-45A7-8DC8-E70FE2900EE4}</author>
-    <author>tc={FAF9CBD4-36D4-4E8B-BBDC-9C7EE69A7FEB}</author>
-    <author>tc={80FE5559-A1AD-4070-A4C5-3786493F80E8}</author>
-    <author>tc={D24E48F3-0EDB-4597-96B9-2539F8A8DDF4}</author>
+    <author>tc={F40A742F-301D-4F9B-9C01-BC61C5095295}</author>
+    <author>tc={C4580CED-95D3-4FF3-B662-7640797A446F}</author>
+    <author>tc={9A125EB4-05C0-4195-96F7-E4CC71205D78}</author>
+    <author>tc={33A21FB0-0401-420F-90F4-FAB751F9A40F}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9600215B-83CE-45A7-8DC8-E70FE2900EE4}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{F40A742F-301D-4F9B-9C01-BC61C5095295}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{C4580CED-95D3-4FF3-B662-7640797A446F}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{9A125EB4-05C0-4195-96F7-E4CC71205D78}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{FAF9CBD4-36D4-4E8B-BBDC-9C7EE69A7FEB}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{33A21FB0-0401-420F-90F4-FAB751F9A40F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{80FE5559-A1AD-4070-A4C5-3786493F80E8}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{D24E48F3-0EDB-4597-96B9-2539F8A8DDF4}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -126,14 +126,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -246,8 +246,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{B79C01FC-4332-4056-B3FE-5A342AD90731}" userId="S::::58ce1204-4596-4a5b-a6fd-57d273cc9698" providerId="AD"/>
-  <person displayName="杨行" id="{ABA4A1E6-93F5-4B95-AB0A-F2D148763F9B}" userId="S::::987d08c8-dd48-4704-9c98-f8e13247caf8" providerId="AD"/>
+  <person displayName="杨行" id="{850EC9C3-B43B-4214-A43E-11492AA46D49}" userId="S::::5125f509-9cb2-4223-95f8-123dbda03976" providerId="AD"/>
+  <person displayName="侯清辰" id="{F615F889-4B63-40AF-BE41-33C88991E894}" userId="S::::0b18c4dc-5cd5-4fcc-83a5-6098c0b76119" providerId="AD"/>
 </personList>
 </file>
 
@@ -548,38 +548,38 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{92768A50-191D-40F3-A68B-2B15D9F86A83}" ref="M1" dT="2024-05-31T03:31:01" personId="{ABA4A1E6-93F5-4B95-AB0A-F2D148763F9B}" parentId="{}">
+  <threadedComment id="{CC4DAF3E-AB5D-4085-BB0F-229A002BE6A3}" ref="A3" dT="2024-05-28T04:59:59" personId="{850EC9C3-B43B-4214-A43E-11492AA46D49}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{4972D469-EFEA-442B-9527-8A4B52BC15D6}" ref="M1" dT="2024-05-31T03:31:01" personId="{850EC9C3-B43B-4214-A43E-11492AA46D49}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{2144D4EA-42B3-41DC-A3FD-8197EF063B23}" ref="K1" dT="2024-05-10T07:08:22" personId="{ABA4A1E6-93F5-4B95-AB0A-F2D148763F9B}" parentId="{}">
+  <threadedComment id="{3755FC38-6BE6-43BA-9F38-4CB9062234A6}" ref="K1" dT="2024-05-10T07:08:22" personId="{850EC9C3-B43B-4214-A43E-11492AA46D49}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{DC9BEB3F-A799-4ADD-A399-1E026B8B8C35}" ref="A3" dT="2024-05-28T04:59:59" personId="{ABA4A1E6-93F5-4B95-AB0A-F2D148763F9B}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{9600215B-83CE-45A7-8DC8-E70FE2900EE4}" ref="C1" dT="2024-05-10T07:54:02" personId="{ABA4A1E6-93F5-4B95-AB0A-F2D148763F9B}" parentId="{}">
+  <threadedComment id="{F40A742F-301D-4F9B-9C01-BC61C5095295}" ref="D8" dT="2024-05-13T07:32:07" personId="{F615F889-4B63-40AF-BE41-33C88991E894}" parentId="{}">
+    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
+  </threadedComment>
+  <threadedComment id="{C4580CED-95D3-4FF3-B662-7640797A446F}" ref="C8" dT="2024-05-09T06:25:33" personId="{850EC9C3-B43B-4214-A43E-11492AA46D49}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{9A125EB4-05C0-4195-96F7-E4CC71205D78}" ref="C1" dT="2024-05-10T07:54:02" personId="{850EC9C3-B43B-4214-A43E-11492AA46D49}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{FAF9CBD4-36D4-4E8B-BBDC-9C7EE69A7FEB}" ref="D1" dT="2024-05-10T08:11:19" personId="{ABA4A1E6-93F5-4B95-AB0A-F2D148763F9B}" parentId="{}">
+  <threadedComment id="{33A21FB0-0401-420F-90F4-FAB751F9A40F}" ref="D1" dT="2024-05-10T08:11:19" personId="{850EC9C3-B43B-4214-A43E-11492AA46D49}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{337c5d8d-64d0-45e1-9fd4-88e5b09e157e}" ref="D1" dT="2024-05-10T08:15:39" personId="{ABA4A1E6-93F5-4B95-AB0A-F2D148763F9B}" parentId="{FAF9CBD4-36D4-4E8B-BBDC-9C7EE69A7FEB}">
+  <threadedComment id="{aec10200-acfc-4dbd-9ffb-837e0102109f}" ref="D1" dT="2024-05-10T08:15:39" personId="{850EC9C3-B43B-4214-A43E-11492AA46D49}" parentId="{33A21FB0-0401-420F-90F4-FAB751F9A40F}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{80FE5559-A1AD-4070-A4C5-3786493F80E8}" ref="D8" dT="2024-05-13T07:32:07" personId="{B79C01FC-4332-4056-B3FE-5A342AD90731}" parentId="{}">
-    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
-  </threadedComment>
-  <threadedComment id="{D24E48F3-0EDB-4597-96B9-2539F8A8DDF4}" ref="C8" dT="2024-05-09T06:25:33" personId="{ABA4A1E6-93F5-4B95-AB0A-F2D148763F9B}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -787,38 +787,38 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="5" t="str">
         <v>- 你目前在灰颜墓地，上次鼠王苏醒好像园区里的所有工作人员都死了，只留下守墓人 格雷。教宗认为出现了异常，让你过来看看。
 - 教皇让我来查查为啥人都死了，还有叮嘱我要小心不死人。</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3" t="str">
+      <c r="J3" s="3"/>
+      <c r="K3" s="4" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="str">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1102,23 +1102,21 @@
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="82"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="70"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="115"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="45"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="102"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="76"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="115"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="102"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="14"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
@@ -1135,48 +1133,42 @@
         <v>props_on_npc</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>stage_entry_conditions</v>
+        <v>props_in_stage</v>
       </c>
       <c r="F1" s="1" t="str">
-        <v>stage_exit_conditions</v>
+        <v>npcs_in_stage</v>
       </c>
       <c r="G1" s="1" t="str">
-        <v>props_in_stage</v>
+        <v>initialization_memory</v>
       </c>
       <c r="H1" s="1" t="str">
-        <v>npcs_in_stage</v>
+        <v>exit_of_portal</v>
       </c>
       <c r="I1" s="1" t="str">
-        <v>initialization_memory</v>
-      </c>
-      <c r="J1" s="1" t="str">
-        <v>exit_of_portal</v>
-      </c>
-      <c r="K1" s="1" t="str">
         <v>npc_role_appearance</v>
       </c>
+      <c r="J1" s="2" t="str">
+        <v>interactive_props</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <v>attributes</v>
+      </c>
       <c r="L1" s="2" t="str">
-        <v>interactive_props</v>
+        <v>stage_entry_status</v>
       </c>
       <c r="M1" s="2" t="str">
-        <v>attributes</v>
+        <v>stage_entry_role_status</v>
       </c>
       <c r="N1" s="2" t="str">
-        <v>stage_entry_status</v>
+        <v>stage_entry_role_props</v>
       </c>
       <c r="O1" s="2" t="str">
-        <v>stage_entry_role_status</v>
+        <v>stage_exit_status</v>
       </c>
       <c r="P1" s="2" t="str">
-        <v>stage_entry_role_props</v>
+        <v>stage_exit_role_status</v>
       </c>
       <c r="Q1" s="2" t="str">
-        <v>stage_exit_status</v>
-      </c>
-      <c r="R1" s="2" t="str">
-        <v>stage_exit_role_status</v>
-      </c>
-      <c r="S1" s="2" t="str">
         <v>stage_exit_role_props</v>
       </c>
     </row>
@@ -1188,18 +1180,7 @@
         <v>Config</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v># 这是一个内部开发与测试用的demo，文体风格是恐怖类型。
-## 目的在这个阶段测试LLM对恐怖、血腥与暴力元素的容忍度。已经如果出了问题，我方应该怎么兼容。
-## 目前场景有5个。
-## Player 有一个，即单人游戏。
-## 道具若干。
-## NPC有4个。分2个阵营：
-- 阵营1，人与狗：正常的NPC（知道信息多，可以对话）+ 仆从型NPC(守护前者，并服从前者命令)
-- 阵营2，大小老鼠：大老鼠是BOSS设定 + 小老鼠是触发型NPC(根据条件激活并执行任务，目前任务是唤醒BOSS)
-## 基本流程：
-- 第一个场景为测试使用道具。
-- BOSS如果醒了就是‘鬼抓人’的游戏，BOSS的设计就是遍历场景去找到你并杀你。
-- 正常就是对话类型游戏。</v>
+        <v># 测试的世界，用于测试对场景使用道具与进出场景</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1207,10 +1188,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
@@ -1223,255 +1202,101 @@
       <c r="D3" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="I3" s="1" t="str">
+      <c r="G3" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="K3" s="1" t="str">
+      <c r="I3" s="1" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
-      <c r="M3" s="2" t="str">
+      <c r="K3" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
-    <row r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1" t="str">
-        <v>小灰鼠帕奇</v>
+        <v>禁言铁棺</v>
       </c>
       <c r="B4" s="1" t="str">
-        <v>NPC</v>
+        <v>Stage</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
-        <v>左爪胎记</v>
-      </c>
-      <c r="I4" s="1" t="str">
-        <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
-- 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
-- 你知道鼠王在沉睡。
-- 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="str">
+        <v>无名的复活者</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <v>灰颜墓地</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <v>(腐朽的匕首|撬开的缝隙)</v>
       </c>
       <c r="K4" s="1" t="str">
-        <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
-      </c>
-      <c r="M4" s="2" t="str">
-        <v>100,100,10,1</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>10000,10000,5,10000</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
+- 否则就不允许任何在你之中的角色离开。</v>
+      </c>
+      <c r="P4" t="str">
+        <v>要离开的角色必须是人类。</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>要离开的角色身上必须具有‘不死者印记’。</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1" t="str">
-        <v>格雷</v>
+        <v>灰颜墓地</v>
       </c>
       <c r="B5" s="1" t="str">
-        <v>NPC</v>
+        <v>Stage</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="str">
-        <v>断指钥匙</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
-- 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
-- 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
-- 你不会去熔炉广场，你认为那里不吉利而且很热。
-- 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
-- 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="str">
+        <v>墓地里静悄悄</v>
       </c>
       <c r="K5" s="1" t="str">
-        <v>一个男性人类，个子中等，身着守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具</v>
-      </c>
-      <c r="M5" s="2" t="str">
-        <v>100,100,10,1</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>10000,10000,1,10000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1" t="str">
-        <v>摩尔</v>
+        <v>灰颜礼拜堂</v>
       </c>
       <c r="B6" s="1" t="str">
-        <v>NPC</v>
+        <v>Stage</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="I6" s="1" t="str">
-        <v>- 你在灰颜墓地，随着 格雷 
-- 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
-- 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="str">
+        <v>厅堂里安静无比。</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <v>礼拜堂的密室</v>
       </c>
       <c r="K6" s="1" t="str">
-        <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
-      </c>
-      <c r="M6" s="2" t="str">
-        <v>100,100,10,1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="str">
-        <v>鼠王</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <v>NPC</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="I7" s="1" t="str">
-        <v>- 你在腐臭地窖，这是你的窝。
-- 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
-- 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
-- 睡梦中，你回忆起了圣人的‘红仆’用火焰剑烧灼你的毛发与灵魂时，那种刻入骨髓的痛，因此你恨人类也惧怕火焰。他们的灰色的脸和紫色的眼睛让你依然记得。
-- 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
-- 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
-      </c>
-      <c r="K7" s="1" t="str">
-        <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
-      </c>
-      <c r="M7" s="2" t="str">
-        <v>200,200,60,1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="1" t="str">
-        <v>禁言铁棺</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <v>Stage</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2" t="str">
-        <v>不死者印记</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <v>(撬开的缝隙|禁言铁棺处于被锁住的状态，无法离开。也许某些尖锐物品能撬开棺材盖间的缝隙？)</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="str">
-        <v>无名的复活者</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
-- 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
-      </c>
-      <c r="J8" s="1" t="str">
-        <v>灰颜墓地</v>
-      </c>
-      <c r="L8" s="2" t="str">
-        <v>(腐朽的匕首|撬开的缝隙)</v>
-      </c>
-      <c r="M8" s="1" t="str">
-        <v>10000,10000,5,10000</v>
-      </c>
-      <c r="Q8" s="2" t="str">
-        <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
-- 否则就不允许任何在你之中的角色离开。</v>
-      </c>
-      <c r="R8" t="str">
-        <v>要离开的角色必须是人类。</v>
-      </c>
-      <c r="S8" t="str">
-        <v>要离开的角色身上必须具有‘不死者印记’。</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="1" t="str">
-        <v>灰颜墓地</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <v>Stage</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="str">
-        <v>格雷;摩尔;小灰鼠帕奇</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
-      </c>
-      <c r="M9" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="1" t="str">
-        <v>腐臭地窖</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <v>Stage</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="str">
-        <v>鼠王</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
-      </c>
-      <c r="M10" s="1" t="str">
-        <v>10000,10000,1,10000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="1" t="str">
-        <v>熔炉广场</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <v>Stage</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="str">
-        <v>炉钩</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="str">
-        <v>炉火在熊熊燃烧。</v>
-      </c>
-      <c r="M11" s="1" t="str">
-        <v>10000,10000,1,10000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1" t="str">
-        <v>灰颜礼拜堂</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <v>Stage</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="str">
-        <v>断指钥匙;左爪胎记</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="str">
-        <v>厅堂里安静无比。</v>
-      </c>
-      <c r="J12" s="2" t="str">
-        <v>礼拜堂的密室</v>
-      </c>
-      <c r="M12" s="1" t="str">
-        <v>10000,10000,1,10000</v>
-      </c>
-    </row>
+    <row customHeight="true" ht="23" r="7"/>
+    <row customHeight="true" ht="23" r="8"/>
+    <row customHeight="true" ht="23" r="9"/>
+    <row customHeight="true" ht="23" r="10"/>
+    <row customHeight="true" ht="23" r="11"/>
+    <row customHeight="true" ht="23" r="12"/>
     <row customHeight="true" ht="23" r="13"/>
     <row customHeight="true" ht="23" r="14"/>
-    <row customHeight="true" ht="23" r="15"/>
-    <row customHeight="true" ht="23" r="16"/>
-    <row customHeight="true" ht="23" r="17"/>
-    <row customHeight="true" ht="23" r="18"/>
-    <row customHeight="true" ht="23" r="19"/>
-    <row customHeight="true" ht="23" r="20"/>
   </sheetData>
 </worksheet>
 </file>
@@ -1750,47 +1575,47 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="4" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>8008</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="G4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="3" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I4" s="4" t="str">
+      <c r="I4" s="3" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -9,9 +9,10 @@
   <sheets>
     <sheet name="封面说明" sheetId="2" r:id="rId6"/>
     <sheet name="World2" sheetId="3" r:id="rId7"/>
-    <sheet name="Stage" sheetId="4" r:id="rId8"/>
-    <sheet name="NPC" sheetId="5" r:id="rId9"/>
-    <sheet name="Prop" sheetId="6" r:id="rId10"/>
+    <sheet name="World3" sheetId="4" r:id="rId8"/>
+    <sheet name="Stage" sheetId="5" r:id="rId9"/>
+    <sheet name="NPC" sheetId="6" r:id="rId10"/>
+    <sheet name="Prop" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -31,24 +32,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={71A2AFE9-93C7-44BE-9284-9D8A6F166A2B}</author>
-    <author>tc={7133B358-1884-4418-8141-5DF347FB8F50}</author>
-    <author>tc={71325EC0-81C6-47E6-897F-06AD4FAF7C4A}</author>
+    <author>tc={E0C4FB46-B0CB-429B-A9B3-331C0CA9A267}</author>
+    <author>tc={17B7CD61-B837-466E-9B62-E12444EAC10C}</author>
+    <author>tc={4C7BCD2B-AA24-410A-A242-C9E4147BD1A8}</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{71A2AFE9-93C7-44BE-9284-9D8A6F166A2B}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{E0C4FB46-B0CB-429B-A9B3-331C0CA9A267}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{17B7CD61-B837-466E-9B62-E12444EAC10C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{7133B358-1884-4418-8141-5DF347FB8F50}">
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{4C7BCD2B-AA24-410A-A242-C9E4147BD1A8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{71325EC0-81C6-47E6-897F-06AD4FAF7C4A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
   </commentList>
@@ -58,23 +59,13 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E7DC48CD-E9FE-493B-89F8-5FF713C1D6F8}</author>
-    <author>tc={55A9A80C-17B3-4E65-8C68-EF518AE48A9F}</author>
-    <author>tc={4338B266-5548-4075-9315-049318ECFA9B}</author>
-    <author>tc={1F402EC0-9D42-4D2B-8300-DC217B2F6A98}</author>
+    <author>tc={758B4CE2-73A5-456D-8458-05B94B9C4799}</author>
+    <author>tc={535FDDFF-DAA8-451C-AB3A-FCFEAF3FD688}</author>
+    <author>tc={C89ED347-9DC2-4787-8E3B-F05707C63F6D}</author>
+    <author>tc={8209CBF7-EDCE-4DD7-94FF-46FD93AB6E08}</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{E7DC48CD-E9FE-493B-89F8-5FF713C1D6F8}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{55A9A80C-17B3-4E65-8C68-EF518AE48A9F}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{4338B266-5548-4075-9315-049318ECFA9B}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{758B4CE2-73A5-456D-8458-05B94B9C4799}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -83,9 +74,19 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="3" shapeId="0" xr:uid="{1F402EC0-9D42-4D2B-8300-DC217B2F6A98}">
+    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{535FDDFF-DAA8-451C-AB3A-FCFEAF3FD688}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{C89ED347-9DC2-4787-8E3B-F05707C63F6D}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="3" shapeId="0" xr:uid="{8209CBF7-EDCE-4DD7-94FF-46FD93AB6E08}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -245,8 +246,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" userId="S::::1db1d6c3-54e4-480a-a26b-ce051d500f4e" providerId="AD"/>
-  <person displayName="侯清辰" id="{A082B0D5-7CE2-41A6-8440-2132FA2D59A3}" userId="S::::06a9d59c-9f4f-49da-9ea9-40079972ac7c" providerId="AD"/>
+  <person displayName="杨行" id="{7B572ADF-773A-4652-8FD5-B0AC0C4981D0}" userId="S::::b0ac0b13-95ac-4712-bc2b-eb878df309ee" providerId="AD"/>
+  <person displayName="侯清辰" id="{6C3BE828-6251-4AB3-98CF-77EF70DEAFC8}" userId="S::::ef2665a3-8233-4841-b9d7-37a4357c4149" providerId="AD"/>
 </personList>
 </file>
 
@@ -547,38 +548,38 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{71A2AFE9-93C7-44BE-9284-9D8A6F166A2B}" ref="K1" dT="2024-05-10T07:08:22" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
+  <threadedComment id="{E0C4FB46-B0CB-429B-A9B3-331C0CA9A267}" ref="M1" dT="2024-05-31T03:31:01" personId="{7B572ADF-773A-4652-8FD5-B0AC0C4981D0}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{17B7CD61-B837-466E-9B62-E12444EAC10C}" ref="K1" dT="2024-05-10T07:08:22" personId="{7B572ADF-773A-4652-8FD5-B0AC0C4981D0}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{7133B358-1884-4418-8141-5DF347FB8F50}" ref="A3" dT="2024-05-28T04:59:59" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
+  <threadedComment id="{4C7BCD2B-AA24-410A-A242-C9E4147BD1A8}" ref="A3" dT="2024-05-28T04:59:59" personId="{7B572ADF-773A-4652-8FD5-B0AC0C4981D0}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{71325EC0-81C6-47E6-897F-06AD4FAF7C4A}" ref="M1" dT="2024-05-31T03:31:01" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{E7DC48CD-E9FE-493B-89F8-5FF713C1D6F8}" ref="C8" dT="2024-05-09T06:25:33" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{55A9A80C-17B3-4E65-8C68-EF518AE48A9F}" ref="C1" dT="2024-05-10T07:54:02" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{4338B266-5548-4075-9315-049318ECFA9B}" ref="D1" dT="2024-05-10T08:11:19" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{}">
+  <threadedComment id="{758B4CE2-73A5-456D-8458-05B94B9C4799}" ref="D1" dT="2024-05-10T08:11:19" personId="{7B572ADF-773A-4652-8FD5-B0AC0C4981D0}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{122f573d-d2ea-4a92-a262-ac61edda714a}" ref="D1" dT="2024-05-10T08:15:39" personId="{2C5B968F-B1DF-423A-A8EC-EF01677B28CA}" parentId="{4338B266-5548-4075-9315-049318ECFA9B}">
+  <threadedComment id="{af9057e1-a636-4b77-825e-eb9e6b7f00fc}" ref="D1" dT="2024-05-10T08:15:39" personId="{7B572ADF-773A-4652-8FD5-B0AC0C4981D0}" parentId="{758B4CE2-73A5-456D-8458-05B94B9C4799}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{1F402EC0-9D42-4D2B-8300-DC217B2F6A98}" ref="D8" dT="2024-05-13T07:32:07" personId="{A082B0D5-7CE2-41A6-8440-2132FA2D59A3}" parentId="{}">
+  <threadedComment id="{535FDDFF-DAA8-451C-AB3A-FCFEAF3FD688}" ref="D8" dT="2024-05-13T07:32:07" personId="{6C3BE828-6251-4AB3-98CF-77EF70DEAFC8}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
+  </threadedComment>
+  <threadedComment id="{C89ED347-9DC2-4787-8E3B-F05707C63F6D}" ref="C8" dT="2024-05-09T06:25:33" personId="{7B572ADF-773A-4652-8FD5-B0AC0C4981D0}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{8209CBF7-EDCE-4DD7-94FF-46FD93AB6E08}" ref="C1" dT="2024-05-10T07:54:02" personId="{7B572ADF-773A-4652-8FD5-B0AC0C4981D0}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -785,7 +786,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row customHeight="true" ht="23" r="3">
+    <row r="3">
       <c r="A3" s="3" t="str">
         <v>教廷密使</v>
       </c>
@@ -1085,6 +1086,222 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="true" workbookViewId="0">
+      <pane state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="82"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="115"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="102"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="14"/>
+  </cols>
+  <sheetData>
+    <row customHeight="true" ht="23" r="1">
+      <c r="A1" s="1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <v>type</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>description</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>props_on_npc</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>props_in_stage</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>npcs_in_stage</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <v>initialization_memory</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <v>exit_of_portal</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <v>npc_role_appearance</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <v>interactive_props</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <v>attributes</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <v>stage_entry_status</v>
+      </c>
+      <c r="M1" s="2" t="str">
+        <v>stage_entry_role_status</v>
+      </c>
+      <c r="N1" s="2" t="str">
+        <v>stage_entry_role_props</v>
+      </c>
+      <c r="O1" s="2" t="str">
+        <v>stage_exit_status</v>
+      </c>
+      <c r="P1" s="2" t="str">
+        <v>stage_exit_role_status</v>
+      </c>
+      <c r="Q1" s="2" t="str">
+        <v>stage_exit_role_props</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>测试的游戏介绍</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>Config</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v># 测试的世界，用于测试对场景使用道具与进出场景</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="str">
+        <v>无名的复活者</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v>Player</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="str">
+        <v>不死者印记;破旧的衣服;腐朽的匕首</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
+- 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
+- 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <v>100,100,10,1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="4">
+      <c r="A4" s="1" t="str">
+        <v>禁言铁棺</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="str">
+        <v>无名的复活者</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <v>灰颜墓地</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <v>(腐朽的匕首|撬开的缝隙)</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <v>10000,10000,5,10000</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
+- 否则就不允许任何在你之中的角色离开。</v>
+      </c>
+      <c r="P4" t="str">
+        <v>要离开的角色必须是人类。</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>要离开的角色身上必须具有‘不死者印记’。</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="5">
+      <c r="A5" s="1" t="str">
+        <v>灰颜墓地</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="str">
+        <v>墓地里静悄悄</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <v>10000,10000,1,10000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="6">
+      <c r="A6" s="1" t="str">
+        <v>灰颜礼拜堂</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="str">
+        <v>厅堂里安静无比。</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <v>礼拜堂的密室</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <v>10000,10000,1,10000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="7"/>
+    <row customHeight="true" ht="23" r="8"/>
+    <row customHeight="true" ht="23" r="9"/>
+    <row customHeight="true" ht="23" r="10"/>
+    <row customHeight="true" ht="23" r="11"/>
+    <row customHeight="true" ht="23" r="12"/>
+    <row customHeight="true" ht="23" r="13"/>
+    <row customHeight="true" ht="23" r="14"/>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -1292,7 +1509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -1626,7 +1843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -32,24 +32,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={CC4DAF3E-AB5D-4085-BB0F-229A002BE6A3}</author>
-    <author>tc={4972D469-EFEA-442B-9527-8A4B52BC15D6}</author>
-    <author>tc={3755FC38-6BE6-43BA-9F38-4CB9062234A6}</author>
+    <author>tc={413FE593-4F1F-445C-ACE8-2E1867B58CB7}</author>
+    <author>tc={E4099532-E883-4031-997E-6B30A48B811B}</author>
+    <author>tc={502A71E7-9F34-40A5-B573-2BE16201903A}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{CC4DAF3E-AB5D-4085-BB0F-229A002BE6A3}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{413FE593-4F1F-445C-ACE8-2E1867B58CB7}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{E4099532-E883-4031-997E-6B30A48B811B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{4972D469-EFEA-442B-9527-8A4B52BC15D6}">
+    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{502A71E7-9F34-40A5-B573-2BE16201903A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{3755FC38-6BE6-43BA-9F38-4CB9062234A6}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
   </commentList>
@@ -59,34 +59,34 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F40A742F-301D-4F9B-9C01-BC61C5095295}</author>
-    <author>tc={C4580CED-95D3-4FF3-B662-7640797A446F}</author>
-    <author>tc={9A125EB4-05C0-4195-96F7-E4CC71205D78}</author>
-    <author>tc={33A21FB0-0401-420F-90F4-FAB751F9A40F}</author>
+    <author>tc={F89BDE89-4748-4B0A-BD5F-CF56501AB0AC}</author>
+    <author>tc={0969FEB0-8450-487F-8343-F5420784AC9A}</author>
+    <author>tc={E40A9369-1429-45A9-81F3-7FB17E7CD61D}</author>
+    <author>tc={79FABA68-4315-43D7-AE27-8EBEE962902D}</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{F40A742F-301D-4F9B-9C01-BC61C5095295}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{C4580CED-95D3-4FF3-B662-7640797A446F}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{F89BDE89-4748-4B0A-BD5F-CF56501AB0AC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{9A125EB4-05C0-4195-96F7-E4CC71205D78}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{0969FEB0-8450-487F-8343-F5420784AC9A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{33A21FB0-0401-420F-90F4-FAB751F9A40F}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{E40A9369-1429-45A9-81F3-7FB17E7CD61D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="3" shapeId="0" xr:uid="{79FABA68-4315-43D7-AE27-8EBEE962902D}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
     </comment>
   </commentList>
@@ -126,14 +126,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -246,8 +246,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{850EC9C3-B43B-4214-A43E-11492AA46D49}" userId="S::::5125f509-9cb2-4223-95f8-123dbda03976" providerId="AD"/>
-  <person displayName="侯清辰" id="{F615F889-4B63-40AF-BE41-33C88991E894}" userId="S::::0b18c4dc-5cd5-4fcc-83a5-6098c0b76119" providerId="AD"/>
+  <person displayName="侯清辰" id="{BD436F45-874A-4530-9182-DE6272FF89CE}" userId="S::::4cfec567-ab90-4882-802c-c2925e4f3665" providerId="AD"/>
+  <person displayName="杨行" id="{888A23A2-21C6-4DAC-ADB3-01582A11A069}" userId="S::::73db79b2-9382-4ed6-8ccc-e49f3084606c" providerId="AD"/>
 </personList>
 </file>
 
@@ -548,38 +548,38 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{CC4DAF3E-AB5D-4085-BB0F-229A002BE6A3}" ref="A3" dT="2024-05-28T04:59:59" personId="{850EC9C3-B43B-4214-A43E-11492AA46D49}" parentId="{}">
+  <threadedComment id="{413FE593-4F1F-445C-ACE8-2E1867B58CB7}" ref="K1" dT="2024-05-10T07:08:22" personId="{888A23A2-21C6-4DAC-ADB3-01582A11A069}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{E4099532-E883-4031-997E-6B30A48B811B}" ref="A3" dT="2024-05-28T04:59:59" personId="{888A23A2-21C6-4DAC-ADB3-01582A11A069}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{4972D469-EFEA-442B-9527-8A4B52BC15D6}" ref="M1" dT="2024-05-31T03:31:01" personId="{850EC9C3-B43B-4214-A43E-11492AA46D49}" parentId="{}">
+  <threadedComment id="{502A71E7-9F34-40A5-B573-2BE16201903A}" ref="M1" dT="2024-05-31T03:31:01" personId="{888A23A2-21C6-4DAC-ADB3-01582A11A069}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{3755FC38-6BE6-43BA-9F38-4CB9062234A6}" ref="K1" dT="2024-05-10T07:08:22" personId="{850EC9C3-B43B-4214-A43E-11492AA46D49}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{F40A742F-301D-4F9B-9C01-BC61C5095295}" ref="D8" dT="2024-05-13T07:32:07" personId="{F615F889-4B63-40AF-BE41-33C88991E894}" parentId="{}">
-    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
-  </threadedComment>
-  <threadedComment id="{C4580CED-95D3-4FF3-B662-7640797A446F}" ref="C8" dT="2024-05-09T06:25:33" personId="{850EC9C3-B43B-4214-A43E-11492AA46D49}" parentId="{}">
+  <threadedComment id="{F89BDE89-4748-4B0A-BD5F-CF56501AB0AC}" ref="C8" dT="2024-05-09T06:25:33" personId="{888A23A2-21C6-4DAC-ADB3-01582A11A069}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{9A125EB4-05C0-4195-96F7-E4CC71205D78}" ref="C1" dT="2024-05-10T07:54:02" personId="{850EC9C3-B43B-4214-A43E-11492AA46D49}" parentId="{}">
+  <threadedComment id="{0969FEB0-8450-487F-8343-F5420784AC9A}" ref="C1" dT="2024-05-10T07:54:02" personId="{888A23A2-21C6-4DAC-ADB3-01582A11A069}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{33A21FB0-0401-420F-90F4-FAB751F9A40F}" ref="D1" dT="2024-05-10T08:11:19" personId="{850EC9C3-B43B-4214-A43E-11492AA46D49}" parentId="{}">
+  <threadedComment id="{E40A9369-1429-45A9-81F3-7FB17E7CD61D}" ref="D1" dT="2024-05-10T08:11:19" personId="{888A23A2-21C6-4DAC-ADB3-01582A11A069}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{aec10200-acfc-4dbd-9ffb-837e0102109f}" ref="D1" dT="2024-05-10T08:15:39" personId="{850EC9C3-B43B-4214-A43E-11492AA46D49}" parentId="{33A21FB0-0401-420F-90F4-FAB751F9A40F}">
+  <threadedComment id="{d76c54f9-5915-466c-8be5-cdc9aa2970ce}" ref="D1" dT="2024-05-10T08:15:39" personId="{888A23A2-21C6-4DAC-ADB3-01582A11A069}" parentId="{E40A9369-1429-45A9-81F3-7FB17E7CD61D}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{79FABA68-4315-43D7-AE27-8EBEE962902D}" ref="D8" dT="2024-05-13T07:32:07" personId="{BD436F45-874A-4530-9182-DE6272FF89CE}" parentId="{}">
+    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -787,38 +787,38 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="5" t="str">
         <v>- 你目前在灰颜墓地，上次鼠王苏醒好像园区里的所有工作人员都死了，只留下守墓人 格雷。教宗认为出现了异常，让你过来看看。
 - 教皇让我来查查为啥人都死了，还有叮嘱我要小心不死人。</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4" t="str">
+      <c r="J3" s="4"/>
+      <c r="K3" s="3" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="str">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1107,16 +1107,15 @@
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="115"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="45"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="102"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="76"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="14"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
@@ -1148,27 +1147,24 @@
         <v>npc_role_appearance</v>
       </c>
       <c r="J1" s="2" t="str">
-        <v>interactive_props</v>
+        <v>attributes</v>
       </c>
       <c r="K1" s="2" t="str">
-        <v>attributes</v>
+        <v>stage_entry_status</v>
       </c>
       <c r="L1" s="2" t="str">
-        <v>stage_entry_status</v>
+        <v>stage_entry_role_status</v>
       </c>
       <c r="M1" s="2" t="str">
-        <v>stage_entry_role_status</v>
+        <v>stage_entry_role_props</v>
       </c>
       <c r="N1" s="2" t="str">
-        <v>stage_entry_role_props</v>
+        <v>stage_exit_status</v>
       </c>
       <c r="O1" s="2" t="str">
-        <v>stage_exit_status</v>
+        <v>stage_exit_role_status</v>
       </c>
       <c r="P1" s="2" t="str">
-        <v>stage_exit_role_status</v>
-      </c>
-      <c r="Q1" s="2" t="str">
         <v>stage_exit_role_props</v>
       </c>
     </row>
@@ -1189,7 +1185,6 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
@@ -1210,7 +1205,7 @@
       <c r="I3" s="1" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
-      <c r="K3" s="2" t="str">
+      <c r="J3" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
@@ -1233,20 +1228,17 @@
       <c r="H4" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J4" s="2" t="str">
-        <v>(腐朽的匕首|撬开的缝隙)</v>
-      </c>
-      <c r="K4" s="1" t="str">
+      <c r="J4" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="O4" s="2" t="str">
+      <c r="N4" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
+      <c r="O4" t="str">
+        <v>要离开的角色必须是人类。</v>
+      </c>
       <c r="P4" t="str">
-        <v>要离开的角色必须是人类。</v>
-      </c>
-      <c r="Q4" t="str">
         <v>要离开的角色身上必须具有‘不死者印记’。</v>
       </c>
     </row>
@@ -1264,7 +1256,7 @@
       <c r="G5" s="1" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="K5" s="1" t="str">
+      <c r="J5" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1285,7 +1277,7 @@
       <c r="H6" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="K6" s="1" t="str">
+      <c r="J6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1575,47 +1567,47 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="3" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="3" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="3" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>8008</v>
       </c>
-      <c r="G4" s="4" t="str">
+      <c r="G4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="4" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="4" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -32,24 +32,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={413FE593-4F1F-445C-ACE8-2E1867B58CB7}</author>
-    <author>tc={E4099532-E883-4031-997E-6B30A48B811B}</author>
-    <author>tc={502A71E7-9F34-40A5-B573-2BE16201903A}</author>
+    <author>tc={9579FB1C-4632-487E-84E4-52ACE063D2F7}</author>
+    <author>tc={871F7F8B-2B0B-4516-85F4-A82E8B4AC097}</author>
+    <author>tc={0950E4E1-5FA2-47D6-873F-E5D128440C9C}</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{413FE593-4F1F-445C-ACE8-2E1867B58CB7}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{E4099532-E883-4031-997E-6B30A48B811B}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{9579FB1C-4632-487E-84E4-52ACE063D2F7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{502A71E7-9F34-40A5-B573-2BE16201903A}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{871F7F8B-2B0B-4516-85F4-A82E8B4AC097}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{0950E4E1-5FA2-47D6-873F-E5D128440C9C}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
   </commentList>
@@ -59,34 +59,34 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F89BDE89-4748-4B0A-BD5F-CF56501AB0AC}</author>
-    <author>tc={0969FEB0-8450-487F-8343-F5420784AC9A}</author>
-    <author>tc={E40A9369-1429-45A9-81F3-7FB17E7CD61D}</author>
-    <author>tc={79FABA68-4315-43D7-AE27-8EBEE962902D}</author>
+    <author>tc={DE47AE26-F116-4985-94D9-EF3867F278D8}</author>
+    <author>tc={97F47EF3-F5AA-4E77-9B2F-C7C64A756F25}</author>
+    <author>tc={A2CE3CB3-43A6-4E0D-A6C5-1142BD69211D}</author>
+    <author>tc={E4CF246F-4D74-4CDC-8052-9E5B689665E4}</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{F89BDE89-4748-4B0A-BD5F-CF56501AB0AC}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{DE47AE26-F116-4985-94D9-EF3867F278D8}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{97F47EF3-F5AA-4E77-9B2F-C7C64A756F25}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{0969FEB0-8450-487F-8343-F5420784AC9A}">
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{A2CE3CB3-43A6-4E0D-A6C5-1142BD69211D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{E40A9369-1429-45A9-81F3-7FB17E7CD61D}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{E4CF246F-4D74-4CDC-8052-9E5B689665E4}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="3" shapeId="0" xr:uid="{79FABA68-4315-43D7-AE27-8EBEE962902D}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
     </comment>
   </commentList>
@@ -126,14 +126,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -246,8 +246,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{BD436F45-874A-4530-9182-DE6272FF89CE}" userId="S::::4cfec567-ab90-4882-802c-c2925e4f3665" providerId="AD"/>
-  <person displayName="杨行" id="{888A23A2-21C6-4DAC-ADB3-01582A11A069}" userId="S::::73db79b2-9382-4ed6-8ccc-e49f3084606c" providerId="AD"/>
+  <person displayName="杨行" id="{D9D169DA-1FAB-4CAB-9860-4E2D9315C6EF}" userId="S::::2f633a34-af5d-4faf-96ee-709f18f0e844" providerId="AD"/>
+  <person displayName="侯清辰" id="{1F2B6610-495E-4A67-822A-FAEB3B886490}" userId="S::::f42f1f41-28f8-4718-949a-863a018cb697" providerId="AD"/>
 </personList>
 </file>
 
@@ -548,38 +548,38 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{413FE593-4F1F-445C-ACE8-2E1867B58CB7}" ref="K1" dT="2024-05-10T07:08:22" personId="{888A23A2-21C6-4DAC-ADB3-01582A11A069}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{E4099532-E883-4031-997E-6B30A48B811B}" ref="A3" dT="2024-05-28T04:59:59" personId="{888A23A2-21C6-4DAC-ADB3-01582A11A069}" parentId="{}">
+  <threadedComment id="{9579FB1C-4632-487E-84E4-52ACE063D2F7}" ref="A3" dT="2024-05-28T04:59:59" personId="{D9D169DA-1FAB-4CAB-9860-4E2D9315C6EF}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{502A71E7-9F34-40A5-B573-2BE16201903A}" ref="M1" dT="2024-05-31T03:31:01" personId="{888A23A2-21C6-4DAC-ADB3-01582A11A069}" parentId="{}">
+  <threadedComment id="{871F7F8B-2B0B-4516-85F4-A82E8B4AC097}" ref="M1" dT="2024-05-31T03:31:01" personId="{D9D169DA-1FAB-4CAB-9860-4E2D9315C6EF}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{0950E4E1-5FA2-47D6-873F-E5D128440C9C}" ref="K1" dT="2024-05-10T07:08:22" personId="{D9D169DA-1FAB-4CAB-9860-4E2D9315C6EF}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{F89BDE89-4748-4B0A-BD5F-CF56501AB0AC}" ref="C8" dT="2024-05-09T06:25:33" personId="{888A23A2-21C6-4DAC-ADB3-01582A11A069}" parentId="{}">
+  <threadedComment id="{DE47AE26-F116-4985-94D9-EF3867F278D8}" ref="D8" dT="2024-05-13T07:32:07" personId="{1F2B6610-495E-4A67-822A-FAEB3B886490}" parentId="{}">
+    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
+  </threadedComment>
+  <threadedComment id="{97F47EF3-F5AA-4E77-9B2F-C7C64A756F25}" ref="C8" dT="2024-05-09T06:25:33" personId="{D9D169DA-1FAB-4CAB-9860-4E2D9315C6EF}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{0969FEB0-8450-487F-8343-F5420784AC9A}" ref="C1" dT="2024-05-10T07:54:02" personId="{888A23A2-21C6-4DAC-ADB3-01582A11A069}" parentId="{}">
+  <threadedComment id="{A2CE3CB3-43A6-4E0D-A6C5-1142BD69211D}" ref="C1" dT="2024-05-10T07:54:02" personId="{D9D169DA-1FAB-4CAB-9860-4E2D9315C6EF}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{E40A9369-1429-45A9-81F3-7FB17E7CD61D}" ref="D1" dT="2024-05-10T08:11:19" personId="{888A23A2-21C6-4DAC-ADB3-01582A11A069}" parentId="{}">
+  <threadedComment id="{E4CF246F-4D74-4CDC-8052-9E5B689665E4}" ref="D1" dT="2024-05-10T08:11:19" personId="{D9D169DA-1FAB-4CAB-9860-4E2D9315C6EF}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{d76c54f9-5915-466c-8be5-cdc9aa2970ce}" ref="D1" dT="2024-05-10T08:15:39" personId="{888A23A2-21C6-4DAC-ADB3-01582A11A069}" parentId="{E40A9369-1429-45A9-81F3-7FB17E7CD61D}">
+  <threadedComment id="{6ce30584-ae49-4f59-b498-ee775341fc5a}" ref="D1" dT="2024-05-10T08:15:39" personId="{D9D169DA-1FAB-4CAB-9860-4E2D9315C6EF}" parentId="{E4CF246F-4D74-4CDC-8052-9E5B689665E4}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{79FABA68-4315-43D7-AE27-8EBEE962902D}" ref="D8" dT="2024-05-13T07:32:07" personId="{BD436F45-874A-4530-9182-DE6272FF89CE}" parentId="{}">
-    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -787,38 +787,38 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="5" t="str">
         <v>- 你目前在灰颜墓地，上次鼠王苏醒好像园区里的所有工作人员都死了，只留下守墓人 格雷。教宗认为出现了异常，让你过来看看。
 - 教皇让我来查查为啥人都死了，还有叮嘱我要小心不死人。</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3" t="str">
+      <c r="J3" s="3"/>
+      <c r="K3" s="4" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="str">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1567,47 +1567,47 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="4" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>8008</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="G4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="3" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I4" s="4" t="str">
+      <c r="I4" s="3" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -32,24 +32,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9579FB1C-4632-487E-84E4-52ACE063D2F7}</author>
-    <author>tc={871F7F8B-2B0B-4516-85F4-A82E8B4AC097}</author>
-    <author>tc={0950E4E1-5FA2-47D6-873F-E5D128440C9C}</author>
+    <author>tc={5874F581-D774-4203-BE60-0C16EA603C01}</author>
+    <author>tc={6F01396D-BB8F-418D-BA2E-19BD261B7BEA}</author>
+    <author>tc={AF690426-B7C7-4051-ABE7-6D174E278C2B}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{9579FB1C-4632-487E-84E4-52ACE063D2F7}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{871F7F8B-2B0B-4516-85F4-A82E8B4AC097}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{5874F581-D774-4203-BE60-0C16EA603C01}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{0950E4E1-5FA2-47D6-873F-E5D128440C9C}">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{6F01396D-BB8F-418D-BA2E-19BD261B7BEA}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{AF690426-B7C7-4051-ABE7-6D174E278C2B}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
   </commentList>
@@ -59,28 +59,28 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={DE47AE26-F116-4985-94D9-EF3867F278D8}</author>
-    <author>tc={97F47EF3-F5AA-4E77-9B2F-C7C64A756F25}</author>
-    <author>tc={A2CE3CB3-43A6-4E0D-A6C5-1142BD69211D}</author>
-    <author>tc={E4CF246F-4D74-4CDC-8052-9E5B689665E4}</author>
+    <author>tc={255E032E-78D3-4AD2-98A9-A075F4DD5CEA}</author>
+    <author>tc={8BDC2679-2B9D-4BA0-8F20-F6964DE31D5C}</author>
+    <author>tc={48243873-C1D0-48E0-84A2-5B62820B27FB}</author>
+    <author>tc={21155140-6E33-4A82-93FA-24C673287A10}</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{DE47AE26-F116-4985-94D9-EF3867F278D8}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{255E032E-78D3-4AD2-98A9-A075F4DD5CEA}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{97F47EF3-F5AA-4E77-9B2F-C7C64A756F25}">
+    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{8BDC2679-2B9D-4BA0-8F20-F6964DE31D5C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{A2CE3CB3-43A6-4E0D-A6C5-1142BD69211D}">
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{48243873-C1D0-48E0-84A2-5B62820B27FB}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{E4CF246F-4D74-4CDC-8052-9E5B689665E4}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{21155140-6E33-4A82-93FA-24C673287A10}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -126,14 +126,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -246,8 +246,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{D9D169DA-1FAB-4CAB-9860-4E2D9315C6EF}" userId="S::::2f633a34-af5d-4faf-96ee-709f18f0e844" providerId="AD"/>
-  <person displayName="侯清辰" id="{1F2B6610-495E-4A67-822A-FAEB3B886490}" userId="S::::f42f1f41-28f8-4718-949a-863a018cb697" providerId="AD"/>
+  <person displayName="杨行" id="{97E248D9-F414-49BB-9CBD-BE3B755BD8B4}" userId="S::::102b9b71-e301-415d-aeb9-8a8ed5db6931" providerId="AD"/>
+  <person displayName="侯清辰" id="{F3CB35F2-44BD-4A71-8597-6932E1086E32}" userId="S::::63b94f0b-f3f4-4644-81ed-8c7a3246f658" providerId="AD"/>
 </personList>
 </file>
 
@@ -548,37 +548,37 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{9579FB1C-4632-487E-84E4-52ACE063D2F7}" ref="A3" dT="2024-05-28T04:59:59" personId="{D9D169DA-1FAB-4CAB-9860-4E2D9315C6EF}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{871F7F8B-2B0B-4516-85F4-A82E8B4AC097}" ref="M1" dT="2024-05-31T03:31:01" personId="{D9D169DA-1FAB-4CAB-9860-4E2D9315C6EF}" parentId="{}">
+  <threadedComment id="{5874F581-D774-4203-BE60-0C16EA603C01}" ref="M1" dT="2024-05-31T03:31:01" personId="{97E248D9-F414-49BB-9CBD-BE3B755BD8B4}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{0950E4E1-5FA2-47D6-873F-E5D128440C9C}" ref="K1" dT="2024-05-10T07:08:22" personId="{D9D169DA-1FAB-4CAB-9860-4E2D9315C6EF}" parentId="{}">
+  <threadedComment id="{6F01396D-BB8F-418D-BA2E-19BD261B7BEA}" ref="K1" dT="2024-05-10T07:08:22" personId="{97E248D9-F414-49BB-9CBD-BE3B755BD8B4}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{AF690426-B7C7-4051-ABE7-6D174E278C2B}" ref="A3" dT="2024-05-28T04:59:59" personId="{97E248D9-F414-49BB-9CBD-BE3B755BD8B4}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{DE47AE26-F116-4985-94D9-EF3867F278D8}" ref="D8" dT="2024-05-13T07:32:07" personId="{1F2B6610-495E-4A67-822A-FAEB3B886490}" parentId="{}">
+  <threadedComment id="{255E032E-78D3-4AD2-98A9-A075F4DD5CEA}" ref="D8" dT="2024-05-13T07:32:07" personId="{F3CB35F2-44BD-4A71-8597-6932E1086E32}" parentId="{}">
     <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
   </threadedComment>
-  <threadedComment id="{97F47EF3-F5AA-4E77-9B2F-C7C64A756F25}" ref="C8" dT="2024-05-09T06:25:33" personId="{D9D169DA-1FAB-4CAB-9860-4E2D9315C6EF}" parentId="{}">
+  <threadedComment id="{8BDC2679-2B9D-4BA0-8F20-F6964DE31D5C}" ref="C8" dT="2024-05-09T06:25:33" personId="{97E248D9-F414-49BB-9CBD-BE3B755BD8B4}" parentId="{}">
     <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{A2CE3CB3-43A6-4E0D-A6C5-1142BD69211D}" ref="C1" dT="2024-05-10T07:54:02" personId="{D9D169DA-1FAB-4CAB-9860-4E2D9315C6EF}" parentId="{}">
+  <threadedComment id="{48243873-C1D0-48E0-84A2-5B62820B27FB}" ref="C1" dT="2024-05-10T07:54:02" personId="{97E248D9-F414-49BB-9CBD-BE3B755BD8B4}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{E4CF246F-4D74-4CDC-8052-9E5B689665E4}" ref="D1" dT="2024-05-10T08:11:19" personId="{D9D169DA-1FAB-4CAB-9860-4E2D9315C6EF}" parentId="{}">
+  <threadedComment id="{21155140-6E33-4A82-93FA-24C673287A10}" ref="D1" dT="2024-05-10T08:11:19" personId="{97E248D9-F414-49BB-9CBD-BE3B755BD8B4}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{6ce30584-ae49-4f59-b498-ee775341fc5a}" ref="D1" dT="2024-05-10T08:15:39" personId="{D9D169DA-1FAB-4CAB-9860-4E2D9315C6EF}" parentId="{E4CF246F-4D74-4CDC-8052-9E5B689665E4}">
+  <threadedComment id="{a83d8851-65e5-424e-ad1b-74bb73d40239}" ref="D1" dT="2024-05-10T08:15:39" personId="{97E248D9-F414-49BB-9CBD-BE3B755BD8B4}" parentId="{21155140-6E33-4A82-93FA-24C673287A10}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
 </ThreadedComments>
@@ -787,38 +787,38 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="5" t="str">
         <v>- 你目前在灰颜墓地，上次鼠王苏醒好像园区里的所有工作人员都死了，只留下守墓人 格雷。教宗认为出现了异常，让你过来看看。
 - 教皇让我来查查为啥人都死了，还有叮嘱我要小心不死人。</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4" t="str">
+      <c r="J3" s="4"/>
+      <c r="K3" s="3" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="str">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1567,47 +1567,47 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="3" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="3" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="3" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>8008</v>
       </c>
-      <c r="G4" s="4" t="str">
+      <c r="G4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="4" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="4" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -32,24 +32,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={5874F581-D774-4203-BE60-0C16EA603C01}</author>
-    <author>tc={6F01396D-BB8F-418D-BA2E-19BD261B7BEA}</author>
-    <author>tc={AF690426-B7C7-4051-ABE7-6D174E278C2B}</author>
+    <author>tc={15AE37F7-AFFE-40E3-93EB-C34159F65954}</author>
+    <author>tc={69529634-3BC6-41C7-81A2-D1216BA799FB}</author>
+    <author>tc={2BFEFBAF-EEA0-4989-A81C-6888E98B3959}</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{5874F581-D774-4203-BE60-0C16EA603C01}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{6F01396D-BB8F-418D-BA2E-19BD261B7BEA}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{15AE37F7-AFFE-40E3-93EB-C34159F65954}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
-    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{AF690426-B7C7-4051-ABE7-6D174E278C2B}">
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{69529634-3BC6-41C7-81A2-D1216BA799FB}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{2BFEFBAF-EEA0-4989-A81C-6888E98B3959}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
   </commentList>
@@ -59,34 +59,34 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={255E032E-78D3-4AD2-98A9-A075F4DD5CEA}</author>
-    <author>tc={8BDC2679-2B9D-4BA0-8F20-F6964DE31D5C}</author>
-    <author>tc={48243873-C1D0-48E0-84A2-5B62820B27FB}</author>
-    <author>tc={21155140-6E33-4A82-93FA-24C673287A10}</author>
+    <author>tc={A1FCA30B-44A0-4959-87D0-0BD0EBEA4B83}</author>
+    <author>tc={65A54BB4-B4AB-44F5-A9F4-B98D2C83532D}</author>
+    <author>tc={508F7A12-7243-4DAB-9D19-96B0C0A7984A}</author>
+    <author>tc={251E93C2-0DCE-4182-99D7-1E3CE4D7A86B}</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{255E032E-78D3-4AD2-98A9-A075F4DD5CEA}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{8BDC2679-2B9D-4BA0-8F20-F6964DE31D5C}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{48243873-C1D0-48E0-84A2-5B62820B27FB}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A1FCA30B-44A0-4959-87D0-0BD0EBEA4B83}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{21155140-6E33-4A82-93FA-24C673287A10}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{65A54BB4-B4AB-44F5-A9F4-B98D2C83532D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{508F7A12-7243-4DAB-9D19-96B0C0A7984A}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{251E93C2-0DCE-4182-99D7-1E3CE4D7A86B}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -126,14 +126,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -246,8 +246,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{97E248D9-F414-49BB-9CBD-BE3B755BD8B4}" userId="S::::102b9b71-e301-415d-aeb9-8a8ed5db6931" providerId="AD"/>
-  <person displayName="侯清辰" id="{F3CB35F2-44BD-4A71-8597-6932E1086E32}" userId="S::::63b94f0b-f3f4-4644-81ed-8c7a3246f658" providerId="AD"/>
+  <person displayName="侯清辰" id="{1CB5ED6F-A577-41A7-A83C-65F9C1997048}" userId="S::::3f7670c8-17ab-4467-b5e5-026509488dcb" providerId="AD"/>
+  <person displayName="杨行" id="{DEC1A077-F614-4609-90BF-262064A3073C}" userId="S::::6f57ec4b-3125-4dd2-b346-1a7ac1012a2f" providerId="AD"/>
 </personList>
 </file>
 
@@ -548,38 +548,38 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{5874F581-D774-4203-BE60-0C16EA603C01}" ref="M1" dT="2024-05-31T03:31:01" personId="{97E248D9-F414-49BB-9CBD-BE3B755BD8B4}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{6F01396D-BB8F-418D-BA2E-19BD261B7BEA}" ref="K1" dT="2024-05-10T07:08:22" personId="{97E248D9-F414-49BB-9CBD-BE3B755BD8B4}" parentId="{}">
+  <threadedComment id="{15AE37F7-AFFE-40E3-93EB-C34159F65954}" ref="K1" dT="2024-05-10T07:08:22" personId="{DEC1A077-F614-4609-90BF-262064A3073C}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{AF690426-B7C7-4051-ABE7-6D174E278C2B}" ref="A3" dT="2024-05-28T04:59:59" personId="{97E248D9-F414-49BB-9CBD-BE3B755BD8B4}" parentId="{}">
+  <threadedComment id="{69529634-3BC6-41C7-81A2-D1216BA799FB}" ref="A3" dT="2024-05-28T04:59:59" personId="{DEC1A077-F614-4609-90BF-262064A3073C}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{2BFEFBAF-EEA0-4989-A81C-6888E98B3959}" ref="M1" dT="2024-05-31T03:31:01" personId="{DEC1A077-F614-4609-90BF-262064A3073C}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{255E032E-78D3-4AD2-98A9-A075F4DD5CEA}" ref="D8" dT="2024-05-13T07:32:07" personId="{F3CB35F2-44BD-4A71-8597-6932E1086E32}" parentId="{}">
-    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
-  </threadedComment>
-  <threadedComment id="{8BDC2679-2B9D-4BA0-8F20-F6964DE31D5C}" ref="C8" dT="2024-05-09T06:25:33" personId="{97E248D9-F414-49BB-9CBD-BE3B755BD8B4}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{48243873-C1D0-48E0-84A2-5B62820B27FB}" ref="C1" dT="2024-05-10T07:54:02" personId="{97E248D9-F414-49BB-9CBD-BE3B755BD8B4}" parentId="{}">
+  <threadedComment id="{A1FCA30B-44A0-4959-87D0-0BD0EBEA4B83}" ref="C1" dT="2024-05-10T07:54:02" personId="{DEC1A077-F614-4609-90BF-262064A3073C}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{21155140-6E33-4A82-93FA-24C673287A10}" ref="D1" dT="2024-05-10T08:11:19" personId="{97E248D9-F414-49BB-9CBD-BE3B755BD8B4}" parentId="{}">
+  <threadedComment id="{65A54BB4-B4AB-44F5-A9F4-B98D2C83532D}" ref="D1" dT="2024-05-10T08:11:19" personId="{DEC1A077-F614-4609-90BF-262064A3073C}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{a83d8851-65e5-424e-ad1b-74bb73d40239}" ref="D1" dT="2024-05-10T08:15:39" personId="{97E248D9-F414-49BB-9CBD-BE3B755BD8B4}" parentId="{21155140-6E33-4A82-93FA-24C673287A10}">
+  <threadedComment id="{a156f9eb-106f-4ef2-93f1-6927dc026059}" ref="D1" dT="2024-05-10T08:15:39" personId="{DEC1A077-F614-4609-90BF-262064A3073C}" parentId="{65A54BB4-B4AB-44F5-A9F4-B98D2C83532D}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{508F7A12-7243-4DAB-9D19-96B0C0A7984A}" ref="D8" dT="2024-05-13T07:32:07" personId="{1CB5ED6F-A577-41A7-A83C-65F9C1997048}" parentId="{}">
+    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
+  </threadedComment>
+  <threadedComment id="{251E93C2-0DCE-4182-99D7-1E3CE4D7A86B}" ref="C8" dT="2024-05-09T06:25:33" personId="{DEC1A077-F614-4609-90BF-262064A3073C}" parentId="{}">
+    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -787,38 +787,38 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="5" t="str">
         <v>- 你目前在灰颜墓地，上次鼠王苏醒好像园区里的所有工作人员都死了，只留下守墓人 格雷。教宗认为出现了异常，让你过来看看。
 - 教皇让我来查查为啥人都死了，还有叮嘱我要小心不死人。</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3" t="str">
+      <c r="J3" s="3"/>
+      <c r="K3" s="4" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="str">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1567,47 +1567,47 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="4" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>8008</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="G4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="3" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I4" s="4" t="str">
+      <c r="I4" s="3" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -32,24 +32,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={15AE37F7-AFFE-40E3-93EB-C34159F65954}</author>
-    <author>tc={69529634-3BC6-41C7-81A2-D1216BA799FB}</author>
-    <author>tc={2BFEFBAF-EEA0-4989-A81C-6888E98B3959}</author>
+    <author>tc={B07A85AF-5EF6-46C7-8352-3CA53449E7E5}</author>
+    <author>tc={9064279F-5C87-4E3E-BBDC-20C96FF05D79}</author>
+    <author>tc={01C86DB5-65B6-4BE3-8379-36107CAE7CCC}</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{15AE37F7-AFFE-40E3-93EB-C34159F65954}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{69529634-3BC6-41C7-81A2-D1216BA799FB}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{B07A85AF-5EF6-46C7-8352-3CA53449E7E5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{2BFEFBAF-EEA0-4989-A81C-6888E98B3959}">
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{9064279F-5C87-4E3E-BBDC-20C96FF05D79}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{01C86DB5-65B6-4BE3-8379-36107CAE7CCC}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
   </commentList>
@@ -59,34 +59,22 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A1FCA30B-44A0-4959-87D0-0BD0EBEA4B83}</author>
-    <author>tc={65A54BB4-B4AB-44F5-A9F4-B98D2C83532D}</author>
-    <author>tc={508F7A12-7243-4DAB-9D19-96B0C0A7984A}</author>
-    <author>tc={251E93C2-0DCE-4182-99D7-1E3CE4D7A86B}</author>
+    <author>tc={0E43477E-A70D-4E9B-B13D-B8F5D2394BD5}</author>
+    <author>tc={6F04F6B5-031A-40AA-B104-4E2EA0EE6A35}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A1FCA30B-44A0-4959-87D0-0BD0EBEA4B83}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0E43477E-A70D-4E9B-B13D-B8F5D2394BD5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{65A54BB4-B4AB-44F5-A9F4-B98D2C83532D}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{6F04F6B5-031A-40AA-B104-4E2EA0EE6A35}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{508F7A12-7243-4DAB-9D19-96B0C0A7984A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</t>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="3" shapeId="0" xr:uid="{251E93C2-0DCE-4182-99D7-1E3CE4D7A86B}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 填No,不能被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -246,8 +234,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{1CB5ED6F-A577-41A7-A83C-65F9C1997048}" userId="S::::3f7670c8-17ab-4467-b5e5-026509488dcb" providerId="AD"/>
-  <person displayName="杨行" id="{DEC1A077-F614-4609-90BF-262064A3073C}" userId="S::::6f57ec4b-3125-4dd2-b346-1a7ac1012a2f" providerId="AD"/>
+  <person displayName="杨行" id="{E3A9421C-66F7-41F1-908B-08E3C6F9BE90}" userId="S::::13b486ce-6cbc-432d-ae2d-2f508bd17974" providerId="AD"/>
+  <person displayName="侯清辰" id="{CD1AAA4B-6879-4181-AE92-EEF84D023FEC}" userId="S::::9b060cf4-7441-445e-bb99-721e51f884b9" providerId="AD"/>
 </personList>
 </file>
 
@@ -548,38 +536,32 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{15AE37F7-AFFE-40E3-93EB-C34159F65954}" ref="K1" dT="2024-05-10T07:08:22" personId="{DEC1A077-F614-4609-90BF-262064A3073C}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{69529634-3BC6-41C7-81A2-D1216BA799FB}" ref="A3" dT="2024-05-28T04:59:59" personId="{DEC1A077-F614-4609-90BF-262064A3073C}" parentId="{}">
+  <threadedComment id="{B07A85AF-5EF6-46C7-8352-3CA53449E7E5}" ref="A3" dT="2024-05-28T04:59:59" personId="{E3A9421C-66F7-41F1-908B-08E3C6F9BE90}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{2BFEFBAF-EEA0-4989-A81C-6888E98B3959}" ref="M1" dT="2024-05-31T03:31:01" personId="{DEC1A077-F614-4609-90BF-262064A3073C}" parentId="{}">
+  <threadedComment id="{9064279F-5C87-4E3E-BBDC-20C96FF05D79}" ref="J1" dT="2024-05-31T03:31:01" personId="{E3A9421C-66F7-41F1-908B-08E3C6F9BE90}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{01C86DB5-65B6-4BE3-8379-36107CAE7CCC}" ref="I1" dT="2024-05-10T07:08:22" personId="{E3A9421C-66F7-41F1-908B-08E3C6F9BE90}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{A1FCA30B-44A0-4959-87D0-0BD0EBEA4B83}" ref="C1" dT="2024-05-10T07:54:02" personId="{DEC1A077-F614-4609-90BF-262064A3073C}" parentId="{}">
+  <threadedComment id="{0E43477E-A70D-4E9B-B13D-B8F5D2394BD5}" ref="C1" dT="2024-05-10T07:54:02" personId="{E3A9421C-66F7-41F1-908B-08E3C6F9BE90}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{65A54BB4-B4AB-44F5-A9F4-B98D2C83532D}" ref="D1" dT="2024-05-10T08:11:19" personId="{DEC1A077-F614-4609-90BF-262064A3073C}" parentId="{}">
+  <threadedComment id="{6F04F6B5-031A-40AA-B104-4E2EA0EE6A35}" ref="D1" dT="2024-05-10T08:11:19" personId="{E3A9421C-66F7-41F1-908B-08E3C6F9BE90}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{a156f9eb-106f-4ef2-93f1-6927dc026059}" ref="D1" dT="2024-05-10T08:15:39" personId="{DEC1A077-F614-4609-90BF-262064A3073C}" parentId="{65A54BB4-B4AB-44F5-A9F4-B98D2C83532D}">
+  <threadedComment id="{c1db719b-bfab-4519-9f51-ef19cfb145b8}" ref="D1" dT="2024-05-10T08:15:39" personId="{E3A9421C-66F7-41F1-908B-08E3C6F9BE90}" parentId="{6F04F6B5-031A-40AA-B104-4E2EA0EE6A35}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{508F7A12-7243-4DAB-9D19-96B0C0A7984A}" ref="D8" dT="2024-05-13T07:32:07" personId="{1CB5ED6F-A577-41A7-A83C-65F9C1997048}" parentId="{}">
-    <text>Event类型的道具，在description中写出某某道具怎么样某某对象的句式，用以让interactive prop system解析出动作，方便format到prompt里</text>
-  </threadedComment>
-  <threadedComment id="{251E93C2-0DCE-4182-99D7-1E3CE4D7A86B}" ref="C8" dT="2024-05-09T06:25:33" personId="{DEC1A077-F614-4609-90BF-262064A3073C}" parentId="{}">
-    <text>@侯清辰 填No,不能被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -676,23 +658,20 @@
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="82"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="70"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="115"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="45"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="102"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="115"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="102"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="76"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="14"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
@@ -709,48 +688,39 @@
         <v>props_on_npc</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>stage_entry_conditions</v>
+        <v>props_in_stage</v>
       </c>
       <c r="F1" s="1" t="str">
-        <v>stage_exit_conditions</v>
+        <v>npcs_in_stage</v>
       </c>
       <c r="G1" s="1" t="str">
-        <v>props_in_stage</v>
+        <v>initialization_memory</v>
       </c>
       <c r="H1" s="1" t="str">
-        <v>npcs_in_stage</v>
+        <v>exit_of_portal</v>
       </c>
       <c r="I1" s="1" t="str">
-        <v>initialization_memory</v>
-      </c>
-      <c r="J1" s="1" t="str">
-        <v>exit_of_portal</v>
-      </c>
-      <c r="K1" s="1" t="str">
         <v>npc_role_appearance</v>
       </c>
+      <c r="J1" s="2" t="str">
+        <v>attributes</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <v>stage_entry_status</v>
+      </c>
       <c r="L1" s="2" t="str">
-        <v>interactive_props</v>
+        <v>stage_entry_role_status</v>
       </c>
       <c r="M1" s="2" t="str">
-        <v>attributes</v>
+        <v>stage_entry_role_props</v>
       </c>
       <c r="N1" s="2" t="str">
-        <v>stage_entry_status</v>
+        <v>stage_exit_status</v>
       </c>
       <c r="O1" s="2" t="str">
-        <v>stage_entry_role_status</v>
+        <v>stage_exit_role_status</v>
       </c>
       <c r="P1" s="2" t="str">
-        <v>stage_entry_role_props</v>
-      </c>
-      <c r="Q1" s="2" t="str">
-        <v>stage_exit_status</v>
-      </c>
-      <c r="R1" s="2" t="str">
-        <v>stage_exit_role_status</v>
-      </c>
-      <c r="S1" s="2" t="str">
         <v>stage_exit_role_props</v>
       </c>
     </row>
@@ -781,10 +751,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="str">
@@ -797,28 +764,25 @@
       <c r="D3" s="4"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5" t="str">
+      <c r="G3" s="5" t="str">
         <v>- 你目前在灰颜墓地，上次鼠王苏醒好像园区里的所有工作人员都死了，只留下守墓人 格雷。教宗认为出现了异常，让你过来看看。
 - 教皇让我来查查为啥人都死了，还有叮嘱我要小心不死人。</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4" t="str">
+      <c r="H3" s="3"/>
+      <c r="I3" s="4" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
+      <c r="J3" s="3" t="str">
+        <v>100,100,10,1</v>
+      </c>
+      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3" t="str">
-        <v>100,100,10,1</v>
-      </c>
+      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -831,15 +795,15 @@
       <c r="D4" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="G4" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="K4" s="1" t="str">
+      <c r="I4" s="1" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
-      <c r="M4" s="2" t="str">
+      <c r="J4" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
@@ -854,16 +818,16 @@
       <c r="D5" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="G5" s="1" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="K5" s="1" t="str">
+      <c r="I5" s="1" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
-      <c r="M5" s="2" t="str">
+      <c r="J5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
@@ -878,7 +842,7 @@
       <c r="D6" s="1" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="G6" s="1" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -886,10 +850,10 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="K6" s="1" t="str">
+      <c r="I6" s="1" t="str">
         <v>一个男性人类，个子中等，身着守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具</v>
       </c>
-      <c r="M6" s="2" t="str">
+      <c r="J6" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
@@ -902,15 +866,15 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="I7" s="1" t="str">
+      <c r="G7" s="1" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="K7" s="1" t="str">
+      <c r="I7" s="1" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
-      <c r="M7" s="2" t="str">
+      <c r="J7" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
@@ -923,7 +887,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="I8" s="1" t="str">
+      <c r="G8" s="1" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -931,10 +895,10 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="K8" s="1" t="str">
+      <c r="I8" s="1" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
-      <c r="M8" s="2" t="str">
+      <c r="J8" s="2" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
@@ -947,37 +911,28 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="2" t="str">
-        <v>不死者印记</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="str">
-        <v>(撬开的缝隙|禁言铁棺处于被锁住的状态，无法离开。也许某些尖锐物品能撬开棺材盖间的缝隙？)</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="G9" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
+      <c r="H9" s="1" t="str">
+        <v>灰颜墓地</v>
+      </c>
       <c r="J9" s="1" t="str">
-        <v>灰颜墓地</v>
-      </c>
-      <c r="L9" s="2" t="str">
-        <v>(腐朽的匕首|撬开的缝隙)</v>
-      </c>
-      <c r="M9" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="Q9" s="2" t="str">
+      <c r="N9" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
-      <c r="R9" t="str">
+      <c r="O9" t="str">
         <v>要离开的角色必须是人类。</v>
       </c>
-      <c r="S9" t="str">
+      <c r="P9" t="str">
         <v>要离开的角色身上必须具有‘不死者印记’。</v>
       </c>
     </row>
@@ -991,15 +946,13 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="str">
+      <c r="F10" s="1" t="str">
         <v>格雷;摩尔;小灰鼠帕奇;教廷密使</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="G10" s="1" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="M10" s="1" t="str">
+      <c r="J10" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1013,15 +966,13 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="str">
+      <c r="F11" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="I11" s="1" t="str">
+      <c r="G11" s="1" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="M11" s="1" t="str">
+      <c r="J11" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1034,16 +985,14 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="str">
+        <v>炉钩</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="str">
-        <v>炉钩</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="M12" s="1" t="str">
+      <c r="J12" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1056,19 +1005,15 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1" t="str">
-        <v>断指钥匙;左爪胎记</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="str">
+      <c r="G13" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="J13" s="2" t="str">
+      <c r="H13" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="M13" s="1" t="str">
+      <c r="J13" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -2024,30 +1969,11 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="2" t="str">
-        <v>撬开的缝隙</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <v>lid_of_the_coffin</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <v>Event</v>
-      </c>
-      <c r="E8" s="2" t="str">
-        <v>使用腐朽的匕首撬动禁言铁棺产生的缝隙，足够一个人钻出</v>
-      </c>
       <c r="G8" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="9">
-      <c r="G9" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-    </row>
+    <row customHeight="true" ht="23" r="9"/>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row customHeight="true" ht="23" r="12"/>
@@ -2059,7 +1985,6 @@
     <row customHeight="true" ht="23" r="18"/>
     <row customHeight="true" ht="23" r="19"/>
     <row customHeight="true" ht="23" r="20"/>
-    <row customHeight="true" ht="23" r="21"/>
   </sheetData>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -32,24 +32,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B07A85AF-5EF6-46C7-8352-3CA53449E7E5}</author>
-    <author>tc={9064279F-5C87-4E3E-BBDC-20C96FF05D79}</author>
-    <author>tc={01C86DB5-65B6-4BE3-8379-36107CAE7CCC}</author>
+    <author>tc={EC097BB1-D734-40E4-8550-A5283F1918A8}</author>
+    <author>tc={BA8A6EB5-F0E0-4E1C-939F-822444432FE0}</author>
+    <author>tc={93B1CD11-0039-4A68-AF32-B51DC766E97D}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{B07A85AF-5EF6-46C7-8352-3CA53449E7E5}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{EC097BB1-D734-40E4-8550-A5283F1918A8}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{BA8A6EB5-F0E0-4E1C-939F-822444432FE0}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{9064279F-5C87-4E3E-BBDC-20C96FF05D79}">
+    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{93B1CD11-0039-4A68-AF32-B51DC766E97D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{01C86DB5-65B6-4BE3-8379-36107CAE7CCC}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
   </commentList>
@@ -59,16 +59,16 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={0E43477E-A70D-4E9B-B13D-B8F5D2394BD5}</author>
-    <author>tc={6F04F6B5-031A-40AA-B104-4E2EA0EE6A35}</author>
+    <author>tc={E24662FB-2334-4A9A-AC33-FE1C7E80E8E6}</author>
+    <author>tc={F66402A5-09E1-499B-83CB-D32630A68418}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0E43477E-A70D-4E9B-B13D-B8F5D2394BD5}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E24662FB-2334-4A9A-AC33-FE1C7E80E8E6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{6F04F6B5-031A-40AA-B104-4E2EA0EE6A35}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{F66402A5-09E1-499B-83CB-D32630A68418}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -114,14 +114,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -234,8 +234,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{E3A9421C-66F7-41F1-908B-08E3C6F9BE90}" userId="S::::13b486ce-6cbc-432d-ae2d-2f508bd17974" providerId="AD"/>
-  <person displayName="侯清辰" id="{CD1AAA4B-6879-4181-AE92-EEF84D023FEC}" userId="S::::9b060cf4-7441-445e-bb99-721e51f884b9" providerId="AD"/>
+  <person displayName="杨行" id="{BE0086F6-CE64-4B76-AAB1-731089CC3A3C}" userId="S::::db2c7a50-4f51-4d74-bc80-45b791563f20" providerId="AD"/>
+  <person displayName="侯清辰" id="{F9C991D9-7E3C-40FB-898D-89DEC25CCF0D}" userId="S::::61cc0ec2-4f7a-4e6e-b585-9ceaa39b8ba3" providerId="AD"/>
 </personList>
 </file>
 
@@ -536,31 +536,31 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B07A85AF-5EF6-46C7-8352-3CA53449E7E5}" ref="A3" dT="2024-05-28T04:59:59" personId="{E3A9421C-66F7-41F1-908B-08E3C6F9BE90}" parentId="{}">
+  <threadedComment id="{EC097BB1-D734-40E4-8550-A5283F1918A8}" ref="I1" dT="2024-05-10T07:08:22" personId="{BE0086F6-CE64-4B76-AAB1-731089CC3A3C}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{BA8A6EB5-F0E0-4E1C-939F-822444432FE0}" ref="A3" dT="2024-05-28T04:59:59" personId="{BE0086F6-CE64-4B76-AAB1-731089CC3A3C}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{9064279F-5C87-4E3E-BBDC-20C96FF05D79}" ref="J1" dT="2024-05-31T03:31:01" personId="{E3A9421C-66F7-41F1-908B-08E3C6F9BE90}" parentId="{}">
+  <threadedComment id="{93B1CD11-0039-4A68-AF32-B51DC766E97D}" ref="J1" dT="2024-05-31T03:31:01" personId="{BE0086F6-CE64-4B76-AAB1-731089CC3A3C}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{01C86DB5-65B6-4BE3-8379-36107CAE7CCC}" ref="I1" dT="2024-05-10T07:08:22" personId="{E3A9421C-66F7-41F1-908B-08E3C6F9BE90}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{0E43477E-A70D-4E9B-B13D-B8F5D2394BD5}" ref="C1" dT="2024-05-10T07:54:02" personId="{E3A9421C-66F7-41F1-908B-08E3C6F9BE90}" parentId="{}">
+  <threadedComment id="{E24662FB-2334-4A9A-AC33-FE1C7E80E8E6}" ref="C1" dT="2024-05-10T07:54:02" personId="{BE0086F6-CE64-4B76-AAB1-731089CC3A3C}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{6F04F6B5-031A-40AA-B104-4E2EA0EE6A35}" ref="D1" dT="2024-05-10T08:11:19" personId="{E3A9421C-66F7-41F1-908B-08E3C6F9BE90}" parentId="{}">
+  <threadedComment id="{F66402A5-09E1-499B-83CB-D32630A68418}" ref="D1" dT="2024-05-10T08:11:19" personId="{BE0086F6-CE64-4B76-AAB1-731089CC3A3C}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{c1db719b-bfab-4519-9f51-ef19cfb145b8}" ref="D1" dT="2024-05-10T08:15:39" personId="{E3A9421C-66F7-41F1-908B-08E3C6F9BE90}" parentId="{6F04F6B5-031A-40AA-B104-4E2EA0EE6A35}">
+  <threadedComment id="{af01c463-ced9-4b96-854f-fc19b60a979a}" ref="D1" dT="2024-05-10T08:15:39" personId="{BE0086F6-CE64-4B76-AAB1-731089CC3A3C}" parentId="{F66402A5-09E1-499B-83CB-D32630A68418}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
 </ThreadedComments>
@@ -754,35 +754,35 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="5" t="str">
         <v>- 你目前在灰颜墓地，上次鼠王苏醒好像园区里的所有工作人员都死了，只留下守墓人 格雷。教宗认为出现了异常，让你过来看看。
 - 教皇让我来查查为啥人都死了，还有叮嘱我要小心不死人。</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4" t="str">
+      <c r="H3" s="4"/>
+      <c r="I3" s="3" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="J3" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1512,47 +1512,47 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="3" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="3" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="3" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>8008</v>
       </c>
-      <c r="G4" s="4" t="str">
+      <c r="G4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="4" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="4" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -32,24 +32,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={EC097BB1-D734-40E4-8550-A5283F1918A8}</author>
-    <author>tc={BA8A6EB5-F0E0-4E1C-939F-822444432FE0}</author>
-    <author>tc={93B1CD11-0039-4A68-AF32-B51DC766E97D}</author>
+    <author>tc={89E75C4C-E539-42CE-BEED-FA2BED7CCF91}</author>
+    <author>tc={3F00A2A7-004E-497C-BF5F-8332912B2DA8}</author>
+    <author>tc={1A04EFB6-E748-4717-9B5A-86962EB70DDF}</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{EC097BB1-D734-40E4-8550-A5283F1918A8}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{89E75C4C-E539-42CE-BEED-FA2BED7CCF91}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{3F00A2A7-004E-497C-BF5F-8332912B2DA8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{BA8A6EB5-F0E0-4E1C-939F-822444432FE0}">
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{1A04EFB6-E748-4717-9B5A-86962EB70DDF}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{93B1CD11-0039-4A68-AF32-B51DC766E97D}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
   </commentList>
@@ -59,16 +59,16 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E24662FB-2334-4A9A-AC33-FE1C7E80E8E6}</author>
-    <author>tc={F66402A5-09E1-499B-83CB-D32630A68418}</author>
+    <author>tc={F7C8A3AE-B67B-4091-9F38-3617903570E3}</author>
+    <author>tc={0E9348FB-65E1-47DF-B6A8-A0A6E747AA0E}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E24662FB-2334-4A9A-AC33-FE1C7E80E8E6}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F7C8A3AE-B67B-4091-9F38-3617903570E3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{F66402A5-09E1-499B-83CB-D32630A68418}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{0E9348FB-65E1-47DF-B6A8-A0A6E747AA0E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -82,9 +82,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <t xml:space="preserve">World3 和 World2 类似。但是，是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@杨行</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> 用于测试与重构用的，目前只作为测试切换场景，场景限制条件与对场景使用道具用</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -234,8 +252,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{BE0086F6-CE64-4B76-AAB1-731089CC3A3C}" userId="S::::db2c7a50-4f51-4d74-bc80-45b791563f20" providerId="AD"/>
-  <person displayName="侯清辰" id="{F9C991D9-7E3C-40FB-898D-89DEC25CCF0D}" userId="S::::61cc0ec2-4f7a-4e6e-b585-9ceaa39b8ba3" providerId="AD"/>
+  <person displayName="杨行" id="{E225B1F8-C963-4AFD-B18D-5244747673B7}" userId="S::::4d60b492-2b8b-4a02-af15-4e93afdd4621" providerId="AD"/>
+  <person displayName="侯清辰" id="{6F473967-9A18-45EB-994F-8250EA1A4955}" userId="S::::61733947-9a8a-403f-b0d6-d14039738588" providerId="AD"/>
 </personList>
 </file>
 
@@ -536,31 +554,31 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{EC097BB1-D734-40E4-8550-A5283F1918A8}" ref="I1" dT="2024-05-10T07:08:22" personId="{BE0086F6-CE64-4B76-AAB1-731089CC3A3C}" parentId="{}">
+  <threadedComment id="{89E75C4C-E539-42CE-BEED-FA2BED7CCF91}" ref="J1" dT="2024-05-31T03:31:01" personId="{E225B1F8-C963-4AFD-B18D-5244747673B7}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{3F00A2A7-004E-497C-BF5F-8332912B2DA8}" ref="I1" dT="2024-05-10T07:08:22" personId="{E225B1F8-C963-4AFD-B18D-5244747673B7}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{BA8A6EB5-F0E0-4E1C-939F-822444432FE0}" ref="A3" dT="2024-05-28T04:59:59" personId="{BE0086F6-CE64-4B76-AAB1-731089CC3A3C}" parentId="{}">
+  <threadedComment id="{1A04EFB6-E748-4717-9B5A-86962EB70DDF}" ref="A3" dT="2024-05-28T04:59:59" personId="{E225B1F8-C963-4AFD-B18D-5244747673B7}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{93B1CD11-0039-4A68-AF32-B51DC766E97D}" ref="J1" dT="2024-05-31T03:31:01" personId="{BE0086F6-CE64-4B76-AAB1-731089CC3A3C}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{E24662FB-2334-4A9A-AC33-FE1C7E80E8E6}" ref="C1" dT="2024-05-10T07:54:02" personId="{BE0086F6-CE64-4B76-AAB1-731089CC3A3C}" parentId="{}">
+  <threadedComment id="{F7C8A3AE-B67B-4091-9F38-3617903570E3}" ref="C1" dT="2024-05-10T07:54:02" personId="{E225B1F8-C963-4AFD-B18D-5244747673B7}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{F66402A5-09E1-499B-83CB-D32630A68418}" ref="D1" dT="2024-05-10T08:11:19" personId="{BE0086F6-CE64-4B76-AAB1-731089CC3A3C}" parentId="{}">
+  <threadedComment id="{0E9348FB-65E1-47DF-B6A8-A0A6E747AA0E}" ref="D1" dT="2024-05-10T08:11:19" personId="{E225B1F8-C963-4AFD-B18D-5244747673B7}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{af01c463-ced9-4b96-854f-fc19b60a979a}" ref="D1" dT="2024-05-10T08:15:39" personId="{BE0086F6-CE64-4B76-AAB1-731089CC3A3C}" parentId="{F66402A5-09E1-499B-83CB-D32630A68418}">
+  <threadedComment id="{36c03e40-9266-4fac-88f1-afa3eb3da959}" ref="D1" dT="2024-05-10T08:15:39" personId="{E225B1F8-C963-4AFD-B18D-5244747673B7}" parentId="{0E9348FB-65E1-47DF-B6A8-A0A6E747AA0E}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
 </ThreadedComments>
@@ -622,7 +640,11 @@
     <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="6"/>
+    <row customHeight="true" ht="23" r="6">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="7"/>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -32,24 +32,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={89E75C4C-E539-42CE-BEED-FA2BED7CCF91}</author>
-    <author>tc={3F00A2A7-004E-497C-BF5F-8332912B2DA8}</author>
-    <author>tc={1A04EFB6-E748-4717-9B5A-86962EB70DDF}</author>
+    <author>tc={BF2D6FBB-2A26-48C9-B27B-AB882C9E6F44}</author>
+    <author>tc={3479AA23-7F8D-41E3-B20B-59F4610EC048}</author>
+    <author>tc={7AB7410D-24F5-43DF-9279-A60CF20312B5}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{89E75C4C-E539-42CE-BEED-FA2BED7CCF91}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{BF2D6FBB-2A26-48C9-B27B-AB882C9E6F44}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{3479AA23-7F8D-41E3-B20B-59F4610EC048}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{3F00A2A7-004E-497C-BF5F-8332912B2DA8}">
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{7AB7410D-24F5-43DF-9279-A60CF20312B5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{1A04EFB6-E748-4717-9B5A-86962EB70DDF}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
   </commentList>
@@ -59,16 +59,16 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F7C8A3AE-B67B-4091-9F38-3617903570E3}</author>
-    <author>tc={0E9348FB-65E1-47DF-B6A8-A0A6E747AA0E}</author>
+    <author>tc={62D44244-43FB-4DDC-AF85-CDD987730D8D}</author>
+    <author>tc={6812B337-7B28-4B2C-9514-9EAF71D0541C}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F7C8A3AE-B67B-4091-9F38-3617903570E3}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{62D44244-43FB-4DDC-AF85-CDD987730D8D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{0E9348FB-65E1-47DF-B6A8-A0A6E747AA0E}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{6812B337-7B28-4B2C-9514-9EAF71D0541C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -109,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -132,6 +132,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -140,13 +154,6 @@
     </font>
     <font>
       <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -167,7 +174,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -214,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -228,9 +242,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -252,8 +269,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{E225B1F8-C963-4AFD-B18D-5244747673B7}" userId="S::::4d60b492-2b8b-4a02-af15-4e93afdd4621" providerId="AD"/>
-  <person displayName="侯清辰" id="{6F473967-9A18-45EB-994F-8250EA1A4955}" userId="S::::61733947-9a8a-403f-b0d6-d14039738588" providerId="AD"/>
+  <person displayName="侯清辰" id="{609BC7CC-0299-4051-A97B-B59E529C934C}" userId="S::::95c35748-bd95-4e4e-bd00-e2b3bd777b34" providerId="AD"/>
+  <person displayName="杨行" id="{47B2D452-6791-49CA-BE14-ED3C5148821E}" userId="S::::a58908c2-44e1-4dcd-9060-f52aa5978070" providerId="AD"/>
 </personList>
 </file>
 
@@ -554,31 +571,31 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{89E75C4C-E539-42CE-BEED-FA2BED7CCF91}" ref="J1" dT="2024-05-31T03:31:01" personId="{E225B1F8-C963-4AFD-B18D-5244747673B7}" parentId="{}">
+  <threadedComment id="{BF2D6FBB-2A26-48C9-B27B-AB882C9E6F44}" ref="A3" dT="2024-05-28T04:59:59" personId="{47B2D452-6791-49CA-BE14-ED3C5148821E}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{3479AA23-7F8D-41E3-B20B-59F4610EC048}" ref="J1" dT="2024-05-31T03:31:01" personId="{47B2D452-6791-49CA-BE14-ED3C5148821E}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{3F00A2A7-004E-497C-BF5F-8332912B2DA8}" ref="I1" dT="2024-05-10T07:08:22" personId="{E225B1F8-C963-4AFD-B18D-5244747673B7}" parentId="{}">
+  <threadedComment id="{7AB7410D-24F5-43DF-9279-A60CF20312B5}" ref="I1" dT="2024-05-10T07:08:22" personId="{47B2D452-6791-49CA-BE14-ED3C5148821E}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{1A04EFB6-E748-4717-9B5A-86962EB70DDF}" ref="A3" dT="2024-05-28T04:59:59" personId="{E225B1F8-C963-4AFD-B18D-5244747673B7}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{F7C8A3AE-B67B-4091-9F38-3617903570E3}" ref="C1" dT="2024-05-10T07:54:02" personId="{E225B1F8-C963-4AFD-B18D-5244747673B7}" parentId="{}">
+  <threadedComment id="{62D44244-43FB-4DDC-AF85-CDD987730D8D}" ref="C1" dT="2024-05-10T07:54:02" personId="{47B2D452-6791-49CA-BE14-ED3C5148821E}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{0E9348FB-65E1-47DF-B6A8-A0A6E747AA0E}" ref="D1" dT="2024-05-10T08:11:19" personId="{E225B1F8-C963-4AFD-B18D-5244747673B7}" parentId="{}">
+  <threadedComment id="{6812B337-7B28-4B2C-9514-9EAF71D0541C}" ref="D1" dT="2024-05-10T08:11:19" personId="{47B2D452-6791-49CA-BE14-ED3C5148821E}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{36c03e40-9266-4fac-88f1-afa3eb3da959}" ref="D1" dT="2024-05-10T08:15:39" personId="{E225B1F8-C963-4AFD-B18D-5244747673B7}" parentId="{0E9348FB-65E1-47DF-B6A8-A0A6E747AA0E}">
+  <threadedComment id="{5eac2cb1-fe8b-4205-982a-cb7c4caf2112}" ref="D1" dT="2024-05-10T08:15:39" personId="{47B2D452-6791-49CA-BE14-ED3C5148821E}" parentId="{6812B337-7B28-4B2C-9514-9EAF71D0541C}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
 </ThreadedComments>
@@ -776,35 +793,35 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="5" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="5" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="str">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4" t="str">
         <v>- 你目前在灰颜墓地，上次鼠王苏醒好像园区里的所有工作人员都死了，只留下守墓人 格雷。教宗认为出现了异常，让你过来看看。
 - 教皇让我来查查为啥人都死了，还有叮嘱我要小心不死人。</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3" t="str">
+      <c r="H3" s="3"/>
+      <c r="I3" s="5" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="J3" s="4" t="str">
+      <c r="J3" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1075,9 +1092,9 @@
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="45"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="102"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="84"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="43"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="76"/>
     <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="33"/>
@@ -1227,7 +1244,7 @@
         <v>10000,10000,1,10000</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="6">
+    <row r="6">
       <c r="A6" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
@@ -1246,6 +1263,18 @@
       </c>
       <c r="J6" s="1" t="str">
         <v>10000,10000,1,10000</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="str">
+        <v>- 要求进入者必须是人类
+- 但是如果是灰面紫瞳的不死人，就不允许进入</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
+      </c>
+      <c r="N6" s="6" t="str">
+        <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
+- 其他道具对你使用均无效</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7"/>
@@ -1534,47 +1563,47 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="5" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="5" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="5" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="5" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>8008</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="G4" s="5" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="3" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I4" s="4" t="str">
+      <c r="I4" s="3" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -11,7 +11,7 @@
     <sheet name="World2" sheetId="3" r:id="rId7"/>
     <sheet name="World3" sheetId="4" r:id="rId8"/>
     <sheet name="Stage" sheetId="5" r:id="rId9"/>
-    <sheet name="NPC" sheetId="6" r:id="rId10"/>
+    <sheet name="Actor" sheetId="6" r:id="rId10"/>
     <sheet name="Prop" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcMode="auto"/>
@@ -32,24 +32,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={BF2D6FBB-2A26-48C9-B27B-AB882C9E6F44}</author>
-    <author>tc={3479AA23-7F8D-41E3-B20B-59F4610EC048}</author>
-    <author>tc={7AB7410D-24F5-43DF-9279-A60CF20312B5}</author>
+    <author>tc={DEB260DA-EFB7-4B45-9EA4-1D93AB5BC5DE}</author>
+    <author>tc={E6C4C783-418A-499C-A8E6-08B554A5CA6D}</author>
+    <author>tc={250050F2-9426-49E3-BEAB-25480EE6CE1D}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{BF2D6FBB-2A26-48C9-B27B-AB882C9E6F44}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{DEB260DA-EFB7-4B45-9EA4-1D93AB5BC5DE}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{E6C4C783-418A-499C-A8E6-08B554A5CA6D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{3479AA23-7F8D-41E3-B20B-59F4610EC048}">
+    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{250050F2-9426-49E3-BEAB-25480EE6CE1D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{7AB7410D-24F5-43DF-9279-A60CF20312B5}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
   </commentList>
@@ -59,16 +59,16 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={62D44244-43FB-4DDC-AF85-CDD987730D8D}</author>
-    <author>tc={6812B337-7B28-4B2C-9514-9EAF71D0541C}</author>
+    <author>tc={E7505C1D-A81B-4B1F-B7B8-E71CA5B3CFE7}</author>
+    <author>tc={1BC85FE5-3965-41AF-B8E7-9AF8F0ED549B}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{62D44244-43FB-4DDC-AF85-CDD987730D8D}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E7505C1D-A81B-4B1F-B7B8-E71CA5B3CFE7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{6812B337-7B28-4B2C-9514-9EAF71D0541C}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{1BC85FE5-3965-41AF-B8E7-9AF8F0ED549B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -269,8 +269,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{609BC7CC-0299-4051-A97B-B59E529C934C}" userId="S::::95c35748-bd95-4e4e-bd00-e2b3bd777b34" providerId="AD"/>
-  <person displayName="杨行" id="{47B2D452-6791-49CA-BE14-ED3C5148821E}" userId="S::::a58908c2-44e1-4dcd-9060-f52aa5978070" providerId="AD"/>
+  <person displayName="杨行" id="{F36285DF-7BC7-4FBB-A39A-17489D6D8B13}" userId="S::::3a2a3d54-642f-4090-9471-dc6039d6f6b6" providerId="AD"/>
+  <person displayName="侯清辰" id="{ED5A315A-72B7-40DD-B672-E897D76F7FEF}" userId="S::::c987e5f7-c903-4384-996f-608d34c04779" providerId="AD"/>
 </personList>
 </file>
 
@@ -571,31 +571,31 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{BF2D6FBB-2A26-48C9-B27B-AB882C9E6F44}" ref="A3" dT="2024-05-28T04:59:59" personId="{47B2D452-6791-49CA-BE14-ED3C5148821E}" parentId="{}">
+  <threadedComment id="{DEB260DA-EFB7-4B45-9EA4-1D93AB5BC5DE}" ref="I1" dT="2024-05-10T07:08:22" personId="{F36285DF-7BC7-4FBB-A39A-17489D6D8B13}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{E6C4C783-418A-499C-A8E6-08B554A5CA6D}" ref="A3" dT="2024-05-28T04:59:59" personId="{F36285DF-7BC7-4FBB-A39A-17489D6D8B13}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{3479AA23-7F8D-41E3-B20B-59F4610EC048}" ref="J1" dT="2024-05-31T03:31:01" personId="{47B2D452-6791-49CA-BE14-ED3C5148821E}" parentId="{}">
+  <threadedComment id="{250050F2-9426-49E3-BEAB-25480EE6CE1D}" ref="J1" dT="2024-05-31T03:31:01" personId="{F36285DF-7BC7-4FBB-A39A-17489D6D8B13}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{7AB7410D-24F5-43DF-9279-A60CF20312B5}" ref="I1" dT="2024-05-10T07:08:22" personId="{47B2D452-6791-49CA-BE14-ED3C5148821E}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{62D44244-43FB-4DDC-AF85-CDD987730D8D}" ref="C1" dT="2024-05-10T07:54:02" personId="{47B2D452-6791-49CA-BE14-ED3C5148821E}" parentId="{}">
+  <threadedComment id="{E7505C1D-A81B-4B1F-B7B8-E71CA5B3CFE7}" ref="C1" dT="2024-05-10T07:54:02" personId="{F36285DF-7BC7-4FBB-A39A-17489D6D8B13}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{6812B337-7B28-4B2C-9514-9EAF71D0541C}" ref="D1" dT="2024-05-10T08:11:19" personId="{47B2D452-6791-49CA-BE14-ED3C5148821E}" parentId="{}">
+  <threadedComment id="{1BC85FE5-3965-41AF-B8E7-9AF8F0ED549B}" ref="D1" dT="2024-05-10T08:11:19" personId="{F36285DF-7BC7-4FBB-A39A-17489D6D8B13}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{5eac2cb1-fe8b-4205-982a-cb7c4caf2112}" ref="D1" dT="2024-05-10T08:15:39" personId="{47B2D452-6791-49CA-BE14-ED3C5148821E}" parentId="{6812B337-7B28-4B2C-9514-9EAF71D0541C}">
+  <threadedComment id="{8a47b1a9-f3ca-4c98-963f-b4921f8cddc8}" ref="D1" dT="2024-05-10T08:15:39" personId="{F36285DF-7BC7-4FBB-A39A-17489D6D8B13}" parentId="{1BC85FE5-3965-41AF-B8E7-9AF8F0ED549B}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
 </ThreadedComments>
@@ -724,13 +724,13 @@
         <v>description</v>
       </c>
       <c r="D1" s="1" t="str">
-        <v>props_on_npc</v>
+        <v>props_on_actor</v>
       </c>
       <c r="E1" s="1" t="str">
         <v>props_in_stage</v>
       </c>
       <c r="F1" s="1" t="str">
-        <v>npcs_in_stage</v>
+        <v>actors_in_stage</v>
       </c>
       <c r="G1" s="1" t="str">
         <v>initialization_memory</v>
@@ -739,7 +739,7 @@
         <v>exit_of_portal</v>
       </c>
       <c r="I1" s="1" t="str">
-        <v>npc_role_appearance</v>
+        <v>appearance</v>
       </c>
       <c r="J1" s="2" t="str">
         <v>attributes</v>
@@ -1113,13 +1113,13 @@
         <v>description</v>
       </c>
       <c r="D1" s="1" t="str">
-        <v>props_on_npc</v>
+        <v>props_on_actor</v>
       </c>
       <c r="E1" s="1" t="str">
         <v>props_in_stage</v>
       </c>
       <c r="F1" s="1" t="str">
-        <v>npcs_in_stage</v>
+        <v>actors_in_stage</v>
       </c>
       <c r="G1" s="1" t="str">
         <v>initialization_memory</v>
@@ -1128,7 +1128,7 @@
         <v>exit_of_portal</v>
       </c>
       <c r="I1" s="1" t="str">
-        <v>npc_role_appearance</v>
+        <v>appearance</v>
       </c>
       <c r="J1" s="2" t="str">
         <v>attributes</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -32,24 +32,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={DEB260DA-EFB7-4B45-9EA4-1D93AB5BC5DE}</author>
-    <author>tc={E6C4C783-418A-499C-A8E6-08B554A5CA6D}</author>
-    <author>tc={250050F2-9426-49E3-BEAB-25480EE6CE1D}</author>
+    <author>tc={AAA67566-658D-46DE-AFA1-9AA9B353187F}</author>
+    <author>tc={FBB3F001-870B-491F-B6CE-236422426059}</author>
+    <author>tc={69B6F77D-4E91-4200-9461-8B6A1919FB93}</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{DEB260DA-EFB7-4B45-9EA4-1D93AB5BC5DE}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{E6C4C783-418A-499C-A8E6-08B554A5CA6D}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{AAA67566-658D-46DE-AFA1-9AA9B353187F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{250050F2-9426-49E3-BEAB-25480EE6CE1D}">
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{FBB3F001-870B-491F-B6CE-236422426059}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{69B6F77D-4E91-4200-9461-8B6A1919FB93}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
   </commentList>
@@ -59,16 +59,16 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E7505C1D-A81B-4B1F-B7B8-E71CA5B3CFE7}</author>
-    <author>tc={1BC85FE5-3965-41AF-B8E7-9AF8F0ED549B}</author>
+    <author>tc={A5F062B0-68D6-4573-8650-EC7572BDAD7B}</author>
+    <author>tc={24CC4776-5436-40EB-BEE5-40E985508896}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E7505C1D-A81B-4B1F-B7B8-E71CA5B3CFE7}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A5F062B0-68D6-4573-8650-EC7572BDAD7B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{1BC85FE5-3965-41AF-B8E7-9AF8F0ED549B}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{24CC4776-5436-40EB-BEE5-40E985508896}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -132,14 +132,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -242,10 +242,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -269,8 +269,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{F36285DF-7BC7-4FBB-A39A-17489D6D8B13}" userId="S::::3a2a3d54-642f-4090-9471-dc6039d6f6b6" providerId="AD"/>
-  <person displayName="侯清辰" id="{ED5A315A-72B7-40DD-B672-E897D76F7FEF}" userId="S::::c987e5f7-c903-4384-996f-608d34c04779" providerId="AD"/>
+  <person displayName="杨行" id="{961482CE-73E7-441F-9A2E-46D830391194}" userId="S::::276c9f90-4022-483d-9e2d-62aad76ccb8b" providerId="AD"/>
+  <person displayName="侯清辰" id="{AE6F1A7E-469D-404E-BDB9-7B0B858D3459}" userId="S::::70401be4-c3a0-43d6-8966-b67e0713783e" providerId="AD"/>
 </personList>
 </file>
 
@@ -571,31 +571,31 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{DEB260DA-EFB7-4B45-9EA4-1D93AB5BC5DE}" ref="I1" dT="2024-05-10T07:08:22" personId="{F36285DF-7BC7-4FBB-A39A-17489D6D8B13}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{E6C4C783-418A-499C-A8E6-08B554A5CA6D}" ref="A3" dT="2024-05-28T04:59:59" personId="{F36285DF-7BC7-4FBB-A39A-17489D6D8B13}" parentId="{}">
+  <threadedComment id="{AAA67566-658D-46DE-AFA1-9AA9B353187F}" ref="A3" dT="2024-05-28T04:59:59" personId="{961482CE-73E7-441F-9A2E-46D830391194}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{250050F2-9426-49E3-BEAB-25480EE6CE1D}" ref="J1" dT="2024-05-31T03:31:01" personId="{F36285DF-7BC7-4FBB-A39A-17489D6D8B13}" parentId="{}">
+  <threadedComment id="{FBB3F001-870B-491F-B6CE-236422426059}" ref="J1" dT="2024-05-31T03:31:01" personId="{961482CE-73E7-441F-9A2E-46D830391194}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{69B6F77D-4E91-4200-9461-8B6A1919FB93}" ref="I1" dT="2024-05-10T07:08:22" personId="{961482CE-73E7-441F-9A2E-46D830391194}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{E7505C1D-A81B-4B1F-B7B8-E71CA5B3CFE7}" ref="C1" dT="2024-05-10T07:54:02" personId="{F36285DF-7BC7-4FBB-A39A-17489D6D8B13}" parentId="{}">
+  <threadedComment id="{A5F062B0-68D6-4573-8650-EC7572BDAD7B}" ref="C1" dT="2024-05-10T07:54:02" personId="{961482CE-73E7-441F-9A2E-46D830391194}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{1BC85FE5-3965-41AF-B8E7-9AF8F0ED549B}" ref="D1" dT="2024-05-10T08:11:19" personId="{F36285DF-7BC7-4FBB-A39A-17489D6D8B13}" parentId="{}">
+  <threadedComment id="{24CC4776-5436-40EB-BEE5-40E985508896}" ref="D1" dT="2024-05-10T08:11:19" personId="{961482CE-73E7-441F-9A2E-46D830391194}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{8a47b1a9-f3ca-4c98-963f-b4921f8cddc8}" ref="D1" dT="2024-05-10T08:15:39" personId="{F36285DF-7BC7-4FBB-A39A-17489D6D8B13}" parentId="{1BC85FE5-3965-41AF-B8E7-9AF8F0ED549B}">
+  <threadedComment id="{4223d635-1035-48d1-b9ed-3f4aa6f4d1ad}" ref="D1" dT="2024-05-10T08:15:39" personId="{961482CE-73E7-441F-9A2E-46D830391194}" parentId="{24CC4776-5436-40EB-BEE5-40E985508896}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
 </ThreadedComments>
@@ -793,35 +793,35 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="3" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="str">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="str">
         <v>- 你目前在灰颜墓地，上次鼠王苏醒好像园区里的所有工作人员都死了，只留下守墓人 格雷。教宗认为出现了异常，让你过来看看。
 - 教皇让我来查查为啥人都死了，还有叮嘱我要小心不死人。</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5" t="str">
+      <c r="H3" s="4"/>
+      <c r="I3" s="3" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="J3" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -851,7 +851,7 @@
         <v>小灰鼠帕奇</v>
       </c>
       <c r="B5" s="1" t="str">
-        <v>NPC</v>
+        <v>Actor</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="str">
@@ -875,7 +875,7 @@
         <v>格雷</v>
       </c>
       <c r="B6" s="1" t="str">
-        <v>NPC</v>
+        <v>Actor</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="str">
@@ -901,7 +901,7 @@
         <v>摩尔</v>
       </c>
       <c r="B7" s="1" t="str">
-        <v>NPC</v>
+        <v>Actor</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -922,7 +922,7 @@
         <v>鼠王</v>
       </c>
       <c r="B8" s="1" t="str">
-        <v>NPC</v>
+        <v>Actor</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1563,47 +1563,47 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="3" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="3" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="3" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="E4" s="3" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>8008</v>
       </c>
-      <c r="G4" s="5" t="str">
+      <c r="G4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="4" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="4" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -32,22 +32,22 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={AAA67566-658D-46DE-AFA1-9AA9B353187F}</author>
-    <author>tc={FBB3F001-870B-491F-B6CE-236422426059}</author>
-    <author>tc={69B6F77D-4E91-4200-9461-8B6A1919FB93}</author>
+    <author>tc={9A4F3C5D-1D8F-4D54-9B3F-85BE90EFA3B2}</author>
+    <author>tc={3927AB11-3024-4C64-BA34-0ECDF21A0F2E}</author>
+    <author>tc={B6B0FAA5-C3A6-4D49-8CF0-45BE5524574A}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{AAA67566-658D-46DE-AFA1-9AA9B353187F}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{9A4F3C5D-1D8F-4D54-9B3F-85BE90EFA3B2}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{FBB3F001-870B-491F-B6CE-236422426059}">
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{3927AB11-3024-4C64-BA34-0ECDF21A0F2E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{69B6F77D-4E91-4200-9461-8B6A1919FB93}">
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{B6B0FAA5-C3A6-4D49-8CF0-45BE5524574A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -59,22 +59,22 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A5F062B0-68D6-4573-8650-EC7572BDAD7B}</author>
-    <author>tc={24CC4776-5436-40EB-BEE5-40E985508896}</author>
+    <author>tc={075F750B-B732-4131-B950-91B678D2A264}</author>
+    <author>tc={BC87BC1E-C51A-4F12-84BF-6DB694053DC4}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A5F062B0-68D6-4573-8650-EC7572BDAD7B}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{24CC4776-5436-40EB-BEE5-40E985508896}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{075F750B-B732-4131-B950-91B678D2A264}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{BC87BC1E-C51A-4F12-84BF-6DB694053DC4}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -132,14 +132,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -269,8 +269,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{961482CE-73E7-441F-9A2E-46D830391194}" userId="S::::276c9f90-4022-483d-9e2d-62aad76ccb8b" providerId="AD"/>
-  <person displayName="侯清辰" id="{AE6F1A7E-469D-404E-BDB9-7B0B858D3459}" userId="S::::70401be4-c3a0-43d6-8966-b67e0713783e" providerId="AD"/>
+  <person displayName="杨行" id="{4DE89779-7459-4566-BD6A-AE3D07FDCF83}" userId="S::::fffaae40-ee2f-4878-9f05-fcff74f1bb48" providerId="AD"/>
+  <person displayName="侯清辰" id="{C7DB5B38-AB1B-4F4D-AC06-56C317E4557A}" userId="S::::5ef26648-2b5a-4ca3-9e63-3bc13d3ab042" providerId="AD"/>
 </personList>
 </file>
 
@@ -571,13 +571,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{AAA67566-658D-46DE-AFA1-9AA9B353187F}" ref="A3" dT="2024-05-28T04:59:59" personId="{961482CE-73E7-441F-9A2E-46D830391194}" parentId="{}">
+  <threadedComment id="{9A4F3C5D-1D8F-4D54-9B3F-85BE90EFA3B2}" ref="A3" dT="2024-05-28T04:59:59" personId="{4DE89779-7459-4566-BD6A-AE3D07FDCF83}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{FBB3F001-870B-491F-B6CE-236422426059}" ref="J1" dT="2024-05-31T03:31:01" personId="{961482CE-73E7-441F-9A2E-46D830391194}" parentId="{}">
+  <threadedComment id="{3927AB11-3024-4C64-BA34-0ECDF21A0F2E}" ref="J1" dT="2024-05-31T03:31:01" personId="{4DE89779-7459-4566-BD6A-AE3D07FDCF83}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{69B6F77D-4E91-4200-9461-8B6A1919FB93}" ref="I1" dT="2024-05-10T07:08:22" personId="{961482CE-73E7-441F-9A2E-46D830391194}" parentId="{}">
+  <threadedComment id="{B6B0FAA5-C3A6-4D49-8CF0-45BE5524574A}" ref="I1" dT="2024-05-10T07:08:22" personId="{4DE89779-7459-4566-BD6A-AE3D07FDCF83}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -585,18 +585,18 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{A5F062B0-68D6-4573-8650-EC7572BDAD7B}" ref="C1" dT="2024-05-10T07:54:02" personId="{961482CE-73E7-441F-9A2E-46D830391194}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{24CC4776-5436-40EB-BEE5-40E985508896}" ref="D1" dT="2024-05-10T08:11:19" personId="{961482CE-73E7-441F-9A2E-46D830391194}" parentId="{}">
+  <threadedComment id="{075F750B-B732-4131-B950-91B678D2A264}" ref="D1" dT="2024-05-10T08:11:19" personId="{4DE89779-7459-4566-BD6A-AE3D07FDCF83}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{4223d635-1035-48d1-b9ed-3f4aa6f4d1ad}" ref="D1" dT="2024-05-10T08:15:39" personId="{961482CE-73E7-441F-9A2E-46D830391194}" parentId="{24CC4776-5436-40EB-BEE5-40E985508896}">
+  <threadedComment id="{3946576c-b7c6-448e-b5f8-6bc34da0aee5}" ref="D1" dT="2024-05-10T08:15:39" personId="{4DE89779-7459-4566-BD6A-AE3D07FDCF83}" parentId="{075F750B-B732-4131-B950-91B678D2A264}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{BC87BC1E-C51A-4F12-84BF-6DB694053DC4}" ref="C1" dT="2024-05-10T07:54:02" personId="{4DE89779-7459-4566-BD6A-AE3D07FDCF83}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -748,19 +748,19 @@
         <v>stage_entry_status</v>
       </c>
       <c r="L1" s="2" t="str">
-        <v>stage_entry_role_status</v>
+        <v>stage_entry_actor_status</v>
       </c>
       <c r="M1" s="2" t="str">
-        <v>stage_entry_role_props</v>
+        <v>stage_entry_actor_props</v>
       </c>
       <c r="N1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
       <c r="O1" s="2" t="str">
-        <v>stage_exit_role_status</v>
+        <v>stage_exit_actor_status</v>
       </c>
       <c r="P1" s="2" t="str">
-        <v>stage_exit_role_props</v>
+        <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
@@ -793,35 +793,35 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="5" t="str">
         <v>- 你目前在灰颜墓地，上次鼠王苏醒好像园区里的所有工作人员都死了，只留下守墓人 格雷。教宗认为出现了异常，让你过来看看。
 - 教皇让我来查查为啥人都死了，还有叮嘱我要小心不死人。</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3" t="str">
+      <c r="H3" s="3"/>
+      <c r="I3" s="4" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="J3" s="4" t="str">
+      <c r="J3" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1137,19 +1137,19 @@
         <v>stage_entry_status</v>
       </c>
       <c r="L1" s="2" t="str">
-        <v>stage_entry_role_status</v>
+        <v>stage_entry_actor_status</v>
       </c>
       <c r="M1" s="2" t="str">
-        <v>stage_entry_role_props</v>
+        <v>stage_entry_actor_props</v>
       </c>
       <c r="N1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
       <c r="O1" s="2" t="str">
-        <v>stage_exit_role_status</v>
+        <v>stage_exit_actor_status</v>
       </c>
       <c r="P1" s="2" t="str">
-        <v>stage_exit_role_props</v>
+        <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
@@ -1563,47 +1563,47 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="4" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>8008</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="G4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="3" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I4" s="4" t="str">
+      <c r="I4" s="3" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1901,7 +1901,7 @@
         <v>No</v>
       </c>
       <c r="D2" s="1" t="str">
-        <v>RoleComponent</v>
+        <v>ActorComponent</v>
       </c>
       <c r="E2" s="1" t="str">
         <v>灰色面容与紫色双眼，是被诅咒之人的印记</v>
@@ -1921,7 +1921,7 @@
         <v>No</v>
       </c>
       <c r="D3" s="1" t="str">
-        <v>RoleComponent</v>
+        <v>ActorComponent</v>
       </c>
       <c r="E3" s="1" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -32,22 +32,22 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9A4F3C5D-1D8F-4D54-9B3F-85BE90EFA3B2}</author>
-    <author>tc={3927AB11-3024-4C64-BA34-0ECDF21A0F2E}</author>
-    <author>tc={B6B0FAA5-C3A6-4D49-8CF0-45BE5524574A}</author>
+    <author>tc={6183F16D-D47E-4BC3-BF84-1127D097FE0E}</author>
+    <author>tc={59A4C501-C2F1-4001-9126-2E2EA72EA9FA}</author>
+    <author>tc={A1D401DA-3FD0-44F4-8BCB-E7CA3E892257}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{9A4F3C5D-1D8F-4D54-9B3F-85BE90EFA3B2}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{6183F16D-D47E-4BC3-BF84-1127D097FE0E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{3927AB11-3024-4C64-BA34-0ECDF21A0F2E}">
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{59A4C501-C2F1-4001-9126-2E2EA72EA9FA}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{B6B0FAA5-C3A6-4D49-8CF0-45BE5524574A}">
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{A1D401DA-3FD0-44F4-8BCB-E7CA3E892257}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
@@ -59,11 +59,11 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={075F750B-B732-4131-B950-91B678D2A264}</author>
-    <author>tc={BC87BC1E-C51A-4F12-84BF-6DB694053DC4}</author>
+    <author>tc={7DAE75CF-B11C-4280-9EFF-96AFB879402E}</author>
+    <author>tc={22F53424-F01A-4C1A-BAC3-5BA56F18B2EF}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{075F750B-B732-4131-B950-91B678D2A264}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7DAE75CF-B11C-4280-9EFF-96AFB879402E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -72,7 +72,7 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{BC87BC1E-C51A-4F12-84BF-6DB694053DC4}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{22F53424-F01A-4C1A-BAC3-5BA56F18B2EF}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
@@ -118,20 +118,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -147,6 +133,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -242,10 +242,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -269,8 +269,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{4DE89779-7459-4566-BD6A-AE3D07FDCF83}" userId="S::::fffaae40-ee2f-4878-9f05-fcff74f1bb48" providerId="AD"/>
-  <person displayName="侯清辰" id="{C7DB5B38-AB1B-4F4D-AC06-56C317E4557A}" userId="S::::5ef26648-2b5a-4ca3-9e63-3bc13d3ab042" providerId="AD"/>
+  <person displayName="杨行" id="{E1B423B5-B8B9-435D-8E6D-B3D0239DDA80}" userId="S::::038714f5-6362-479c-bd50-00449b90fe25" providerId="AD"/>
+  <person displayName="侯清辰" id="{C76A52E9-6644-455E-969C-E56DCC1FCA21}" userId="S::::d67a8a83-1675-443f-a871-aa6461a425ba" providerId="AD"/>
 </personList>
 </file>
 
@@ -571,13 +571,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{9A4F3C5D-1D8F-4D54-9B3F-85BE90EFA3B2}" ref="A3" dT="2024-05-28T04:59:59" personId="{4DE89779-7459-4566-BD6A-AE3D07FDCF83}" parentId="{}">
+  <threadedComment id="{6183F16D-D47E-4BC3-BF84-1127D097FE0E}" ref="A3" dT="2024-05-28T04:59:59" personId="{E1B423B5-B8B9-435D-8E6D-B3D0239DDA80}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{3927AB11-3024-4C64-BA34-0ECDF21A0F2E}" ref="J1" dT="2024-05-31T03:31:01" personId="{4DE89779-7459-4566-BD6A-AE3D07FDCF83}" parentId="{}">
+  <threadedComment id="{59A4C501-C2F1-4001-9126-2E2EA72EA9FA}" ref="J1" dT="2024-05-31T03:31:01" personId="{E1B423B5-B8B9-435D-8E6D-B3D0239DDA80}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{B6B0FAA5-C3A6-4D49-8CF0-45BE5524574A}" ref="I1" dT="2024-05-10T07:08:22" personId="{4DE89779-7459-4566-BD6A-AE3D07FDCF83}" parentId="{}">
+  <threadedComment id="{A1D401DA-3FD0-44F4-8BCB-E7CA3E892257}" ref="I1" dT="2024-05-10T07:08:22" personId="{E1B423B5-B8B9-435D-8E6D-B3D0239DDA80}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
@@ -585,17 +585,17 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{075F750B-B732-4131-B950-91B678D2A264}" ref="D1" dT="2024-05-10T08:11:19" personId="{4DE89779-7459-4566-BD6A-AE3D07FDCF83}" parentId="{}">
+  <threadedComment id="{7DAE75CF-B11C-4280-9EFF-96AFB879402E}" ref="D1" dT="2024-05-10T08:11:19" personId="{E1B423B5-B8B9-435D-8E6D-B3D0239DDA80}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{3946576c-b7c6-448e-b5f8-6bc34da0aee5}" ref="D1" dT="2024-05-10T08:15:39" personId="{4DE89779-7459-4566-BD6A-AE3D07FDCF83}" parentId="{075F750B-B732-4131-B950-91B678D2A264}">
+  <threadedComment id="{d5474873-043a-4e9b-b9f1-11ec0a71ef15}" ref="D1" dT="2024-05-10T08:15:39" personId="{E1B423B5-B8B9-435D-8E6D-B3D0239DDA80}" parentId="{7DAE75CF-B11C-4280-9EFF-96AFB879402E}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{BC87BC1E-C51A-4F12-84BF-6DB694053DC4}" ref="C1" dT="2024-05-10T07:54:02" personId="{4DE89779-7459-4566-BD6A-AE3D07FDCF83}" parentId="{}">
+  <threadedComment id="{22F53424-F01A-4C1A-BAC3-5BA56F18B2EF}" ref="C1" dT="2024-05-10T07:54:02" personId="{E1B423B5-B8B9-435D-8E6D-B3D0239DDA80}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
@@ -635,30 +635,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -714,63 +714,63 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>props_on_actor</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>props_in_stage</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>initialization_memory</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v># 这是一个内部开发与测试用的demo，文体风格是恐怖类型。
 ## 目的在这个阶段测试LLM对恐怖、血腥与暴力元素的容忍度。已经如果出了问题，我方应该怎么兼容。
 ## 目前场景有5个。
@@ -784,104 +784,104 @@
 - BOSS如果醒了就是‘鬼抓人’的游戏，BOSS的设计就是遍历场景去找到你并杀你。
 - 正常就是对话类型游戏。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="5" t="str">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="str">
         <v>- 你目前在灰颜墓地，上次鼠王苏醒好像园区里的所有工作人员都死了，只留下守墓人 格雷。教宗认为出现了异常，让你过来看看。
 - 教皇让我来查查为啥人都死了，还有叮嘱我要小心不死人。</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4" t="str">
+      <c r="H3" s="5"/>
+      <c r="I3" s="3" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="J3" s="5" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="J4" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -889,44 +889,44 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>一个男性人类，个子中等，身着守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="G7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="G7" s="2" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="J7" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1" t="str">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="G8" s="2" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -934,37 +934,37 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="2" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="1" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="str">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="H9" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J9" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N9" s="2" t="str">
+      <c r="N9" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -976,83 +976,83 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="str">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="str">
         <v>格雷;摩尔;小灰鼠帕奇;教廷密使</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G10" s="2" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="J10" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="str">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="G11" s="2" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="J11" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="str">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="str">
         <v>炉钩</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="str">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="J12" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="str">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H13" s="2" t="str">
+      <c r="H13" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="J13" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1103,119 +1103,119 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>props_on_actor</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>props_in_stage</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>initialization_memory</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v># 测试的世界，用于测试对场景使用道具与进出场景</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="str">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I3" s="1" t="str">
+      <c r="I3" s="2" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="str">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J4" s="1" t="str">
+      <c r="J4" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N4" s="2" t="str">
+      <c r="N4" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -1227,49 +1227,49 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="J6" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="str">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="M6" s="2" t="str">
+      <c r="M6" s="1" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
       <c r="N6" s="6" t="str">
@@ -1324,48 +1324,48 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>GPT_MODEL</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>8053</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
       <c r="G2" t="str">
@@ -1376,22 +1376,22 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>8054</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
       <c r="G3" t="str">
@@ -1402,22 +1402,22 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>8055</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>/stage/the_incinerator</v>
       </c>
       <c r="G4" t="str">
@@ -1428,22 +1428,22 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>8056</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>/stage/gray_chapel</v>
       </c>
       <c r="G5" t="str">
@@ -1454,22 +1454,22 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>8057</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
       <c r="G6" t="str">
@@ -1532,87 +1532,87 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>GPT_MODEL</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
     </row>
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="3" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="3" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="3" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>8008</v>
       </c>
-      <c r="G4" s="4" t="str">
+      <c r="G4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="5" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="5" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -1632,37 +1632,37 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - （怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>8009</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>/npc/rat_king</v>
       </c>
       <c r="H5" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -1677,36 +1677,36 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 吱吱吱～～（开心的摇尾巴）～～～～"
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>8010</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>/npc/mr_lucky</v>
       </c>
       <c r="H6" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -1721,35 +1721,35 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>8011</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>/npc/elias_gray</v>
       </c>
       <c r="H7" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -1766,53 +1766,53 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>8012</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>/npc/moore_dog</v>
       </c>
       <c r="H8" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" s="1" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>你的身份连你自己也说不清，因为你失忆了</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>8013</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
       <c r="H9" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="I9" s="1" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1868,42 +1868,42 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D2" s="1" t="str">
-        <v>ActorComponent</v>
-      </c>
-      <c r="E2" s="1" t="str">
+      <c r="D2" s="2" t="str">
+        <v>SpecialComponent</v>
+      </c>
+      <c r="E2" s="2" t="str">
         <v>灰色面容与紫色双眼，是被诅咒之人的印记</v>
       </c>
       <c r="G2" t="str">
@@ -1911,19 +1911,19 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <v>ActorComponent</v>
-      </c>
-      <c r="E3" s="1" t="str">
+      <c r="D3" s="2" t="str">
+        <v>SpecialComponent</v>
+      </c>
+      <c r="E3" s="2" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
       <c r="G3" t="str">
@@ -1931,22 +1931,22 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>0,10000,0</v>
       </c>
       <c r="G4" t="str">
@@ -1954,22 +1954,22 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>0,1,0</v>
       </c>
       <c r="G5" t="str">
@@ -1977,22 +1977,22 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>0,0,1</v>
       </c>
       <c r="G6" t="str">
@@ -2000,19 +2000,19 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指</v>
       </c>
       <c r="G7" t="str">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -32,24 +32,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={6183F16D-D47E-4BC3-BF84-1127D097FE0E}</author>
-    <author>tc={59A4C501-C2F1-4001-9126-2E2EA72EA9FA}</author>
-    <author>tc={A1D401DA-3FD0-44F4-8BCB-E7CA3E892257}</author>
+    <author>tc={016727AF-25D6-4FCB-8001-7CBEA7011CAC}</author>
+    <author>tc={7A28A3B3-5316-4B1D-B604-751BAF05A970}</author>
+    <author>tc={5F2F8126-B029-4340-A0F6-7F93BBE71AB0}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{6183F16D-D47E-4BC3-BF84-1127D097FE0E}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{59A4C501-C2F1-4001-9126-2E2EA72EA9FA}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{016727AF-25D6-4FCB-8001-7CBEA7011CAC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{A1D401DA-3FD0-44F4-8BCB-E7CA3E892257}">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{7A28A3B3-5316-4B1D-B604-751BAF05A970}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{5F2F8126-B029-4340-A0F6-7F93BBE71AB0}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
   </commentList>
@@ -59,22 +59,22 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={7DAE75CF-B11C-4280-9EFF-96AFB879402E}</author>
-    <author>tc={22F53424-F01A-4C1A-BAC3-5BA56F18B2EF}</author>
+    <author>tc={A17D3EB6-43DE-47B1-AA4A-08FCE8E9EF77}</author>
+    <author>tc={4AD51610-7F7F-40B5-A043-94A9195F68D0}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7DAE75CF-B11C-4280-9EFF-96AFB879402E}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A17D3EB6-43DE-47B1-AA4A-08FCE8E9EF77}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{4AD51610-7F7F-40B5-A043-94A9195F68D0}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{22F53424-F01A-4C1A-BAC3-5BA56F18B2EF}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -118,6 +118,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -133,20 +147,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -242,10 +242,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -269,8 +269,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{E1B423B5-B8B9-435D-8E6D-B3D0239DDA80}" userId="S::::038714f5-6362-479c-bd50-00449b90fe25" providerId="AD"/>
-  <person displayName="侯清辰" id="{C76A52E9-6644-455E-969C-E56DCC1FCA21}" userId="S::::d67a8a83-1675-443f-a871-aa6461a425ba" providerId="AD"/>
+  <person displayName="杨行" id="{3539AFCF-5A3C-4A9D-BFDC-44762AF55FFB}" userId="S::::629dbdf1-c0b6-4926-80e0-33f4c11ecb82" providerId="AD"/>
+  <person displayName="侯清辰" id="{1279D87C-0A86-4C59-A509-AF799C9751B8}" userId="S::::9ded7564-780f-41e0-a5bf-6d54b3c9cfa2" providerId="AD"/>
 </personList>
 </file>
 
@@ -571,32 +571,32 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{6183F16D-D47E-4BC3-BF84-1127D097FE0E}" ref="A3" dT="2024-05-28T04:59:59" personId="{E1B423B5-B8B9-435D-8E6D-B3D0239DDA80}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{59A4C501-C2F1-4001-9126-2E2EA72EA9FA}" ref="J1" dT="2024-05-31T03:31:01" personId="{E1B423B5-B8B9-435D-8E6D-B3D0239DDA80}" parentId="{}">
+  <threadedComment id="{016727AF-25D6-4FCB-8001-7CBEA7011CAC}" ref="J1" dT="2024-05-31T03:31:01" personId="{3539AFCF-5A3C-4A9D-BFDC-44762AF55FFB}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{A1D401DA-3FD0-44F4-8BCB-E7CA3E892257}" ref="I1" dT="2024-05-10T07:08:22" personId="{E1B423B5-B8B9-435D-8E6D-B3D0239DDA80}" parentId="{}">
+  <threadedComment id="{7A28A3B3-5316-4B1D-B604-751BAF05A970}" ref="I1" dT="2024-05-10T07:08:22" personId="{3539AFCF-5A3C-4A9D-BFDC-44762AF55FFB}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{5F2F8126-B029-4340-A0F6-7F93BBE71AB0}" ref="A3" dT="2024-05-28T04:59:59" personId="{3539AFCF-5A3C-4A9D-BFDC-44762AF55FFB}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{7DAE75CF-B11C-4280-9EFF-96AFB879402E}" ref="D1" dT="2024-05-10T08:11:19" personId="{E1B423B5-B8B9-435D-8E6D-B3D0239DDA80}" parentId="{}">
+  <threadedComment id="{A17D3EB6-43DE-47B1-AA4A-08FCE8E9EF77}" ref="C1" dT="2024-05-10T07:54:02" personId="{3539AFCF-5A3C-4A9D-BFDC-44762AF55FFB}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{4AD51610-7F7F-40B5-A043-94A9195F68D0}" ref="D1" dT="2024-05-10T08:11:19" personId="{3539AFCF-5A3C-4A9D-BFDC-44762AF55FFB}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{d5474873-043a-4e9b-b9f1-11ec0a71ef15}" ref="D1" dT="2024-05-10T08:15:39" personId="{E1B423B5-B8B9-435D-8E6D-B3D0239DDA80}" parentId="{7DAE75CF-B11C-4280-9EFF-96AFB879402E}">
+  <threadedComment id="{dac627a8-f137-4c48-91b1-9cf82ac09ea8}" ref="D1" dT="2024-05-10T08:15:39" personId="{3539AFCF-5A3C-4A9D-BFDC-44762AF55FFB}" parentId="{4AD51610-7F7F-40B5-A043-94A9195F68D0}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{22F53424-F01A-4C1A-BAC3-5BA56F18B2EF}" ref="C1" dT="2024-05-10T07:54:02" personId="{E1B423B5-B8B9-435D-8E6D-B3D0239DDA80}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -635,30 +635,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -714,63 +714,63 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>props_on_actor</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>props_in_stage</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="2" t="str">
-        <v>initialization_memory</v>
-      </c>
-      <c r="H1" s="2" t="str">
+      <c r="G1" s="1" t="str">
+        <v>kick_off_memory</v>
+      </c>
+      <c r="H1" s="1" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v># 这是一个内部开发与测试用的demo，文体风格是恐怖类型。
 ## 目的在这个阶段测试LLM对恐怖、血腥与暴力元素的容忍度。已经如果出了问题，我方应该怎么兼容。
 ## 目前场景有5个。
@@ -784,104 +784,105 @@
 - BOSS如果醒了就是‘鬼抓人’的游戏，BOSS的设计就是遍历场景去找到你并杀你。
 - 正常就是对话类型游戏。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4" t="str">
-        <v>- 你目前在灰颜墓地，上次鼠王苏醒好像园区里的所有工作人员都死了，只留下守墓人 格雷。教宗认为出现了异常，让你过来看看。
-- 教皇让我来查查为啥人都死了，还有叮嘱我要小心不死人。</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3" t="str">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="str">
+        <v>- 你目前所处场景：圣灰园正门前广场。
+- 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
+- 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="J3" s="5" t="str">
+      <c r="J3" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" s="1" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
-      <c r="J4" s="1" t="str">
+      <c r="J4" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -889,44 +890,44 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>一个男性人类，个子中等，身着守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="J6" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="G7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="G7" s="1" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="J7" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="G8" s="2" t="str">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -934,37 +935,37 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" s="1" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="2" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="str">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="H9" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N9" s="1" t="str">
+      <c r="N9" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -976,87 +977,109 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="str">
-        <v>格雷;摩尔;小灰鼠帕奇;教廷密使</v>
-      </c>
-      <c r="G10" s="2" t="str">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="str">
+        <v>格雷;摩尔;小灰鼠帕奇</v>
+      </c>
+      <c r="G10" s="1" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="J10" s="2" t="str">
+      <c r="J10" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="1" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="J11" s="2" t="str">
+      <c r="J11" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="str">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="str">
         <v>炉钩</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="str">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="J12" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="str">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H13" s="1" t="str">
+      <c r="H13" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J13" s="2" t="str">
+      <c r="J13" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="14"/>
+    <row customHeight="true" ht="23" r="14">
+      <c r="A14" s="1" t="str">
+        <v>圣灰园正门前广场</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="str">
+        <v>教廷密使</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <v>灰颜墓地</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <v>10000,10000,1,10000</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="15"/>
     <row customHeight="true" ht="23" r="16"/>
     <row customHeight="true" ht="23" r="17"/>
@@ -1103,119 +1126,119 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>props_on_actor</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>props_in_stage</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="2" t="str">
-        <v>initialization_memory</v>
-      </c>
-      <c r="H1" s="2" t="str">
+      <c r="G1" s="1" t="str">
+        <v>kick_off_memory</v>
+      </c>
+      <c r="H1" s="1" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v># 测试的世界，用于测试对场景使用道具与进出场景</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="str">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="1" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
-      <c r="J3" s="1" t="str">
+      <c r="J3" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="J4" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N4" s="1" t="str">
+      <c r="N4" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -1227,49 +1250,49 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="str">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="M6" s="1" t="str">
+      <c r="M6" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
       <c r="N6" s="6" t="str">
@@ -1324,48 +1347,48 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>GPT_MODEL</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="E2" s="2">
-        <v>8053</v>
-      </c>
-      <c r="F2" s="2" t="str">
+      <c r="E2" s="1">
+        <v>8100</v>
+      </c>
+      <c r="F2" s="1" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
       <c r="G2" t="str">
@@ -1376,22 +1399,22 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="E3" s="2">
-        <v>8054</v>
-      </c>
-      <c r="F3" s="2" t="str">
+      <c r="E3" s="1">
+        <v>8101</v>
+      </c>
+      <c r="F3" s="1" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
       <c r="G3" t="str">
@@ -1402,22 +1425,22 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="E4" s="2">
-        <v>8055</v>
-      </c>
-      <c r="F4" s="2" t="str">
+      <c r="E4" s="1">
+        <v>8102</v>
+      </c>
+      <c r="F4" s="1" t="str">
         <v>/stage/the_incinerator</v>
       </c>
       <c r="G4" t="str">
@@ -1428,22 +1451,22 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="E5" s="2">
-        <v>8056</v>
-      </c>
-      <c r="F5" s="2" t="str">
+      <c r="E5" s="1">
+        <v>8103</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <v>/stage/gray_chapel</v>
       </c>
       <c r="G5" t="str">
@@ -1454,22 +1477,22 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="E6" s="2">
-        <v>8057</v>
-      </c>
-      <c r="F6" s="2" t="str">
+      <c r="E6" s="1">
+        <v>8104</v>
+      </c>
+      <c r="F6" s="1" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
       <c r="G6" t="str">
@@ -1479,7 +1502,32 @@
         <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="7"/>
+    <row customHeight="true" ht="23" r="7">
+      <c r="A7" s="2" t="str">
+        <v>圣灰园正门前广场</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>square_front_of_cemetery</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8105</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <v>/stage/square_front_of_cemetery</v>
+      </c>
+      <c r="G7" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="H7" t="str">
+        <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
     <row customHeight="true" ht="23" r="10"/>
@@ -1532,87 +1580,87 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>GPT_MODEL</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
     </row>
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="4" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F4" s="3">
-        <v>8008</v>
-      </c>
-      <c r="G4" s="3" t="str">
+      <c r="F4" s="4">
+        <v>8200</v>
+      </c>
+      <c r="G4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="3" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="I4" s="3" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -1632,37 +1680,37 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - （怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F5" s="2">
-        <v>8009</v>
-      </c>
-      <c r="G5" s="2" t="str">
+      <c r="F5" s="4">
+        <v>8201</v>
+      </c>
+      <c r="G5" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
       <c r="H5" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -1677,36 +1725,36 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 吱吱吱～～（开心的摇尾巴）～～～～"
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F6" s="2">
-        <v>8010</v>
-      </c>
-      <c r="G6" s="2" t="str">
+      <c r="F6" s="4">
+        <v>8202</v>
+      </c>
+      <c r="G6" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
       <c r="H6" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -1721,35 +1769,35 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F7" s="2">
-        <v>8011</v>
-      </c>
-      <c r="G7" s="2" t="str">
+      <c r="F7" s="4">
+        <v>8203</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
       <c r="H7" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -1766,53 +1814,53 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F8" s="2">
-        <v>8012</v>
-      </c>
-      <c r="G8" s="2" t="str">
+      <c r="F8" s="4">
+        <v>8204</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
       <c r="H8" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>你的身份连你自己也说不清，因为你失忆了</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F9" s="2">
-        <v>8013</v>
-      </c>
-      <c r="G9" s="2" t="str">
+      <c r="F9" s="4">
+        <v>8205</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
       <c r="H9" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="2" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
     </row>
@@ -1868,42 +1916,42 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>灰色面容与紫色双眼，是被诅咒之人的印记</v>
       </c>
       <c r="G2" t="str">
@@ -1911,19 +1959,19 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
       <c r="G3" t="str">
@@ -1931,22 +1979,22 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>0,10000,0</v>
       </c>
       <c r="G4" t="str">
@@ -1954,22 +2002,22 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>0,1,0</v>
       </c>
       <c r="G5" t="str">
@@ -1977,22 +2025,22 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>0,0,1</v>
       </c>
       <c r="G6" t="str">
@@ -2000,19 +2048,19 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指</v>
       </c>
       <c r="G7" t="str">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Stage" sheetId="5" r:id="rId9"/>
     <sheet name="Actor" sheetId="6" r:id="rId10"/>
     <sheet name="Prop" sheetId="7" r:id="rId11"/>
+    <sheet name="WorldSystem" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -32,22 +33,22 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={016727AF-25D6-4FCB-8001-7CBEA7011CAC}</author>
-    <author>tc={7A28A3B3-5316-4B1D-B604-751BAF05A970}</author>
-    <author>tc={5F2F8126-B029-4340-A0F6-7F93BBE71AB0}</author>
+    <author>tc={68CD8F60-864B-40E8-B1BA-DA20C93B4674}</author>
+    <author>tc={4A4AFF75-951E-46E9-BD15-45D4DDA66D29}</author>
+    <author>tc={8EB41A3D-3E86-4018-B565-B9B6F700EC94}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{016727AF-25D6-4FCB-8001-7CBEA7011CAC}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{68CD8F60-864B-40E8-B1BA-DA20C93B4674}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{4A4AFF75-951E-46E9-BD15-45D4DDA66D29}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{7A28A3B3-5316-4B1D-B604-751BAF05A970}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{5F2F8126-B029-4340-A0F6-7F93BBE71AB0}">
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{8EB41A3D-3E86-4018-B565-B9B6F700EC94}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
@@ -59,16 +60,41 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A17D3EB6-43DE-47B1-AA4A-08FCE8E9EF77}</author>
-    <author>tc={4AD51610-7F7F-40B5-A043-94A9195F68D0}</author>
+    <author>tc={9E641FA4-D29D-4837-9E1B-4A4B4EF8D4A5}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A17D3EB6-43DE-47B1-AA4A-08FCE8E9EF77}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9E641FA4-D29D-4837-9E1B-4A4B4EF8D4A5}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{4AD51610-7F7F-40B5-A043-94A9195F68D0}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B902520F-592A-49C8-B91D-C41FEA287799}</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B902520F-592A-49C8-B91D-C41FEA287799}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={53AAC409-4128-4B38-8CD1-3F469E2B7524}</author>
+    <author>tc={17DE8CBA-BFAC-4933-A24D-C0C634F5AC4C}</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{53AAC409-4128-4B38-8CD1-3F469E2B7524}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -77,12 +103,17 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{17DE8CBA-BFAC-4933-A24D-C0C634F5AC4C}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -102,6 +133,24 @@
     </r>
     <r>
       <t xml:space="preserve"> 用于测试与重构用的，目前只作为测试切换场景，场景限制条件与对场景使用道具用</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <t xml:space="preserve"># 测试的世界，用于测试对场景使用道具与进出场景。目前只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@杨行</t>
+    </r>
+    <r>
+      <t>用</t>
     </r>
   </si>
 </sst>
@@ -132,14 +181,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -269,8 +318,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{3539AFCF-5A3C-4A9D-BFDC-44762AF55FFB}" userId="S::::629dbdf1-c0b6-4926-80e0-33f4c11ecb82" providerId="AD"/>
-  <person displayName="侯清辰" id="{1279D87C-0A86-4C59-A509-AF799C9751B8}" userId="S::::9ded7564-780f-41e0-a5bf-6d54b3c9cfa2" providerId="AD"/>
+  <person displayName="侯清辰" id="{9BCAA7F4-7FB9-4E81-BED6-BDBCD9911E79}" userId="S::::c451b5f2-96fc-428f-aecf-bc59c050d9b5" providerId="AD"/>
+  <person displayName="杨行" id="{C467F531-FD7C-415A-838A-C9809BB98D1D}" userId="S::::246b0b91-7241-4d7b-bb35-f2f1271bae56" providerId="AD"/>
 </personList>
 </file>
 
@@ -571,13 +620,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{016727AF-25D6-4FCB-8001-7CBEA7011CAC}" ref="J1" dT="2024-05-31T03:31:01" personId="{3539AFCF-5A3C-4A9D-BFDC-44762AF55FFB}" parentId="{}">
+  <threadedComment id="{68CD8F60-864B-40E8-B1BA-DA20C93B4674}" ref="I1" dT="2024-05-10T07:08:22" personId="{C467F531-FD7C-415A-838A-C9809BB98D1D}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{4A4AFF75-951E-46E9-BD15-45D4DDA66D29}" ref="J1" dT="2024-05-31T03:31:01" personId="{C467F531-FD7C-415A-838A-C9809BB98D1D}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{7A28A3B3-5316-4B1D-B604-751BAF05A970}" ref="I1" dT="2024-05-10T07:08:22" personId="{3539AFCF-5A3C-4A9D-BFDC-44762AF55FFB}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{5F2F8126-B029-4340-A0F6-7F93BBE71AB0}" ref="A3" dT="2024-05-28T04:59:59" personId="{3539AFCF-5A3C-4A9D-BFDC-44762AF55FFB}" parentId="{}">
+  <threadedComment id="{8EB41A3D-3E86-4018-B565-B9B6F700EC94}" ref="A3" dT="2024-05-28T04:59:59" personId="{C467F531-FD7C-415A-838A-C9809BB98D1D}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
@@ -585,18 +634,34 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{A17D3EB6-43DE-47B1-AA4A-08FCE8E9EF77}" ref="C1" dT="2024-05-10T07:54:02" personId="{3539AFCF-5A3C-4A9D-BFDC-44762AF55FFB}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  <threadedComment id="{9E641FA4-D29D-4837-9E1B-4A4B4EF8D4A5}" ref="D1" dT="2024-06-09T13:30:31" personId="{C467F531-FD7C-415A-838A-C9809BB98D1D}" parentId="{}">
+    <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{4AD51610-7F7F-40B5-A043-94A9195F68D0}" ref="D1" dT="2024-05-10T08:11:19" personId="{3539AFCF-5A3C-4A9D-BFDC-44762AF55FFB}" parentId="{}">
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment id="{B902520F-592A-49C8-B91D-C41FEA287799}" ref="E1" dT="2024-06-09T13:30:45" personId="{C467F531-FD7C-415A-838A-C9809BB98D1D}" parentId="{}">
+    <text>@宾晓华 这里</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment id="{53AAC409-4128-4B38-8CD1-3F469E2B7524}" ref="D1" dT="2024-05-10T08:11:19" personId="{C467F531-FD7C-415A-838A-C9809BB98D1D}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{dac627a8-f137-4c48-91b1-9cf82ac09ea8}" ref="D1" dT="2024-05-10T08:15:39" personId="{3539AFCF-5A3C-4A9D-BFDC-44762AF55FFB}" parentId="{4AD51610-7F7F-40B5-A043-94A9195F68D0}">
+  <threadedComment id="{21d0d8d7-3368-4329-8b9d-f90bd8c8d183}" ref="D1" dT="2024-05-10T08:15:39" personId="{C467F531-FD7C-415A-838A-C9809BB98D1D}" parentId="{53AAC409-4128-4B38-8CD1-3F469E2B7524}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{17DE8CBA-BFAC-4933-A24D-C0C634F5AC4C}" ref="C1" dT="2024-05-10T07:54:02" personId="{C467F531-FD7C-415A-838A-C9809BB98D1D}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -773,8 +838,8 @@
       <c r="C2" s="1" t="str">
         <v># 这是一个内部开发与测试用的demo，文体风格是恐怖类型。
 ## 目的在这个阶段测试LLM对恐怖、血腥与暴力元素的容忍度。已经如果出了问题，我方应该怎么兼容。
-## 目前场景有5个。
-## Player 有一个，即单人游戏。
+## 目前场景有6个。
+## Player 有2个——出生地有2个。
 ## 道具若干。
 ## NPC有4个。分2个阵营：
 - 阵营1，人与狗：正常的NPC（知道信息多，可以对话）+ 仆从型NPC(守护前者，并服从前者命令)
@@ -793,36 +858,36 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4" t="str">
+      <c r="H3" s="4"/>
+      <c r="I3" s="3" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="J3" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1182,8 +1247,8 @@
       <c r="B2" s="1" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="1" t="str">
-        <v># 测试的世界，用于测试对场景使用道具与进出场景</v>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1328,10 +1393,10 @@
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="38"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="497"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="52"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="52"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
@@ -1357,19 +1422,19 @@
         <v>description</v>
       </c>
       <c r="D1" s="1" t="str">
-        <v>GPT_MODEL</v>
+        <v>PORT</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>PORT</v>
-      </c>
-      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
+      <c r="F1" s="2" t="str">
+        <v>RAG</v>
+      </c>
       <c r="G1" s="2" t="str">
-        <v>RAG</v>
+        <v>sys_prompt_template</v>
       </c>
       <c r="H1" s="2" t="str">
-        <v>sys_prompt_template</v>
+        <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
@@ -1382,20 +1447,20 @@
       <c r="C2" s="1" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1">
         <v>8100</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="E2" s="1" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
+      <c r="F2" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
       <c r="G2" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="H2" t="str">
         <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <v>/budding_world/sys_templates/gpt_agent_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
@@ -1408,20 +1473,20 @@
       <c r="C3" s="1" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="1">
         <v>8101</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="E3" s="1" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
+      <c r="F3" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
       <c r="G3" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="H3" t="str">
         <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <v>/budding_world/sys_templates/gpt_agent_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
@@ -1434,20 +1499,20 @@
       <c r="C4" s="1" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="1">
         <v>8102</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="E4" s="1" t="str">
         <v>/stage/the_incinerator</v>
       </c>
+      <c r="F4" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
       <c r="G4" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="H4" t="str">
         <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <v>/budding_world/sys_templates/gpt_agent_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
@@ -1460,20 +1525,20 @@
       <c r="C5" s="1" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="1">
         <v>8103</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="E5" s="1" t="str">
         <v>/stage/gray_chapel</v>
       </c>
+      <c r="F5" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
       <c r="G5" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="H5" t="str">
         <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <v>/budding_world/sys_templates/gpt_agent_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
@@ -1486,20 +1551,20 @@
       <c r="C6" s="1" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="1">
         <v>8104</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="E6" s="1" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
+      <c r="F6" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
       <c r="G6" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="H6" t="str">
         <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <v>/budding_world/sys_templates/gpt_agent_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
@@ -1512,20 +1577,20 @@
       <c r="C7" s="2" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="1">
         <v>8105</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="E7" s="1" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
+      <c r="F7" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
       <c r="G7" t="str">
-        <v>rag_libraries/rag2.md</v>
-      </c>
-      <c r="H7" t="str">
         <v>/budding_world/sys_templates/stage_sys_prompt_template.md</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <v>/budding_world/sys_templates/gpt_agent_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8"/>
@@ -1542,6 +1607,7 @@
     <row customHeight="true" ht="23" r="19"/>
     <row customHeight="true" ht="23" r="20"/>
   </sheetData>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1562,12 +1628,12 @@
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="290"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="224"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="49"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="62"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="62"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="102"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
@@ -1593,65 +1659,70 @@
         <v>conversation_example</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>GPT_MODEL</v>
+        <v>PORT</v>
       </c>
       <c r="F1" s="1" t="str">
-        <v>PORT</v>
-      </c>
-      <c r="G1" s="1" t="str">
         <v>API</v>
       </c>
+      <c r="G1" s="2" t="str">
+        <v>RAG</v>
+      </c>
       <c r="H1" s="2" t="str">
-        <v>RAG</v>
+        <v>sys_prompt_template</v>
       </c>
       <c r="I1" s="2" t="str">
-        <v>sys_prompt_template</v>
+        <v>agentpy_template</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <v>body</v>
       </c>
     </row>
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="3" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="3" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="3">
         <v>8200</v>
       </c>
+      <c r="F4" s="3" t="str">
+        <v>/npc/papal_emissary</v>
+      </c>
       <c r="G4" s="4" t="str">
-        <v>/npc/papal_emissary</v>
-      </c>
-      <c r="H4" s="3" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="H4" s="4" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="I4" s="2" t="str">
+        <v>/budding_world/sys_templates/gpt_agent_template.py</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <v>一个人类，男性，年龄不详，个子高大。</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1687,20 +1758,23 @@
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="3">
         <v>8201</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="F5" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="H5" t="str">
+      <c r="G5" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
+      <c r="H5" s="2" t="str">
+        <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
+      </c>
       <c r="I5" s="2" t="str">
-        <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
+        <v>/budding_world/sys_templates/gpt_agent_template.py</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
@@ -1731,20 +1805,23 @@
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="3">
         <v>8202</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="F6" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="H6" t="str">
+      <c r="G6" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
+      <c r="H6" s="2" t="str">
+        <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
+      </c>
       <c r="I6" s="2" t="str">
-        <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
+        <v>/budding_world/sys_templates/gpt_agent_template.py</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
     <row r="7">
@@ -1774,20 +1851,23 @@
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="3">
         <v>8203</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="F7" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="H7" t="str">
+      <c r="G7" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
+      <c r="H7" s="2" t="str">
+        <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
+      </c>
       <c r="I7" s="2" t="str">
-        <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
+        <v>/budding_world/sys_templates/gpt_agent_template.py</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
     <row r="8">
@@ -1819,23 +1899,26 @@
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="3">
         <v>8204</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="F8" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="H8" t="str">
+      <c r="G8" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
+      <c r="H8" s="2" t="str">
+        <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
+      </c>
       <c r="I8" s="2" t="str">
-        <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="23" r="9">
+        <v>/budding_world/sys_templates/gpt_agent_template.py</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1" t="str">
         <v>无名的复活者</v>
       </c>
@@ -1843,25 +1926,30 @@
         <v>nameless_resurrector</v>
       </c>
       <c r="C9" s="1" t="str">
-        <v>你的身份连你自己也说不清，因为你失忆了</v>
+        <v>### 你的背景
+- 你的身份连你自己也说不清，因为你基本失忆了。
+- 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
       <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="3">
         <v>8205</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="F9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="H9" t="str">
+      <c r="G9" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
+      <c r="H9" s="2" t="str">
+        <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
+      </c>
       <c r="I9" s="2" t="str">
-        <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
+        <v>/budding_world/sys_templates/gpt_agent_template.py</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
@@ -1876,6 +1964,7 @@
     <row customHeight="true" ht="23" r="19"/>
     <row customHeight="true" ht="23" r="20"/>
   </sheetData>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1952,7 +2041,7 @@
         <v>SpecialComponent</v>
       </c>
       <c r="E2" s="1" t="str">
-        <v>灰色面容与紫色双眼，是被诅咒之人的印记</v>
+        <v>灰色面容与紫色双眼，是被诅咒之人的印记。</v>
       </c>
       <c r="G2" t="str">
         <v>rag_libraries/rag2.md</v>
@@ -2015,7 +2104,7 @@
         <v>Weapon</v>
       </c>
       <c r="E5" s="1" t="str">
-        <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐</v>
+        <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐。</v>
       </c>
       <c r="F5" s="2" t="str">
         <v>0,1,0</v>
@@ -2061,18 +2150,58 @@
         <v>NonConsumableItem</v>
       </c>
       <c r="E7" s="1" t="str">
-        <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指</v>
+        <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
       <c r="G7" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
+      <c r="A8" s="1" t="str">
+        <v>守墓人的装束</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>gravekeepers_clothing</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <v>Clothes</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <v>0,0,1</v>
+      </c>
       <c r="G8" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="9"/>
+    <row customHeight="true" ht="23" r="9">
+      <c r="A9" s="1" t="str">
+        <v>教廷秘使的装束</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <v>papal_emissary_clothing</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <v>Clothes</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <v>0,0,1</v>
+      </c>
+      <c r="G9" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row customHeight="true" ht="23" r="12"/>
@@ -2087,4 +2216,81 @@
   </sheetData>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="52"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <v>codename</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>description</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>GPT_MODEL</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>PORT</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>API</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <v>RAG</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <v>sys_prompt_template</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>世界外观生成器</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>appearance_builder</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>- 你的功能是根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8300</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <v>/stage/appearance_builder</v>
+      </c>
+      <c r="G2" t="str">
+        <v>rag_libraries/rag2.md</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <v>/budding_world/sys_templates/world_appearance_builder_sys_prompt_template.md</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -33,24 +33,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={68CD8F60-864B-40E8-B1BA-DA20C93B4674}</author>
-    <author>tc={4A4AFF75-951E-46E9-BD15-45D4DDA66D29}</author>
-    <author>tc={8EB41A3D-3E86-4018-B565-B9B6F700EC94}</author>
+    <author>tc={B3CDE640-F8AD-4EF1-BA97-08C77A5457CA}</author>
+    <author>tc={7B83A68F-C888-4152-B32A-A691FC713366}</author>
+    <author>tc={0A7568A3-A16B-4527-A2F9-4FCAC3A439EF}</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{68CD8F60-864B-40E8-B1BA-DA20C93B4674}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{B3CDE640-F8AD-4EF1-BA97-08C77A5457CA}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{4A4AFF75-951E-46E9-BD15-45D4DDA66D29}">
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{7B83A68F-C888-4152-B32A-A691FC713366}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{0A7568A3-A16B-4527-A2F9-4FCAC3A439EF}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{8EB41A3D-3E86-4018-B565-B9B6F700EC94}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
   </commentList>
@@ -60,10 +60,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9E641FA4-D29D-4837-9E1B-4A4B4EF8D4A5}</author>
+    <author>tc={CE4ED945-50CD-4029-BB7F-CF809BBA4911}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9E641FA4-D29D-4837-9E1B-4A4B4EF8D4A5}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CE4ED945-50CD-4029-BB7F-CF809BBA4911}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -75,10 +75,10 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B902520F-592A-49C8-B91D-C41FEA287799}</author>
+    <author>tc={9B20B972-B32D-4D5C-9A28-24C0A53F61B0}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B902520F-592A-49C8-B91D-C41FEA287799}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9B20B972-B32D-4D5C-9A28-24C0A53F61B0}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -90,22 +90,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={53AAC409-4128-4B38-8CD1-3F469E2B7524}</author>
-    <author>tc={17DE8CBA-BFAC-4933-A24D-C0C634F5AC4C}</author>
+    <author>tc={1C994FDE-B2AF-47DB-B8DC-F436F32FA1FC}</author>
+    <author>tc={9F4C967A-A96C-443D-90E0-1F8EFB05FCC5}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{53AAC409-4128-4B38-8CD1-3F469E2B7524}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{1C994FDE-B2AF-47DB-B8DC-F436F32FA1FC}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{9F4C967A-A96C-443D-90E0-1F8EFB05FCC5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{17DE8CBA-BFAC-4933-A24D-C0C634F5AC4C}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -318,8 +318,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{9BCAA7F4-7FB9-4E81-BED6-BDBCD9911E79}" userId="S::::c451b5f2-96fc-428f-aecf-bc59c050d9b5" providerId="AD"/>
-  <person displayName="杨行" id="{C467F531-FD7C-415A-838A-C9809BB98D1D}" userId="S::::246b0b91-7241-4d7b-bb35-f2f1271bae56" providerId="AD"/>
+  <person displayName="侯清辰" id="{4D334063-372B-4489-B54B-4C60087F5B42}" userId="S::::0ccbff63-d35e-490b-bf75-87f99ecd84ce" providerId="AD"/>
+  <person displayName="杨行" id="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" userId="S::::0af608ca-0e6c-420d-a849-7ab45938d8a0" providerId="AD"/>
 </personList>
 </file>
 
@@ -620,21 +620,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{68CD8F60-864B-40E8-B1BA-DA20C93B4674}" ref="I1" dT="2024-05-10T07:08:22" personId="{C467F531-FD7C-415A-838A-C9809BB98D1D}" parentId="{}">
+  <threadedComment id="{B3CDE640-F8AD-4EF1-BA97-08C77A5457CA}" ref="I1" dT="2024-05-10T07:08:22" personId="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{4A4AFF75-951E-46E9-BD15-45D4DDA66D29}" ref="J1" dT="2024-05-31T03:31:01" personId="{C467F531-FD7C-415A-838A-C9809BB98D1D}" parentId="{}">
+  <threadedComment id="{7B83A68F-C888-4152-B32A-A691FC713366}" ref="A3" dT="2024-05-28T04:59:59" personId="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{0A7568A3-A16B-4527-A2F9-4FCAC3A439EF}" ref="J1" dT="2024-05-31T03:31:01" personId="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{8EB41A3D-3E86-4018-B565-B9B6F700EC94}" ref="A3" dT="2024-05-28T04:59:59" personId="{C467F531-FD7C-415A-838A-C9809BB98D1D}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{9E641FA4-D29D-4837-9E1B-4A4B4EF8D4A5}" ref="D1" dT="2024-06-09T13:30:31" personId="{C467F531-FD7C-415A-838A-C9809BB98D1D}" parentId="{}">
+  <threadedComment id="{CE4ED945-50CD-4029-BB7F-CF809BBA4911}" ref="D1" dT="2024-06-09T13:30:31" personId="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -642,7 +642,7 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B902520F-592A-49C8-B91D-C41FEA287799}" ref="E1" dT="2024-06-09T13:30:45" personId="{C467F531-FD7C-415A-838A-C9809BB98D1D}" parentId="{}">
+  <threadedComment id="{9B20B972-B32D-4D5C-9A28-24C0A53F61B0}" ref="E1" dT="2024-06-09T13:30:45" personId="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -650,18 +650,18 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{53AAC409-4128-4B38-8CD1-3F469E2B7524}" ref="D1" dT="2024-05-10T08:11:19" personId="{C467F531-FD7C-415A-838A-C9809BB98D1D}" parentId="{}">
+  <threadedComment id="{1C994FDE-B2AF-47DB-B8DC-F436F32FA1FC}" ref="C1" dT="2024-05-10T07:54:02" personId="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{9F4C967A-A96C-443D-90E0-1F8EFB05FCC5}" ref="D1" dT="2024-05-10T08:11:19" personId="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{21d0d8d7-3368-4329-8b9d-f90bd8c8d183}" ref="D1" dT="2024-05-10T08:15:39" personId="{C467F531-FD7C-415A-838A-C9809BB98D1D}" parentId="{53AAC409-4128-4B38-8CD1-3F469E2B7524}">
+  <threadedComment id="{48ae2c81-9c13-4c87-bbdf-34c70882a84b}" ref="D1" dT="2024-05-10T08:15:39" personId="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" parentId="{9F4C967A-A96C-443D-90E0-1F8EFB05FCC5}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{17DE8CBA-BFAC-4933-A24D-C0C634F5AC4C}" ref="C1" dT="2024-05-10T07:54:02" personId="{C467F531-FD7C-415A-838A-C9809BB98D1D}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2231,12 +2231,11 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="52"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="69"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="45"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2250,45 +2249,45 @@
         <v>description</v>
       </c>
       <c r="D1" s="1" t="str">
-        <v>GPT_MODEL</v>
+        <v>PORT</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>PORT</v>
-      </c>
-      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
+      <c r="F1" s="2" t="str">
+        <v>RAG</v>
+      </c>
       <c r="G1" s="2" t="str">
-        <v>RAG</v>
+        <v>sys_prompt_template</v>
       </c>
       <c r="H1" s="2" t="str">
-        <v>sys_prompt_template</v>
+        <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
-        <v>世界外观生成器</v>
+        <v>角色外观生成器</v>
       </c>
       <c r="B2" s="1" t="str">
         <v>appearance_builder</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>- 你的功能是根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>gpt-4-turbo-preview</v>
-      </c>
-      <c r="E2" s="1">
+        <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
+      </c>
+      <c r="D2" s="1">
         <v>8300</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="E2" s="1" t="str">
         <v>/stage/appearance_builder</v>
       </c>
-      <c r="G2" t="str">
+      <c r="F2" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
+      <c r="G2" s="2" t="str">
+        <v>/budding_world/sys_templates/world_system_appearance_builder_sys_prompt_template.md</v>
+      </c>
       <c r="H2" s="2" t="str">
-        <v>/budding_world/sys_templates/world_appearance_builder_sys_prompt_template.md</v>
+        <v>/budding_world/sys_templates/gpt_agent_template.py</v>
       </c>
     </row>
   </sheetData>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -33,24 +33,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B3CDE640-F8AD-4EF1-BA97-08C77A5457CA}</author>
-    <author>tc={7B83A68F-C888-4152-B32A-A691FC713366}</author>
-    <author>tc={0A7568A3-A16B-4527-A2F9-4FCAC3A439EF}</author>
+    <author>tc={F8730FF0-0BB2-4F8D-94D0-5DFB405FAA8A}</author>
+    <author>tc={AD6445C5-F1CC-4840-B90D-E56A3D671802}</author>
+    <author>tc={FEF4E21C-FD97-4AC2-BBA0-CA2208249CF0}</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{B3CDE640-F8AD-4EF1-BA97-08C77A5457CA}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{7B83A68F-C888-4152-B32A-A691FC713366}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{F8730FF0-0BB2-4F8D-94D0-5DFB405FAA8A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{0A7568A3-A16B-4527-A2F9-4FCAC3A439EF}">
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{AD6445C5-F1CC-4840-B90D-E56A3D671802}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{FEF4E21C-FD97-4AC2-BBA0-CA2208249CF0}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
   </commentList>
@@ -60,10 +60,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={CE4ED945-50CD-4029-BB7F-CF809BBA4911}</author>
+    <author>tc={7D002851-7D10-4049-862E-3B9EAFEF43D4}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CE4ED945-50CD-4029-BB7F-CF809BBA4911}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7D002851-7D10-4049-862E-3B9EAFEF43D4}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -75,10 +75,10 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9B20B972-B32D-4D5C-9A28-24C0A53F61B0}</author>
+    <author>tc={831B1050-44AA-4FE8-9221-46C2E7F83622}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9B20B972-B32D-4D5C-9A28-24C0A53F61B0}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{831B1050-44AA-4FE8-9221-46C2E7F83622}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -90,22 +90,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={1C994FDE-B2AF-47DB-B8DC-F436F32FA1FC}</author>
-    <author>tc={9F4C967A-A96C-443D-90E0-1F8EFB05FCC5}</author>
+    <author>tc={B95A479A-4F19-4761-8D8A-4E00F7CAC9A5}</author>
+    <author>tc={D019E808-50EA-48B1-8E57-DF1CD5E848C9}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{1C994FDE-B2AF-47DB-B8DC-F436F32FA1FC}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{9F4C967A-A96C-443D-90E0-1F8EFB05FCC5}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B95A479A-4F19-4761-8D8A-4E00F7CAC9A5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{D019E808-50EA-48B1-8E57-DF1CD5E848C9}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -181,14 +181,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -318,8 +318,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{4D334063-372B-4489-B54B-4C60087F5B42}" userId="S::::0ccbff63-d35e-490b-bf75-87f99ecd84ce" providerId="AD"/>
-  <person displayName="杨行" id="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" userId="S::::0af608ca-0e6c-420d-a849-7ab45938d8a0" providerId="AD"/>
+  <person displayName="杨行" id="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" userId="S::::1f9982d2-f364-422e-a613-be3a9589aae5" providerId="AD"/>
+  <person displayName="侯清辰" id="{13D75DD7-DDA5-41EC-A301-7FE922AA6A12}" userId="S::::ee054d00-d8b9-45f0-92a5-fe5cd5329997" providerId="AD"/>
 </personList>
 </file>
 
@@ -620,21 +620,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B3CDE640-F8AD-4EF1-BA97-08C77A5457CA}" ref="I1" dT="2024-05-10T07:08:22" personId="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{7B83A68F-C888-4152-B32A-A691FC713366}" ref="A3" dT="2024-05-28T04:59:59" personId="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" parentId="{}">
+  <threadedComment id="{F8730FF0-0BB2-4F8D-94D0-5DFB405FAA8A}" ref="A4" dT="2024-05-28T04:59:59" personId="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{0A7568A3-A16B-4527-A2F9-4FCAC3A439EF}" ref="J1" dT="2024-05-31T03:31:01" personId="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" parentId="{}">
+  <threadedComment id="{AD6445C5-F1CC-4840-B90D-E56A3D671802}" ref="J1" dT="2024-05-31T03:31:01" personId="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{FEF4E21C-FD97-4AC2-BBA0-CA2208249CF0}" ref="I1" dT="2024-05-10T07:08:22" personId="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{CE4ED945-50CD-4029-BB7F-CF809BBA4911}" ref="D1" dT="2024-06-09T13:30:31" personId="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" parentId="{}">
+  <threadedComment id="{7D002851-7D10-4049-862E-3B9EAFEF43D4}" ref="D1" dT="2024-06-09T13:30:31" personId="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -642,7 +642,7 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{9B20B972-B32D-4D5C-9A28-24C0A53F61B0}" ref="E1" dT="2024-06-09T13:30:45" personId="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" parentId="{}">
+  <threadedComment id="{831B1050-44AA-4FE8-9221-46C2E7F83622}" ref="E1" dT="2024-06-09T13:30:45" personId="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -650,18 +650,18 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{1C994FDE-B2AF-47DB-B8DC-F436F32FA1FC}" ref="C1" dT="2024-05-10T07:54:02" personId="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{9F4C967A-A96C-443D-90E0-1F8EFB05FCC5}" ref="D1" dT="2024-05-10T08:11:19" personId="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" parentId="{}">
+  <threadedComment id="{B95A479A-4F19-4761-8D8A-4E00F7CAC9A5}" ref="D1" dT="2024-05-10T08:11:19" personId="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{48ae2c81-9c13-4c87-bbdf-34c70882a84b}" ref="D1" dT="2024-05-10T08:15:39" personId="{73555B9A-A1D4-4E3A-94B3-872147E8F372}" parentId="{9F4C967A-A96C-443D-90E0-1F8EFB05FCC5}">
+  <threadedComment id="{6b94f7fb-4dae-41c5-984a-b64a48d229d9}" ref="D1" dT="2024-05-10T08:15:39" personId="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" parentId="{B95A479A-4F19-4761-8D8A-4E00F7CAC9A5}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{D019E808-50EA-48B1-8E57-DF1CD5E848C9}" ref="C1" dT="2024-05-10T07:54:02" personId="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -758,8 +758,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="82"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="13"/>
@@ -857,97 +857,123 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="str">
+    <row customHeight="true" ht="42" r="3">
+      <c r="A3" s="4" t="str">
+        <v>角色外观生成器</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <v>WorldSystem</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <v>见‘WorldSystem’</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="str">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3" t="str">
+      <c r="H4" s="3"/>
+      <c r="I4" s="4" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="J3" s="4" t="str">
+      <c r="J4" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B5" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G5" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I5" s="1" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="J5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="str">
+    <row r="6">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B6" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G6" s="1" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I6" s="1" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J6" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="str">
+    <row r="7">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B7" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G7" s="1" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -955,44 +981,44 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I7" s="1" t="str">
         <v>一个男性人类，个子中等，身着守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J7" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="str">
+    <row r="8">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B8" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="G7" s="1" t="str">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I8" s="1" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="J8" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="str">
+    <row r="9">
+      <c r="A9" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B9" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1" t="str">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="G9" s="1" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1000,50 +1026,16 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I9" s="1" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J9" s="2" t="str">
         <v>200,200,60,1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="1" t="str">
-        <v>禁言铁棺</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <v>Stage</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="str">
-        <v>无名的复活者</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
-- 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <v>灰颜墓地</v>
-      </c>
-      <c r="J9" s="1" t="str">
-        <v>10000,10000,5,10000</v>
-      </c>
-      <c r="N9" s="2" t="str">
-        <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
-- 否则就不允许任何在你之中的角色离开。</v>
-      </c>
-      <c r="O9" t="str">
-        <v>要离开的角色必须是人类。</v>
-      </c>
-      <c r="P9" t="str">
-        <v>要离开的角色身上必须具有‘不死者印记’。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
       <c r="A10" s="1" t="str">
-        <v>灰颜墓地</v>
+        <v>禁言铁棺</v>
       </c>
       <c r="B10" s="1" t="str">
         <v>Stage</v>
@@ -1052,18 +1044,32 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="str">
-        <v>格雷;摩尔;小灰鼠帕奇</v>
+        <v>无名的复活者</v>
       </c>
       <c r="G10" s="1" t="str">
-        <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
+        <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
+- 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <v>灰颜墓地</v>
       </c>
       <c r="J10" s="1" t="str">
-        <v>10000,10000,1,10000</v>
+        <v>10000,10000,5,10000</v>
+      </c>
+      <c r="N10" s="2" t="str">
+        <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
+- 否则就不允许任何在你之中的角色离开。</v>
+      </c>
+      <c r="O10" t="str">
+        <v>要离开的角色必须是人类。</v>
+      </c>
+      <c r="P10" t="str">
+        <v>要离开的角色身上必须具有‘不死者印记’。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
       <c r="A11" s="1" t="str">
-        <v>腐臭地窖</v>
+        <v>灰颜墓地</v>
       </c>
       <c r="B11" s="1" t="str">
         <v>Stage</v>
@@ -1072,10 +1078,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="str">
-        <v>鼠王</v>
+        <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
       <c r="G11" s="1" t="str">
-        <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
+        <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
       <c r="J11" s="1" t="str">
         <v>10000,10000,1,10000</v>
@@ -1083,19 +1089,19 @@
     </row>
     <row customHeight="true" ht="23" r="12">
       <c r="A12" s="1" t="str">
-        <v>熔炉广场</v>
+        <v>腐臭地窖</v>
       </c>
       <c r="B12" s="1" t="str">
         <v>Stage</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="str">
-        <v>炉钩</v>
-      </c>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="str">
+        <v>鼠王</v>
+      </c>
       <c r="G12" s="1" t="str">
-        <v>炉火在熊熊燃烧。</v>
+        <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
       <c r="J12" s="1" t="str">
         <v>10000,10000,1,10000</v>
@@ -1103,20 +1109,19 @@
     </row>
     <row customHeight="true" ht="23" r="13">
       <c r="A13" s="1" t="str">
-        <v>灰颜礼拜堂</v>
+        <v>熔炉广场</v>
       </c>
       <c r="B13" s="1" t="str">
         <v>Stage</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="str">
+        <v>炉钩</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="str">
-        <v>厅堂里安静无比。</v>
-      </c>
-      <c r="H13" s="2" t="str">
-        <v>礼拜堂的密室</v>
+        <v>炉火在熊熊燃烧。</v>
       </c>
       <c r="J13" s="1" t="str">
         <v>10000,10000,1,10000</v>
@@ -1124,7 +1129,7 @@
     </row>
     <row customHeight="true" ht="23" r="14">
       <c r="A14" s="1" t="str">
-        <v>圣灰园正门前广场</v>
+        <v>灰颜礼拜堂</v>
       </c>
       <c r="B14" s="1" t="str">
         <v>Stage</v>
@@ -1132,26 +1137,47 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="str">
-        <v>教廷密使</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1" t="str">
-        <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
+        <v>厅堂里安静无比。</v>
       </c>
       <c r="H14" s="2" t="str">
-        <v>灰颜墓地</v>
+        <v>礼拜堂的密室</v>
       </c>
       <c r="J14" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="15"/>
+    <row customHeight="true" ht="23" r="15">
+      <c r="A15" s="1" t="str">
+        <v>圣灰园正门前广场</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="str">
+        <v>教廷密使</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <v>灰颜墓地</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <v>10000,10000,1,10000</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="16"/>
     <row customHeight="true" ht="23" r="17"/>
     <row customHeight="true" ht="23" r="18"/>
     <row customHeight="true" ht="23" r="19"/>
     <row customHeight="true" ht="23" r="20"/>
     <row customHeight="true" ht="23" r="21"/>
+    <row customHeight="true" ht="23" r="22"/>
   </sheetData>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1258,65 +1284,58 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
+    <row customHeight="true" ht="42" r="3">
+      <c r="A3" s="4" t="str">
+        <v>角色外观生成器</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <v>WorldSystem</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <v>见‘WorldSystem’</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B4" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G4" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I3" s="1" t="str">
+      <c r="I4" s="1" t="str">
         <v>一个男性人类，个子中等。身上的衣服已经破烂不堪。肤色是一种不自然的灰色，双眼和普通人不同——是稀有的紫色</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J4" s="2" t="str">
         <v>100,100,10,1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
-        <v>禁言铁棺</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <v>Stage</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="str">
-        <v>无名的复活者</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <v>灰颜墓地</v>
-      </c>
-      <c r="J4" s="1" t="str">
-        <v>10000,10000,5,10000</v>
-      </c>
-      <c r="N4" s="2" t="str">
-        <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
-- 否则就不允许任何在你之中的角色离开。</v>
-      </c>
-      <c r="O4" t="str">
-        <v>要离开的角色必须是人类。</v>
-      </c>
-      <c r="P4" t="str">
-        <v>要离开的角色身上必须具有‘不死者印记’。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1" t="str">
-        <v>灰颜墓地</v>
+        <v>禁言铁棺</v>
       </c>
       <c r="B5" s="1" t="str">
         <v>Stage</v>
@@ -1324,17 +1343,32 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="str">
+        <v>无名的复活者</v>
+      </c>
       <c r="G5" s="1" t="str">
-        <v>墓地里静悄悄</v>
+        <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <v>灰颜墓地</v>
       </c>
       <c r="J5" s="1" t="str">
-        <v>10000,10000,1,10000</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>10000,10000,5,10000</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
+- 否则就不允许任何在你之中的角色离开。</v>
+      </c>
+      <c r="O5" t="str">
+        <v>要离开的角色必须是人类。</v>
+      </c>
+      <c r="P5" t="str">
+        <v>要离开的角色身上必须具有‘不死者印记’。</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1" t="str">
-        <v>灰颜礼拜堂</v>
+        <v>灰颜墓地</v>
       </c>
       <c r="B6" s="1" t="str">
         <v>Stage</v>
@@ -1344,28 +1378,45 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="str">
-        <v>厅堂里安静无比。</v>
-      </c>
-      <c r="H6" s="2" t="str">
-        <v>礼拜堂的密室</v>
+        <v>墓地里静悄悄</v>
       </c>
       <c r="J6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="str">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="str">
+        <v>灰颜礼拜堂</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="str">
+        <v>厅堂里安静无比。</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <v>礼拜堂的密室</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <v>10000,10000,1,10000</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="M6" s="2" t="str">
+      <c r="M7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="N6" s="6" t="str">
+      <c r="N7" s="6" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="7"/>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
     <row customHeight="true" ht="23" r="10"/>
@@ -1373,6 +1424,7 @@
     <row customHeight="true" ht="23" r="12"/>
     <row customHeight="true" ht="23" r="13"/>
     <row customHeight="true" ht="23" r="14"/>
+    <row customHeight="true" ht="23" r="15"/>
   </sheetData>
 </worksheet>
 </file>
@@ -1680,49 +1732,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>8200</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="4" t="str">
+      <c r="G4" s="3" t="str">
         <v>rag_libraries/rag2.md</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="3" t="str">
         <v>/budding_world/sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>/budding_world/sys_templates/gpt_agent_template.py</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1758,7 +1810,7 @@
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -1805,7 +1857,7 @@
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -1820,7 +1872,7 @@
       <c r="I6" s="2" t="str">
         <v>/budding_world/sys_templates/gpt_agent_template.py</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" s="4" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -1851,7 +1903,7 @@
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -1866,7 +1918,7 @@
       <c r="I7" s="2" t="str">
         <v>/budding_world/sys_templates/gpt_agent_template.py</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -1899,7 +1951,7 @@
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -1933,7 +1985,7 @@
       <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2229,10 +2281,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="69"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="45"/>
@@ -2269,7 +2321,7 @@
         <v>角色外观生成器</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>appearance_builder</v>
+        <v>world_system_appearance_builder</v>
       </c>
       <c r="C2" s="1" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
@@ -2278,7 +2330,7 @@
         <v>8300</v>
       </c>
       <c r="E2" s="1" t="str">
-        <v>/stage/appearance_builder</v>
+        <v>/worldsystems/appearance_builder</v>
       </c>
       <c r="F2" t="str">
         <v>rag_libraries/rag2.md</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -33,24 +33,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F8730FF0-0BB2-4F8D-94D0-5DFB405FAA8A}</author>
-    <author>tc={AD6445C5-F1CC-4840-B90D-E56A3D671802}</author>
-    <author>tc={FEF4E21C-FD97-4AC2-BBA0-CA2208249CF0}</author>
+    <author>tc={2956F12B-B6F3-4839-A5FF-DB912E6F7139}</author>
+    <author>tc={6AFD45C7-6511-4DD3-A77A-38FA1FC7DE1A}</author>
+    <author>tc={3659E9ED-222D-4825-872D-B85E2BD41CC2}</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{F8730FF0-0BB2-4F8D-94D0-5DFB405FAA8A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{AD6445C5-F1CC-4840-B90D-E56A3D671802}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2956F12B-B6F3-4839-A5FF-DB912E6F7139}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{FEF4E21C-FD97-4AC2-BBA0-CA2208249CF0}">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{6AFD45C7-6511-4DD3-A77A-38FA1FC7DE1A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{3659E9ED-222D-4825-872D-B85E2BD41CC2}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
   </commentList>
@@ -60,10 +60,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={7D002851-7D10-4049-862E-3B9EAFEF43D4}</author>
+    <author>tc={A09A5B06-DC73-45F3-95E9-D9F9AF4B7B89}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7D002851-7D10-4049-862E-3B9EAFEF43D4}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A09A5B06-DC73-45F3-95E9-D9F9AF4B7B89}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -75,10 +75,10 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={831B1050-44AA-4FE8-9221-46C2E7F83622}</author>
+    <author>tc={43C43A05-D220-4A28-8335-2807C9A98265}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{831B1050-44AA-4FE8-9221-46C2E7F83622}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{43C43A05-D220-4A28-8335-2807C9A98265}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -90,22 +90,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B95A479A-4F19-4761-8D8A-4E00F7CAC9A5}</author>
-    <author>tc={D019E808-50EA-48B1-8E57-DF1CD5E848C9}</author>
+    <author>tc={372C3472-9019-49BB-BFB8-FC3A229FB5CD}</author>
+    <author>tc={937CDB9E-010A-4FFE-B4F7-E17ABA52ABCB}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B95A479A-4F19-4761-8D8A-4E00F7CAC9A5}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{372C3472-9019-49BB-BFB8-FC3A229FB5CD}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{937CDB9E-010A-4FFE-B4F7-E17ABA52ABCB}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{D019E808-50EA-48B1-8E57-DF1CD5E848C9}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -291,10 +291,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -318,8 +318,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" userId="S::::1f9982d2-f364-422e-a613-be3a9589aae5" providerId="AD"/>
-  <person displayName="侯清辰" id="{13D75DD7-DDA5-41EC-A301-7FE922AA6A12}" userId="S::::ee054d00-d8b9-45f0-92a5-fe5cd5329997" providerId="AD"/>
+  <person displayName="侯清辰" id="{9D0E1039-F88C-4F96-AC08-709ECA7719ED}" userId="S::::2efbeeb3-667c-4ade-90c1-6126b300b3a6" providerId="AD"/>
+  <person displayName="杨行" id="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" userId="S::::26256c18-8187-4211-958b-d776cfaa36bd" providerId="AD"/>
 </personList>
 </file>
 
@@ -620,21 +620,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{F8730FF0-0BB2-4F8D-94D0-5DFB405FAA8A}" ref="A4" dT="2024-05-28T04:59:59" personId="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{AD6445C5-F1CC-4840-B90D-E56A3D671802}" ref="J1" dT="2024-05-31T03:31:01" personId="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" parentId="{}">
+  <threadedComment id="{2956F12B-B6F3-4839-A5FF-DB912E6F7139}" ref="J1" dT="2024-05-31T03:31:01" personId="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{FEF4E21C-FD97-4AC2-BBA0-CA2208249CF0}" ref="I1" dT="2024-05-10T07:08:22" personId="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" parentId="{}">
+  <threadedComment id="{6AFD45C7-6511-4DD3-A77A-38FA1FC7DE1A}" ref="I1" dT="2024-05-10T07:08:22" personId="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{3659E9ED-222D-4825-872D-B85E2BD41CC2}" ref="A4" dT="2024-05-28T04:59:59" personId="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{7D002851-7D10-4049-862E-3B9EAFEF43D4}" ref="D1" dT="2024-06-09T13:30:31" personId="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" parentId="{}">
+  <threadedComment id="{A09A5B06-DC73-45F3-95E9-D9F9AF4B7B89}" ref="D1" dT="2024-06-09T13:30:31" personId="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -642,7 +642,7 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{831B1050-44AA-4FE8-9221-46C2E7F83622}" ref="E1" dT="2024-06-09T13:30:45" personId="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" parentId="{}">
+  <threadedComment id="{43C43A05-D220-4A28-8335-2807C9A98265}" ref="E1" dT="2024-06-09T13:30:45" personId="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -650,18 +650,18 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B95A479A-4F19-4761-8D8A-4E00F7CAC9A5}" ref="D1" dT="2024-05-10T08:11:19" personId="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" parentId="{}">
+  <threadedComment id="{372C3472-9019-49BB-BFB8-FC3A229FB5CD}" ref="C1" dT="2024-05-10T07:54:02" personId="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{937CDB9E-010A-4FFE-B4F7-E17ABA52ABCB}" ref="D1" dT="2024-05-10T08:11:19" personId="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{6b94f7fb-4dae-41c5-984a-b64a48d229d9}" ref="D1" dT="2024-05-10T08:15:39" personId="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" parentId="{B95A479A-4F19-4761-8D8A-4E00F7CAC9A5}">
+  <threadedComment id="{9d86355d-4781-4862-873d-4f031eadc898}" ref="D1" dT="2024-05-10T08:15:39" personId="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" parentId="{937CDB9E-010A-4FFE-B4F7-E17ABA52ABCB}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{D019E808-50EA-48B1-8E57-DF1CD5E848C9}" ref="C1" dT="2024-05-10T07:54:02" personId="{DB933BF6-996D-4A3A-9F59-5F358D5A1DE4}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -858,21 +858,21 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -884,23 +884,23 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="5" t="str">
+      <c r="G4" s="4" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="4" t="str">
+      <c r="I4" s="5" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
       <c r="J4" s="3" t="str">
@@ -1056,15 +1056,13 @@
       <c r="J10" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
+      <c r="L10" s="2" t="str">
+        <v>- 进入场景的角色必须是人类
+- 而且必须具有 不死者印记</v>
+      </c>
       <c r="N10" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
-      </c>
-      <c r="O10" t="str">
-        <v>要离开的角色必须是人类。</v>
-      </c>
-      <c r="P10" t="str">
-        <v>要离开的角色身上必须具有‘不死者印记’。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
@@ -1285,21 +1283,21 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1732,26 +1730,26 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="5" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="5" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>8200</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="5" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="3" t="str">
@@ -1810,7 +1808,7 @@
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -1857,7 +1855,7 @@
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -1872,7 +1870,7 @@
       <c r="I6" s="2" t="str">
         <v>/budding_world/sys_templates/gpt_agent_template.py</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="5" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -1903,7 +1901,7 @@
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -1951,7 +1949,7 @@
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -1985,7 +1983,7 @@
       <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2093,7 +2091,7 @@
         <v>SpecialComponent</v>
       </c>
       <c r="E2" s="1" t="str">
-        <v>灰色面容与紫色双眼，是被诅咒之人的印记。</v>
+        <v>被诅咒之人的印记。</v>
       </c>
       <c r="G2" t="str">
         <v>rag_libraries/rag2.md</v>

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -33,24 +33,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={2956F12B-B6F3-4839-A5FF-DB912E6F7139}</author>
-    <author>tc={6AFD45C7-6511-4DD3-A77A-38FA1FC7DE1A}</author>
-    <author>tc={3659E9ED-222D-4825-872D-B85E2BD41CC2}</author>
+    <author>tc={E40AC0AA-0A97-4011-80E0-1FE4E8C148D7}</author>
+    <author>tc={71763E18-8780-47D0-88CC-F0A8204AAE18}</author>
+    <author>tc={BB50936F-50AE-4523-8A44-20B80C9E6037}</author>
+    <author>tc={79E39EBF-AC53-4C9E-8343-767DAC50224D}</author>
+    <author>tc={287C5691-A5B3-441F-A843-7E1E76AD6A0C}</author>
+    <author>tc={5355B0CF-9299-455B-8E2D-9B9FB0DD0404}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2956F12B-B6F3-4839-A5FF-DB912E6F7139}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{E40AC0AA-0A97-4011-80E0-1FE4E8C148D7}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{71763E18-8780-47D0-88CC-F0A8204AAE18}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{BB50936F-50AE-4523-8A44-20B80C9E6037}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{6AFD45C7-6511-4DD3-A77A-38FA1FC7DE1A}">
+    <comment ref="G9" authorId="3" shapeId="0" xr:uid="{79E39EBF-AC53-4C9E-8343-767DAC50224D}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{3659E9ED-222D-4825-872D-B85E2BD41CC2}">
+    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{287C5691-A5B3-441F-A843-7E1E76AD6A0C}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="5" shapeId="0" xr:uid="{5355B0CF-9299-455B-8E2D-9B9FB0DD0404}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
   </commentList>
@@ -60,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A09A5B06-DC73-45F3-95E9-D9F9AF4B7B89}</author>
+    <author>tc={14B4C9AA-789B-4874-9254-ED8A5AFBC6C4}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A09A5B06-DC73-45F3-95E9-D9F9AF4B7B89}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{14B4C9AA-789B-4874-9254-ED8A5AFBC6C4}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -75,10 +93,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={43C43A05-D220-4A28-8335-2807C9A98265}</author>
+    <author>tc={7FD6BD4C-90AE-46E9-B645-21E14571F24D}</author>
+    <author>tc={7095D64B-E914-4126-AA93-46F5CBDD646B}</author>
+    <author>tc={1861AD34-FE0C-420D-A296-55ABF0DEA176}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{43C43A05-D220-4A28-8335-2807C9A98265}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{7FD6BD4C-90AE-46E9-B645-21E14571F24D}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{7095D64B-E914-4126-AA93-46F5CBDD646B}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{1861AD34-FE0C-420D-A296-55ABF0DEA176}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -90,22 +120,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={372C3472-9019-49BB-BFB8-FC3A229FB5CD}</author>
-    <author>tc={937CDB9E-010A-4FFE-B4F7-E17ABA52ABCB}</author>
+    <author>tc={AF211197-D4F7-417A-9A48-26EA8B2BEAE5}</author>
+    <author>tc={B4B54A73-CF70-4998-9DCB-E244B33B25E0}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{372C3472-9019-49BB-BFB8-FC3A229FB5CD}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{937CDB9E-010A-4FFE-B4F7-E17ABA52ABCB}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AF211197-D4F7-417A-9A48-26EA8B2BEAE5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{B4B54A73-CF70-4998-9DCB-E244B33B25E0}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -291,10 +321,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -318,8 +348,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{9D0E1039-F88C-4F96-AC08-709ECA7719ED}" userId="S::::2efbeeb3-667c-4ade-90c1-6126b300b3a6" providerId="AD"/>
-  <person displayName="杨行" id="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" userId="S::::26256c18-8187-4211-958b-d776cfaa36bd" providerId="AD"/>
+  <person displayName="侯清辰" id="{6D287E6D-B016-4314-9F8E-7E0CA5151AB0}" userId="S::::20650093-039b-4953-887b-374f17798800" providerId="AD"/>
+  <person displayName="杨行" id="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" userId="S::::2308b51b-c0b1-451b-8e02-a015458b76ba" providerId="AD"/>
 </personList>
 </file>
 
@@ -620,21 +650,30 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{2956F12B-B6F3-4839-A5FF-DB912E6F7139}" ref="J1" dT="2024-05-31T03:31:01" personId="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" parentId="{}">
+  <threadedComment id="{E40AC0AA-0A97-4011-80E0-1FE4E8C148D7}" ref="I1" dT="2024-05-10T07:08:22" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{71763E18-8780-47D0-88CC-F0A8204AAE18}" ref="A4" dT="2024-05-28T04:59:59" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{BB50936F-50AE-4523-8A44-20B80C9E6037}" ref="J1" dT="2024-05-31T03:31:01" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{6AFD45C7-6511-4DD3-A77A-38FA1FC7DE1A}" ref="I1" dT="2024-05-10T07:08:22" personId="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  <threadedComment id="{79E39EBF-AC53-4C9E-8343-767DAC50224D}" ref="G9" dT="2024-06-14T02:51:06" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{3659E9ED-222D-4825-872D-B85E2BD41CC2}" ref="A4" dT="2024-05-28T04:59:59" personId="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  <threadedComment id="{287C5691-A5B3-441F-A843-7E1E76AD6A0C}" ref="C2" dT="2024-06-14T02:49:51" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{5355B0CF-9299-455B-8E2D-9B9FB0DD0404}" ref="G6" dT="2024-06-14T02:50:34" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{A09A5B06-DC73-45F3-95E9-D9F9AF4B7B89}" ref="D1" dT="2024-06-09T13:30:31" personId="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" parentId="{}">
+  <threadedComment id="{14B4C9AA-789B-4874-9254-ED8A5AFBC6C4}" ref="D1" dT="2024-06-09T13:30:31" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -642,7 +681,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{43C43A05-D220-4A28-8335-2807C9A98265}" ref="E1" dT="2024-06-09T13:30:45" personId="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" parentId="{}">
+  <threadedComment id="{7FD6BD4C-90AE-46E9-B645-21E14571F24D}" ref="C5" dT="2024-06-14T02:48:45" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
+    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  </threadedComment>
+  <threadedComment id="{7095D64B-E914-4126-AA93-46F5CBDD646B}" ref="C6" dT="2024-06-14T02:49:20" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
+  </threadedComment>
+  <threadedComment id="{1861AD34-FE0C-420D-A296-55ABF0DEA176}" ref="E1" dT="2024-06-09T13:30:45" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -650,18 +695,18 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{372C3472-9019-49BB-BFB8-FC3A229FB5CD}" ref="C1" dT="2024-05-10T07:54:02" personId="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{937CDB9E-010A-4FFE-B4F7-E17ABA52ABCB}" ref="D1" dT="2024-05-10T08:11:19" personId="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" parentId="{}">
+  <threadedComment id="{AF211197-D4F7-417A-9A48-26EA8B2BEAE5}" ref="D1" dT="2024-05-10T08:11:19" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{9d86355d-4781-4862-873d-4f031eadc898}" ref="D1" dT="2024-05-10T08:15:39" personId="{C6B00167-8171-4EAE-BE10-10F23AAE513F}" parentId="{937CDB9E-010A-4FFE-B4F7-E17ABA52ABCB}">
+  <threadedComment id="{835d5689-51d0-4eea-840d-c3e1837e948a}" ref="D1" dT="2024-05-10T08:15:39" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{AF211197-D4F7-417A-9A48-26EA8B2BEAE5}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{B4B54A73-CF70-4998-9DCB-E244B33B25E0}" ref="C1" dT="2024-05-10T07:54:02" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -858,21 +903,21 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -884,23 +929,23 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="4" t="str">
+      <c r="G4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="5" t="str">
+      <c r="I4" s="4" t="str">
         <v>一个人类，无法看清性别，个子高大，身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
       <c r="J4" s="3" t="str">
@@ -1283,21 +1328,21 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1730,26 +1775,26 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>8200</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="3" t="str">
@@ -1808,7 +1853,7 @@
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -1855,7 +1900,7 @@
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -1870,7 +1915,7 @@
       <c r="I6" s="2" t="str">
         <v>/budding_world/sys_templates/gpt_agent_template.py</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" s="4" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -1901,7 +1946,7 @@
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -1949,7 +1994,7 @@
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -1983,7 +2028,7 @@
       <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">

--- a/budding_world/settings_editor/budding_world.xlsx
+++ b/budding_world/settings_editor/budding_world.xlsx
@@ -33,42 +33,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E40AC0AA-0A97-4011-80E0-1FE4E8C148D7}</author>
-    <author>tc={71763E18-8780-47D0-88CC-F0A8204AAE18}</author>
-    <author>tc={BB50936F-50AE-4523-8A44-20B80C9E6037}</author>
-    <author>tc={79E39EBF-AC53-4C9E-8343-767DAC50224D}</author>
-    <author>tc={287C5691-A5B3-441F-A843-7E1E76AD6A0C}</author>
-    <author>tc={5355B0CF-9299-455B-8E2D-9B9FB0DD0404}</author>
+    <author>tc={AB1B4CFB-F4C7-4F7C-908C-8937D08F14FB}</author>
+    <author>tc={2A076222-1739-4A5C-97DC-40DE9C55F04D}</author>
+    <author>tc={9E7F8612-B196-4288-869A-03A62393D538}</author>
+    <author>tc={76E63402-DEF4-4EED-A2D1-EE6AF2232E93}</author>
+    <author>tc={39A8395D-714A-47B8-A2BA-37ED64D7C26C}</author>
+    <author>tc={86BF5EFE-4C14-4353-B433-665DC71F86EF}</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{E40AC0AA-0A97-4011-80E0-1FE4E8C148D7}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{AB1B4CFB-F4C7-4F7C-908C-8937D08F14FB}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{71763E18-8780-47D0-88CC-F0A8204AAE18}">
+    <comment ref="G6" authorId="1" shapeId="0" xr:uid="{2A076222-1739-4A5C-97DC-40DE9C55F04D}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{9E7F8612-B196-4288-869A-03A62393D538}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{BB50936F-50AE-4523-8A44-20B80C9E6037}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="3" shapeId="0" xr:uid="{79E39EBF-AC53-4C9E-8343-767DAC50224D}">
+    <comment ref="G9" authorId="3" shapeId="0" xr:uid="{76E63402-DEF4-4EED-A2D1-EE6AF2232E93}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{287C5691-A5B3-441F-A843-7E1E76AD6A0C}">
+    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{39A8395D-714A-47B8-A2BA-37ED64D7C26C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="G6" authorId="5" shapeId="0" xr:uid="{5355B0CF-9299-455B-8E2D-9B9FB0DD0404}">
+    <comment ref="I1" authorId="5" shapeId="0" xr:uid="{86BF5EFE-4C14-4353-B433-665DC71F86EF}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</t>
       </text>
     </comment>
   </commentList>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={14B4C9AA-789B-4874-9254-ED8A5AFBC6C4}</author>
+    <author>tc={69C38B8F-98DC-48C3-ABF1-BA3BC97D7870}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{14B4C9AA-789B-4874-9254-ED8A5AFBC6C4}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{69C38B8F-98DC-48C3-ABF1-BA3BC97D7870}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,24 +93,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={7FD6BD4C-90AE-46E9-B645-21E14571F24D}</author>
-    <author>tc={7095D64B-E914-4126-AA93-46F5CBDD646B}</author>
-    <author>tc={1861AD34-FE0C-420D-A296-55ABF0DEA176}</author>
+    <author>tc={8358968D-9243-442B-8A5A-18127331F971}</author>
+    <author>tc={180524B6-42F0-4135-B84B-69095DB5E3FD}</author>
+    <author>tc={AC68FD5F-0E5D-4B8A-B373-9AF492FFACE2}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{7FD6BD4C-90AE-46E9-B645-21E14571F24D}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8358968D-9243-442B-8A5A-18127331F971}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{7095D64B-E914-4126-AA93-46F5CBDD646B}">
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{180524B6-42F0-4135-B84B-69095DB5E3FD}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{1861AD34-FE0C-420D-A296-55ABF0DEA176}">
+    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{AC68FD5F-0E5D-4B8A-B373-9AF492FFACE2}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
   </commentList>
@@ -120,22 +120,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={AF211197-D4F7-417A-9A48-26EA8B2BEAE5}</author>
-    <author>tc={B4B54A73-CF70-4998-9DCB-E244B33B25E0}</author>
+    <author>tc={18F239AB-61B4-4F78-BCFC-7A1FBDCB371E}</author>
+    <author>tc={27531606-B7C4-42A2-A6E7-0CBF10CCC271}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AF211197-D4F7-417A-9A48-26EA8B2BEAE5}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{18F239AB-61B4-4F78-BCFC-7A1FBDCB371E}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{27531606-B7C4-42A2-A6E7-0CBF10CCC271}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{B4B54A73-CF70-4998-9DCB-E244B33B25E0}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -348,8 +348,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{6D287E6D-B016-4314-9F8E-7E0CA5151AB0}" userId="S::::20650093-039b-4953-887b-374f17798800" providerId="AD"/>
-  <person displayName="杨行" id="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" userId="S::::2308b51b-c0b1-451b-8e02-a015458b76ba" providerId="AD"/>
+  <person displayName="侯清辰" id="{CFBC6EC7-E6A4-4D34-98D9-6D0115A0A34F}" userId="S::::6615ddfd-37de-40a0-ba86-297589639d0f" providerId="AD"/>
+  <person displayName="杨行" id="{5CC07739-27B3-4C9E-AB0C-95F2415F8629}" userId="S::::7ecf112b-55c4-46a8-968b-272d28985bba" providerId="AD"/>
 </personList>
 </file>
 
@@ -650,30 +650,30 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{E40AC0AA-0A97-4011-80E0-1FE4E8C148D7}" ref="I1" dT="2024-05-10T07:08:22" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  <threadedComment id="{AB1B4CFB-F4C7-4F7C-908C-8937D08F14FB}" ref="J1" dT="2024-05-31T03:31:01" personId="{5CC07739-27B3-4C9E-AB0C-95F2415F8629}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{71763E18-8780-47D0-88CC-F0A8204AAE18}" ref="A4" dT="2024-05-28T04:59:59" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
+  <threadedComment id="{2A076222-1739-4A5C-97DC-40DE9C55F04D}" ref="G6" dT="2024-06-14T02:50:34" personId="{5CC07739-27B3-4C9E-AB0C-95F2415F8629}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{9E7F8612-B196-4288-869A-03A62393D538}" ref="A4" dT="2024-05-28T04:59:59" personId="{5CC07739-27B3-4C9E-AB0C-95F2415F8629}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{BB50936F-50AE-4523-8A44-20B80C9E6037}" ref="J1" dT="2024-05-31T03:31:01" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{79E39EBF-AC53-4C9E-8343-767DAC50224D}" ref="G9" dT="2024-06-14T02:51:06" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
+  <threadedComment id="{76E63402-DEF4-4EED-A2D1-EE6AF2232E93}" ref="G9" dT="2024-06-14T02:51:06" personId="{5CC07739-27B3-4C9E-AB0C-95F2415F8629}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{287C5691-A5B3-441F-A843-7E1E76AD6A0C}" ref="C2" dT="2024-06-14T02:49:51" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
+  <threadedComment id="{39A8395D-714A-47B8-A2BA-37ED64D7C26C}" ref="C2" dT="2024-06-14T02:49:51" personId="{5CC07739-27B3-4C9E-AB0C-95F2415F8629}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{5355B0CF-9299-455B-8E2D-9B9FB0DD0404}" ref="G6" dT="2024-06-14T02:50:34" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  <threadedComment id="{86BF5EFE-4C14-4353-B433-665DC71F86EF}" ref="I1" dT="2024-05-10T07:08:22" personId="{5CC07739-27B3-4C9E-AB0C-95F2415F8629}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{14B4C9AA-789B-4874-9254-ED8A5AFBC6C4}" ref="D1" dT="2024-06-09T13:30:31" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
+  <threadedComment id="{69C38B8F-98DC-48C3-ABF1-BA3BC97D7870}" ref="D1" dT="2024-06-09T13:30:31" personId="{5CC07739-27B3-4C9E-AB0C-95F2415F8629}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -681,32 +681,32 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{7FD6BD4C-90AE-46E9-B645-21E14571F24D}" ref="C5" dT="2024-06-14T02:48:45" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
-    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  <threadedComment id="{8358968D-9243-442B-8A5A-18127331F971}" ref="E1" dT="2024-06-09T13:30:45" personId="{5CC07739-27B3-4C9E-AB0C-95F2415F8629}" parentId="{}">
+    <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{7095D64B-E914-4126-AA93-46F5CBDD646B}" ref="C6" dT="2024-06-14T02:49:20" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
+  <threadedComment id="{180524B6-42F0-4135-B84B-69095DB5E3FD}" ref="C6" dT="2024-06-14T02:49:20" personId="{5CC07739-27B3-4C9E-AB0C-95F2415F8629}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{1861AD34-FE0C-420D-A296-55ABF0DEA176}" ref="E1" dT="2024-06-09T13:30:45" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
-    <text>@宾晓华 这里</text>
+  <threadedComment id="{AC68FD5F-0E5D-4B8A-B373-9AF492FFACE2}" ref="C5" dT="2024-06-14T02:48:45" personId="{5CC07739-27B3-4C9E-AB0C-95F2415F8629}" parentId="{}">
+    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{AF211197-D4F7-417A-9A48-26EA8B2BEAE5}" ref="D1" dT="2024-05-10T08:11:19" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
+  <threadedComment id="{18F239AB-61B4-4F78-BCFC-7A1FBDCB371E}" ref="C1" dT="2024-05-10T07:54:02" personId="{5CC07739-27B3-4C9E-AB0C-95F2415F8629}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{27531606-B7C4-42A2-A6E7-0CBF10CCC271}" ref="D1" dT="2024-05-10T08:11:19" personId="{5CC07739-27B3-4C9E-AB0C-95F2415F8629}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{835d5689-51d0-4eea-840d-c3e1837e948a}" ref="D1" dT="2024-05-10T08:15:39" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{AF211197-D4F7-417A-9A48-26EA8B2BEAE5}">
+  <threadedComment id="{e205cb43-8107-4181-9ee4-7fe42f92935f}" ref="D1" dT="2024-05-10T08:15:39" personId="{5CC07739-27B3-4C9E-AB0C-95F2415F8629}" parentId="{27531606-B7C4-42A2-A6E7-0CBF10CCC271}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{B4B54A73-CF70-4998-9DCB-E244B33B25E0}" ref="C1" dT="2024-05-10T07:54:02" personId="{24B25C3B-1448-4C0C-AAB7-A124799A1C53}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
